--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1145">
   <si>
     <t>name</t>
   </si>
@@ -1307,6 +1307,2148 @@
   </si>
   <si>
     <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Attended Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1355,2592 +3497,2592 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>616</v>
       </c>
       <c r="C1" t="s">
-        <v>363</v>
+        <v>800</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>617</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>801</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>618</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>619</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>620</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>621</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>622</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>623</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>624</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>626</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>627</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>443</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>628</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>802</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>629</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>803</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>630</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>446</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>631</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>632</v>
       </c>
       <c r="C17" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>633</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>449</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="C19" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>635</v>
       </c>
       <c r="C20" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>636</v>
       </c>
       <c r="C21" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>452</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>637</v>
       </c>
       <c r="C22" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>453</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>638</v>
       </c>
       <c r="C23" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>454</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>639</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>640</v>
       </c>
       <c r="C25" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>641</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>457</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>642</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>643</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>644</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>460</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>645</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>461</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>646</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>462</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>647</v>
       </c>
       <c r="C32" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>463</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>648</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>649</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>650</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>466</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>651</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>467</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>652</v>
       </c>
       <c r="C37" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D37" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>653</v>
       </c>
       <c r="C38" t="s">
-        <v>365</v>
+        <v>804</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>469</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>654</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>805</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>655</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>805</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>656</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
+        <v>806</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>472</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>657</v>
       </c>
       <c r="C42" t="s">
-        <v>366</v>
+        <v>807</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>473</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>658</v>
       </c>
       <c r="C43" t="s">
-        <v>366</v>
+        <v>807</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>659</v>
       </c>
       <c r="C44" t="s">
-        <v>365</v>
+        <v>808</v>
       </c>
       <c r="D44" t="s">
-        <v>371</v>
+        <v>879</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>660</v>
       </c>
       <c r="C45" t="s">
-        <v>365</v>
+        <v>808</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>661</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>808</v>
       </c>
       <c r="D46" t="s">
-        <v>373</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>477</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>662</v>
       </c>
       <c r="C47" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>882</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>663</v>
       </c>
       <c r="C48" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>883</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>479</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>664</v>
       </c>
       <c r="C49" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>480</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>665</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>885</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>666</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>809</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>667</v>
       </c>
       <c r="C52" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>668</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>484</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>669</v>
       </c>
       <c r="C54" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>485</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>670</v>
       </c>
       <c r="C55" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D55" t="s">
-        <v>375</v>
+        <v>888</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D56" t="s">
-        <v>375</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>487</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>672</v>
       </c>
       <c r="C57" t="s">
-        <v>365</v>
+        <v>810</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>889</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>488</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>673</v>
       </c>
       <c r="C58" t="s">
-        <v>366</v>
+        <v>811</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>489</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>674</v>
       </c>
       <c r="C59" t="s">
-        <v>365</v>
+        <v>812</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>891</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>490</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>675</v>
       </c>
       <c r="C60" t="s">
-        <v>365</v>
+        <v>812</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>892</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>676</v>
       </c>
       <c r="C61" t="s">
-        <v>367</v>
+        <v>813</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>893</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>677</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>814</v>
       </c>
       <c r="D62" t="s">
-        <v>377</v>
+        <v>894</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>678</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>815</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>679</v>
       </c>
       <c r="C64" t="s">
-        <v>365</v>
+        <v>816</v>
       </c>
       <c r="D64" t="s">
-        <v>373</v>
+        <v>896</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>680</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>816</v>
       </c>
       <c r="D65" t="s">
-        <v>373</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>496</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>681</v>
       </c>
       <c r="C66" t="s">
-        <v>366</v>
+        <v>817</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>682</v>
       </c>
       <c r="C67" t="s">
-        <v>365</v>
+        <v>818</v>
       </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>898</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s">
-        <v>252</v>
+        <v>683</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>818</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>898</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>684</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>819</v>
       </c>
       <c r="D69" t="s">
-        <v>256</v>
+        <v>899</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>685</v>
       </c>
       <c r="C70" t="s">
-        <v>366</v>
+        <v>819</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>686</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>820</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>687</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
+        <v>820</v>
       </c>
       <c r="D72" t="s">
-        <v>256</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>688</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>820</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>504</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>688</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>820</v>
       </c>
       <c r="D74" t="s">
-        <v>378</v>
+        <v>904</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>689</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>821</v>
       </c>
       <c r="D75" t="s">
-        <v>379</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>690</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>822</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>906</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>691</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>822</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>907</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>508</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>692</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>822</v>
       </c>
       <c r="D78" t="s">
-        <v>373</v>
+        <v>907</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>693</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>823</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>908</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>694</v>
       </c>
       <c r="C80" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>695</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>910</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>696</v>
       </c>
       <c r="C82" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>911</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>697</v>
       </c>
       <c r="C83" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>912</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>698</v>
       </c>
       <c r="C84" t="s">
-        <v>366</v>
+        <v>824</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>913</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>699</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>825</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>914</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>700</v>
       </c>
       <c r="C86" t="s">
-        <v>368</v>
+        <v>825</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>915</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>701</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>826</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>916</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>702</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>827</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>917</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>519</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>703</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
+        <v>828</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>918</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>704</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>829</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>705</v>
       </c>
       <c r="C91" t="s">
-        <v>365</v>
+        <v>829</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>920</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>522</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>706</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>830</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>921</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>707</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>831</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>922</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>708</v>
       </c>
       <c r="C94" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>923</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>709</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>924</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>710</v>
       </c>
       <c r="C96" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>925</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>527</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>711</v>
       </c>
       <c r="C97" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>926</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>528</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>712</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>927</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>529</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>713</v>
       </c>
       <c r="C99" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>928</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>714</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>929</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>531</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>715</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>930</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>532</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>716</v>
       </c>
       <c r="C102" t="s">
-        <v>365</v>
+        <v>832</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>931</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>533</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>717</v>
       </c>
       <c r="C103" t="s">
-        <v>368</v>
+        <v>833</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>932</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>718</v>
       </c>
       <c r="C104" t="s">
-        <v>365</v>
+        <v>834</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>535</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>719</v>
       </c>
       <c r="C105" t="s">
-        <v>368</v>
+        <v>835</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>934</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>536</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>720</v>
       </c>
       <c r="C106" t="s">
-        <v>368</v>
+        <v>835</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>935</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>721</v>
       </c>
       <c r="C107" t="s">
-        <v>368</v>
+        <v>835</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>936</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>722</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>835</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>937</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>723</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>835</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>938</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>540</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>724</v>
       </c>
       <c r="C110" t="s">
-        <v>366</v>
+        <v>836</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>939</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>541</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>725</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>836</v>
       </c>
       <c r="D111" t="s">
-        <v>256</v>
+        <v>940</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>542</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>726</v>
       </c>
       <c r="C112" t="s">
-        <v>365</v>
+        <v>837</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>543</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>727</v>
       </c>
       <c r="C113" t="s">
-        <v>365</v>
+        <v>837</v>
       </c>
       <c r="D113" t="s">
-        <v>373</v>
+        <v>942</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>544</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>728</v>
       </c>
       <c r="C114" t="s">
-        <v>365</v>
+        <v>837</v>
       </c>
       <c r="D114" t="s">
-        <v>113</v>
+        <v>943</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>545</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>729</v>
       </c>
       <c r="C115" t="s">
-        <v>368</v>
+        <v>838</v>
       </c>
       <c r="D115" t="s">
-        <v>256</v>
+        <v>944</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>546</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>730</v>
       </c>
       <c r="C116" t="s">
-        <v>368</v>
+        <v>838</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
+        <v>945</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>547</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>731</v>
       </c>
       <c r="C117" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D117" t="s">
-        <v>256</v>
+        <v>946</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>548</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>732</v>
       </c>
       <c r="C118" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>947</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>733</v>
       </c>
       <c r="C119" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D119" t="s">
-        <v>256</v>
+        <v>948</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>550</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>734</v>
       </c>
       <c r="C120" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D120" t="s">
-        <v>256</v>
+        <v>949</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>551</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>735</v>
       </c>
       <c r="C121" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D121" t="s">
-        <v>256</v>
+        <v>950</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>552</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>736</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>951</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>553</v>
       </c>
       <c r="B123" t="s">
-        <v>304</v>
+        <v>737</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D123" t="s">
-        <v>373</v>
+        <v>952</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>554</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>738</v>
       </c>
       <c r="C124" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D124" t="s">
-        <v>256</v>
+        <v>953</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>555</v>
       </c>
       <c r="B125" t="s">
-        <v>306</v>
+        <v>739</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>954</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>556</v>
       </c>
       <c r="B126" t="s">
-        <v>307</v>
+        <v>740</v>
       </c>
       <c r="C126" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D126" t="s">
-        <v>256</v>
+        <v>955</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>557</v>
       </c>
       <c r="B127" t="s">
-        <v>308</v>
+        <v>741</v>
       </c>
       <c r="C127" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>956</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>558</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>742</v>
       </c>
       <c r="C128" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D128" t="s">
-        <v>256</v>
+        <v>957</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>559</v>
       </c>
       <c r="B129" t="s">
-        <v>310</v>
+        <v>743</v>
       </c>
       <c r="C129" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D129" t="s">
-        <v>128</v>
+        <v>958</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>560</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>744</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>959</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>561</v>
       </c>
       <c r="B131" t="s">
-        <v>312</v>
+        <v>745</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D131" t="s">
-        <v>130</v>
+        <v>960</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>562</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>746</v>
       </c>
       <c r="C132" t="s">
-        <v>365</v>
+        <v>839</v>
       </c>
       <c r="D132" t="s">
-        <v>373</v>
+        <v>961</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>563</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>747</v>
       </c>
       <c r="C133" t="s">
-        <v>366</v>
+        <v>840</v>
       </c>
       <c r="D133" t="s">
-        <v>256</v>
+        <v>962</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>564</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
+        <v>748</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>840</v>
       </c>
       <c r="D134" t="s">
-        <v>256</v>
+        <v>963</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>565</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>749</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>840</v>
       </c>
       <c r="D135" t="s">
-        <v>256</v>
+        <v>964</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>566</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>750</v>
       </c>
       <c r="C136" t="s">
-        <v>366</v>
+        <v>840</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>965</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>567</v>
       </c>
       <c r="B137" t="s">
-        <v>318</v>
+        <v>751</v>
       </c>
       <c r="C137" t="s">
-        <v>365</v>
+        <v>841</v>
       </c>
       <c r="D137" t="s">
-        <v>382</v>
+        <v>966</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="B138" t="s">
-        <v>319</v>
+        <v>752</v>
       </c>
       <c r="C138" t="s">
-        <v>365</v>
+        <v>841</v>
       </c>
       <c r="D138" t="s">
-        <v>256</v>
+        <v>967</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>569</v>
       </c>
       <c r="B139" t="s">
-        <v>320</v>
+        <v>753</v>
       </c>
       <c r="C139" t="s">
-        <v>365</v>
+        <v>841</v>
       </c>
       <c r="D139" t="s">
-        <v>256</v>
+        <v>968</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="B140" t="s">
-        <v>321</v>
+        <v>754</v>
       </c>
       <c r="C140" t="s">
-        <v>367</v>
+        <v>842</v>
       </c>
       <c r="D140" t="s">
-        <v>256</v>
+        <v>969</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>571</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>755</v>
       </c>
       <c r="C141" t="s">
-        <v>366</v>
+        <v>843</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>970</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>572</v>
       </c>
       <c r="B142" t="s">
-        <v>323</v>
+        <v>756</v>
       </c>
       <c r="C142" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D142" t="s">
-        <v>256</v>
+        <v>971</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>324</v>
+        <v>757</v>
       </c>
       <c r="C143" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D143" t="s">
-        <v>256</v>
+        <v>972</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>574</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>758</v>
       </c>
       <c r="C144" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>973</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>575</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>759</v>
       </c>
       <c r="C145" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D145" t="s">
-        <v>256</v>
+        <v>974</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>576</v>
       </c>
       <c r="B146" t="s">
-        <v>320</v>
+        <v>760</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D146" t="s">
-        <v>256</v>
+        <v>975</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>577</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>761</v>
       </c>
       <c r="C147" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D147" t="s">
-        <v>146</v>
+        <v>976</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>578</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>762</v>
       </c>
       <c r="C148" t="s">
-        <v>365</v>
+        <v>844</v>
       </c>
       <c r="D148" t="s">
-        <v>256</v>
+        <v>977</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>579</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>763</v>
       </c>
       <c r="C149" t="s">
-        <v>368</v>
+        <v>845</v>
       </c>
       <c r="D149" t="s">
-        <v>256</v>
+        <v>978</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>580</v>
       </c>
       <c r="B150" t="s">
-        <v>331</v>
+        <v>764</v>
       </c>
       <c r="C150" t="s">
-        <v>366</v>
+        <v>846</v>
       </c>
       <c r="D150" t="s">
-        <v>256</v>
+        <v>979</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>581</v>
       </c>
       <c r="B151" t="s">
-        <v>332</v>
+        <v>765</v>
       </c>
       <c r="C151" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D151" t="s">
-        <v>383</v>
+        <v>980</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>582</v>
       </c>
       <c r="B152" t="s">
-        <v>333</v>
+        <v>766</v>
       </c>
       <c r="C152" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D152" t="s">
-        <v>256</v>
+        <v>981</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>583</v>
       </c>
       <c r="B153" t="s">
-        <v>334</v>
+        <v>767</v>
       </c>
       <c r="C153" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D153" t="s">
-        <v>154</v>
+        <v>982</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>584</v>
       </c>
       <c r="B154" t="s">
-        <v>335</v>
+        <v>768</v>
       </c>
       <c r="C154" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D154" t="s">
-        <v>256</v>
+        <v>983</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>585</v>
       </c>
       <c r="B155" t="s">
-        <v>336</v>
+        <v>769</v>
       </c>
       <c r="C155" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D155" t="s">
-        <v>256</v>
+        <v>984</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>586</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>770</v>
       </c>
       <c r="C156" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D156" t="s">
-        <v>256</v>
+        <v>985</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>587</v>
       </c>
       <c r="B157" t="s">
-        <v>338</v>
+        <v>771</v>
       </c>
       <c r="C157" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D157" t="s">
-        <v>256</v>
+        <v>986</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>588</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>772</v>
       </c>
       <c r="C158" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D158" t="s">
-        <v>256</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>589</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>773</v>
       </c>
       <c r="C159" t="s">
-        <v>365</v>
+        <v>847</v>
       </c>
       <c r="D159" t="s">
-        <v>256</v>
+        <v>988</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>590</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>774</v>
       </c>
       <c r="C160" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>989</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>591</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>775</v>
       </c>
       <c r="C161" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D161" t="s">
-        <v>384</v>
+        <v>990</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>592</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>776</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>991</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>593</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>777</v>
       </c>
       <c r="C163" t="s">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D163" t="s">
-        <v>256</v>
+        <v>992</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>594</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>778</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>849</v>
       </c>
       <c r="D164" t="s">
-        <v>256</v>
+        <v>993</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>595</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>779</v>
       </c>
       <c r="C165" t="s">
-        <v>368</v>
+        <v>850</v>
       </c>
       <c r="D165" t="s">
-        <v>256</v>
+        <v>994</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>596</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>780</v>
       </c>
       <c r="C166" t="s">
-        <v>368</v>
+        <v>850</v>
       </c>
       <c r="D166" t="s">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>597</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>781</v>
       </c>
       <c r="C167" t="s">
-        <v>368</v>
+        <v>850</v>
       </c>
       <c r="D167" t="s">
-        <v>256</v>
+        <v>996</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>598</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>782</v>
       </c>
       <c r="C168" t="s">
-        <v>367</v>
+        <v>851</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>997</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>599</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>783</v>
       </c>
       <c r="C169" t="s">
-        <v>368</v>
+        <v>852</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>998</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>600</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>784</v>
       </c>
       <c r="C170" t="s">
-        <v>368</v>
+        <v>852</v>
       </c>
       <c r="D170" t="s">
-        <v>256</v>
+        <v>999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>601</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>785</v>
       </c>
       <c r="C171" t="s">
-        <v>368</v>
+        <v>852</v>
       </c>
       <c r="D171" t="s">
-        <v>256</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>602</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>786</v>
       </c>
       <c r="C172" t="s">
-        <v>368</v>
+        <v>852</v>
       </c>
       <c r="D172" t="s">
-        <v>256</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>603</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>787</v>
       </c>
       <c r="C173" t="s">
-        <v>367</v>
+        <v>853</v>
       </c>
       <c r="D173" t="s">
-        <v>256</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>604</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>788</v>
       </c>
       <c r="C174" t="s">
-        <v>366</v>
+        <v>854</v>
       </c>
       <c r="D174" t="s">
-        <v>256</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>605</v>
       </c>
       <c r="B175" t="s">
-        <v>355</v>
+        <v>789</v>
       </c>
       <c r="C175" t="s">
-        <v>366</v>
+        <v>854</v>
       </c>
       <c r="D175" t="s">
-        <v>256</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>606</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>790</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>854</v>
       </c>
       <c r="D176" t="s">
-        <v>256</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>607</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>791</v>
       </c>
       <c r="C177" t="s">
-        <v>368</v>
+        <v>855</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>608</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
+        <v>792</v>
       </c>
       <c r="C178" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D178" t="s">
-        <v>179</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>609</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>793</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D179" t="s">
-        <v>375</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="B180" t="s">
-        <v>359</v>
+        <v>794</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D180" t="s">
-        <v>375</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>611</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>795</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D181" t="s">
-        <v>375</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>612</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>796</v>
       </c>
       <c r="C182" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>613</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>797</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D183" t="s">
-        <v>256</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>150</v>
+        <v>614</v>
       </c>
       <c r="B184" t="s">
-        <v>429</v>
+        <v>798</v>
       </c>
       <c r="C184" t="s">
-        <v>368</v>
+        <v>857</v>
       </c>
       <c r="D184" t="s">
-        <v>256</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>149</v>
+        <v>615</v>
       </c>
       <c r="B185" t="s">
-        <v>430</v>
+        <v>799</v>
       </c>
       <c r="C185" t="s">
-        <v>365</v>
+        <v>858</v>
       </c>
       <c r="D185" t="s">
-        <v>256</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -3954,629 +6096,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>1013</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>1033</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>1014</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>1034</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>1014</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>1035</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>1015</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>1036</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>1015</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>1037</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>1015</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>1038</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>1016</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>1039</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>1016</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>1040</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>1016</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>1041</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>1016</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>1042</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>382</v>
+        <v>1017</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>1043</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>1017</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>1044</v>
       </c>
       <c r="C12" t="s">
-        <v>401</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>1017</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>1045</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>1018</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>1046</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>1018</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>1047</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>1018</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>1048</v>
       </c>
       <c r="C16" t="s">
-        <v>403</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>1049</v>
       </c>
       <c r="C17" t="s">
-        <v>404</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>1050</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>1051</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>391</v>
+        <v>1052</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>392</v>
+        <v>1053</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>1054</v>
       </c>
       <c r="C22" t="s">
-        <v>409</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>388</v>
+        <v>1055</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>389</v>
+        <v>1056</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>1057</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>1021</v>
       </c>
       <c r="B26" t="s">
-        <v>389</v>
+        <v>1058</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>1022</v>
       </c>
       <c r="B27" t="s">
-        <v>389</v>
+        <v>1058</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>1022</v>
       </c>
       <c r="B28" t="s">
-        <v>390</v>
+        <v>1059</v>
       </c>
       <c r="C28" t="s">
-        <v>411</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>1022</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>1060</v>
       </c>
       <c r="C29" t="s">
-        <v>412</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>1022</v>
       </c>
       <c r="B30" t="s">
-        <v>392</v>
+        <v>1061</v>
       </c>
       <c r="C30" t="s">
-        <v>413</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>381</v>
+        <v>1022</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>1062</v>
       </c>
       <c r="C31" t="s">
-        <v>414</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>1023</v>
       </c>
       <c r="B32" t="s">
-        <v>388</v>
+        <v>1063</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>1023</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>1064</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>380</v>
+        <v>1024</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>1064</v>
       </c>
       <c r="C34" t="s">
-        <v>395</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>380</v>
+        <v>1024</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>1065</v>
       </c>
       <c r="C35" t="s">
-        <v>416</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>1024</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>1066</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>1025</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>1067</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>1025</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>1068</v>
       </c>
       <c r="C38" t="s">
-        <v>395</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>1026</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>1069</v>
       </c>
       <c r="C39" t="s">
-        <v>418</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>1026</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>1070</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>388</v>
+        <v>1071</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>1027</v>
       </c>
       <c r="B42" t="s">
-        <v>389</v>
+        <v>1072</v>
       </c>
       <c r="C42" t="s">
-        <v>395</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>1028</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>1073</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>1028</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
+        <v>1074</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>1029</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>1075</v>
       </c>
       <c r="C45" t="s">
-        <v>423</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>1029</v>
       </c>
       <c r="B46" t="s">
-        <v>389</v>
+        <v>1076</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>1029</v>
       </c>
       <c r="B47" t="s">
-        <v>390</v>
+        <v>1077</v>
       </c>
       <c r="C47" t="s">
-        <v>425</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>1030</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>1078</v>
       </c>
       <c r="C48" t="s">
-        <v>426</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>1030</v>
       </c>
       <c r="B49" t="s">
-        <v>389</v>
+        <v>1079</v>
       </c>
       <c r="C49" t="s">
-        <v>427</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>1031</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>1080</v>
       </c>
       <c r="C50" t="s">
-        <v>428</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>374</v>
+        <v>1031</v>
       </c>
       <c r="B51" t="s">
-        <v>389</v>
+        <v>1081</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>1031</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>1082</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>1031</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>1083</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>374</v>
+        <v>1031</v>
       </c>
       <c r="B54" t="s">
-        <v>392</v>
+        <v>1084</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>370</v>
+        <v>1032</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>1085</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>370</v>
+        <v>1032</v>
       </c>
       <c r="B56" t="s">
-        <v>389</v>
+        <v>1086</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>1032</v>
       </c>
       <c r="B57" t="s">
-        <v>390</v>
+        <v>1087</v>
       </c>
       <c r="C57" t="s">
-        <v>394</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="3275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="4688">
   <si>
     <t>name</t>
   </si>
@@ -9299,6 +9299,4245 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
   <si>
     <t/>
@@ -9882,2583 +14121,2555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D182"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2564</v>
+        <v>3980</v>
       </c>
       <c r="B1" t="s">
-        <v>2748</v>
+        <v>4162</v>
       </c>
       <c r="C1" t="s">
-        <v>2931</v>
+        <v>4343</v>
       </c>
       <c r="D1" t="s">
-        <v>2990</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2565</v>
+        <v>3981</v>
       </c>
       <c r="B2" t="s">
-        <v>2749</v>
+        <v>4163</v>
       </c>
       <c r="C2" t="s">
-        <v>2932</v>
+        <v>4344</v>
       </c>
       <c r="D2" t="s">
-        <v>2991</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2566</v>
+        <v>3982</v>
       </c>
       <c r="B3" t="s">
-        <v>2750</v>
+        <v>4164</v>
       </c>
       <c r="C3" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D3" t="s">
-        <v>2992</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2567</v>
+        <v>3983</v>
       </c>
       <c r="B4" t="s">
-        <v>2751</v>
+        <v>4165</v>
       </c>
       <c r="C4" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D4" t="s">
-        <v>2993</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2568</v>
+        <v>3984</v>
       </c>
       <c r="B5" t="s">
-        <v>2752</v>
+        <v>4166</v>
       </c>
       <c r="C5" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D5" t="s">
-        <v>2994</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2569</v>
+        <v>3985</v>
       </c>
       <c r="B6" t="s">
-        <v>2753</v>
+        <v>4167</v>
       </c>
       <c r="C6" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D6" t="s">
-        <v>2995</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2570</v>
+        <v>3986</v>
       </c>
       <c r="B7" t="s">
-        <v>2754</v>
+        <v>4168</v>
       </c>
       <c r="C7" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D7" t="s">
-        <v>2996</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>2571</v>
+        <v>3987</v>
       </c>
       <c r="B8" t="s">
-        <v>2755</v>
+        <v>4169</v>
       </c>
       <c r="C8" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D8" t="s">
-        <v>2997</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2572</v>
+        <v>3988</v>
       </c>
       <c r="B9" t="s">
-        <v>2756</v>
+        <v>4170</v>
       </c>
       <c r="C9" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D9" t="s">
-        <v>2998</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>2573</v>
+        <v>3989</v>
       </c>
       <c r="B10" t="s">
-        <v>2757</v>
+        <v>4171</v>
       </c>
       <c r="C10" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D10" t="s">
-        <v>2999</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>2574</v>
+        <v>3990</v>
       </c>
       <c r="B11" t="s">
-        <v>2758</v>
+        <v>4172</v>
       </c>
       <c r="C11" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D11" t="s">
-        <v>3000</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>2575</v>
+        <v>3991</v>
       </c>
       <c r="B12" t="s">
-        <v>2759</v>
+        <v>4173</v>
       </c>
       <c r="C12" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D12" t="s">
-        <v>3001</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2576</v>
+        <v>3992</v>
       </c>
       <c r="B13" t="s">
-        <v>2760</v>
+        <v>4174</v>
       </c>
       <c r="C13" t="s">
-        <v>2933</v>
+        <v>4345</v>
       </c>
       <c r="D13" t="s">
-        <v>3002</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2577</v>
+        <v>3993</v>
       </c>
       <c r="B14" t="s">
-        <v>2761</v>
+        <v>4175</v>
       </c>
       <c r="C14" t="s">
-        <v>2934</v>
+        <v>4346</v>
       </c>
       <c r="D14" t="s">
-        <v>3003</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>2578</v>
+        <v>3994</v>
       </c>
       <c r="B15" t="s">
-        <v>2762</v>
+        <v>4176</v>
       </c>
       <c r="C15" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D15" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2579</v>
+        <v>3995</v>
       </c>
       <c r="B16" t="s">
-        <v>2763</v>
+        <v>4177</v>
       </c>
       <c r="C16" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D16" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>2580</v>
+        <v>3996</v>
       </c>
       <c r="B17" t="s">
-        <v>2764</v>
+        <v>4178</v>
       </c>
       <c r="C17" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D17" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>2581</v>
+        <v>3997</v>
       </c>
       <c r="B18" t="s">
-        <v>2765</v>
+        <v>4179</v>
       </c>
       <c r="C18" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D18" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2582</v>
+        <v>3998</v>
       </c>
       <c r="B19" t="s">
-        <v>2766</v>
+        <v>4180</v>
       </c>
       <c r="C19" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D19" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2583</v>
+        <v>3999</v>
       </c>
       <c r="B20" t="s">
-        <v>2767</v>
+        <v>4181</v>
       </c>
       <c r="C20" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D20" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>2584</v>
+        <v>4000</v>
       </c>
       <c r="B21" t="s">
-        <v>2768</v>
+        <v>4182</v>
       </c>
       <c r="C21" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D21" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2585</v>
+        <v>4001</v>
       </c>
       <c r="B22" t="s">
-        <v>2769</v>
+        <v>4183</v>
       </c>
       <c r="C22" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D22" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2586</v>
+        <v>4002</v>
       </c>
       <c r="B23" t="s">
-        <v>2770</v>
+        <v>4184</v>
       </c>
       <c r="C23" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D23" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2587</v>
+        <v>4003</v>
       </c>
       <c r="B24" t="s">
-        <v>2771</v>
+        <v>4185</v>
       </c>
       <c r="C24" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D24" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2588</v>
+        <v>4004</v>
       </c>
       <c r="B25" t="s">
-        <v>2772</v>
+        <v>4186</v>
       </c>
       <c r="C25" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D25" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2589</v>
+        <v>4005</v>
       </c>
       <c r="B26" t="s">
-        <v>2773</v>
+        <v>4187</v>
       </c>
       <c r="C26" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D26" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>2590</v>
+        <v>4006</v>
       </c>
       <c r="B27" t="s">
-        <v>2774</v>
+        <v>4188</v>
       </c>
       <c r="C27" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D27" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2591</v>
+        <v>4007</v>
       </c>
       <c r="B28" t="s">
-        <v>2775</v>
+        <v>4189</v>
       </c>
       <c r="C28" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D28" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2592</v>
+        <v>4008</v>
       </c>
       <c r="B29" t="s">
-        <v>2776</v>
+        <v>4190</v>
       </c>
       <c r="C29" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D29" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>2593</v>
+        <v>4009</v>
       </c>
       <c r="B30" t="s">
-        <v>2777</v>
+        <v>4191</v>
       </c>
       <c r="C30" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D30" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2594</v>
+        <v>4010</v>
       </c>
       <c r="B31" t="s">
-        <v>2778</v>
+        <v>4192</v>
       </c>
       <c r="C31" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D31" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2595</v>
+        <v>4011</v>
       </c>
       <c r="B32" t="s">
-        <v>2779</v>
+        <v>4193</v>
       </c>
       <c r="C32" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D32" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>2596</v>
+        <v>4012</v>
       </c>
       <c r="B33" t="s">
-        <v>2780</v>
+        <v>4194</v>
       </c>
       <c r="C33" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D33" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>2597</v>
+        <v>4013</v>
       </c>
       <c r="B34" t="s">
-        <v>2781</v>
+        <v>4195</v>
       </c>
       <c r="C34" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D34" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2598</v>
+        <v>4014</v>
       </c>
       <c r="B35" t="s">
-        <v>2782</v>
+        <v>4196</v>
       </c>
       <c r="C35" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D35" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2599</v>
+        <v>4015</v>
       </c>
       <c r="B36" t="s">
-        <v>2783</v>
+        <v>4197</v>
       </c>
       <c r="C36" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D36" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>2600</v>
+        <v>4016</v>
       </c>
       <c r="B37" t="s">
-        <v>2784</v>
+        <v>4198</v>
       </c>
       <c r="C37" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D37" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>2601</v>
+        <v>4017</v>
       </c>
       <c r="B38" t="s">
-        <v>2785</v>
+        <v>4199</v>
       </c>
       <c r="C38" t="s">
-        <v>2935</v>
+        <v>4347</v>
       </c>
       <c r="D38" t="s">
-        <v>3004</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>2602</v>
+        <v>4018</v>
       </c>
       <c r="B39" t="s">
-        <v>2786</v>
+        <v>4200</v>
       </c>
       <c r="C39" t="s">
-        <v>2936</v>
+        <v>4348</v>
       </c>
       <c r="D39" t="s">
-        <v>3005</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2603</v>
+        <v>4019</v>
       </c>
       <c r="B40" t="s">
-        <v>2787</v>
+        <v>4201</v>
       </c>
       <c r="C40" t="s">
-        <v>2936</v>
+        <v>4348</v>
       </c>
       <c r="D40" t="s">
-        <v>3006</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2604</v>
+        <v>4020</v>
       </c>
       <c r="B41" t="s">
-        <v>2788</v>
+        <v>4202</v>
       </c>
       <c r="C41" t="s">
-        <v>2937</v>
+        <v>4349</v>
       </c>
       <c r="D41" t="s">
-        <v>3007</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>2605</v>
+        <v>4021</v>
       </c>
       <c r="B42" t="s">
-        <v>2789</v>
+        <v>4203</v>
       </c>
       <c r="C42" t="s">
-        <v>2938</v>
+        <v>4350</v>
       </c>
       <c r="D42" t="s">
-        <v>3008</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>2606</v>
+        <v>4022</v>
       </c>
       <c r="B43" t="s">
-        <v>2790</v>
+        <v>4204</v>
       </c>
       <c r="C43" t="s">
-        <v>2938</v>
+        <v>4350</v>
       </c>
       <c r="D43" t="s">
-        <v>3009</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>2607</v>
+        <v>4023</v>
       </c>
       <c r="B44" t="s">
-        <v>2791</v>
+        <v>4205</v>
       </c>
       <c r="C44" t="s">
-        <v>2939</v>
+        <v>4351</v>
       </c>
       <c r="D44" t="s">
-        <v>3010</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>2608</v>
+        <v>4024</v>
       </c>
       <c r="B45" t="s">
-        <v>2792</v>
+        <v>4206</v>
       </c>
       <c r="C45" t="s">
-        <v>2939</v>
+        <v>4351</v>
       </c>
       <c r="D45" t="s">
-        <v>3011</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>2609</v>
+        <v>4025</v>
       </c>
       <c r="B46" t="s">
-        <v>2793</v>
+        <v>4207</v>
       </c>
       <c r="C46" t="s">
-        <v>2939</v>
+        <v>4351</v>
       </c>
       <c r="D46" t="s">
-        <v>3012</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>2610</v>
+        <v>4026</v>
       </c>
       <c r="B47" t="s">
-        <v>2794</v>
+        <v>4208</v>
       </c>
       <c r="C47" t="s">
-        <v>2940</v>
+        <v>4352</v>
       </c>
       <c r="D47" t="s">
-        <v>3013</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>2611</v>
+        <v>4027</v>
       </c>
       <c r="B48" t="s">
-        <v>2795</v>
+        <v>4209</v>
       </c>
       <c r="C48" t="s">
-        <v>2940</v>
+        <v>4352</v>
       </c>
       <c r="D48" t="s">
-        <v>3014</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>2612</v>
+        <v>4028</v>
       </c>
       <c r="B49" t="s">
-        <v>2796</v>
+        <v>4210</v>
       </c>
       <c r="C49" t="s">
-        <v>2940</v>
+        <v>4352</v>
       </c>
       <c r="D49" t="s">
-        <v>3015</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>2613</v>
+        <v>4029</v>
       </c>
       <c r="B50" t="s">
-        <v>2797</v>
+        <v>4211</v>
       </c>
       <c r="C50" t="s">
-        <v>2940</v>
+        <v>4352</v>
       </c>
       <c r="D50" t="s">
-        <v>3016</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>2614</v>
+        <v>4030</v>
       </c>
       <c r="B51" t="s">
-        <v>2798</v>
+        <v>4212</v>
       </c>
       <c r="C51" t="s">
-        <v>2940</v>
+        <v>4352</v>
       </c>
       <c r="D51" t="s">
-        <v>3017</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>2615</v>
+        <v>4031</v>
       </c>
       <c r="B52" t="s">
-        <v>2799</v>
+        <v>4213</v>
       </c>
       <c r="C52" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D52" t="s">
-        <v>3018</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>2616</v>
+        <v>4032</v>
       </c>
       <c r="B53" t="s">
-        <v>2800</v>
+        <v>4214</v>
       </c>
       <c r="C53" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D53" t="s">
-        <v>3019</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>2617</v>
+        <v>4033</v>
       </c>
       <c r="B54" t="s">
-        <v>2801</v>
+        <v>4215</v>
       </c>
       <c r="C54" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D54" t="s">
-        <v>3019</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>2618</v>
+        <v>4034</v>
       </c>
       <c r="B55" t="s">
-        <v>2802</v>
+        <v>4216</v>
       </c>
       <c r="C55" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D55" t="s">
-        <v>3019</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>2619</v>
+        <v>4035</v>
       </c>
       <c r="B56" t="s">
-        <v>2803</v>
+        <v>4217</v>
       </c>
       <c r="C56" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D56" t="s">
-        <v>3019</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>2620</v>
+        <v>4036</v>
       </c>
       <c r="B57" t="s">
-        <v>2804</v>
+        <v>4218</v>
       </c>
       <c r="C57" t="s">
-        <v>2941</v>
+        <v>4353</v>
       </c>
       <c r="D57" t="s">
-        <v>3020</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>2621</v>
+        <v>4037</v>
       </c>
       <c r="B58" t="s">
-        <v>2805</v>
+        <v>4219</v>
       </c>
       <c r="C58" t="s">
-        <v>2942</v>
+        <v>4354</v>
       </c>
       <c r="D58" t="s">
-        <v>3021</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>2622</v>
+        <v>4038</v>
       </c>
       <c r="B59" t="s">
-        <v>2806</v>
+        <v>4220</v>
       </c>
       <c r="C59" t="s">
-        <v>2943</v>
+        <v>4355</v>
       </c>
       <c r="D59" t="s">
-        <v>3022</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>2623</v>
+        <v>4039</v>
       </c>
       <c r="B60" t="s">
-        <v>2807</v>
+        <v>4221</v>
       </c>
       <c r="C60" t="s">
-        <v>2943</v>
+        <v>4355</v>
       </c>
       <c r="D60" t="s">
-        <v>3023</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>2624</v>
+        <v>4040</v>
       </c>
       <c r="B61" t="s">
-        <v>2808</v>
+        <v>4222</v>
       </c>
       <c r="C61" t="s">
-        <v>2944</v>
+        <v>4356</v>
       </c>
       <c r="D61" t="s">
-        <v>3024</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>2625</v>
+        <v>4041</v>
       </c>
       <c r="B62" t="s">
-        <v>2809</v>
+        <v>4223</v>
       </c>
       <c r="C62" t="s">
-        <v>2945</v>
+        <v>4357</v>
       </c>
       <c r="D62" t="s">
-        <v>3025</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>2626</v>
+        <v>4042</v>
       </c>
       <c r="B63" t="s">
-        <v>2810</v>
+        <v>4224</v>
       </c>
       <c r="C63" t="s">
-        <v>2946</v>
+        <v>4358</v>
       </c>
       <c r="D63" t="s">
-        <v>3026</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>2627</v>
+        <v>4043</v>
       </c>
       <c r="B64" t="s">
-        <v>2811</v>
+        <v>4225</v>
       </c>
       <c r="C64" t="s">
-        <v>2947</v>
+        <v>4359</v>
       </c>
       <c r="D64" t="s">
-        <v>3027</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>2628</v>
+        <v>4044</v>
       </c>
       <c r="B65" t="s">
-        <v>2812</v>
+        <v>4226</v>
       </c>
       <c r="C65" t="s">
-        <v>2947</v>
+        <v>4359</v>
       </c>
       <c r="D65" t="s">
-        <v>3027</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>2629</v>
+        <v>4045</v>
       </c>
       <c r="B66" t="s">
-        <v>2813</v>
+        <v>4227</v>
       </c>
       <c r="C66" t="s">
-        <v>2948</v>
+        <v>4360</v>
       </c>
       <c r="D66" t="s">
-        <v>3028</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>2630</v>
+        <v>4046</v>
       </c>
       <c r="B67" t="s">
-        <v>2814</v>
+        <v>4228</v>
       </c>
       <c r="C67" t="s">
-        <v>2949</v>
+        <v>4361</v>
       </c>
       <c r="D67" t="s">
-        <v>3029</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>2631</v>
+        <v>4047</v>
       </c>
       <c r="B68" t="s">
-        <v>2815</v>
+        <v>4229</v>
       </c>
       <c r="C68" t="s">
-        <v>2949</v>
+        <v>4362</v>
       </c>
       <c r="D68" t="s">
-        <v>3029</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>2632</v>
+        <v>4048</v>
       </c>
       <c r="B69" t="s">
-        <v>2816</v>
+        <v>4230</v>
       </c>
       <c r="C69" t="s">
-        <v>2950</v>
+        <v>4363</v>
       </c>
       <c r="D69" t="s">
-        <v>3030</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>2633</v>
+        <v>4049</v>
       </c>
       <c r="B70" t="s">
-        <v>2817</v>
+        <v>4231</v>
       </c>
       <c r="C70" t="s">
-        <v>2951</v>
+        <v>4364</v>
       </c>
       <c r="D70" t="s">
-        <v>3031</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>2634</v>
+        <v>4050</v>
       </c>
       <c r="B71" t="s">
-        <v>2818</v>
+        <v>4232</v>
       </c>
       <c r="C71" t="s">
-        <v>2951</v>
+        <v>4364</v>
       </c>
       <c r="D71" t="s">
-        <v>3032</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>2635</v>
+        <v>4051</v>
       </c>
       <c r="B72" t="s">
-        <v>2819</v>
+        <v>4233</v>
       </c>
       <c r="C72" t="s">
-        <v>2951</v>
+        <v>4365</v>
       </c>
       <c r="D72" t="s">
-        <v>3033</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>2636</v>
+        <v>4052</v>
       </c>
       <c r="B73" t="s">
-        <v>2819</v>
+        <v>4234</v>
       </c>
       <c r="C73" t="s">
-        <v>2951</v>
+        <v>4365</v>
       </c>
       <c r="D73" t="s">
-        <v>3034</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>2637</v>
+        <v>4053</v>
       </c>
       <c r="B74" t="s">
-        <v>2820</v>
+        <v>4235</v>
       </c>
       <c r="C74" t="s">
-        <v>2952</v>
+        <v>4365</v>
       </c>
       <c r="D74" t="s">
-        <v>3035</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>2638</v>
+        <v>4054</v>
       </c>
       <c r="B75" t="s">
-        <v>2821</v>
+        <v>4235</v>
       </c>
       <c r="C75" t="s">
-        <v>2953</v>
+        <v>4365</v>
       </c>
       <c r="D75" t="s">
-        <v>3036</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>2639</v>
+        <v>4055</v>
       </c>
       <c r="B76" t="s">
-        <v>2822</v>
+        <v>4236</v>
       </c>
       <c r="C76" t="s">
-        <v>2953</v>
+        <v>4366</v>
       </c>
       <c r="D76" t="s">
-        <v>3037</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>2640</v>
+        <v>4056</v>
       </c>
       <c r="B77" t="s">
-        <v>2823</v>
+        <v>4237</v>
       </c>
       <c r="C77" t="s">
-        <v>2953</v>
+        <v>4367</v>
       </c>
       <c r="D77" t="s">
-        <v>3037</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>2641</v>
+        <v>4057</v>
       </c>
       <c r="B78" t="s">
-        <v>2824</v>
+        <v>4238</v>
       </c>
       <c r="C78" t="s">
-        <v>2954</v>
+        <v>4367</v>
       </c>
       <c r="D78" t="s">
-        <v>3038</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>2642</v>
+        <v>4058</v>
       </c>
       <c r="B79" t="s">
-        <v>2825</v>
+        <v>4239</v>
       </c>
       <c r="C79" t="s">
-        <v>2955</v>
+        <v>4367</v>
       </c>
       <c r="D79" t="s">
-        <v>3039</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>2643</v>
+        <v>4059</v>
       </c>
       <c r="B80" t="s">
-        <v>2826</v>
+        <v>4240</v>
       </c>
       <c r="C80" t="s">
-        <v>2955</v>
+        <v>4368</v>
       </c>
       <c r="D80" t="s">
-        <v>3040</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>2644</v>
+        <v>4060</v>
       </c>
       <c r="B81" t="s">
-        <v>2827</v>
+        <v>4241</v>
       </c>
       <c r="C81" t="s">
-        <v>2955</v>
+        <v>4369</v>
       </c>
       <c r="D81" t="s">
-        <v>3041</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>2645</v>
+        <v>4061</v>
       </c>
       <c r="B82" t="s">
-        <v>2828</v>
+        <v>4242</v>
       </c>
       <c r="C82" t="s">
-        <v>2955</v>
+        <v>4369</v>
       </c>
       <c r="D82" t="s">
-        <v>3042</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>2646</v>
+        <v>4062</v>
       </c>
       <c r="B83" t="s">
-        <v>2829</v>
+        <v>4243</v>
       </c>
       <c r="C83" t="s">
-        <v>2955</v>
+        <v>4369</v>
       </c>
       <c r="D83" t="s">
-        <v>3043</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>2647</v>
+        <v>4063</v>
       </c>
       <c r="B84" t="s">
-        <v>2830</v>
+        <v>4244</v>
       </c>
       <c r="C84" t="s">
-        <v>2956</v>
+        <v>4369</v>
       </c>
       <c r="D84" t="s">
-        <v>3044</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>2648</v>
+        <v>4064</v>
       </c>
       <c r="B85" t="s">
-        <v>2831</v>
+        <v>4245</v>
       </c>
       <c r="C85" t="s">
-        <v>2956</v>
+        <v>4369</v>
       </c>
       <c r="D85" t="s">
-        <v>3045</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>2649</v>
+        <v>4065</v>
       </c>
       <c r="B86" t="s">
-        <v>2832</v>
+        <v>4246</v>
       </c>
       <c r="C86" t="s">
-        <v>2957</v>
+        <v>4370</v>
       </c>
       <c r="D86" t="s">
-        <v>3046</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>2650</v>
+        <v>4066</v>
       </c>
       <c r="B87" t="s">
-        <v>2833</v>
+        <v>4247</v>
       </c>
       <c r="C87" t="s">
-        <v>2958</v>
+        <v>4370</v>
       </c>
       <c r="D87" t="s">
-        <v>3047</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>2651</v>
+        <v>4067</v>
       </c>
       <c r="B88" t="s">
-        <v>2834</v>
+        <v>4248</v>
       </c>
       <c r="C88" t="s">
-        <v>2959</v>
+        <v>4371</v>
       </c>
       <c r="D88" t="s">
-        <v>3048</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>2652</v>
+        <v>4068</v>
       </c>
       <c r="B89" t="s">
-        <v>2835</v>
+        <v>4249</v>
       </c>
       <c r="C89" t="s">
-        <v>2960</v>
+        <v>4372</v>
       </c>
       <c r="D89" t="s">
-        <v>3049</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>2653</v>
+        <v>4069</v>
       </c>
       <c r="B90" t="s">
-        <v>2836</v>
+        <v>4250</v>
       </c>
       <c r="C90" t="s">
-        <v>2960</v>
+        <v>4373</v>
       </c>
       <c r="D90" t="s">
-        <v>3050</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>2654</v>
+        <v>4070</v>
       </c>
       <c r="B91" t="s">
-        <v>2837</v>
+        <v>4251</v>
       </c>
       <c r="C91" t="s">
-        <v>2961</v>
+        <v>4374</v>
       </c>
       <c r="D91" t="s">
-        <v>3051</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>2655</v>
+        <v>4071</v>
       </c>
       <c r="B92" t="s">
-        <v>2838</v>
+        <v>4252</v>
       </c>
       <c r="C92" t="s">
-        <v>2962</v>
+        <v>4374</v>
       </c>
       <c r="D92" t="s">
-        <v>3052</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>2656</v>
+        <v>4072</v>
       </c>
       <c r="B93" t="s">
-        <v>2839</v>
+        <v>4253</v>
       </c>
       <c r="C93" t="s">
-        <v>2963</v>
+        <v>4375</v>
       </c>
       <c r="D93" t="s">
-        <v>3053</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>2657</v>
+        <v>4073</v>
       </c>
       <c r="B94" t="s">
-        <v>2840</v>
+        <v>4254</v>
       </c>
       <c r="C94" t="s">
-        <v>2963</v>
+        <v>4376</v>
       </c>
       <c r="D94" t="s">
-        <v>3054</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>2658</v>
+        <v>4074</v>
       </c>
       <c r="B95" t="s">
-        <v>2841</v>
+        <v>4255</v>
       </c>
       <c r="C95" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D95" t="s">
-        <v>3055</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>2659</v>
+        <v>4075</v>
       </c>
       <c r="B96" t="s">
-        <v>2842</v>
+        <v>4256</v>
       </c>
       <c r="C96" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D96" t="s">
-        <v>3056</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>2660</v>
+        <v>4076</v>
       </c>
       <c r="B97" t="s">
-        <v>2843</v>
+        <v>4257</v>
       </c>
       <c r="C97" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D97" t="s">
-        <v>3057</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>2661</v>
+        <v>4077</v>
       </c>
       <c r="B98" t="s">
-        <v>2844</v>
+        <v>4258</v>
       </c>
       <c r="C98" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D98" t="s">
-        <v>3058</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>2662</v>
+        <v>4078</v>
       </c>
       <c r="B99" t="s">
-        <v>2845</v>
+        <v>4259</v>
       </c>
       <c r="C99" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D99" t="s">
-        <v>3059</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>2663</v>
+        <v>4079</v>
       </c>
       <c r="B100" t="s">
-        <v>2846</v>
+        <v>4260</v>
       </c>
       <c r="C100" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D100" t="s">
-        <v>3060</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>2664</v>
+        <v>4080</v>
       </c>
       <c r="B101" t="s">
-        <v>2847</v>
+        <v>4261</v>
       </c>
       <c r="C101" t="s">
-        <v>2963</v>
+        <v>4377</v>
       </c>
       <c r="D101" t="s">
-        <v>3061</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>2665</v>
+        <v>4081</v>
       </c>
       <c r="B102" t="s">
-        <v>2848</v>
+        <v>4262</v>
       </c>
       <c r="C102" t="s">
-        <v>2964</v>
+        <v>4377</v>
       </c>
       <c r="D102" t="s">
-        <v>3062</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>2666</v>
+        <v>4082</v>
       </c>
       <c r="B103" t="s">
-        <v>2849</v>
+        <v>4263</v>
       </c>
       <c r="C103" t="s">
-        <v>2965</v>
+        <v>4378</v>
       </c>
       <c r="D103" t="s">
-        <v>3063</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>2667</v>
+        <v>4083</v>
       </c>
       <c r="B104" t="s">
-        <v>2850</v>
+        <v>4264</v>
       </c>
       <c r="C104" t="s">
-        <v>2966</v>
+        <v>4379</v>
       </c>
       <c r="D104" t="s">
-        <v>3064</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>2668</v>
+        <v>4084</v>
       </c>
       <c r="B105" t="s">
-        <v>2851</v>
+        <v>4265</v>
       </c>
       <c r="C105" t="s">
-        <v>2966</v>
+        <v>4380</v>
       </c>
       <c r="D105" t="s">
-        <v>3065</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>2669</v>
+        <v>4085</v>
       </c>
       <c r="B106" t="s">
-        <v>2852</v>
+        <v>4266</v>
       </c>
       <c r="C106" t="s">
-        <v>2966</v>
+        <v>4380</v>
       </c>
       <c r="D106" t="s">
-        <v>3066</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>2670</v>
+        <v>4086</v>
       </c>
       <c r="B107" t="s">
-        <v>2853</v>
+        <v>4267</v>
       </c>
       <c r="C107" t="s">
-        <v>2966</v>
+        <v>4380</v>
       </c>
       <c r="D107" t="s">
-        <v>3067</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>2671</v>
+        <v>4087</v>
       </c>
       <c r="B108" t="s">
-        <v>2854</v>
+        <v>4268</v>
       </c>
       <c r="C108" t="s">
-        <v>2966</v>
+        <v>4380</v>
       </c>
       <c r="D108" t="s">
-        <v>3068</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>2672</v>
+        <v>4088</v>
       </c>
       <c r="B109" t="s">
-        <v>2855</v>
+        <v>4269</v>
       </c>
       <c r="C109" t="s">
-        <v>2967</v>
+        <v>4380</v>
       </c>
       <c r="D109" t="s">
-        <v>3069</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>2673</v>
+        <v>4089</v>
       </c>
       <c r="B110" t="s">
-        <v>2856</v>
+        <v>4270</v>
       </c>
       <c r="C110" t="s">
-        <v>2967</v>
+        <v>4381</v>
       </c>
       <c r="D110" t="s">
-        <v>3070</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>2674</v>
+        <v>4090</v>
       </c>
       <c r="B111" t="s">
-        <v>2857</v>
+        <v>4271</v>
       </c>
       <c r="C111" t="s">
-        <v>2968</v>
+        <v>4381</v>
       </c>
       <c r="D111" t="s">
-        <v>3071</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>2675</v>
+        <v>4091</v>
       </c>
       <c r="B112" t="s">
-        <v>2858</v>
+        <v>4272</v>
       </c>
       <c r="C112" t="s">
-        <v>2968</v>
+        <v>4382</v>
       </c>
       <c r="D112" t="s">
-        <v>3072</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>2676</v>
+        <v>4092</v>
       </c>
       <c r="B113" t="s">
-        <v>2859</v>
+        <v>4273</v>
       </c>
       <c r="C113" t="s">
-        <v>2968</v>
+        <v>4382</v>
       </c>
       <c r="D113" t="s">
-        <v>3073</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>2677</v>
+        <v>4093</v>
       </c>
       <c r="B114" t="s">
-        <v>2860</v>
+        <v>4274</v>
       </c>
       <c r="C114" t="s">
-        <v>2969</v>
+        <v>4382</v>
       </c>
       <c r="D114" t="s">
-        <v>3074</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>2678</v>
+        <v>4094</v>
       </c>
       <c r="B115" t="s">
-        <v>2861</v>
+        <v>4275</v>
       </c>
       <c r="C115" t="s">
-        <v>2969</v>
+        <v>4383</v>
       </c>
       <c r="D115" t="s">
-        <v>3075</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>2679</v>
+        <v>4095</v>
       </c>
       <c r="B116" t="s">
-        <v>2862</v>
+        <v>4276</v>
       </c>
       <c r="C116" t="s">
-        <v>2970</v>
+        <v>4383</v>
       </c>
       <c r="D116" t="s">
-        <v>3076</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>2680</v>
+        <v>4096</v>
       </c>
       <c r="B117" t="s">
-        <v>2863</v>
+        <v>4277</v>
       </c>
       <c r="C117" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D117" t="s">
-        <v>3077</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>2681</v>
+        <v>4097</v>
       </c>
       <c r="B118" t="s">
-        <v>2864</v>
+        <v>4278</v>
       </c>
       <c r="C118" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D118" t="s">
-        <v>3078</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>2682</v>
+        <v>4098</v>
       </c>
       <c r="B119" t="s">
-        <v>2865</v>
+        <v>4279</v>
       </c>
       <c r="C119" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D119" t="s">
-        <v>3079</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>2683</v>
+        <v>4099</v>
       </c>
       <c r="B120" t="s">
-        <v>2866</v>
+        <v>4280</v>
       </c>
       <c r="C120" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D120" t="s">
-        <v>3080</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>2684</v>
+        <v>4100</v>
       </c>
       <c r="B121" t="s">
-        <v>2867</v>
+        <v>4281</v>
       </c>
       <c r="C121" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D121" t="s">
-        <v>3081</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>2685</v>
+        <v>4101</v>
       </c>
       <c r="B122" t="s">
-        <v>2868</v>
+        <v>4282</v>
       </c>
       <c r="C122" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D122" t="s">
-        <v>3082</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>2686</v>
+        <v>4102</v>
       </c>
       <c r="B123" t="s">
-        <v>2869</v>
+        <v>4283</v>
       </c>
       <c r="C123" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D123" t="s">
-        <v>3083</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>2687</v>
+        <v>4103</v>
       </c>
       <c r="B124" t="s">
-        <v>2870</v>
+        <v>4284</v>
       </c>
       <c r="C124" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D124" t="s">
-        <v>3084</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>2688</v>
+        <v>4104</v>
       </c>
       <c r="B125" t="s">
-        <v>2871</v>
+        <v>4285</v>
       </c>
       <c r="C125" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D125" t="s">
-        <v>3085</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>2689</v>
+        <v>4105</v>
       </c>
       <c r="B126" t="s">
-        <v>2872</v>
+        <v>4286</v>
       </c>
       <c r="C126" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D126" t="s">
-        <v>3086</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>2690</v>
+        <v>4106</v>
       </c>
       <c r="B127" t="s">
-        <v>2873</v>
+        <v>4287</v>
       </c>
       <c r="C127" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D127" t="s">
-        <v>3087</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>2691</v>
+        <v>4107</v>
       </c>
       <c r="B128" t="s">
-        <v>2874</v>
+        <v>4288</v>
       </c>
       <c r="C128" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D128" t="s">
-        <v>3088</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>2692</v>
+        <v>4108</v>
       </c>
       <c r="B129" t="s">
-        <v>2875</v>
+        <v>4289</v>
       </c>
       <c r="C129" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D129" t="s">
-        <v>3089</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>2693</v>
+        <v>4109</v>
       </c>
       <c r="B130" t="s">
-        <v>2876</v>
+        <v>4290</v>
       </c>
       <c r="C130" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D130" t="s">
-        <v>3090</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>2694</v>
+        <v>4110</v>
       </c>
       <c r="B131" t="s">
-        <v>2877</v>
+        <v>4291</v>
       </c>
       <c r="C131" t="s">
-        <v>2970</v>
+        <v>4384</v>
       </c>
       <c r="D131" t="s">
-        <v>3091</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>2695</v>
+        <v>4111</v>
       </c>
       <c r="B132" t="s">
-        <v>2878</v>
+        <v>4292</v>
       </c>
       <c r="C132" t="s">
-        <v>2971</v>
+        <v>4384</v>
       </c>
       <c r="D132" t="s">
-        <v>3092</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>2696</v>
+        <v>4112</v>
       </c>
       <c r="B133" t="s">
-        <v>2879</v>
+        <v>4293</v>
       </c>
       <c r="C133" t="s">
-        <v>2971</v>
+        <v>4385</v>
       </c>
       <c r="D133" t="s">
-        <v>3093</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>2697</v>
+        <v>4113</v>
       </c>
       <c r="B134" t="s">
-        <v>2880</v>
+        <v>4294</v>
       </c>
       <c r="C134" t="s">
-        <v>2971</v>
+        <v>4386</v>
       </c>
       <c r="D134" t="s">
-        <v>3094</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>2698</v>
+        <v>4114</v>
       </c>
       <c r="B135" t="s">
-        <v>2881</v>
+        <v>4295</v>
       </c>
       <c r="C135" t="s">
-        <v>2971</v>
+        <v>4386</v>
       </c>
       <c r="D135" t="s">
-        <v>3095</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>2699</v>
+        <v>4115</v>
       </c>
       <c r="B136" t="s">
-        <v>2882</v>
+        <v>4296</v>
       </c>
       <c r="C136" t="s">
-        <v>2972</v>
+        <v>4386</v>
       </c>
       <c r="D136" t="s">
-        <v>3096</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>2700</v>
+        <v>4116</v>
       </c>
       <c r="B137" t="s">
-        <v>2883</v>
+        <v>4297</v>
       </c>
       <c r="C137" t="s">
-        <v>2972</v>
+        <v>4387</v>
       </c>
       <c r="D137" t="s">
-        <v>3097</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2701</v>
+        <v>4117</v>
       </c>
       <c r="B138" t="s">
-        <v>2884</v>
+        <v>4298</v>
       </c>
       <c r="C138" t="s">
-        <v>2972</v>
+        <v>4388</v>
       </c>
       <c r="D138" t="s">
-        <v>3098</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>2702</v>
+        <v>4118</v>
       </c>
       <c r="B139" t="s">
-        <v>2885</v>
+        <v>4299</v>
       </c>
       <c r="C139" t="s">
-        <v>2973</v>
+        <v>4389</v>
       </c>
       <c r="D139" t="s">
-        <v>3099</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>2703</v>
+        <v>4119</v>
       </c>
       <c r="B140" t="s">
-        <v>2886</v>
+        <v>4300</v>
       </c>
       <c r="C140" t="s">
-        <v>2974</v>
+        <v>4389</v>
       </c>
       <c r="D140" t="s">
-        <v>3100</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>2704</v>
+        <v>4120</v>
       </c>
       <c r="B141" t="s">
-        <v>2887</v>
+        <v>4301</v>
       </c>
       <c r="C141" t="s">
-        <v>2975</v>
+        <v>4389</v>
       </c>
       <c r="D141" t="s">
-        <v>3101</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>2705</v>
+        <v>4121</v>
       </c>
       <c r="B142" t="s">
-        <v>2888</v>
+        <v>4302</v>
       </c>
       <c r="C142" t="s">
-        <v>2975</v>
+        <v>4389</v>
       </c>
       <c r="D142" t="s">
-        <v>3102</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>2706</v>
+        <v>4122</v>
       </c>
       <c r="B143" t="s">
-        <v>2889</v>
+        <v>4303</v>
       </c>
       <c r="C143" t="s">
-        <v>2975</v>
+        <v>4389</v>
       </c>
       <c r="D143" t="s">
-        <v>3103</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>2707</v>
+        <v>4123</v>
       </c>
       <c r="B144" t="s">
-        <v>2890</v>
+        <v>4304</v>
       </c>
       <c r="C144" t="s">
-        <v>2975</v>
+        <v>4389</v>
       </c>
       <c r="D144" t="s">
-        <v>3104</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>2708</v>
+        <v>4124</v>
       </c>
       <c r="B145" t="s">
-        <v>2891</v>
+        <v>4305</v>
       </c>
       <c r="C145" t="s">
-        <v>2975</v>
+        <v>4389</v>
       </c>
       <c r="D145" t="s">
-        <v>3105</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>2709</v>
+        <v>4125</v>
       </c>
       <c r="B146" t="s">
-        <v>2892</v>
+        <v>4306</v>
       </c>
       <c r="C146" t="s">
-        <v>2975</v>
+        <v>4390</v>
       </c>
       <c r="D146" t="s">
-        <v>3106</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>2710</v>
+        <v>4126</v>
       </c>
       <c r="B147" t="s">
-        <v>2893</v>
+        <v>4307</v>
       </c>
       <c r="C147" t="s">
-        <v>2975</v>
+        <v>4391</v>
       </c>
       <c r="D147" t="s">
-        <v>3107</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>2711</v>
+        <v>4127</v>
       </c>
       <c r="B148" t="s">
-        <v>2894</v>
+        <v>4308</v>
       </c>
       <c r="C148" t="s">
-        <v>2976</v>
+        <v>4392</v>
       </c>
       <c r="D148" t="s">
-        <v>3108</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>2712</v>
+        <v>4128</v>
       </c>
       <c r="B149" t="s">
-        <v>2895</v>
+        <v>4309</v>
       </c>
       <c r="C149" t="s">
-        <v>2977</v>
+        <v>4392</v>
       </c>
       <c r="D149" t="s">
-        <v>3109</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>2713</v>
+        <v>4129</v>
       </c>
       <c r="B150" t="s">
-        <v>2896</v>
+        <v>4310</v>
       </c>
       <c r="C150" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D150" t="s">
-        <v>3110</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>2714</v>
+        <v>4130</v>
       </c>
       <c r="B151" t="s">
-        <v>2897</v>
+        <v>4311</v>
       </c>
       <c r="C151" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D151" t="s">
-        <v>3111</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>2715</v>
+        <v>4131</v>
       </c>
       <c r="B152" t="s">
-        <v>2898</v>
+        <v>4312</v>
       </c>
       <c r="C152" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D152" t="s">
-        <v>3112</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>2716</v>
+        <v>4132</v>
       </c>
       <c r="B153" t="s">
-        <v>2899</v>
+        <v>4313</v>
       </c>
       <c r="C153" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D153" t="s">
-        <v>3113</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>2717</v>
+        <v>4133</v>
       </c>
       <c r="B154" t="s">
-        <v>2900</v>
+        <v>4314</v>
       </c>
       <c r="C154" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D154" t="s">
-        <v>3114</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>2718</v>
+        <v>4134</v>
       </c>
       <c r="B155" t="s">
-        <v>2901</v>
+        <v>4315</v>
       </c>
       <c r="C155" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D155" t="s">
-        <v>3115</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>2719</v>
+        <v>4135</v>
       </c>
       <c r="B156" t="s">
-        <v>2902</v>
+        <v>4316</v>
       </c>
       <c r="C156" t="s">
-        <v>2978</v>
+        <v>4392</v>
       </c>
       <c r="D156" t="s">
-        <v>3116</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>2720</v>
+        <v>4136</v>
       </c>
       <c r="B157" t="s">
-        <v>2903</v>
+        <v>4317</v>
       </c>
       <c r="C157" t="s">
-        <v>2978</v>
+        <v>4393</v>
       </c>
       <c r="D157" t="s">
-        <v>3117</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>2721</v>
+        <v>4137</v>
       </c>
       <c r="B158" t="s">
-        <v>2904</v>
+        <v>4318</v>
       </c>
       <c r="C158" t="s">
-        <v>2978</v>
+        <v>4393</v>
       </c>
       <c r="D158" t="s">
-        <v>3118</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>2722</v>
+        <v>4138</v>
       </c>
       <c r="B159" t="s">
-        <v>2905</v>
+        <v>4319</v>
       </c>
       <c r="C159" t="s">
-        <v>2979</v>
+        <v>4393</v>
       </c>
       <c r="D159" t="s">
-        <v>3119</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>2723</v>
+        <v>4139</v>
       </c>
       <c r="B160" t="s">
-        <v>2906</v>
+        <v>4320</v>
       </c>
       <c r="C160" t="s">
-        <v>2979</v>
+        <v>4393</v>
       </c>
       <c r="D160" t="s">
-        <v>3120</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>2724</v>
+        <v>4140</v>
       </c>
       <c r="B161" t="s">
-        <v>2907</v>
+        <v>4321</v>
       </c>
       <c r="C161" t="s">
-        <v>2979</v>
+        <v>4394</v>
       </c>
       <c r="D161" t="s">
-        <v>3121</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>2725</v>
+        <v>4141</v>
       </c>
       <c r="B162" t="s">
-        <v>2908</v>
+        <v>4322</v>
       </c>
       <c r="C162" t="s">
-        <v>2979</v>
+        <v>4395</v>
       </c>
       <c r="D162" t="s">
-        <v>3122</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>2726</v>
+        <v>4142</v>
       </c>
       <c r="B163" t="s">
-        <v>2909</v>
+        <v>4323</v>
       </c>
       <c r="C163" t="s">
-        <v>2980</v>
+        <v>4395</v>
       </c>
       <c r="D163" t="s">
-        <v>3123</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>2727</v>
+        <v>4143</v>
       </c>
       <c r="B164" t="s">
-        <v>2910</v>
+        <v>4324</v>
       </c>
       <c r="C164" t="s">
-        <v>2981</v>
+        <v>4395</v>
       </c>
       <c r="D164" t="s">
-        <v>3124</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>2728</v>
+        <v>4144</v>
       </c>
       <c r="B165" t="s">
-        <v>2911</v>
+        <v>4325</v>
       </c>
       <c r="C165" t="s">
-        <v>2981</v>
+        <v>4396</v>
       </c>
       <c r="D165" t="s">
-        <v>3125</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>2729</v>
+        <v>4145</v>
       </c>
       <c r="B166" t="s">
-        <v>2912</v>
+        <v>4326</v>
       </c>
       <c r="C166" t="s">
-        <v>2981</v>
+        <v>4397</v>
       </c>
       <c r="D166" t="s">
-        <v>3126</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>2730</v>
+        <v>4146</v>
       </c>
       <c r="B167" t="s">
-        <v>2913</v>
+        <v>4327</v>
       </c>
       <c r="C167" t="s">
-        <v>2982</v>
+        <v>4397</v>
       </c>
       <c r="D167" t="s">
-        <v>3127</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>2731</v>
+        <v>4147</v>
       </c>
       <c r="B168" t="s">
-        <v>2914</v>
+        <v>4328</v>
       </c>
       <c r="C168" t="s">
-        <v>2983</v>
+        <v>4397</v>
       </c>
       <c r="D168" t="s">
-        <v>3128</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>2732</v>
+        <v>4148</v>
       </c>
       <c r="B169" t="s">
-        <v>2915</v>
+        <v>4329</v>
       </c>
       <c r="C169" t="s">
-        <v>2983</v>
+        <v>4397</v>
       </c>
       <c r="D169" t="s">
-        <v>3129</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>2733</v>
+        <v>4149</v>
       </c>
       <c r="B170" t="s">
-        <v>2916</v>
+        <v>4330</v>
       </c>
       <c r="C170" t="s">
-        <v>2983</v>
+        <v>4398</v>
       </c>
       <c r="D170" t="s">
-        <v>3130</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>2734</v>
+        <v>4150</v>
       </c>
       <c r="B171" t="s">
-        <v>2917</v>
+        <v>4331</v>
       </c>
       <c r="C171" t="s">
-        <v>2983</v>
+        <v>4399</v>
       </c>
       <c r="D171" t="s">
-        <v>3131</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>2735</v>
+        <v>4151</v>
       </c>
       <c r="B172" t="s">
-        <v>2918</v>
+        <v>4332</v>
       </c>
       <c r="C172" t="s">
-        <v>2984</v>
+        <v>4399</v>
       </c>
       <c r="D172" t="s">
-        <v>3132</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>2736</v>
+        <v>4152</v>
       </c>
       <c r="B173" t="s">
-        <v>2919</v>
+        <v>4333</v>
       </c>
       <c r="C173" t="s">
-        <v>2985</v>
+        <v>4399</v>
       </c>
       <c r="D173" t="s">
-        <v>3133</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>2737</v>
+        <v>4153</v>
       </c>
       <c r="B174" t="s">
-        <v>2920</v>
+        <v>4334</v>
       </c>
       <c r="C174" t="s">
-        <v>2985</v>
+        <v>4400</v>
       </c>
       <c r="D174" t="s">
-        <v>3134</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>2738</v>
+        <v>4154</v>
       </c>
       <c r="B175" t="s">
-        <v>2921</v>
+        <v>4335</v>
       </c>
       <c r="C175" t="s">
-        <v>2985</v>
+        <v>4401</v>
       </c>
       <c r="D175" t="s">
-        <v>3135</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>2739</v>
+        <v>4155</v>
       </c>
       <c r="B176" t="s">
-        <v>2922</v>
+        <v>4336</v>
       </c>
       <c r="C176" t="s">
-        <v>2986</v>
+        <v>4401</v>
       </c>
       <c r="D176" t="s">
-        <v>3136</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>2740</v>
+        <v>4156</v>
       </c>
       <c r="B177" t="s">
-        <v>2923</v>
+        <v>4337</v>
       </c>
       <c r="C177" t="s">
-        <v>2987</v>
+        <v>4401</v>
       </c>
       <c r="D177" t="s">
-        <v>3137</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>2741</v>
+        <v>4157</v>
       </c>
       <c r="B178" t="s">
-        <v>2924</v>
+        <v>4338</v>
       </c>
       <c r="C178" t="s">
-        <v>2987</v>
+        <v>4401</v>
       </c>
       <c r="D178" t="s">
-        <v>3138</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>2742</v>
+        <v>4158</v>
       </c>
       <c r="B179" t="s">
-        <v>2925</v>
+        <v>4339</v>
       </c>
       <c r="C179" t="s">
-        <v>2987</v>
+        <v>4401</v>
       </c>
       <c r="D179" t="s">
-        <v>3138</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>2743</v>
+        <v>4159</v>
       </c>
       <c r="B180" t="s">
-        <v>2926</v>
+        <v>4340</v>
       </c>
       <c r="C180" t="s">
-        <v>2987</v>
+        <v>4401</v>
       </c>
       <c r="D180" t="s">
-        <v>3138</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>2744</v>
+        <v>4160</v>
       </c>
       <c r="B181" t="s">
-        <v>2927</v>
+        <v>4341</v>
       </c>
       <c r="C181" t="s">
-        <v>2987</v>
+        <v>4402</v>
       </c>
       <c r="D181" t="s">
-        <v>3139</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>2745</v>
+        <v>4161</v>
       </c>
       <c r="B182" t="s">
-        <v>2928</v>
+        <v>4342</v>
       </c>
       <c r="C182" t="s">
-        <v>2987</v>
+        <v>4403</v>
       </c>
       <c r="D182" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>2746</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C183" t="s">
-        <v>2988</v>
-      </c>
-      <c r="D183" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2930</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2989</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3142</v>
+        <v>4555</v>
       </c>
     </row>
   </sheetData>
@@ -12472,629 +16683,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3143</v>
+        <v>4556</v>
       </c>
       <c r="B1" t="s">
-        <v>3163</v>
+        <v>4576</v>
       </c>
       <c r="C1" t="s">
-        <v>3218</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3144</v>
+        <v>4557</v>
       </c>
       <c r="B2" t="s">
-        <v>3164</v>
+        <v>4577</v>
       </c>
       <c r="C2" t="s">
-        <v>3219</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3144</v>
+        <v>4557</v>
       </c>
       <c r="B3" t="s">
-        <v>3165</v>
+        <v>4578</v>
       </c>
       <c r="C3" t="s">
-        <v>3220</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3145</v>
+        <v>4558</v>
       </c>
       <c r="B4" t="s">
-        <v>3166</v>
+        <v>4579</v>
       </c>
       <c r="C4" t="s">
-        <v>3221</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3145</v>
+        <v>4558</v>
       </c>
       <c r="B5" t="s">
-        <v>3167</v>
+        <v>4580</v>
       </c>
       <c r="C5" t="s">
-        <v>3222</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3145</v>
+        <v>4558</v>
       </c>
       <c r="B6" t="s">
-        <v>3168</v>
+        <v>4581</v>
       </c>
       <c r="C6" t="s">
-        <v>3223</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3146</v>
+        <v>4559</v>
       </c>
       <c r="B7" t="s">
-        <v>3169</v>
+        <v>4582</v>
       </c>
       <c r="C7" t="s">
-        <v>3224</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3146</v>
+        <v>4559</v>
       </c>
       <c r="B8" t="s">
-        <v>3170</v>
+        <v>4583</v>
       </c>
       <c r="C8" t="s">
-        <v>3225</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3146</v>
+        <v>4559</v>
       </c>
       <c r="B9" t="s">
-        <v>3171</v>
+        <v>4584</v>
       </c>
       <c r="C9" t="s">
-        <v>3226</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3146</v>
+        <v>4559</v>
       </c>
       <c r="B10" t="s">
-        <v>3172</v>
+        <v>4585</v>
       </c>
       <c r="C10" t="s">
-        <v>3227</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3147</v>
+        <v>4560</v>
       </c>
       <c r="B11" t="s">
-        <v>3173</v>
+        <v>4586</v>
       </c>
       <c r="C11" t="s">
-        <v>3228</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3147</v>
+        <v>4560</v>
       </c>
       <c r="B12" t="s">
-        <v>3174</v>
+        <v>4587</v>
       </c>
       <c r="C12" t="s">
-        <v>3229</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3147</v>
+        <v>4560</v>
       </c>
       <c r="B13" t="s">
-        <v>3175</v>
+        <v>4588</v>
       </c>
       <c r="C13" t="s">
-        <v>3230</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3148</v>
+        <v>4561</v>
       </c>
       <c r="B14" t="s">
-        <v>3176</v>
+        <v>4589</v>
       </c>
       <c r="C14" t="s">
-        <v>3231</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3148</v>
+        <v>4561</v>
       </c>
       <c r="B15" t="s">
-        <v>3177</v>
+        <v>4590</v>
       </c>
       <c r="C15" t="s">
-        <v>3232</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3148</v>
+        <v>4561</v>
       </c>
       <c r="B16" t="s">
-        <v>3178</v>
+        <v>4591</v>
       </c>
       <c r="C16" t="s">
-        <v>3233</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B17" t="s">
-        <v>3179</v>
+        <v>4592</v>
       </c>
       <c r="C17" t="s">
-        <v>3234</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B18" t="s">
-        <v>3180</v>
+        <v>4593</v>
       </c>
       <c r="C18" t="s">
-        <v>3235</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B19" t="s">
-        <v>3181</v>
+        <v>4594</v>
       </c>
       <c r="C19" t="s">
-        <v>3236</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B20" t="s">
-        <v>3182</v>
+        <v>4595</v>
       </c>
       <c r="C20" t="s">
-        <v>3237</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B21" t="s">
-        <v>3183</v>
+        <v>4596</v>
       </c>
       <c r="C21" t="s">
-        <v>3238</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3149</v>
+        <v>4562</v>
       </c>
       <c r="B22" t="s">
-        <v>3184</v>
+        <v>4597</v>
       </c>
       <c r="C22" t="s">
-        <v>3239</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3150</v>
+        <v>4563</v>
       </c>
       <c r="B23" t="s">
-        <v>3185</v>
+        <v>4598</v>
       </c>
       <c r="C23" t="s">
-        <v>3240</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3150</v>
+        <v>4563</v>
       </c>
       <c r="B24" t="s">
-        <v>3186</v>
+        <v>4599</v>
       </c>
       <c r="C24" t="s">
-        <v>3241</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3151</v>
+        <v>4564</v>
       </c>
       <c r="B25" t="s">
-        <v>3187</v>
+        <v>4600</v>
       </c>
       <c r="C25" t="s">
-        <v>3242</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3151</v>
+        <v>4564</v>
       </c>
       <c r="B26" t="s">
-        <v>3188</v>
+        <v>4601</v>
       </c>
       <c r="C26" t="s">
-        <v>3243</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3152</v>
+        <v>4565</v>
       </c>
       <c r="B27" t="s">
-        <v>3188</v>
+        <v>4601</v>
       </c>
       <c r="C27" t="s">
-        <v>3244</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3152</v>
+        <v>4565</v>
       </c>
       <c r="B28" t="s">
-        <v>3189</v>
+        <v>4602</v>
       </c>
       <c r="C28" t="s">
-        <v>3245</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3152</v>
+        <v>4565</v>
       </c>
       <c r="B29" t="s">
-        <v>3190</v>
+        <v>4603</v>
       </c>
       <c r="C29" t="s">
-        <v>3246</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3152</v>
+        <v>4565</v>
       </c>
       <c r="B30" t="s">
-        <v>3191</v>
+        <v>4604</v>
       </c>
       <c r="C30" t="s">
-        <v>3247</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3152</v>
+        <v>4565</v>
       </c>
       <c r="B31" t="s">
-        <v>3192</v>
+        <v>4605</v>
       </c>
       <c r="C31" t="s">
-        <v>3248</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3153</v>
+        <v>4566</v>
       </c>
       <c r="B32" t="s">
-        <v>3193</v>
+        <v>4606</v>
       </c>
       <c r="C32" t="s">
-        <v>3249</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3153</v>
+        <v>4566</v>
       </c>
       <c r="B33" t="s">
-        <v>3194</v>
+        <v>4607</v>
       </c>
       <c r="C33" t="s">
-        <v>3250</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3154</v>
+        <v>4567</v>
       </c>
       <c r="B34" t="s">
-        <v>3194</v>
+        <v>4607</v>
       </c>
       <c r="C34" t="s">
-        <v>3251</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3154</v>
+        <v>4567</v>
       </c>
       <c r="B35" t="s">
-        <v>3195</v>
+        <v>4608</v>
       </c>
       <c r="C35" t="s">
-        <v>3252</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3154</v>
+        <v>4567</v>
       </c>
       <c r="B36" t="s">
-        <v>3196</v>
+        <v>4609</v>
       </c>
       <c r="C36" t="s">
-        <v>3253</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3155</v>
+        <v>4568</v>
       </c>
       <c r="B37" t="s">
-        <v>3197</v>
+        <v>4610</v>
       </c>
       <c r="C37" t="s">
-        <v>3254</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3155</v>
+        <v>4568</v>
       </c>
       <c r="B38" t="s">
-        <v>3198</v>
+        <v>4611</v>
       </c>
       <c r="C38" t="s">
-        <v>3255</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3156</v>
+        <v>4569</v>
       </c>
       <c r="B39" t="s">
-        <v>3199</v>
+        <v>4612</v>
       </c>
       <c r="C39" t="s">
-        <v>3256</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3156</v>
+        <v>4569</v>
       </c>
       <c r="B40" t="s">
-        <v>3200</v>
+        <v>4613</v>
       </c>
       <c r="C40" t="s">
-        <v>3257</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3157</v>
+        <v>4570</v>
       </c>
       <c r="B41" t="s">
-        <v>3201</v>
+        <v>4614</v>
       </c>
       <c r="C41" t="s">
-        <v>3258</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3157</v>
+        <v>4570</v>
       </c>
       <c r="B42" t="s">
-        <v>3202</v>
+        <v>4615</v>
       </c>
       <c r="C42" t="s">
-        <v>3259</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3158</v>
+        <v>4571</v>
       </c>
       <c r="B43" t="s">
-        <v>3203</v>
+        <v>4616</v>
       </c>
       <c r="C43" t="s">
-        <v>3260</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>3158</v>
+        <v>4571</v>
       </c>
       <c r="B44" t="s">
-        <v>3204</v>
+        <v>4617</v>
       </c>
       <c r="C44" t="s">
-        <v>3261</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>3159</v>
+        <v>4572</v>
       </c>
       <c r="B45" t="s">
-        <v>3205</v>
+        <v>4618</v>
       </c>
       <c r="C45" t="s">
-        <v>3262</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3159</v>
+        <v>4572</v>
       </c>
       <c r="B46" t="s">
-        <v>3206</v>
+        <v>4619</v>
       </c>
       <c r="C46" t="s">
-        <v>3263</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3159</v>
+        <v>4572</v>
       </c>
       <c r="B47" t="s">
-        <v>3207</v>
+        <v>4620</v>
       </c>
       <c r="C47" t="s">
-        <v>3264</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3160</v>
+        <v>4573</v>
       </c>
       <c r="B48" t="s">
-        <v>3208</v>
+        <v>4621</v>
       </c>
       <c r="C48" t="s">
-        <v>3265</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3160</v>
+        <v>4573</v>
       </c>
       <c r="B49" t="s">
-        <v>3209</v>
+        <v>4622</v>
       </c>
       <c r="C49" t="s">
-        <v>3266</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3161</v>
+        <v>4574</v>
       </c>
       <c r="B50" t="s">
-        <v>3210</v>
+        <v>4623</v>
       </c>
       <c r="C50" t="s">
-        <v>3267</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3161</v>
+        <v>4574</v>
       </c>
       <c r="B51" t="s">
-        <v>3211</v>
+        <v>4624</v>
       </c>
       <c r="C51" t="s">
-        <v>3268</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>3161</v>
+        <v>4574</v>
       </c>
       <c r="B52" t="s">
-        <v>3212</v>
+        <v>4625</v>
       </c>
       <c r="C52" t="s">
-        <v>3269</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>3161</v>
+        <v>4574</v>
       </c>
       <c r="B53" t="s">
-        <v>3213</v>
+        <v>4626</v>
       </c>
       <c r="C53" t="s">
-        <v>3270</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3161</v>
+        <v>4574</v>
       </c>
       <c r="B54" t="s">
-        <v>3214</v>
+        <v>4627</v>
       </c>
       <c r="C54" t="s">
-        <v>3271</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>3162</v>
+        <v>4575</v>
       </c>
       <c r="B55" t="s">
-        <v>3215</v>
+        <v>4628</v>
       </c>
       <c r="C55" t="s">
-        <v>3272</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>3162</v>
+        <v>4575</v>
       </c>
       <c r="B56" t="s">
-        <v>3216</v>
+        <v>4629</v>
       </c>
       <c r="C56" t="s">
-        <v>3273</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>3162</v>
+        <v>4575</v>
       </c>
       <c r="B57" t="s">
-        <v>3217</v>
+        <v>4630</v>
       </c>
       <c r="C57" t="s">
-        <v>3274</v>
+        <v>4687</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="4688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8143" uniqueCount="5396">
   <si>
     <t>name</t>
   </si>
@@ -11231,6 +11231,2130 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -14126,2550 +16250,2550 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3980</v>
+        <v>4688</v>
       </c>
       <c r="B1" t="s">
-        <v>4162</v>
+        <v>4870</v>
       </c>
       <c r="C1" t="s">
-        <v>4343</v>
+        <v>5051</v>
       </c>
       <c r="D1" t="s">
-        <v>4404</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3981</v>
+        <v>4689</v>
       </c>
       <c r="B2" t="s">
-        <v>4163</v>
+        <v>4871</v>
       </c>
       <c r="C2" t="s">
-        <v>4344</v>
+        <v>5052</v>
       </c>
       <c r="D2" t="s">
-        <v>4405</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3982</v>
+        <v>4690</v>
       </c>
       <c r="B3" t="s">
-        <v>4164</v>
+        <v>4872</v>
       </c>
       <c r="C3" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D3" t="s">
-        <v>4406</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3983</v>
+        <v>4691</v>
       </c>
       <c r="B4" t="s">
-        <v>4165</v>
+        <v>4873</v>
       </c>
       <c r="C4" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D4" t="s">
-        <v>4407</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3984</v>
+        <v>4692</v>
       </c>
       <c r="B5" t="s">
-        <v>4166</v>
+        <v>4874</v>
       </c>
       <c r="C5" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D5" t="s">
-        <v>4408</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3985</v>
+        <v>4693</v>
       </c>
       <c r="B6" t="s">
-        <v>4167</v>
+        <v>4875</v>
       </c>
       <c r="C6" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D6" t="s">
-        <v>4409</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3986</v>
+        <v>4694</v>
       </c>
       <c r="B7" t="s">
-        <v>4168</v>
+        <v>4876</v>
       </c>
       <c r="C7" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D7" t="s">
-        <v>4410</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3987</v>
+        <v>4695</v>
       </c>
       <c r="B8" t="s">
-        <v>4169</v>
+        <v>4877</v>
       </c>
       <c r="C8" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D8" t="s">
-        <v>4411</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3988</v>
+        <v>4696</v>
       </c>
       <c r="B9" t="s">
-        <v>4170</v>
+        <v>4878</v>
       </c>
       <c r="C9" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D9" t="s">
-        <v>4412</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3989</v>
+        <v>4697</v>
       </c>
       <c r="B10" t="s">
-        <v>4171</v>
+        <v>4879</v>
       </c>
       <c r="C10" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D10" t="s">
-        <v>4413</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3990</v>
+        <v>4698</v>
       </c>
       <c r="B11" t="s">
-        <v>4172</v>
+        <v>4880</v>
       </c>
       <c r="C11" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D11" t="s">
-        <v>4414</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3991</v>
+        <v>4699</v>
       </c>
       <c r="B12" t="s">
-        <v>4173</v>
+        <v>4881</v>
       </c>
       <c r="C12" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D12" t="s">
-        <v>4415</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3992</v>
+        <v>4700</v>
       </c>
       <c r="B13" t="s">
-        <v>4174</v>
+        <v>4882</v>
       </c>
       <c r="C13" t="s">
-        <v>4345</v>
+        <v>5053</v>
       </c>
       <c r="D13" t="s">
-        <v>4416</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3993</v>
+        <v>4701</v>
       </c>
       <c r="B14" t="s">
-        <v>4175</v>
+        <v>4883</v>
       </c>
       <c r="C14" t="s">
-        <v>4346</v>
+        <v>5054</v>
       </c>
       <c r="D14" t="s">
-        <v>4417</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3994</v>
+        <v>4702</v>
       </c>
       <c r="B15" t="s">
-        <v>4176</v>
+        <v>4884</v>
       </c>
       <c r="C15" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D15" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3995</v>
+        <v>4703</v>
       </c>
       <c r="B16" t="s">
-        <v>4177</v>
+        <v>4885</v>
       </c>
       <c r="C16" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D16" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3996</v>
+        <v>4704</v>
       </c>
       <c r="B17" t="s">
-        <v>4178</v>
+        <v>4886</v>
       </c>
       <c r="C17" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D17" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3997</v>
+        <v>4705</v>
       </c>
       <c r="B18" t="s">
-        <v>4179</v>
+        <v>4887</v>
       </c>
       <c r="C18" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D18" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3998</v>
+        <v>4706</v>
       </c>
       <c r="B19" t="s">
-        <v>4180</v>
+        <v>4888</v>
       </c>
       <c r="C19" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D19" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3999</v>
+        <v>4707</v>
       </c>
       <c r="B20" t="s">
-        <v>4181</v>
+        <v>4889</v>
       </c>
       <c r="C20" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D20" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4000</v>
+        <v>4708</v>
       </c>
       <c r="B21" t="s">
-        <v>4182</v>
+        <v>4890</v>
       </c>
       <c r="C21" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D21" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4001</v>
+        <v>4709</v>
       </c>
       <c r="B22" t="s">
-        <v>4183</v>
+        <v>4891</v>
       </c>
       <c r="C22" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D22" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4002</v>
+        <v>4710</v>
       </c>
       <c r="B23" t="s">
-        <v>4184</v>
+        <v>4892</v>
       </c>
       <c r="C23" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D23" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4003</v>
+        <v>4711</v>
       </c>
       <c r="B24" t="s">
-        <v>4185</v>
+        <v>4893</v>
       </c>
       <c r="C24" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D24" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4004</v>
+        <v>4712</v>
       </c>
       <c r="B25" t="s">
-        <v>4186</v>
+        <v>4894</v>
       </c>
       <c r="C25" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D25" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4005</v>
+        <v>4713</v>
       </c>
       <c r="B26" t="s">
-        <v>4187</v>
+        <v>4895</v>
       </c>
       <c r="C26" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D26" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4006</v>
+        <v>4714</v>
       </c>
       <c r="B27" t="s">
-        <v>4188</v>
+        <v>4896</v>
       </c>
       <c r="C27" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D27" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4007</v>
+        <v>4715</v>
       </c>
       <c r="B28" t="s">
-        <v>4189</v>
+        <v>4897</v>
       </c>
       <c r="C28" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D28" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4008</v>
+        <v>4716</v>
       </c>
       <c r="B29" t="s">
-        <v>4190</v>
+        <v>4898</v>
       </c>
       <c r="C29" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D29" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4009</v>
+        <v>4717</v>
       </c>
       <c r="B30" t="s">
-        <v>4191</v>
+        <v>4899</v>
       </c>
       <c r="C30" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D30" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4010</v>
+        <v>4718</v>
       </c>
       <c r="B31" t="s">
-        <v>4192</v>
+        <v>4900</v>
       </c>
       <c r="C31" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D31" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4011</v>
+        <v>4719</v>
       </c>
       <c r="B32" t="s">
-        <v>4193</v>
+        <v>4901</v>
       </c>
       <c r="C32" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D32" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4012</v>
+        <v>4720</v>
       </c>
       <c r="B33" t="s">
-        <v>4194</v>
+        <v>4902</v>
       </c>
       <c r="C33" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D33" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4013</v>
+        <v>4721</v>
       </c>
       <c r="B34" t="s">
-        <v>4195</v>
+        <v>4903</v>
       </c>
       <c r="C34" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D34" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4014</v>
+        <v>4722</v>
       </c>
       <c r="B35" t="s">
-        <v>4196</v>
+        <v>4904</v>
       </c>
       <c r="C35" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D35" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4015</v>
+        <v>4723</v>
       </c>
       <c r="B36" t="s">
-        <v>4197</v>
+        <v>4905</v>
       </c>
       <c r="C36" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D36" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4016</v>
+        <v>4724</v>
       </c>
       <c r="B37" t="s">
-        <v>4198</v>
+        <v>4906</v>
       </c>
       <c r="C37" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D37" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4017</v>
+        <v>4725</v>
       </c>
       <c r="B38" t="s">
-        <v>4199</v>
+        <v>4907</v>
       </c>
       <c r="C38" t="s">
-        <v>4347</v>
+        <v>5055</v>
       </c>
       <c r="D38" t="s">
-        <v>4418</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4018</v>
+        <v>4726</v>
       </c>
       <c r="B39" t="s">
-        <v>4200</v>
+        <v>4908</v>
       </c>
       <c r="C39" t="s">
-        <v>4348</v>
+        <v>5056</v>
       </c>
       <c r="D39" t="s">
-        <v>4419</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4019</v>
+        <v>4727</v>
       </c>
       <c r="B40" t="s">
-        <v>4201</v>
+        <v>4909</v>
       </c>
       <c r="C40" t="s">
-        <v>4348</v>
+        <v>5056</v>
       </c>
       <c r="D40" t="s">
-        <v>4420</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4020</v>
+        <v>4728</v>
       </c>
       <c r="B41" t="s">
-        <v>4202</v>
+        <v>4910</v>
       </c>
       <c r="C41" t="s">
-        <v>4349</v>
+        <v>5057</v>
       </c>
       <c r="D41" t="s">
-        <v>4421</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4021</v>
+        <v>4729</v>
       </c>
       <c r="B42" t="s">
-        <v>4203</v>
+        <v>4911</v>
       </c>
       <c r="C42" t="s">
-        <v>4350</v>
+        <v>5058</v>
       </c>
       <c r="D42" t="s">
-        <v>4422</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4022</v>
+        <v>4730</v>
       </c>
       <c r="B43" t="s">
-        <v>4204</v>
+        <v>4912</v>
       </c>
       <c r="C43" t="s">
-        <v>4350</v>
+        <v>5058</v>
       </c>
       <c r="D43" t="s">
-        <v>4423</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4023</v>
+        <v>4731</v>
       </c>
       <c r="B44" t="s">
-        <v>4205</v>
+        <v>4913</v>
       </c>
       <c r="C44" t="s">
-        <v>4351</v>
+        <v>5059</v>
       </c>
       <c r="D44" t="s">
-        <v>4424</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4024</v>
+        <v>4732</v>
       </c>
       <c r="B45" t="s">
-        <v>4206</v>
+        <v>4914</v>
       </c>
       <c r="C45" t="s">
-        <v>4351</v>
+        <v>5059</v>
       </c>
       <c r="D45" t="s">
-        <v>4425</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4025</v>
+        <v>4733</v>
       </c>
       <c r="B46" t="s">
-        <v>4207</v>
+        <v>4915</v>
       </c>
       <c r="C46" t="s">
-        <v>4351</v>
+        <v>5059</v>
       </c>
       <c r="D46" t="s">
-        <v>4426</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4026</v>
+        <v>4734</v>
       </c>
       <c r="B47" t="s">
-        <v>4208</v>
+        <v>4916</v>
       </c>
       <c r="C47" t="s">
-        <v>4352</v>
+        <v>5060</v>
       </c>
       <c r="D47" t="s">
-        <v>4427</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4027</v>
+        <v>4735</v>
       </c>
       <c r="B48" t="s">
-        <v>4209</v>
+        <v>4917</v>
       </c>
       <c r="C48" t="s">
-        <v>4352</v>
+        <v>5060</v>
       </c>
       <c r="D48" t="s">
-        <v>4428</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4028</v>
+        <v>4736</v>
       </c>
       <c r="B49" t="s">
-        <v>4210</v>
+        <v>4918</v>
       </c>
       <c r="C49" t="s">
-        <v>4352</v>
+        <v>5060</v>
       </c>
       <c r="D49" t="s">
-        <v>4429</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4029</v>
+        <v>4737</v>
       </c>
       <c r="B50" t="s">
-        <v>4211</v>
+        <v>4919</v>
       </c>
       <c r="C50" t="s">
-        <v>4352</v>
+        <v>5060</v>
       </c>
       <c r="D50" t="s">
-        <v>4430</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4030</v>
+        <v>4738</v>
       </c>
       <c r="B51" t="s">
-        <v>4212</v>
+        <v>4920</v>
       </c>
       <c r="C51" t="s">
-        <v>4352</v>
+        <v>5060</v>
       </c>
       <c r="D51" t="s">
-        <v>4431</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4031</v>
+        <v>4739</v>
       </c>
       <c r="B52" t="s">
-        <v>4213</v>
+        <v>4921</v>
       </c>
       <c r="C52" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D52" t="s">
-        <v>4432</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4032</v>
+        <v>4740</v>
       </c>
       <c r="B53" t="s">
-        <v>4214</v>
+        <v>4922</v>
       </c>
       <c r="C53" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D53" t="s">
-        <v>4433</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4033</v>
+        <v>4741</v>
       </c>
       <c r="B54" t="s">
-        <v>4215</v>
+        <v>4923</v>
       </c>
       <c r="C54" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D54" t="s">
-        <v>4433</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4034</v>
+        <v>4742</v>
       </c>
       <c r="B55" t="s">
-        <v>4216</v>
+        <v>4924</v>
       </c>
       <c r="C55" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D55" t="s">
-        <v>4433</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4035</v>
+        <v>4743</v>
       </c>
       <c r="B56" t="s">
-        <v>4217</v>
+        <v>4925</v>
       </c>
       <c r="C56" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D56" t="s">
-        <v>4433</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4036</v>
+        <v>4744</v>
       </c>
       <c r="B57" t="s">
-        <v>4218</v>
+        <v>4926</v>
       </c>
       <c r="C57" t="s">
-        <v>4353</v>
+        <v>5061</v>
       </c>
       <c r="D57" t="s">
-        <v>4434</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>4037</v>
+        <v>4745</v>
       </c>
       <c r="B58" t="s">
-        <v>4219</v>
+        <v>4927</v>
       </c>
       <c r="C58" t="s">
-        <v>4354</v>
+        <v>5062</v>
       </c>
       <c r="D58" t="s">
-        <v>4435</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>4038</v>
+        <v>4746</v>
       </c>
       <c r="B59" t="s">
-        <v>4220</v>
+        <v>4928</v>
       </c>
       <c r="C59" t="s">
-        <v>4355</v>
+        <v>5063</v>
       </c>
       <c r="D59" t="s">
-        <v>4436</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4039</v>
+        <v>4747</v>
       </c>
       <c r="B60" t="s">
-        <v>4221</v>
+        <v>4929</v>
       </c>
       <c r="C60" t="s">
-        <v>4355</v>
+        <v>5063</v>
       </c>
       <c r="D60" t="s">
-        <v>4437</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4040</v>
+        <v>4748</v>
       </c>
       <c r="B61" t="s">
-        <v>4222</v>
+        <v>4930</v>
       </c>
       <c r="C61" t="s">
-        <v>4356</v>
+        <v>5064</v>
       </c>
       <c r="D61" t="s">
-        <v>4438</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4041</v>
+        <v>4749</v>
       </c>
       <c r="B62" t="s">
-        <v>4223</v>
+        <v>4931</v>
       </c>
       <c r="C62" t="s">
-        <v>4357</v>
+        <v>5065</v>
       </c>
       <c r="D62" t="s">
-        <v>4439</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>4042</v>
+        <v>4750</v>
       </c>
       <c r="B63" t="s">
-        <v>4224</v>
+        <v>4932</v>
       </c>
       <c r="C63" t="s">
-        <v>4358</v>
+        <v>5066</v>
       </c>
       <c r="D63" t="s">
-        <v>4440</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>4043</v>
+        <v>4751</v>
       </c>
       <c r="B64" t="s">
-        <v>4225</v>
+        <v>4933</v>
       </c>
       <c r="C64" t="s">
-        <v>4359</v>
+        <v>5067</v>
       </c>
       <c r="D64" t="s">
-        <v>4441</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>4044</v>
+        <v>4752</v>
       </c>
       <c r="B65" t="s">
-        <v>4226</v>
+        <v>4934</v>
       </c>
       <c r="C65" t="s">
-        <v>4359</v>
+        <v>5067</v>
       </c>
       <c r="D65" t="s">
-        <v>4441</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4045</v>
+        <v>4753</v>
       </c>
       <c r="B66" t="s">
-        <v>4227</v>
+        <v>4935</v>
       </c>
       <c r="C66" t="s">
-        <v>4360</v>
+        <v>5068</v>
       </c>
       <c r="D66" t="s">
-        <v>4442</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>4046</v>
+        <v>4754</v>
       </c>
       <c r="B67" t="s">
-        <v>4228</v>
+        <v>4936</v>
       </c>
       <c r="C67" t="s">
-        <v>4361</v>
+        <v>5069</v>
       </c>
       <c r="D67" t="s">
-        <v>4443</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>4047</v>
+        <v>4755</v>
       </c>
       <c r="B68" t="s">
-        <v>4229</v>
+        <v>4937</v>
       </c>
       <c r="C68" t="s">
-        <v>4362</v>
+        <v>5070</v>
       </c>
       <c r="D68" t="s">
-        <v>4444</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4048</v>
+        <v>4756</v>
       </c>
       <c r="B69" t="s">
-        <v>4230</v>
+        <v>4938</v>
       </c>
       <c r="C69" t="s">
-        <v>4363</v>
+        <v>5071</v>
       </c>
       <c r="D69" t="s">
-        <v>4445</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>4049</v>
+        <v>4757</v>
       </c>
       <c r="B70" t="s">
-        <v>4231</v>
+        <v>4939</v>
       </c>
       <c r="C70" t="s">
-        <v>4364</v>
+        <v>5072</v>
       </c>
       <c r="D70" t="s">
-        <v>4446</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4050</v>
+        <v>4758</v>
       </c>
       <c r="B71" t="s">
-        <v>4232</v>
+        <v>4940</v>
       </c>
       <c r="C71" t="s">
-        <v>4364</v>
+        <v>5072</v>
       </c>
       <c r="D71" t="s">
-        <v>4447</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4051</v>
+        <v>4759</v>
       </c>
       <c r="B72" t="s">
-        <v>4233</v>
+        <v>4941</v>
       </c>
       <c r="C72" t="s">
-        <v>4365</v>
+        <v>5073</v>
       </c>
       <c r="D72" t="s">
-        <v>4448</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>4052</v>
+        <v>4760</v>
       </c>
       <c r="B73" t="s">
-        <v>4234</v>
+        <v>4942</v>
       </c>
       <c r="C73" t="s">
-        <v>4365</v>
+        <v>5073</v>
       </c>
       <c r="D73" t="s">
-        <v>4449</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4053</v>
+        <v>4761</v>
       </c>
       <c r="B74" t="s">
-        <v>4235</v>
+        <v>4943</v>
       </c>
       <c r="C74" t="s">
-        <v>4365</v>
+        <v>5073</v>
       </c>
       <c r="D74" t="s">
-        <v>4450</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4054</v>
+        <v>4762</v>
       </c>
       <c r="B75" t="s">
-        <v>4235</v>
+        <v>4943</v>
       </c>
       <c r="C75" t="s">
-        <v>4365</v>
+        <v>5073</v>
       </c>
       <c r="D75" t="s">
-        <v>4451</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>4055</v>
+        <v>4763</v>
       </c>
       <c r="B76" t="s">
-        <v>4236</v>
+        <v>4944</v>
       </c>
       <c r="C76" t="s">
-        <v>4366</v>
+        <v>5074</v>
       </c>
       <c r="D76" t="s">
-        <v>4452</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>4056</v>
+        <v>4764</v>
       </c>
       <c r="B77" t="s">
-        <v>4237</v>
+        <v>4945</v>
       </c>
       <c r="C77" t="s">
-        <v>4367</v>
+        <v>5075</v>
       </c>
       <c r="D77" t="s">
-        <v>4453</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>4057</v>
+        <v>4765</v>
       </c>
       <c r="B78" t="s">
-        <v>4238</v>
+        <v>4946</v>
       </c>
       <c r="C78" t="s">
-        <v>4367</v>
+        <v>5075</v>
       </c>
       <c r="D78" t="s">
-        <v>4454</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>4058</v>
+        <v>4766</v>
       </c>
       <c r="B79" t="s">
-        <v>4239</v>
+        <v>4947</v>
       </c>
       <c r="C79" t="s">
-        <v>4367</v>
+        <v>5075</v>
       </c>
       <c r="D79" t="s">
-        <v>4454</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4059</v>
+        <v>4767</v>
       </c>
       <c r="B80" t="s">
-        <v>4240</v>
+        <v>4948</v>
       </c>
       <c r="C80" t="s">
-        <v>4368</v>
+        <v>5076</v>
       </c>
       <c r="D80" t="s">
-        <v>4455</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4060</v>
+        <v>4768</v>
       </c>
       <c r="B81" t="s">
-        <v>4241</v>
+        <v>4949</v>
       </c>
       <c r="C81" t="s">
-        <v>4369</v>
+        <v>5077</v>
       </c>
       <c r="D81" t="s">
-        <v>4456</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4061</v>
+        <v>4769</v>
       </c>
       <c r="B82" t="s">
-        <v>4242</v>
+        <v>4950</v>
       </c>
       <c r="C82" t="s">
-        <v>4369</v>
+        <v>5077</v>
       </c>
       <c r="D82" t="s">
-        <v>4457</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>4062</v>
+        <v>4770</v>
       </c>
       <c r="B83" t="s">
-        <v>4243</v>
+        <v>4951</v>
       </c>
       <c r="C83" t="s">
-        <v>4369</v>
+        <v>5077</v>
       </c>
       <c r="D83" t="s">
-        <v>4458</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>4063</v>
+        <v>4771</v>
       </c>
       <c r="B84" t="s">
-        <v>4244</v>
+        <v>4952</v>
       </c>
       <c r="C84" t="s">
-        <v>4369</v>
+        <v>5077</v>
       </c>
       <c r="D84" t="s">
-        <v>4459</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4064</v>
+        <v>4772</v>
       </c>
       <c r="B85" t="s">
-        <v>4245</v>
+        <v>4953</v>
       </c>
       <c r="C85" t="s">
-        <v>4369</v>
+        <v>5077</v>
       </c>
       <c r="D85" t="s">
-        <v>4460</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4065</v>
+        <v>4773</v>
       </c>
       <c r="B86" t="s">
-        <v>4246</v>
+        <v>4954</v>
       </c>
       <c r="C86" t="s">
-        <v>4370</v>
+        <v>5078</v>
       </c>
       <c r="D86" t="s">
-        <v>4461</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4066</v>
+        <v>4774</v>
       </c>
       <c r="B87" t="s">
-        <v>4247</v>
+        <v>4955</v>
       </c>
       <c r="C87" t="s">
-        <v>4370</v>
+        <v>5078</v>
       </c>
       <c r="D87" t="s">
-        <v>4462</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>4067</v>
+        <v>4775</v>
       </c>
       <c r="B88" t="s">
-        <v>4248</v>
+        <v>4956</v>
       </c>
       <c r="C88" t="s">
-        <v>4371</v>
+        <v>5079</v>
       </c>
       <c r="D88" t="s">
-        <v>4463</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4068</v>
+        <v>4776</v>
       </c>
       <c r="B89" t="s">
-        <v>4249</v>
+        <v>4957</v>
       </c>
       <c r="C89" t="s">
-        <v>4372</v>
+        <v>5080</v>
       </c>
       <c r="D89" t="s">
-        <v>4464</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4069</v>
+        <v>4777</v>
       </c>
       <c r="B90" t="s">
-        <v>4250</v>
+        <v>4958</v>
       </c>
       <c r="C90" t="s">
-        <v>4373</v>
+        <v>5081</v>
       </c>
       <c r="D90" t="s">
-        <v>4465</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>4070</v>
+        <v>4778</v>
       </c>
       <c r="B91" t="s">
-        <v>4251</v>
+        <v>4959</v>
       </c>
       <c r="C91" t="s">
-        <v>4374</v>
+        <v>5082</v>
       </c>
       <c r="D91" t="s">
-        <v>4466</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>4071</v>
+        <v>4779</v>
       </c>
       <c r="B92" t="s">
-        <v>4252</v>
+        <v>4960</v>
       </c>
       <c r="C92" t="s">
-        <v>4374</v>
+        <v>5082</v>
       </c>
       <c r="D92" t="s">
-        <v>4467</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4072</v>
+        <v>4780</v>
       </c>
       <c r="B93" t="s">
-        <v>4253</v>
+        <v>4961</v>
       </c>
       <c r="C93" t="s">
-        <v>4375</v>
+        <v>5083</v>
       </c>
       <c r="D93" t="s">
-        <v>4468</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4073</v>
+        <v>4781</v>
       </c>
       <c r="B94" t="s">
-        <v>4254</v>
+        <v>4962</v>
       </c>
       <c r="C94" t="s">
-        <v>4376</v>
+        <v>5084</v>
       </c>
       <c r="D94" t="s">
-        <v>4469</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4074</v>
+        <v>4782</v>
       </c>
       <c r="B95" t="s">
-        <v>4255</v>
+        <v>4963</v>
       </c>
       <c r="C95" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D95" t="s">
-        <v>4470</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4075</v>
+        <v>4783</v>
       </c>
       <c r="B96" t="s">
-        <v>4256</v>
+        <v>4964</v>
       </c>
       <c r="C96" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D96" t="s">
-        <v>4471</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>4076</v>
+        <v>4784</v>
       </c>
       <c r="B97" t="s">
-        <v>4257</v>
+        <v>4965</v>
       </c>
       <c r="C97" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D97" t="s">
-        <v>4472</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4077</v>
+        <v>4785</v>
       </c>
       <c r="B98" t="s">
-        <v>4258</v>
+        <v>4966</v>
       </c>
       <c r="C98" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D98" t="s">
-        <v>4473</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>4078</v>
+        <v>4786</v>
       </c>
       <c r="B99" t="s">
-        <v>4259</v>
+        <v>4967</v>
       </c>
       <c r="C99" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D99" t="s">
-        <v>4474</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4079</v>
+        <v>4787</v>
       </c>
       <c r="B100" t="s">
-        <v>4260</v>
+        <v>4968</v>
       </c>
       <c r="C100" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D100" t="s">
-        <v>4475</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4080</v>
+        <v>4788</v>
       </c>
       <c r="B101" t="s">
-        <v>4261</v>
+        <v>4969</v>
       </c>
       <c r="C101" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D101" t="s">
-        <v>4476</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4081</v>
+        <v>4789</v>
       </c>
       <c r="B102" t="s">
-        <v>4262</v>
+        <v>4970</v>
       </c>
       <c r="C102" t="s">
-        <v>4377</v>
+        <v>5085</v>
       </c>
       <c r="D102" t="s">
-        <v>4477</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>4082</v>
+        <v>4790</v>
       </c>
       <c r="B103" t="s">
-        <v>4263</v>
+        <v>4971</v>
       </c>
       <c r="C103" t="s">
-        <v>4378</v>
+        <v>5086</v>
       </c>
       <c r="D103" t="s">
-        <v>4478</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4083</v>
+        <v>4791</v>
       </c>
       <c r="B104" t="s">
-        <v>4264</v>
+        <v>4972</v>
       </c>
       <c r="C104" t="s">
-        <v>4379</v>
+        <v>5087</v>
       </c>
       <c r="D104" t="s">
-        <v>4479</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4084</v>
+        <v>4792</v>
       </c>
       <c r="B105" t="s">
-        <v>4265</v>
+        <v>4973</v>
       </c>
       <c r="C105" t="s">
-        <v>4380</v>
+        <v>5088</v>
       </c>
       <c r="D105" t="s">
-        <v>4480</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4085</v>
+        <v>4793</v>
       </c>
       <c r="B106" t="s">
-        <v>4266</v>
+        <v>4974</v>
       </c>
       <c r="C106" t="s">
-        <v>4380</v>
+        <v>5088</v>
       </c>
       <c r="D106" t="s">
-        <v>4481</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>4086</v>
+        <v>4794</v>
       </c>
       <c r="B107" t="s">
-        <v>4267</v>
+        <v>4975</v>
       </c>
       <c r="C107" t="s">
-        <v>4380</v>
+        <v>5088</v>
       </c>
       <c r="D107" t="s">
-        <v>4482</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>4087</v>
+        <v>4795</v>
       </c>
       <c r="B108" t="s">
-        <v>4268</v>
+        <v>4976</v>
       </c>
       <c r="C108" t="s">
-        <v>4380</v>
+        <v>5088</v>
       </c>
       <c r="D108" t="s">
-        <v>4483</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>4088</v>
+        <v>4796</v>
       </c>
       <c r="B109" t="s">
-        <v>4269</v>
+        <v>4977</v>
       </c>
       <c r="C109" t="s">
-        <v>4380</v>
+        <v>5088</v>
       </c>
       <c r="D109" t="s">
-        <v>4484</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>4089</v>
+        <v>4797</v>
       </c>
       <c r="B110" t="s">
-        <v>4270</v>
+        <v>4978</v>
       </c>
       <c r="C110" t="s">
-        <v>4381</v>
+        <v>5089</v>
       </c>
       <c r="D110" t="s">
-        <v>4485</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4090</v>
+        <v>4798</v>
       </c>
       <c r="B111" t="s">
-        <v>4271</v>
+        <v>4979</v>
       </c>
       <c r="C111" t="s">
-        <v>4381</v>
+        <v>5089</v>
       </c>
       <c r="D111" t="s">
-        <v>4486</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>4091</v>
+        <v>4799</v>
       </c>
       <c r="B112" t="s">
-        <v>4272</v>
+        <v>4980</v>
       </c>
       <c r="C112" t="s">
-        <v>4382</v>
+        <v>5090</v>
       </c>
       <c r="D112" t="s">
-        <v>4487</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>4092</v>
+        <v>4800</v>
       </c>
       <c r="B113" t="s">
-        <v>4273</v>
+        <v>4981</v>
       </c>
       <c r="C113" t="s">
-        <v>4382</v>
+        <v>5090</v>
       </c>
       <c r="D113" t="s">
-        <v>4488</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4093</v>
+        <v>4801</v>
       </c>
       <c r="B114" t="s">
-        <v>4274</v>
+        <v>4982</v>
       </c>
       <c r="C114" t="s">
-        <v>4382</v>
+        <v>5090</v>
       </c>
       <c r="D114" t="s">
-        <v>4489</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4094</v>
+        <v>4802</v>
       </c>
       <c r="B115" t="s">
-        <v>4275</v>
+        <v>4983</v>
       </c>
       <c r="C115" t="s">
-        <v>4383</v>
+        <v>5091</v>
       </c>
       <c r="D115" t="s">
-        <v>4490</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>4095</v>
+        <v>4803</v>
       </c>
       <c r="B116" t="s">
-        <v>4276</v>
+        <v>4984</v>
       </c>
       <c r="C116" t="s">
-        <v>4383</v>
+        <v>5091</v>
       </c>
       <c r="D116" t="s">
-        <v>4491</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>4096</v>
+        <v>4804</v>
       </c>
       <c r="B117" t="s">
-        <v>4277</v>
+        <v>4985</v>
       </c>
       <c r="C117" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D117" t="s">
-        <v>4492</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>4097</v>
+        <v>4805</v>
       </c>
       <c r="B118" t="s">
-        <v>4278</v>
+        <v>4986</v>
       </c>
       <c r="C118" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D118" t="s">
-        <v>4493</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4098</v>
+        <v>4806</v>
       </c>
       <c r="B119" t="s">
-        <v>4279</v>
+        <v>4987</v>
       </c>
       <c r="C119" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D119" t="s">
-        <v>4494</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4099</v>
+        <v>4807</v>
       </c>
       <c r="B120" t="s">
-        <v>4280</v>
+        <v>4988</v>
       </c>
       <c r="C120" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D120" t="s">
-        <v>4495</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>4100</v>
+        <v>4808</v>
       </c>
       <c r="B121" t="s">
-        <v>4281</v>
+        <v>4989</v>
       </c>
       <c r="C121" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D121" t="s">
-        <v>4496</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>4101</v>
+        <v>4809</v>
       </c>
       <c r="B122" t="s">
-        <v>4282</v>
+        <v>4990</v>
       </c>
       <c r="C122" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D122" t="s">
-        <v>4497</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4102</v>
+        <v>4810</v>
       </c>
       <c r="B123" t="s">
-        <v>4283</v>
+        <v>4991</v>
       </c>
       <c r="C123" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D123" t="s">
-        <v>4498</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>4103</v>
+        <v>4811</v>
       </c>
       <c r="B124" t="s">
-        <v>4284</v>
+        <v>4992</v>
       </c>
       <c r="C124" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D124" t="s">
-        <v>4499</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4104</v>
+        <v>4812</v>
       </c>
       <c r="B125" t="s">
-        <v>4285</v>
+        <v>4993</v>
       </c>
       <c r="C125" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D125" t="s">
-        <v>4500</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4105</v>
+        <v>4813</v>
       </c>
       <c r="B126" t="s">
-        <v>4286</v>
+        <v>4994</v>
       </c>
       <c r="C126" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D126" t="s">
-        <v>4501</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4106</v>
+        <v>4814</v>
       </c>
       <c r="B127" t="s">
-        <v>4287</v>
+        <v>4995</v>
       </c>
       <c r="C127" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D127" t="s">
-        <v>4502</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>4107</v>
+        <v>4815</v>
       </c>
       <c r="B128" t="s">
-        <v>4288</v>
+        <v>4996</v>
       </c>
       <c r="C128" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D128" t="s">
-        <v>4503</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4108</v>
+        <v>4816</v>
       </c>
       <c r="B129" t="s">
-        <v>4289</v>
+        <v>4997</v>
       </c>
       <c r="C129" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D129" t="s">
-        <v>4504</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>4109</v>
+        <v>4817</v>
       </c>
       <c r="B130" t="s">
-        <v>4290</v>
+        <v>4998</v>
       </c>
       <c r="C130" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D130" t="s">
-        <v>4505</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>4110</v>
+        <v>4818</v>
       </c>
       <c r="B131" t="s">
-        <v>4291</v>
+        <v>4999</v>
       </c>
       <c r="C131" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D131" t="s">
-        <v>4506</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>4111</v>
+        <v>4819</v>
       </c>
       <c r="B132" t="s">
-        <v>4292</v>
+        <v>5000</v>
       </c>
       <c r="C132" t="s">
-        <v>4384</v>
+        <v>5092</v>
       </c>
       <c r="D132" t="s">
-        <v>4507</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>4112</v>
+        <v>4820</v>
       </c>
       <c r="B133" t="s">
-        <v>4293</v>
+        <v>5001</v>
       </c>
       <c r="C133" t="s">
-        <v>4385</v>
+        <v>5093</v>
       </c>
       <c r="D133" t="s">
-        <v>4508</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4113</v>
+        <v>4821</v>
       </c>
       <c r="B134" t="s">
-        <v>4294</v>
+        <v>5002</v>
       </c>
       <c r="C134" t="s">
-        <v>4386</v>
+        <v>5094</v>
       </c>
       <c r="D134" t="s">
-        <v>4509</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4114</v>
+        <v>4822</v>
       </c>
       <c r="B135" t="s">
-        <v>4295</v>
+        <v>5003</v>
       </c>
       <c r="C135" t="s">
-        <v>4386</v>
+        <v>5094</v>
       </c>
       <c r="D135" t="s">
-        <v>4510</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>4115</v>
+        <v>4823</v>
       </c>
       <c r="B136" t="s">
-        <v>4296</v>
+        <v>5004</v>
       </c>
       <c r="C136" t="s">
-        <v>4386</v>
+        <v>5094</v>
       </c>
       <c r="D136" t="s">
-        <v>4511</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>4116</v>
+        <v>4824</v>
       </c>
       <c r="B137" t="s">
-        <v>4297</v>
+        <v>5005</v>
       </c>
       <c r="C137" t="s">
-        <v>4387</v>
+        <v>5095</v>
       </c>
       <c r="D137" t="s">
-        <v>4512</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>4117</v>
+        <v>4825</v>
       </c>
       <c r="B138" t="s">
-        <v>4298</v>
+        <v>5006</v>
       </c>
       <c r="C138" t="s">
-        <v>4388</v>
+        <v>5096</v>
       </c>
       <c r="D138" t="s">
-        <v>4513</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>4118</v>
+        <v>4826</v>
       </c>
       <c r="B139" t="s">
-        <v>4299</v>
+        <v>5007</v>
       </c>
       <c r="C139" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D139" t="s">
-        <v>4514</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4119</v>
+        <v>4827</v>
       </c>
       <c r="B140" t="s">
-        <v>4300</v>
+        <v>5008</v>
       </c>
       <c r="C140" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D140" t="s">
-        <v>4515</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>4120</v>
+        <v>4828</v>
       </c>
       <c r="B141" t="s">
-        <v>4301</v>
+        <v>5009</v>
       </c>
       <c r="C141" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D141" t="s">
-        <v>4516</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4121</v>
+        <v>4829</v>
       </c>
       <c r="B142" t="s">
-        <v>4302</v>
+        <v>5010</v>
       </c>
       <c r="C142" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D142" t="s">
-        <v>4517</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>4122</v>
+        <v>4830</v>
       </c>
       <c r="B143" t="s">
-        <v>4303</v>
+        <v>5011</v>
       </c>
       <c r="C143" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D143" t="s">
-        <v>4518</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>4123</v>
+        <v>4831</v>
       </c>
       <c r="B144" t="s">
-        <v>4304</v>
+        <v>5012</v>
       </c>
       <c r="C144" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D144" t="s">
-        <v>4519</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>4124</v>
+        <v>4832</v>
       </c>
       <c r="B145" t="s">
-        <v>4305</v>
+        <v>5013</v>
       </c>
       <c r="C145" t="s">
-        <v>4389</v>
+        <v>5097</v>
       </c>
       <c r="D145" t="s">
-        <v>4520</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>4125</v>
+        <v>4833</v>
       </c>
       <c r="B146" t="s">
-        <v>4306</v>
+        <v>5014</v>
       </c>
       <c r="C146" t="s">
-        <v>4390</v>
+        <v>5098</v>
       </c>
       <c r="D146" t="s">
-        <v>4521</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>4126</v>
+        <v>4834</v>
       </c>
       <c r="B147" t="s">
-        <v>4307</v>
+        <v>5015</v>
       </c>
       <c r="C147" t="s">
-        <v>4391</v>
+        <v>5099</v>
       </c>
       <c r="D147" t="s">
-        <v>4522</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>4127</v>
+        <v>4835</v>
       </c>
       <c r="B148" t="s">
-        <v>4308</v>
+        <v>5016</v>
       </c>
       <c r="C148" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D148" t="s">
-        <v>4523</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>4128</v>
+        <v>4836</v>
       </c>
       <c r="B149" t="s">
-        <v>4309</v>
+        <v>5017</v>
       </c>
       <c r="C149" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D149" t="s">
-        <v>4524</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>4129</v>
+        <v>4837</v>
       </c>
       <c r="B150" t="s">
-        <v>4310</v>
+        <v>5018</v>
       </c>
       <c r="C150" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D150" t="s">
-        <v>4525</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>4130</v>
+        <v>4838</v>
       </c>
       <c r="B151" t="s">
-        <v>4311</v>
+        <v>5019</v>
       </c>
       <c r="C151" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D151" t="s">
-        <v>4526</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>4131</v>
+        <v>4839</v>
       </c>
       <c r="B152" t="s">
-        <v>4312</v>
+        <v>5020</v>
       </c>
       <c r="C152" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D152" t="s">
-        <v>4527</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>4132</v>
+        <v>4840</v>
       </c>
       <c r="B153" t="s">
-        <v>4313</v>
+        <v>5021</v>
       </c>
       <c r="C153" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D153" t="s">
-        <v>4528</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4133</v>
+        <v>4841</v>
       </c>
       <c r="B154" t="s">
-        <v>4314</v>
+        <v>5022</v>
       </c>
       <c r="C154" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D154" t="s">
-        <v>4529</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>4134</v>
+        <v>4842</v>
       </c>
       <c r="B155" t="s">
-        <v>4315</v>
+        <v>5023</v>
       </c>
       <c r="C155" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D155" t="s">
-        <v>4530</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>4135</v>
+        <v>4843</v>
       </c>
       <c r="B156" t="s">
-        <v>4316</v>
+        <v>5024</v>
       </c>
       <c r="C156" t="s">
-        <v>4392</v>
+        <v>5100</v>
       </c>
       <c r="D156" t="s">
-        <v>4531</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4136</v>
+        <v>4844</v>
       </c>
       <c r="B157" t="s">
-        <v>4317</v>
+        <v>5025</v>
       </c>
       <c r="C157" t="s">
-        <v>4393</v>
+        <v>5101</v>
       </c>
       <c r="D157" t="s">
-        <v>4532</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>4137</v>
+        <v>4845</v>
       </c>
       <c r="B158" t="s">
-        <v>4318</v>
+        <v>5026</v>
       </c>
       <c r="C158" t="s">
-        <v>4393</v>
+        <v>5101</v>
       </c>
       <c r="D158" t="s">
-        <v>4533</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>4138</v>
+        <v>4846</v>
       </c>
       <c r="B159" t="s">
-        <v>4319</v>
+        <v>5027</v>
       </c>
       <c r="C159" t="s">
-        <v>4393</v>
+        <v>5101</v>
       </c>
       <c r="D159" t="s">
-        <v>4534</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>4139</v>
+        <v>4847</v>
       </c>
       <c r="B160" t="s">
-        <v>4320</v>
+        <v>5028</v>
       </c>
       <c r="C160" t="s">
-        <v>4393</v>
+        <v>5101</v>
       </c>
       <c r="D160" t="s">
-        <v>4535</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>4140</v>
+        <v>4848</v>
       </c>
       <c r="B161" t="s">
-        <v>4321</v>
+        <v>5029</v>
       </c>
       <c r="C161" t="s">
-        <v>4394</v>
+        <v>5102</v>
       </c>
       <c r="D161" t="s">
-        <v>4536</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>4141</v>
+        <v>4849</v>
       </c>
       <c r="B162" t="s">
-        <v>4322</v>
+        <v>5030</v>
       </c>
       <c r="C162" t="s">
-        <v>4395</v>
+        <v>5103</v>
       </c>
       <c r="D162" t="s">
-        <v>4537</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>4142</v>
+        <v>4850</v>
       </c>
       <c r="B163" t="s">
-        <v>4323</v>
+        <v>5031</v>
       </c>
       <c r="C163" t="s">
-        <v>4395</v>
+        <v>5103</v>
       </c>
       <c r="D163" t="s">
-        <v>4538</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>4143</v>
+        <v>4851</v>
       </c>
       <c r="B164" t="s">
-        <v>4324</v>
+        <v>5032</v>
       </c>
       <c r="C164" t="s">
-        <v>4395</v>
+        <v>5103</v>
       </c>
       <c r="D164" t="s">
-        <v>4539</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>4144</v>
+        <v>4852</v>
       </c>
       <c r="B165" t="s">
-        <v>4325</v>
+        <v>5033</v>
       </c>
       <c r="C165" t="s">
-        <v>4396</v>
+        <v>5104</v>
       </c>
       <c r="D165" t="s">
-        <v>4540</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>4145</v>
+        <v>4853</v>
       </c>
       <c r="B166" t="s">
-        <v>4326</v>
+        <v>5034</v>
       </c>
       <c r="C166" t="s">
-        <v>4397</v>
+        <v>5105</v>
       </c>
       <c r="D166" t="s">
-        <v>4541</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>4146</v>
+        <v>4854</v>
       </c>
       <c r="B167" t="s">
-        <v>4327</v>
+        <v>5035</v>
       </c>
       <c r="C167" t="s">
-        <v>4397</v>
+        <v>5105</v>
       </c>
       <c r="D167" t="s">
-        <v>4542</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>4147</v>
+        <v>4855</v>
       </c>
       <c r="B168" t="s">
-        <v>4328</v>
+        <v>5036</v>
       </c>
       <c r="C168" t="s">
-        <v>4397</v>
+        <v>5105</v>
       </c>
       <c r="D168" t="s">
-        <v>4543</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>4148</v>
+        <v>4856</v>
       </c>
       <c r="B169" t="s">
-        <v>4329</v>
+        <v>5037</v>
       </c>
       <c r="C169" t="s">
-        <v>4397</v>
+        <v>5105</v>
       </c>
       <c r="D169" t="s">
-        <v>4544</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>4149</v>
+        <v>4857</v>
       </c>
       <c r="B170" t="s">
-        <v>4330</v>
+        <v>5038</v>
       </c>
       <c r="C170" t="s">
-        <v>4398</v>
+        <v>5106</v>
       </c>
       <c r="D170" t="s">
-        <v>4545</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>4150</v>
+        <v>4858</v>
       </c>
       <c r="B171" t="s">
-        <v>4331</v>
+        <v>5039</v>
       </c>
       <c r="C171" t="s">
-        <v>4399</v>
+        <v>5107</v>
       </c>
       <c r="D171" t="s">
-        <v>4546</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>4151</v>
+        <v>4859</v>
       </c>
       <c r="B172" t="s">
-        <v>4332</v>
+        <v>5040</v>
       </c>
       <c r="C172" t="s">
-        <v>4399</v>
+        <v>5107</v>
       </c>
       <c r="D172" t="s">
-        <v>4547</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>4152</v>
+        <v>4860</v>
       </c>
       <c r="B173" t="s">
-        <v>4333</v>
+        <v>5041</v>
       </c>
       <c r="C173" t="s">
-        <v>4399</v>
+        <v>5107</v>
       </c>
       <c r="D173" t="s">
-        <v>4548</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>4153</v>
+        <v>4861</v>
       </c>
       <c r="B174" t="s">
-        <v>4334</v>
+        <v>5042</v>
       </c>
       <c r="C174" t="s">
-        <v>4400</v>
+        <v>5108</v>
       </c>
       <c r="D174" t="s">
-        <v>4549</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>4154</v>
+        <v>4862</v>
       </c>
       <c r="B175" t="s">
-        <v>4335</v>
+        <v>5043</v>
       </c>
       <c r="C175" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D175" t="s">
-        <v>4550</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>4155</v>
+        <v>4863</v>
       </c>
       <c r="B176" t="s">
-        <v>4336</v>
+        <v>5044</v>
       </c>
       <c r="C176" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D176" t="s">
-        <v>4551</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4156</v>
+        <v>4864</v>
       </c>
       <c r="B177" t="s">
-        <v>4337</v>
+        <v>5045</v>
       </c>
       <c r="C177" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D177" t="s">
-        <v>4551</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>4157</v>
+        <v>4865</v>
       </c>
       <c r="B178" t="s">
-        <v>4338</v>
+        <v>5046</v>
       </c>
       <c r="C178" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D178" t="s">
-        <v>4551</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>4158</v>
+        <v>4866</v>
       </c>
       <c r="B179" t="s">
-        <v>4339</v>
+        <v>5047</v>
       </c>
       <c r="C179" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D179" t="s">
-        <v>4552</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>4159</v>
+        <v>4867</v>
       </c>
       <c r="B180" t="s">
-        <v>4340</v>
+        <v>5048</v>
       </c>
       <c r="C180" t="s">
-        <v>4401</v>
+        <v>5109</v>
       </c>
       <c r="D180" t="s">
-        <v>4553</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>4160</v>
+        <v>4868</v>
       </c>
       <c r="B181" t="s">
-        <v>4341</v>
+        <v>5049</v>
       </c>
       <c r="C181" t="s">
-        <v>4402</v>
+        <v>5110</v>
       </c>
       <c r="D181" t="s">
-        <v>4554</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>4161</v>
+        <v>4869</v>
       </c>
       <c r="B182" t="s">
-        <v>4342</v>
+        <v>5050</v>
       </c>
       <c r="C182" t="s">
-        <v>4403</v>
+        <v>5111</v>
       </c>
       <c r="D182" t="s">
-        <v>4555</v>
+        <v>5263</v>
       </c>
     </row>
   </sheetData>
@@ -16683,629 +18807,629 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4556</v>
+        <v>5264</v>
       </c>
       <c r="B1" t="s">
-        <v>4576</v>
+        <v>5284</v>
       </c>
       <c r="C1" t="s">
-        <v>4631</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4557</v>
+        <v>5265</v>
       </c>
       <c r="B2" t="s">
-        <v>4577</v>
+        <v>5285</v>
       </c>
       <c r="C2" t="s">
-        <v>4632</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4557</v>
+        <v>5265</v>
       </c>
       <c r="B3" t="s">
-        <v>4578</v>
+        <v>5286</v>
       </c>
       <c r="C3" t="s">
-        <v>4633</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4558</v>
+        <v>5266</v>
       </c>
       <c r="B4" t="s">
-        <v>4579</v>
+        <v>5287</v>
       </c>
       <c r="C4" t="s">
-        <v>4634</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4558</v>
+        <v>5266</v>
       </c>
       <c r="B5" t="s">
-        <v>4580</v>
+        <v>5288</v>
       </c>
       <c r="C5" t="s">
-        <v>4635</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4558</v>
+        <v>5266</v>
       </c>
       <c r="B6" t="s">
-        <v>4581</v>
+        <v>5289</v>
       </c>
       <c r="C6" t="s">
-        <v>4636</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4559</v>
+        <v>5267</v>
       </c>
       <c r="B7" t="s">
-        <v>4582</v>
+        <v>5290</v>
       </c>
       <c r="C7" t="s">
-        <v>4637</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4559</v>
+        <v>5267</v>
       </c>
       <c r="B8" t="s">
-        <v>4583</v>
+        <v>5291</v>
       </c>
       <c r="C8" t="s">
-        <v>4638</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4559</v>
+        <v>5267</v>
       </c>
       <c r="B9" t="s">
-        <v>4584</v>
+        <v>5292</v>
       </c>
       <c r="C9" t="s">
-        <v>4639</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4559</v>
+        <v>5267</v>
       </c>
       <c r="B10" t="s">
-        <v>4585</v>
+        <v>5293</v>
       </c>
       <c r="C10" t="s">
-        <v>4640</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4560</v>
+        <v>5268</v>
       </c>
       <c r="B11" t="s">
-        <v>4586</v>
+        <v>5294</v>
       </c>
       <c r="C11" t="s">
-        <v>4641</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4560</v>
+        <v>5268</v>
       </c>
       <c r="B12" t="s">
-        <v>4587</v>
+        <v>5295</v>
       </c>
       <c r="C12" t="s">
-        <v>4642</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4560</v>
+        <v>5268</v>
       </c>
       <c r="B13" t="s">
-        <v>4588</v>
+        <v>5296</v>
       </c>
       <c r="C13" t="s">
-        <v>4643</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4561</v>
+        <v>5269</v>
       </c>
       <c r="B14" t="s">
-        <v>4589</v>
+        <v>5297</v>
       </c>
       <c r="C14" t="s">
-        <v>4644</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4561</v>
+        <v>5269</v>
       </c>
       <c r="B15" t="s">
-        <v>4590</v>
+        <v>5298</v>
       </c>
       <c r="C15" t="s">
-        <v>4645</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4561</v>
+        <v>5269</v>
       </c>
       <c r="B16" t="s">
-        <v>4591</v>
+        <v>5299</v>
       </c>
       <c r="C16" t="s">
-        <v>4646</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B17" t="s">
-        <v>4592</v>
+        <v>5300</v>
       </c>
       <c r="C17" t="s">
-        <v>4647</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B18" t="s">
-        <v>4593</v>
+        <v>5301</v>
       </c>
       <c r="C18" t="s">
-        <v>4648</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B19" t="s">
-        <v>4594</v>
+        <v>5302</v>
       </c>
       <c r="C19" t="s">
-        <v>4649</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B20" t="s">
-        <v>4595</v>
+        <v>5303</v>
       </c>
       <c r="C20" t="s">
-        <v>4650</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B21" t="s">
-        <v>4596</v>
+        <v>5304</v>
       </c>
       <c r="C21" t="s">
-        <v>4651</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4562</v>
+        <v>5270</v>
       </c>
       <c r="B22" t="s">
-        <v>4597</v>
+        <v>5305</v>
       </c>
       <c r="C22" t="s">
-        <v>4652</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4563</v>
+        <v>5271</v>
       </c>
       <c r="B23" t="s">
-        <v>4598</v>
+        <v>5306</v>
       </c>
       <c r="C23" t="s">
-        <v>4653</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4563</v>
+        <v>5271</v>
       </c>
       <c r="B24" t="s">
-        <v>4599</v>
+        <v>5307</v>
       </c>
       <c r="C24" t="s">
-        <v>4654</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4564</v>
+        <v>5272</v>
       </c>
       <c r="B25" t="s">
-        <v>4600</v>
+        <v>5308</v>
       </c>
       <c r="C25" t="s">
-        <v>4655</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4564</v>
+        <v>5272</v>
       </c>
       <c r="B26" t="s">
-        <v>4601</v>
+        <v>5309</v>
       </c>
       <c r="C26" t="s">
-        <v>4656</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4565</v>
+        <v>5273</v>
       </c>
       <c r="B27" t="s">
-        <v>4601</v>
+        <v>5309</v>
       </c>
       <c r="C27" t="s">
-        <v>4657</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4565</v>
+        <v>5273</v>
       </c>
       <c r="B28" t="s">
-        <v>4602</v>
+        <v>5310</v>
       </c>
       <c r="C28" t="s">
-        <v>4658</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4565</v>
+        <v>5273</v>
       </c>
       <c r="B29" t="s">
-        <v>4603</v>
+        <v>5311</v>
       </c>
       <c r="C29" t="s">
-        <v>4659</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4565</v>
+        <v>5273</v>
       </c>
       <c r="B30" t="s">
-        <v>4604</v>
+        <v>5312</v>
       </c>
       <c r="C30" t="s">
-        <v>4660</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4565</v>
+        <v>5273</v>
       </c>
       <c r="B31" t="s">
-        <v>4605</v>
+        <v>5313</v>
       </c>
       <c r="C31" t="s">
-        <v>4661</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4566</v>
+        <v>5274</v>
       </c>
       <c r="B32" t="s">
-        <v>4606</v>
+        <v>5314</v>
       </c>
       <c r="C32" t="s">
-        <v>4662</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4566</v>
+        <v>5274</v>
       </c>
       <c r="B33" t="s">
-        <v>4607</v>
+        <v>5315</v>
       </c>
       <c r="C33" t="s">
-        <v>4663</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4567</v>
+        <v>5275</v>
       </c>
       <c r="B34" t="s">
-        <v>4607</v>
+        <v>5315</v>
       </c>
       <c r="C34" t="s">
-        <v>4664</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4567</v>
+        <v>5275</v>
       </c>
       <c r="B35" t="s">
-        <v>4608</v>
+        <v>5316</v>
       </c>
       <c r="C35" t="s">
-        <v>4665</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4567</v>
+        <v>5275</v>
       </c>
       <c r="B36" t="s">
-        <v>4609</v>
+        <v>5317</v>
       </c>
       <c r="C36" t="s">
-        <v>4666</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4568</v>
+        <v>5276</v>
       </c>
       <c r="B37" t="s">
-        <v>4610</v>
+        <v>5318</v>
       </c>
       <c r="C37" t="s">
-        <v>4667</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4568</v>
+        <v>5276</v>
       </c>
       <c r="B38" t="s">
-        <v>4611</v>
+        <v>5319</v>
       </c>
       <c r="C38" t="s">
-        <v>4668</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4569</v>
+        <v>5277</v>
       </c>
       <c r="B39" t="s">
-        <v>4612</v>
+        <v>5320</v>
       </c>
       <c r="C39" t="s">
-        <v>4669</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4569</v>
+        <v>5277</v>
       </c>
       <c r="B40" t="s">
-        <v>4613</v>
+        <v>5321</v>
       </c>
       <c r="C40" t="s">
-        <v>4670</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4570</v>
+        <v>5278</v>
       </c>
       <c r="B41" t="s">
-        <v>4614</v>
+        <v>5322</v>
       </c>
       <c r="C41" t="s">
-        <v>4671</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4570</v>
+        <v>5278</v>
       </c>
       <c r="B42" t="s">
-        <v>4615</v>
+        <v>5323</v>
       </c>
       <c r="C42" t="s">
-        <v>4672</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4571</v>
+        <v>5279</v>
       </c>
       <c r="B43" t="s">
-        <v>4616</v>
+        <v>5324</v>
       </c>
       <c r="C43" t="s">
-        <v>4673</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4571</v>
+        <v>5279</v>
       </c>
       <c r="B44" t="s">
-        <v>4617</v>
+        <v>5325</v>
       </c>
       <c r="C44" t="s">
-        <v>4674</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4572</v>
+        <v>5280</v>
       </c>
       <c r="B45" t="s">
-        <v>4618</v>
+        <v>5326</v>
       </c>
       <c r="C45" t="s">
-        <v>4675</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4572</v>
+        <v>5280</v>
       </c>
       <c r="B46" t="s">
-        <v>4619</v>
+        <v>5327</v>
       </c>
       <c r="C46" t="s">
-        <v>4676</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4572</v>
+        <v>5280</v>
       </c>
       <c r="B47" t="s">
-        <v>4620</v>
+        <v>5328</v>
       </c>
       <c r="C47" t="s">
-        <v>4677</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4573</v>
+        <v>5281</v>
       </c>
       <c r="B48" t="s">
-        <v>4621</v>
+        <v>5329</v>
       </c>
       <c r="C48" t="s">
-        <v>4678</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4573</v>
+        <v>5281</v>
       </c>
       <c r="B49" t="s">
-        <v>4622</v>
+        <v>5330</v>
       </c>
       <c r="C49" t="s">
-        <v>4679</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4574</v>
+        <v>5282</v>
       </c>
       <c r="B50" t="s">
-        <v>4623</v>
+        <v>5331</v>
       </c>
       <c r="C50" t="s">
-        <v>4680</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4574</v>
+        <v>5282</v>
       </c>
       <c r="B51" t="s">
-        <v>4624</v>
+        <v>5332</v>
       </c>
       <c r="C51" t="s">
-        <v>4681</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4574</v>
+        <v>5282</v>
       </c>
       <c r="B52" t="s">
-        <v>4625</v>
+        <v>5333</v>
       </c>
       <c r="C52" t="s">
-        <v>4682</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4574</v>
+        <v>5282</v>
       </c>
       <c r="B53" t="s">
-        <v>4626</v>
+        <v>5334</v>
       </c>
       <c r="C53" t="s">
-        <v>4683</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4574</v>
+        <v>5282</v>
       </c>
       <c r="B54" t="s">
-        <v>4627</v>
+        <v>5335</v>
       </c>
       <c r="C54" t="s">
-        <v>4684</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4575</v>
+        <v>5283</v>
       </c>
       <c r="B55" t="s">
-        <v>4628</v>
+        <v>5336</v>
       </c>
       <c r="C55" t="s">
-        <v>4685</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4575</v>
+        <v>5283</v>
       </c>
       <c r="B56" t="s">
-        <v>4629</v>
+        <v>5337</v>
       </c>
       <c r="C56" t="s">
-        <v>4686</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4575</v>
+        <v>5283</v>
       </c>
       <c r="B57" t="s">
-        <v>4630</v>
+        <v>5338</v>
       </c>
       <c r="C57" t="s">
-        <v>4687</v>
+        <v>5395</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8143" uniqueCount="5396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10091" uniqueCount="6918">
   <si>
     <t>name</t>
   </si>
@@ -16139,6 +16139,4572 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>No</t>
@@ -16245,2555 +20811,2583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D184"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4688</v>
+        <v>6138</v>
       </c>
       <c r="B1" t="s">
-        <v>4870</v>
+        <v>6322</v>
       </c>
       <c r="C1" t="s">
-        <v>5051</v>
+        <v>6505</v>
       </c>
       <c r="D1" t="s">
-        <v>5112</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4689</v>
+        <v>6139</v>
       </c>
       <c r="B2" t="s">
-        <v>4871</v>
+        <v>6323</v>
       </c>
       <c r="C2" t="s">
-        <v>5052</v>
+        <v>6506</v>
       </c>
       <c r="D2" t="s">
-        <v>5113</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4690</v>
+        <v>6140</v>
       </c>
       <c r="B3" t="s">
-        <v>4872</v>
+        <v>6324</v>
       </c>
       <c r="C3" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D3" t="s">
-        <v>5114</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4691</v>
+        <v>6141</v>
       </c>
       <c r="B4" t="s">
-        <v>4873</v>
+        <v>6325</v>
       </c>
       <c r="C4" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D4" t="s">
-        <v>5115</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4692</v>
+        <v>6142</v>
       </c>
       <c r="B5" t="s">
-        <v>4874</v>
+        <v>6326</v>
       </c>
       <c r="C5" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D5" t="s">
-        <v>5116</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4693</v>
+        <v>6143</v>
       </c>
       <c r="B6" t="s">
-        <v>4875</v>
+        <v>6327</v>
       </c>
       <c r="C6" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D6" t="s">
-        <v>5117</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4694</v>
+        <v>6144</v>
       </c>
       <c r="B7" t="s">
-        <v>4876</v>
+        <v>6328</v>
       </c>
       <c r="C7" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D7" t="s">
-        <v>5118</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4695</v>
+        <v>6145</v>
       </c>
       <c r="B8" t="s">
-        <v>4877</v>
+        <v>6329</v>
       </c>
       <c r="C8" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D8" t="s">
-        <v>5119</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4696</v>
+        <v>6146</v>
       </c>
       <c r="B9" t="s">
-        <v>4878</v>
+        <v>6330</v>
       </c>
       <c r="C9" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D9" t="s">
-        <v>5120</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4697</v>
+        <v>6147</v>
       </c>
       <c r="B10" t="s">
-        <v>4879</v>
+        <v>6331</v>
       </c>
       <c r="C10" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D10" t="s">
-        <v>5121</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4698</v>
+        <v>6148</v>
       </c>
       <c r="B11" t="s">
-        <v>4880</v>
+        <v>6332</v>
       </c>
       <c r="C11" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D11" t="s">
-        <v>5122</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4699</v>
+        <v>6149</v>
       </c>
       <c r="B12" t="s">
-        <v>4881</v>
+        <v>6333</v>
       </c>
       <c r="C12" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D12" t="s">
-        <v>5123</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4700</v>
+        <v>6150</v>
       </c>
       <c r="B13" t="s">
-        <v>4882</v>
+        <v>6334</v>
       </c>
       <c r="C13" t="s">
-        <v>5053</v>
+        <v>6507</v>
       </c>
       <c r="D13" t="s">
-        <v>5124</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4701</v>
+        <v>6151</v>
       </c>
       <c r="B14" t="s">
-        <v>4883</v>
+        <v>6335</v>
       </c>
       <c r="C14" t="s">
-        <v>5054</v>
+        <v>6508</v>
       </c>
       <c r="D14" t="s">
-        <v>5125</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4702</v>
+        <v>6152</v>
       </c>
       <c r="B15" t="s">
-        <v>4884</v>
+        <v>6336</v>
       </c>
       <c r="C15" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D15" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4703</v>
+        <v>6153</v>
       </c>
       <c r="B16" t="s">
-        <v>4885</v>
+        <v>6337</v>
       </c>
       <c r="C16" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D16" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4704</v>
+        <v>6154</v>
       </c>
       <c r="B17" t="s">
-        <v>4886</v>
+        <v>6338</v>
       </c>
       <c r="C17" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D17" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4705</v>
+        <v>6155</v>
       </c>
       <c r="B18" t="s">
-        <v>4887</v>
+        <v>6339</v>
       </c>
       <c r="C18" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D18" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4706</v>
+        <v>6156</v>
       </c>
       <c r="B19" t="s">
-        <v>4888</v>
+        <v>6340</v>
       </c>
       <c r="C19" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D19" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4707</v>
+        <v>6157</v>
       </c>
       <c r="B20" t="s">
-        <v>4889</v>
+        <v>6341</v>
       </c>
       <c r="C20" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D20" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4708</v>
+        <v>6158</v>
       </c>
       <c r="B21" t="s">
-        <v>4890</v>
+        <v>6342</v>
       </c>
       <c r="C21" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D21" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4709</v>
+        <v>6159</v>
       </c>
       <c r="B22" t="s">
-        <v>4891</v>
+        <v>6343</v>
       </c>
       <c r="C22" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D22" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4710</v>
+        <v>6160</v>
       </c>
       <c r="B23" t="s">
-        <v>4892</v>
+        <v>6344</v>
       </c>
       <c r="C23" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D23" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4711</v>
+        <v>6161</v>
       </c>
       <c r="B24" t="s">
-        <v>4893</v>
+        <v>6345</v>
       </c>
       <c r="C24" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D24" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4712</v>
+        <v>6162</v>
       </c>
       <c r="B25" t="s">
-        <v>4894</v>
+        <v>6346</v>
       </c>
       <c r="C25" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D25" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4713</v>
+        <v>6163</v>
       </c>
       <c r="B26" t="s">
-        <v>4895</v>
+        <v>6347</v>
       </c>
       <c r="C26" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D26" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4714</v>
+        <v>6164</v>
       </c>
       <c r="B27" t="s">
-        <v>4896</v>
+        <v>6348</v>
       </c>
       <c r="C27" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D27" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4715</v>
+        <v>6165</v>
       </c>
       <c r="B28" t="s">
-        <v>4897</v>
+        <v>6349</v>
       </c>
       <c r="C28" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D28" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4716</v>
+        <v>6166</v>
       </c>
       <c r="B29" t="s">
-        <v>4898</v>
+        <v>6350</v>
       </c>
       <c r="C29" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D29" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4717</v>
+        <v>6167</v>
       </c>
       <c r="B30" t="s">
-        <v>4899</v>
+        <v>6351</v>
       </c>
       <c r="C30" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D30" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4718</v>
+        <v>6168</v>
       </c>
       <c r="B31" t="s">
-        <v>4900</v>
+        <v>6352</v>
       </c>
       <c r="C31" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D31" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4719</v>
+        <v>6169</v>
       </c>
       <c r="B32" t="s">
-        <v>4901</v>
+        <v>6353</v>
       </c>
       <c r="C32" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D32" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4720</v>
+        <v>6170</v>
       </c>
       <c r="B33" t="s">
-        <v>4902</v>
+        <v>6354</v>
       </c>
       <c r="C33" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D33" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4721</v>
+        <v>6171</v>
       </c>
       <c r="B34" t="s">
-        <v>4903</v>
+        <v>6355</v>
       </c>
       <c r="C34" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D34" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4722</v>
+        <v>6172</v>
       </c>
       <c r="B35" t="s">
-        <v>4904</v>
+        <v>6356</v>
       </c>
       <c r="C35" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D35" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4723</v>
+        <v>6173</v>
       </c>
       <c r="B36" t="s">
-        <v>4905</v>
+        <v>6357</v>
       </c>
       <c r="C36" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D36" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4724</v>
+        <v>6174</v>
       </c>
       <c r="B37" t="s">
-        <v>4906</v>
+        <v>6358</v>
       </c>
       <c r="C37" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D37" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>4725</v>
+        <v>6175</v>
       </c>
       <c r="B38" t="s">
-        <v>4907</v>
+        <v>6359</v>
       </c>
       <c r="C38" t="s">
-        <v>5055</v>
+        <v>6509</v>
       </c>
       <c r="D38" t="s">
-        <v>5126</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>4726</v>
+        <v>6176</v>
       </c>
       <c r="B39" t="s">
-        <v>4908</v>
+        <v>6360</v>
       </c>
       <c r="C39" t="s">
-        <v>5056</v>
+        <v>6510</v>
       </c>
       <c r="D39" t="s">
-        <v>5127</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>4727</v>
+        <v>6177</v>
       </c>
       <c r="B40" t="s">
-        <v>4909</v>
+        <v>6361</v>
       </c>
       <c r="C40" t="s">
-        <v>5056</v>
+        <v>6510</v>
       </c>
       <c r="D40" t="s">
-        <v>5128</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>4728</v>
+        <v>6178</v>
       </c>
       <c r="B41" t="s">
-        <v>4910</v>
+        <v>6362</v>
       </c>
       <c r="C41" t="s">
-        <v>5057</v>
+        <v>6511</v>
       </c>
       <c r="D41" t="s">
-        <v>5129</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4729</v>
+        <v>6179</v>
       </c>
       <c r="B42" t="s">
-        <v>4911</v>
+        <v>6363</v>
       </c>
       <c r="C42" t="s">
-        <v>5058</v>
+        <v>6512</v>
       </c>
       <c r="D42" t="s">
-        <v>5130</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>4730</v>
+        <v>6180</v>
       </c>
       <c r="B43" t="s">
-        <v>4912</v>
+        <v>6364</v>
       </c>
       <c r="C43" t="s">
-        <v>5058</v>
+        <v>6512</v>
       </c>
       <c r="D43" t="s">
-        <v>5131</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4731</v>
+        <v>6181</v>
       </c>
       <c r="B44" t="s">
-        <v>4913</v>
+        <v>6365</v>
       </c>
       <c r="C44" t="s">
-        <v>5059</v>
+        <v>6513</v>
       </c>
       <c r="D44" t="s">
-        <v>5132</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>4732</v>
+        <v>6182</v>
       </c>
       <c r="B45" t="s">
-        <v>4914</v>
+        <v>6366</v>
       </c>
       <c r="C45" t="s">
-        <v>5059</v>
+        <v>6513</v>
       </c>
       <c r="D45" t="s">
-        <v>5133</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4733</v>
+        <v>6183</v>
       </c>
       <c r="B46" t="s">
-        <v>4915</v>
+        <v>6367</v>
       </c>
       <c r="C46" t="s">
-        <v>5059</v>
+        <v>6513</v>
       </c>
       <c r="D46" t="s">
-        <v>5134</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>4734</v>
+        <v>6184</v>
       </c>
       <c r="B47" t="s">
-        <v>4916</v>
+        <v>6368</v>
       </c>
       <c r="C47" t="s">
-        <v>5060</v>
+        <v>6514</v>
       </c>
       <c r="D47" t="s">
-        <v>5135</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>4735</v>
+        <v>6185</v>
       </c>
       <c r="B48" t="s">
-        <v>4917</v>
+        <v>6369</v>
       </c>
       <c r="C48" t="s">
-        <v>5060</v>
+        <v>6514</v>
       </c>
       <c r="D48" t="s">
-        <v>5136</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>4736</v>
+        <v>6186</v>
       </c>
       <c r="B49" t="s">
-        <v>4918</v>
+        <v>6370</v>
       </c>
       <c r="C49" t="s">
-        <v>5060</v>
+        <v>6514</v>
       </c>
       <c r="D49" t="s">
-        <v>5137</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>4737</v>
+        <v>6187</v>
       </c>
       <c r="B50" t="s">
-        <v>4919</v>
+        <v>6371</v>
       </c>
       <c r="C50" t="s">
-        <v>5060</v>
+        <v>6514</v>
       </c>
       <c r="D50" t="s">
-        <v>5138</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4738</v>
+        <v>6188</v>
       </c>
       <c r="B51" t="s">
-        <v>4920</v>
+        <v>6372</v>
       </c>
       <c r="C51" t="s">
-        <v>5060</v>
+        <v>6514</v>
       </c>
       <c r="D51" t="s">
-        <v>5139</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>4739</v>
+        <v>6189</v>
       </c>
       <c r="B52" t="s">
-        <v>4921</v>
+        <v>6373</v>
       </c>
       <c r="C52" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D52" t="s">
-        <v>5140</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4740</v>
+        <v>6190</v>
       </c>
       <c r="B53" t="s">
-        <v>4922</v>
+        <v>6374</v>
       </c>
       <c r="C53" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D53" t="s">
-        <v>5141</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>4741</v>
+        <v>6191</v>
       </c>
       <c r="B54" t="s">
-        <v>4923</v>
+        <v>6375</v>
       </c>
       <c r="C54" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D54" t="s">
-        <v>5141</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>4742</v>
+        <v>6192</v>
       </c>
       <c r="B55" t="s">
-        <v>4924</v>
+        <v>6376</v>
       </c>
       <c r="C55" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D55" t="s">
-        <v>5141</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>4743</v>
+        <v>6193</v>
       </c>
       <c r="B56" t="s">
-        <v>4925</v>
+        <v>6377</v>
       </c>
       <c r="C56" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D56" t="s">
-        <v>5141</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>4744</v>
+        <v>6194</v>
       </c>
       <c r="B57" t="s">
-        <v>4926</v>
+        <v>6378</v>
       </c>
       <c r="C57" t="s">
-        <v>5061</v>
+        <v>6515</v>
       </c>
       <c r="D57" t="s">
-        <v>5142</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>4745</v>
+        <v>6195</v>
       </c>
       <c r="B58" t="s">
-        <v>4927</v>
+        <v>6379</v>
       </c>
       <c r="C58" t="s">
-        <v>5062</v>
+        <v>6516</v>
       </c>
       <c r="D58" t="s">
-        <v>5143</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>4746</v>
+        <v>6196</v>
       </c>
       <c r="B59" t="s">
-        <v>4928</v>
+        <v>6380</v>
       </c>
       <c r="C59" t="s">
-        <v>5063</v>
+        <v>6517</v>
       </c>
       <c r="D59" t="s">
-        <v>5144</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>4747</v>
+        <v>6197</v>
       </c>
       <c r="B60" t="s">
-        <v>4929</v>
+        <v>6381</v>
       </c>
       <c r="C60" t="s">
-        <v>5063</v>
+        <v>6517</v>
       </c>
       <c r="D60" t="s">
-        <v>5145</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>4748</v>
+        <v>6198</v>
       </c>
       <c r="B61" t="s">
-        <v>4930</v>
+        <v>6382</v>
       </c>
       <c r="C61" t="s">
-        <v>5064</v>
+        <v>6518</v>
       </c>
       <c r="D61" t="s">
-        <v>5146</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>4749</v>
+        <v>6199</v>
       </c>
       <c r="B62" t="s">
-        <v>4931</v>
+        <v>6383</v>
       </c>
       <c r="C62" t="s">
-        <v>5065</v>
+        <v>6519</v>
       </c>
       <c r="D62" t="s">
-        <v>5147</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>4750</v>
+        <v>6200</v>
       </c>
       <c r="B63" t="s">
-        <v>4932</v>
+        <v>6384</v>
       </c>
       <c r="C63" t="s">
-        <v>5066</v>
+        <v>6520</v>
       </c>
       <c r="D63" t="s">
-        <v>5148</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>4751</v>
+        <v>6201</v>
       </c>
       <c r="B64" t="s">
-        <v>4933</v>
+        <v>6385</v>
       </c>
       <c r="C64" t="s">
-        <v>5067</v>
+        <v>6521</v>
       </c>
       <c r="D64" t="s">
-        <v>5149</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>4752</v>
+        <v>6202</v>
       </c>
       <c r="B65" t="s">
-        <v>4934</v>
+        <v>6386</v>
       </c>
       <c r="C65" t="s">
-        <v>5067</v>
+        <v>6521</v>
       </c>
       <c r="D65" t="s">
-        <v>5149</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4753</v>
+        <v>6203</v>
       </c>
       <c r="B66" t="s">
-        <v>4935</v>
+        <v>6387</v>
       </c>
       <c r="C66" t="s">
-        <v>5068</v>
+        <v>6522</v>
       </c>
       <c r="D66" t="s">
-        <v>5150</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>4754</v>
+        <v>6204</v>
       </c>
       <c r="B67" t="s">
-        <v>4936</v>
+        <v>6388</v>
       </c>
       <c r="C67" t="s">
-        <v>5069</v>
+        <v>6523</v>
       </c>
       <c r="D67" t="s">
-        <v>5151</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>4755</v>
+        <v>6205</v>
       </c>
       <c r="B68" t="s">
-        <v>4937</v>
+        <v>6389</v>
       </c>
       <c r="C68" t="s">
-        <v>5070</v>
+        <v>6524</v>
       </c>
       <c r="D68" t="s">
-        <v>5152</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>4756</v>
+        <v>6206</v>
       </c>
       <c r="B69" t="s">
-        <v>4938</v>
+        <v>6390</v>
       </c>
       <c r="C69" t="s">
-        <v>5071</v>
+        <v>6525</v>
       </c>
       <c r="D69" t="s">
-        <v>5153</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>4757</v>
+        <v>6207</v>
       </c>
       <c r="B70" t="s">
-        <v>4939</v>
+        <v>6391</v>
       </c>
       <c r="C70" t="s">
-        <v>5072</v>
+        <v>6526</v>
       </c>
       <c r="D70" t="s">
-        <v>5154</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4758</v>
+        <v>6208</v>
       </c>
       <c r="B71" t="s">
-        <v>4940</v>
+        <v>6392</v>
       </c>
       <c r="C71" t="s">
-        <v>5072</v>
+        <v>6526</v>
       </c>
       <c r="D71" t="s">
-        <v>5155</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>4759</v>
+        <v>6209</v>
       </c>
       <c r="B72" t="s">
-        <v>4941</v>
+        <v>6393</v>
       </c>
       <c r="C72" t="s">
-        <v>5073</v>
+        <v>6527</v>
       </c>
       <c r="D72" t="s">
-        <v>5156</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>4760</v>
+        <v>6210</v>
       </c>
       <c r="B73" t="s">
-        <v>4942</v>
+        <v>6394</v>
       </c>
       <c r="C73" t="s">
-        <v>5073</v>
+        <v>6527</v>
       </c>
       <c r="D73" t="s">
-        <v>5157</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>4761</v>
+        <v>6211</v>
       </c>
       <c r="B74" t="s">
-        <v>4943</v>
+        <v>6395</v>
       </c>
       <c r="C74" t="s">
-        <v>5073</v>
+        <v>6527</v>
       </c>
       <c r="D74" t="s">
-        <v>5158</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>4762</v>
+        <v>6212</v>
       </c>
       <c r="B75" t="s">
-        <v>4943</v>
+        <v>6395</v>
       </c>
       <c r="C75" t="s">
-        <v>5073</v>
+        <v>6527</v>
       </c>
       <c r="D75" t="s">
-        <v>5159</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>4763</v>
+        <v>6213</v>
       </c>
       <c r="B76" t="s">
-        <v>4944</v>
+        <v>6396</v>
       </c>
       <c r="C76" t="s">
-        <v>5074</v>
+        <v>6528</v>
       </c>
       <c r="D76" t="s">
-        <v>5160</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>4764</v>
+        <v>6214</v>
       </c>
       <c r="B77" t="s">
-        <v>4945</v>
+        <v>6397</v>
       </c>
       <c r="C77" t="s">
-        <v>5075</v>
+        <v>6529</v>
       </c>
       <c r="D77" t="s">
-        <v>5161</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>4765</v>
+        <v>6215</v>
       </c>
       <c r="B78" t="s">
-        <v>4946</v>
+        <v>6398</v>
       </c>
       <c r="C78" t="s">
-        <v>5075</v>
+        <v>6529</v>
       </c>
       <c r="D78" t="s">
-        <v>5162</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>4766</v>
+        <v>6216</v>
       </c>
       <c r="B79" t="s">
-        <v>4947</v>
+        <v>6399</v>
       </c>
       <c r="C79" t="s">
-        <v>5075</v>
+        <v>6529</v>
       </c>
       <c r="D79" t="s">
-        <v>5162</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>4767</v>
+        <v>6217</v>
       </c>
       <c r="B80" t="s">
-        <v>4948</v>
+        <v>6400</v>
       </c>
       <c r="C80" t="s">
-        <v>5076</v>
+        <v>6530</v>
       </c>
       <c r="D80" t="s">
-        <v>5163</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4768</v>
+        <v>6218</v>
       </c>
       <c r="B81" t="s">
-        <v>4949</v>
+        <v>6401</v>
       </c>
       <c r="C81" t="s">
-        <v>5077</v>
+        <v>6531</v>
       </c>
       <c r="D81" t="s">
-        <v>5164</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4769</v>
+        <v>6219</v>
       </c>
       <c r="B82" t="s">
-        <v>4950</v>
+        <v>6402</v>
       </c>
       <c r="C82" t="s">
-        <v>5077</v>
+        <v>6531</v>
       </c>
       <c r="D82" t="s">
-        <v>5165</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>4770</v>
+        <v>6220</v>
       </c>
       <c r="B83" t="s">
-        <v>4951</v>
+        <v>6403</v>
       </c>
       <c r="C83" t="s">
-        <v>5077</v>
+        <v>6531</v>
       </c>
       <c r="D83" t="s">
-        <v>5166</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>4771</v>
+        <v>6221</v>
       </c>
       <c r="B84" t="s">
-        <v>4952</v>
+        <v>6404</v>
       </c>
       <c r="C84" t="s">
-        <v>5077</v>
+        <v>6531</v>
       </c>
       <c r="D84" t="s">
-        <v>5167</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4772</v>
+        <v>6222</v>
       </c>
       <c r="B85" t="s">
-        <v>4953</v>
+        <v>6405</v>
       </c>
       <c r="C85" t="s">
-        <v>5077</v>
+        <v>6531</v>
       </c>
       <c r="D85" t="s">
-        <v>5168</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>4773</v>
+        <v>6223</v>
       </c>
       <c r="B86" t="s">
-        <v>4954</v>
+        <v>6406</v>
       </c>
       <c r="C86" t="s">
-        <v>5078</v>
+        <v>6532</v>
       </c>
       <c r="D86" t="s">
-        <v>5169</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>4774</v>
+        <v>6224</v>
       </c>
       <c r="B87" t="s">
-        <v>4955</v>
+        <v>6407</v>
       </c>
       <c r="C87" t="s">
-        <v>5078</v>
+        <v>6532</v>
       </c>
       <c r="D87" t="s">
-        <v>5170</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>4775</v>
+        <v>6225</v>
       </c>
       <c r="B88" t="s">
-        <v>4956</v>
+        <v>6408</v>
       </c>
       <c r="C88" t="s">
-        <v>5079</v>
+        <v>6533</v>
       </c>
       <c r="D88" t="s">
-        <v>5171</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>4776</v>
+        <v>6226</v>
       </c>
       <c r="B89" t="s">
-        <v>4957</v>
+        <v>6409</v>
       </c>
       <c r="C89" t="s">
-        <v>5080</v>
+        <v>6534</v>
       </c>
       <c r="D89" t="s">
-        <v>5172</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>4777</v>
+        <v>6227</v>
       </c>
       <c r="B90" t="s">
-        <v>4958</v>
+        <v>6410</v>
       </c>
       <c r="C90" t="s">
-        <v>5081</v>
+        <v>6535</v>
       </c>
       <c r="D90" t="s">
-        <v>5173</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>4778</v>
+        <v>6228</v>
       </c>
       <c r="B91" t="s">
-        <v>4959</v>
+        <v>6411</v>
       </c>
       <c r="C91" t="s">
-        <v>5082</v>
+        <v>6536</v>
       </c>
       <c r="D91" t="s">
-        <v>5174</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>4779</v>
+        <v>6229</v>
       </c>
       <c r="B92" t="s">
-        <v>4960</v>
+        <v>6412</v>
       </c>
       <c r="C92" t="s">
-        <v>5082</v>
+        <v>6536</v>
       </c>
       <c r="D92" t="s">
-        <v>5175</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4780</v>
+        <v>6230</v>
       </c>
       <c r="B93" t="s">
-        <v>4961</v>
+        <v>6413</v>
       </c>
       <c r="C93" t="s">
-        <v>5083</v>
+        <v>6537</v>
       </c>
       <c r="D93" t="s">
-        <v>5176</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>4781</v>
+        <v>6231</v>
       </c>
       <c r="B94" t="s">
-        <v>4962</v>
+        <v>6414</v>
       </c>
       <c r="C94" t="s">
-        <v>5084</v>
+        <v>6538</v>
       </c>
       <c r="D94" t="s">
-        <v>5177</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>4782</v>
+        <v>6232</v>
       </c>
       <c r="B95" t="s">
-        <v>4963</v>
+        <v>6415</v>
       </c>
       <c r="C95" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D95" t="s">
-        <v>5178</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>4783</v>
+        <v>6233</v>
       </c>
       <c r="B96" t="s">
-        <v>4964</v>
+        <v>6416</v>
       </c>
       <c r="C96" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D96" t="s">
-        <v>5179</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>4784</v>
+        <v>6234</v>
       </c>
       <c r="B97" t="s">
-        <v>4965</v>
+        <v>6417</v>
       </c>
       <c r="C97" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D97" t="s">
-        <v>5180</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4785</v>
+        <v>6235</v>
       </c>
       <c r="B98" t="s">
-        <v>4966</v>
+        <v>6418</v>
       </c>
       <c r="C98" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D98" t="s">
-        <v>5181</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>4786</v>
+        <v>6236</v>
       </c>
       <c r="B99" t="s">
-        <v>4967</v>
+        <v>6419</v>
       </c>
       <c r="C99" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D99" t="s">
-        <v>5182</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>4787</v>
+        <v>6237</v>
       </c>
       <c r="B100" t="s">
-        <v>4968</v>
+        <v>6420</v>
       </c>
       <c r="C100" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D100" t="s">
-        <v>5183</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4788</v>
+        <v>6238</v>
       </c>
       <c r="B101" t="s">
-        <v>4969</v>
+        <v>6421</v>
       </c>
       <c r="C101" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D101" t="s">
-        <v>5184</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>4789</v>
+        <v>6239</v>
       </c>
       <c r="B102" t="s">
-        <v>4970</v>
+        <v>6422</v>
       </c>
       <c r="C102" t="s">
-        <v>5085</v>
+        <v>6539</v>
       </c>
       <c r="D102" t="s">
-        <v>5185</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>4790</v>
+        <v>6240</v>
       </c>
       <c r="B103" t="s">
-        <v>4971</v>
+        <v>6423</v>
       </c>
       <c r="C103" t="s">
-        <v>5086</v>
+        <v>6540</v>
       </c>
       <c r="D103" t="s">
-        <v>5186</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>4791</v>
+        <v>6241</v>
       </c>
       <c r="B104" t="s">
-        <v>4972</v>
+        <v>6424</v>
       </c>
       <c r="C104" t="s">
-        <v>5087</v>
+        <v>6541</v>
       </c>
       <c r="D104" t="s">
-        <v>5187</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>4792</v>
+        <v>6242</v>
       </c>
       <c r="B105" t="s">
-        <v>4973</v>
+        <v>6425</v>
       </c>
       <c r="C105" t="s">
-        <v>5088</v>
+        <v>6542</v>
       </c>
       <c r="D105" t="s">
-        <v>5188</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4793</v>
+        <v>6243</v>
       </c>
       <c r="B106" t="s">
-        <v>4974</v>
+        <v>6426</v>
       </c>
       <c r="C106" t="s">
-        <v>5088</v>
+        <v>6542</v>
       </c>
       <c r="D106" t="s">
-        <v>5189</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>4794</v>
+        <v>6244</v>
       </c>
       <c r="B107" t="s">
-        <v>4975</v>
+        <v>6427</v>
       </c>
       <c r="C107" t="s">
-        <v>5088</v>
+        <v>6542</v>
       </c>
       <c r="D107" t="s">
-        <v>5190</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>4795</v>
+        <v>6245</v>
       </c>
       <c r="B108" t="s">
-        <v>4976</v>
+        <v>6428</v>
       </c>
       <c r="C108" t="s">
-        <v>5088</v>
+        <v>6543</v>
       </c>
       <c r="D108" t="s">
-        <v>5191</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>4796</v>
+        <v>6246</v>
       </c>
       <c r="B109" t="s">
-        <v>4977</v>
+        <v>6429</v>
       </c>
       <c r="C109" t="s">
-        <v>5088</v>
+        <v>6544</v>
       </c>
       <c r="D109" t="s">
-        <v>5192</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>4797</v>
+        <v>6247</v>
       </c>
       <c r="B110" t="s">
-        <v>4978</v>
+        <v>6430</v>
       </c>
       <c r="C110" t="s">
-        <v>5089</v>
+        <v>6544</v>
       </c>
       <c r="D110" t="s">
-        <v>5193</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>4798</v>
+        <v>6248</v>
       </c>
       <c r="B111" t="s">
-        <v>4979</v>
+        <v>6431</v>
       </c>
       <c r="C111" t="s">
-        <v>5089</v>
+        <v>6545</v>
       </c>
       <c r="D111" t="s">
-        <v>5194</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>4799</v>
+        <v>6249</v>
       </c>
       <c r="B112" t="s">
-        <v>4980</v>
+        <v>6432</v>
       </c>
       <c r="C112" t="s">
-        <v>5090</v>
+        <v>6545</v>
       </c>
       <c r="D112" t="s">
-        <v>5195</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>4800</v>
+        <v>6250</v>
       </c>
       <c r="B113" t="s">
-        <v>4981</v>
+        <v>6433</v>
       </c>
       <c r="C113" t="s">
-        <v>5090</v>
+        <v>6546</v>
       </c>
       <c r="D113" t="s">
-        <v>5196</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>4801</v>
+        <v>6251</v>
       </c>
       <c r="B114" t="s">
-        <v>4982</v>
+        <v>6434</v>
       </c>
       <c r="C114" t="s">
-        <v>5090</v>
+        <v>6546</v>
       </c>
       <c r="D114" t="s">
-        <v>5197</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>4802</v>
+        <v>6252</v>
       </c>
       <c r="B115" t="s">
-        <v>4983</v>
+        <v>6435</v>
       </c>
       <c r="C115" t="s">
-        <v>5091</v>
+        <v>6546</v>
       </c>
       <c r="D115" t="s">
-        <v>5198</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>4803</v>
+        <v>6253</v>
       </c>
       <c r="B116" t="s">
-        <v>4984</v>
+        <v>6436</v>
       </c>
       <c r="C116" t="s">
-        <v>5091</v>
+        <v>6547</v>
       </c>
       <c r="D116" t="s">
-        <v>5199</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>4804</v>
+        <v>6254</v>
       </c>
       <c r="B117" t="s">
-        <v>4985</v>
+        <v>6437</v>
       </c>
       <c r="C117" t="s">
-        <v>5092</v>
+        <v>6547</v>
       </c>
       <c r="D117" t="s">
-        <v>5200</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>4805</v>
+        <v>6255</v>
       </c>
       <c r="B118" t="s">
-        <v>4986</v>
+        <v>6438</v>
       </c>
       <c r="C118" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D118" t="s">
-        <v>5201</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>4806</v>
+        <v>6256</v>
       </c>
       <c r="B119" t="s">
-        <v>4987</v>
+        <v>6439</v>
       </c>
       <c r="C119" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D119" t="s">
-        <v>5202</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4807</v>
+        <v>6257</v>
       </c>
       <c r="B120" t="s">
-        <v>4988</v>
+        <v>6440</v>
       </c>
       <c r="C120" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D120" t="s">
-        <v>5203</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>4808</v>
+        <v>6258</v>
       </c>
       <c r="B121" t="s">
-        <v>4989</v>
+        <v>6441</v>
       </c>
       <c r="C121" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D121" t="s">
-        <v>5204</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>4809</v>
+        <v>6259</v>
       </c>
       <c r="B122" t="s">
-        <v>4990</v>
+        <v>6442</v>
       </c>
       <c r="C122" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D122" t="s">
-        <v>5205</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4810</v>
+        <v>6260</v>
       </c>
       <c r="B123" t="s">
-        <v>4991</v>
+        <v>6443</v>
       </c>
       <c r="C123" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D123" t="s">
-        <v>5206</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>4811</v>
+        <v>6261</v>
       </c>
       <c r="B124" t="s">
-        <v>4992</v>
+        <v>6444</v>
       </c>
       <c r="C124" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D124" t="s">
-        <v>5207</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>4812</v>
+        <v>6262</v>
       </c>
       <c r="B125" t="s">
-        <v>4993</v>
+        <v>6445</v>
       </c>
       <c r="C125" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D125" t="s">
-        <v>5208</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4813</v>
+        <v>6263</v>
       </c>
       <c r="B126" t="s">
-        <v>4994</v>
+        <v>6446</v>
       </c>
       <c r="C126" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D126" t="s">
-        <v>5209</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>4814</v>
+        <v>6264</v>
       </c>
       <c r="B127" t="s">
-        <v>4995</v>
+        <v>6447</v>
       </c>
       <c r="C127" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D127" t="s">
-        <v>5210</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>4815</v>
+        <v>6265</v>
       </c>
       <c r="B128" t="s">
-        <v>4996</v>
+        <v>6448</v>
       </c>
       <c r="C128" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D128" t="s">
-        <v>5211</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4816</v>
+        <v>6266</v>
       </c>
       <c r="B129" t="s">
-        <v>4997</v>
+        <v>6449</v>
       </c>
       <c r="C129" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D129" t="s">
-        <v>5212</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>4817</v>
+        <v>6267</v>
       </c>
       <c r="B130" t="s">
-        <v>4998</v>
+        <v>6450</v>
       </c>
       <c r="C130" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D130" t="s">
-        <v>5213</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>4818</v>
+        <v>6268</v>
       </c>
       <c r="B131" t="s">
-        <v>4999</v>
+        <v>6451</v>
       </c>
       <c r="C131" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D131" t="s">
-        <v>5214</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>4819</v>
+        <v>6269</v>
       </c>
       <c r="B132" t="s">
-        <v>5000</v>
+        <v>6452</v>
       </c>
       <c r="C132" t="s">
-        <v>5092</v>
+        <v>6548</v>
       </c>
       <c r="D132" t="s">
-        <v>5215</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>4820</v>
+        <v>6270</v>
       </c>
       <c r="B133" t="s">
-        <v>5001</v>
+        <v>6453</v>
       </c>
       <c r="C133" t="s">
-        <v>5093</v>
+        <v>6548</v>
       </c>
       <c r="D133" t="s">
-        <v>5216</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4821</v>
+        <v>6271</v>
       </c>
       <c r="B134" t="s">
-        <v>5002</v>
+        <v>6454</v>
       </c>
       <c r="C134" t="s">
-        <v>5094</v>
+        <v>6548</v>
       </c>
       <c r="D134" t="s">
-        <v>5217</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4822</v>
+        <v>6272</v>
       </c>
       <c r="B135" t="s">
-        <v>5003</v>
+        <v>6455</v>
       </c>
       <c r="C135" t="s">
-        <v>5094</v>
+        <v>6549</v>
       </c>
       <c r="D135" t="s">
-        <v>5218</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>4823</v>
+        <v>6273</v>
       </c>
       <c r="B136" t="s">
-        <v>5004</v>
+        <v>6456</v>
       </c>
       <c r="C136" t="s">
-        <v>5094</v>
+        <v>6550</v>
       </c>
       <c r="D136" t="s">
-        <v>5219</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>4824</v>
+        <v>6274</v>
       </c>
       <c r="B137" t="s">
-        <v>5005</v>
+        <v>6457</v>
       </c>
       <c r="C137" t="s">
-        <v>5095</v>
+        <v>6550</v>
       </c>
       <c r="D137" t="s">
-        <v>5220</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>4825</v>
+        <v>6275</v>
       </c>
       <c r="B138" t="s">
-        <v>5006</v>
+        <v>6458</v>
       </c>
       <c r="C138" t="s">
-        <v>5096</v>
+        <v>6550</v>
       </c>
       <c r="D138" t="s">
-        <v>5221</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>4826</v>
+        <v>6276</v>
       </c>
       <c r="B139" t="s">
-        <v>5007</v>
+        <v>6459</v>
       </c>
       <c r="C139" t="s">
-        <v>5097</v>
+        <v>6551</v>
       </c>
       <c r="D139" t="s">
-        <v>5222</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>4827</v>
+        <v>6277</v>
       </c>
       <c r="B140" t="s">
-        <v>5008</v>
+        <v>6460</v>
       </c>
       <c r="C140" t="s">
-        <v>5097</v>
+        <v>6552</v>
       </c>
       <c r="D140" t="s">
-        <v>5223</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>4828</v>
+        <v>6278</v>
       </c>
       <c r="B141" t="s">
-        <v>5009</v>
+        <v>6461</v>
       </c>
       <c r="C141" t="s">
-        <v>5097</v>
+        <v>6553</v>
       </c>
       <c r="D141" t="s">
-        <v>5224</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4829</v>
+        <v>6279</v>
       </c>
       <c r="B142" t="s">
-        <v>5010</v>
+        <v>6462</v>
       </c>
       <c r="C142" t="s">
-        <v>5097</v>
+        <v>6553</v>
       </c>
       <c r="D142" t="s">
-        <v>5225</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>4830</v>
+        <v>6280</v>
       </c>
       <c r="B143" t="s">
-        <v>5011</v>
+        <v>6463</v>
       </c>
       <c r="C143" t="s">
-        <v>5097</v>
+        <v>6553</v>
       </c>
       <c r="D143" t="s">
-        <v>5226</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>4831</v>
+        <v>6281</v>
       </c>
       <c r="B144" t="s">
-        <v>5012</v>
+        <v>6464</v>
       </c>
       <c r="C144" t="s">
-        <v>5097</v>
+        <v>6553</v>
       </c>
       <c r="D144" t="s">
-        <v>5227</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>4832</v>
+        <v>6282</v>
       </c>
       <c r="B145" t="s">
-        <v>5013</v>
+        <v>6465</v>
       </c>
       <c r="C145" t="s">
-        <v>5097</v>
+        <v>6553</v>
       </c>
       <c r="D145" t="s">
-        <v>5228</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>4833</v>
+        <v>6283</v>
       </c>
       <c r="B146" t="s">
-        <v>5014</v>
+        <v>6466</v>
       </c>
       <c r="C146" t="s">
-        <v>5098</v>
+        <v>6553</v>
       </c>
       <c r="D146" t="s">
-        <v>5229</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>4834</v>
+        <v>6284</v>
       </c>
       <c r="B147" t="s">
-        <v>5015</v>
+        <v>6467</v>
       </c>
       <c r="C147" t="s">
-        <v>5099</v>
+        <v>6553</v>
       </c>
       <c r="D147" t="s">
-        <v>5230</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>4835</v>
+        <v>6285</v>
       </c>
       <c r="B148" t="s">
-        <v>5016</v>
+        <v>6468</v>
       </c>
       <c r="C148" t="s">
-        <v>5100</v>
+        <v>6554</v>
       </c>
       <c r="D148" t="s">
-        <v>5231</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>4836</v>
+        <v>6286</v>
       </c>
       <c r="B149" t="s">
-        <v>5017</v>
+        <v>6469</v>
       </c>
       <c r="C149" t="s">
-        <v>5100</v>
+        <v>6555</v>
       </c>
       <c r="D149" t="s">
-        <v>5232</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>4837</v>
+        <v>6287</v>
       </c>
       <c r="B150" t="s">
-        <v>5018</v>
+        <v>6470</v>
       </c>
       <c r="C150" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D150" t="s">
-        <v>5233</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>4838</v>
+        <v>6288</v>
       </c>
       <c r="B151" t="s">
-        <v>5019</v>
+        <v>6471</v>
       </c>
       <c r="C151" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D151" t="s">
-        <v>5234</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>4839</v>
+        <v>6289</v>
       </c>
       <c r="B152" t="s">
-        <v>5020</v>
+        <v>6472</v>
       </c>
       <c r="C152" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D152" t="s">
-        <v>5235</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>4840</v>
+        <v>6290</v>
       </c>
       <c r="B153" t="s">
-        <v>5021</v>
+        <v>6473</v>
       </c>
       <c r="C153" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D153" t="s">
-        <v>5236</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>4841</v>
+        <v>6291</v>
       </c>
       <c r="B154" t="s">
-        <v>5022</v>
+        <v>6474</v>
       </c>
       <c r="C154" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D154" t="s">
-        <v>5237</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>4842</v>
+        <v>6292</v>
       </c>
       <c r="B155" t="s">
-        <v>5023</v>
+        <v>6475</v>
       </c>
       <c r="C155" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D155" t="s">
-        <v>5238</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>4843</v>
+        <v>6293</v>
       </c>
       <c r="B156" t="s">
-        <v>5024</v>
+        <v>6476</v>
       </c>
       <c r="C156" t="s">
-        <v>5100</v>
+        <v>6556</v>
       </c>
       <c r="D156" t="s">
-        <v>5239</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4844</v>
+        <v>6294</v>
       </c>
       <c r="B157" t="s">
-        <v>5025</v>
+        <v>6477</v>
       </c>
       <c r="C157" t="s">
-        <v>5101</v>
+        <v>6556</v>
       </c>
       <c r="D157" t="s">
-        <v>5240</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>4845</v>
+        <v>6295</v>
       </c>
       <c r="B158" t="s">
-        <v>5026</v>
+        <v>6478</v>
       </c>
       <c r="C158" t="s">
-        <v>5101</v>
+        <v>6556</v>
       </c>
       <c r="D158" t="s">
-        <v>5241</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>4846</v>
+        <v>6296</v>
       </c>
       <c r="B159" t="s">
-        <v>5027</v>
+        <v>6479</v>
       </c>
       <c r="C159" t="s">
-        <v>5101</v>
+        <v>6557</v>
       </c>
       <c r="D159" t="s">
-        <v>5242</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>4847</v>
+        <v>6297</v>
       </c>
       <c r="B160" t="s">
-        <v>5028</v>
+        <v>6480</v>
       </c>
       <c r="C160" t="s">
-        <v>5101</v>
+        <v>6557</v>
       </c>
       <c r="D160" t="s">
-        <v>5243</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>4848</v>
+        <v>6298</v>
       </c>
       <c r="B161" t="s">
-        <v>5029</v>
+        <v>6481</v>
       </c>
       <c r="C161" t="s">
-        <v>5102</v>
+        <v>6557</v>
       </c>
       <c r="D161" t="s">
-        <v>5244</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>4849</v>
+        <v>6299</v>
       </c>
       <c r="B162" t="s">
-        <v>5030</v>
+        <v>6482</v>
       </c>
       <c r="C162" t="s">
-        <v>5103</v>
+        <v>6557</v>
       </c>
       <c r="D162" t="s">
-        <v>5245</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>4850</v>
+        <v>6300</v>
       </c>
       <c r="B163" t="s">
-        <v>5031</v>
+        <v>6483</v>
       </c>
       <c r="C163" t="s">
-        <v>5103</v>
+        <v>6558</v>
       </c>
       <c r="D163" t="s">
-        <v>5246</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>4851</v>
+        <v>6301</v>
       </c>
       <c r="B164" t="s">
-        <v>5032</v>
+        <v>6484</v>
       </c>
       <c r="C164" t="s">
-        <v>5103</v>
+        <v>6559</v>
       </c>
       <c r="D164" t="s">
-        <v>5247</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>4852</v>
+        <v>6302</v>
       </c>
       <c r="B165" t="s">
-        <v>5033</v>
+        <v>6485</v>
       </c>
       <c r="C165" t="s">
-        <v>5104</v>
+        <v>6559</v>
       </c>
       <c r="D165" t="s">
-        <v>5248</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>4853</v>
+        <v>6303</v>
       </c>
       <c r="B166" t="s">
-        <v>5034</v>
+        <v>6486</v>
       </c>
       <c r="C166" t="s">
-        <v>5105</v>
+        <v>6559</v>
       </c>
       <c r="D166" t="s">
-        <v>5249</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>4854</v>
+        <v>6304</v>
       </c>
       <c r="B167" t="s">
-        <v>5035</v>
+        <v>6487</v>
       </c>
       <c r="C167" t="s">
-        <v>5105</v>
+        <v>6560</v>
       </c>
       <c r="D167" t="s">
-        <v>5250</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>4855</v>
+        <v>6305</v>
       </c>
       <c r="B168" t="s">
-        <v>5036</v>
+        <v>6488</v>
       </c>
       <c r="C168" t="s">
-        <v>5105</v>
+        <v>6561</v>
       </c>
       <c r="D168" t="s">
-        <v>5251</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>4856</v>
+        <v>6306</v>
       </c>
       <c r="B169" t="s">
-        <v>5037</v>
+        <v>6489</v>
       </c>
       <c r="C169" t="s">
-        <v>5105</v>
+        <v>6561</v>
       </c>
       <c r="D169" t="s">
-        <v>5252</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>4857</v>
+        <v>6307</v>
       </c>
       <c r="B170" t="s">
-        <v>5038</v>
+        <v>6490</v>
       </c>
       <c r="C170" t="s">
-        <v>5106</v>
+        <v>6561</v>
       </c>
       <c r="D170" t="s">
-        <v>5253</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>4858</v>
+        <v>6308</v>
       </c>
       <c r="B171" t="s">
-        <v>5039</v>
+        <v>6491</v>
       </c>
       <c r="C171" t="s">
-        <v>5107</v>
+        <v>6561</v>
       </c>
       <c r="D171" t="s">
-        <v>5254</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>4859</v>
+        <v>6309</v>
       </c>
       <c r="B172" t="s">
-        <v>5040</v>
+        <v>6492</v>
       </c>
       <c r="C172" t="s">
-        <v>5107</v>
+        <v>6562</v>
       </c>
       <c r="D172" t="s">
-        <v>5255</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>4860</v>
+        <v>6310</v>
       </c>
       <c r="B173" t="s">
-        <v>5041</v>
+        <v>6493</v>
       </c>
       <c r="C173" t="s">
-        <v>5107</v>
+        <v>6563</v>
       </c>
       <c r="D173" t="s">
-        <v>5256</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>4861</v>
+        <v>6311</v>
       </c>
       <c r="B174" t="s">
-        <v>5042</v>
+        <v>6494</v>
       </c>
       <c r="C174" t="s">
-        <v>5108</v>
+        <v>6563</v>
       </c>
       <c r="D174" t="s">
-        <v>5257</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>4862</v>
+        <v>6312</v>
       </c>
       <c r="B175" t="s">
-        <v>5043</v>
+        <v>6495</v>
       </c>
       <c r="C175" t="s">
-        <v>5109</v>
+        <v>6563</v>
       </c>
       <c r="D175" t="s">
-        <v>5258</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>4863</v>
+        <v>6313</v>
       </c>
       <c r="B176" t="s">
-        <v>5044</v>
+        <v>6496</v>
       </c>
       <c r="C176" t="s">
-        <v>5109</v>
+        <v>6564</v>
       </c>
       <c r="D176" t="s">
-        <v>5259</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>4864</v>
+        <v>6314</v>
       </c>
       <c r="B177" t="s">
-        <v>5045</v>
+        <v>6497</v>
       </c>
       <c r="C177" t="s">
-        <v>5109</v>
+        <v>6565</v>
       </c>
       <c r="D177" t="s">
-        <v>5259</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>4865</v>
+        <v>6315</v>
       </c>
       <c r="B178" t="s">
-        <v>5046</v>
+        <v>6498</v>
       </c>
       <c r="C178" t="s">
-        <v>5109</v>
+        <v>6565</v>
       </c>
       <c r="D178" t="s">
-        <v>5259</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>4866</v>
+        <v>6316</v>
       </c>
       <c r="B179" t="s">
-        <v>5047</v>
+        <v>6499</v>
       </c>
       <c r="C179" t="s">
-        <v>5109</v>
+        <v>6565</v>
       </c>
       <c r="D179" t="s">
-        <v>5260</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>4867</v>
+        <v>6317</v>
       </c>
       <c r="B180" t="s">
-        <v>5048</v>
+        <v>6500</v>
       </c>
       <c r="C180" t="s">
-        <v>5109</v>
+        <v>6565</v>
       </c>
       <c r="D180" t="s">
-        <v>5261</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>4868</v>
+        <v>6318</v>
       </c>
       <c r="B181" t="s">
-        <v>5049</v>
+        <v>6501</v>
       </c>
       <c r="C181" t="s">
-        <v>5110</v>
+        <v>6565</v>
       </c>
       <c r="D181" t="s">
-        <v>5262</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>4869</v>
+        <v>6319</v>
       </c>
       <c r="B182" t="s">
-        <v>5050</v>
+        <v>6502</v>
       </c>
       <c r="C182" t="s">
-        <v>5111</v>
+        <v>6565</v>
       </c>
       <c r="D182" t="s">
-        <v>5263</v>
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6503</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6566</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6504</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6567</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6721</v>
       </c>
     </row>
   </sheetData>
@@ -18802,634 +23396,975 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C88"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5264</v>
+        <v>6722</v>
       </c>
       <c r="B1" t="s">
-        <v>5284</v>
+        <v>6744</v>
       </c>
       <c r="C1" t="s">
-        <v>5339</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5265</v>
+        <v>6723</v>
       </c>
       <c r="B2" t="s">
-        <v>5285</v>
+        <v>6745</v>
       </c>
       <c r="C2" t="s">
-        <v>5340</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5265</v>
+        <v>6723</v>
       </c>
       <c r="B3" t="s">
-        <v>5286</v>
+        <v>6746</v>
       </c>
       <c r="C3" t="s">
-        <v>5341</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5266</v>
+        <v>6724</v>
       </c>
       <c r="B4" t="s">
-        <v>5287</v>
+        <v>6747</v>
       </c>
       <c r="C4" t="s">
-        <v>5342</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5266</v>
+        <v>6724</v>
       </c>
       <c r="B5" t="s">
-        <v>5288</v>
+        <v>6748</v>
       </c>
       <c r="C5" t="s">
-        <v>5343</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5266</v>
+        <v>6724</v>
       </c>
       <c r="B6" t="s">
-        <v>5289</v>
+        <v>6749</v>
       </c>
       <c r="C6" t="s">
-        <v>5344</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5267</v>
+        <v>6725</v>
       </c>
       <c r="B7" t="s">
-        <v>5290</v>
+        <v>6750</v>
       </c>
       <c r="C7" t="s">
-        <v>5345</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5267</v>
+        <v>6725</v>
       </c>
       <c r="B8" t="s">
-        <v>5291</v>
+        <v>6751</v>
       </c>
       <c r="C8" t="s">
-        <v>5346</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5267</v>
+        <v>6725</v>
       </c>
       <c r="B9" t="s">
-        <v>5292</v>
+        <v>6752</v>
       </c>
       <c r="C9" t="s">
-        <v>5347</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5267</v>
+        <v>6725</v>
       </c>
       <c r="B10" t="s">
-        <v>5293</v>
+        <v>6753</v>
       </c>
       <c r="C10" t="s">
-        <v>5348</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5268</v>
+        <v>6726</v>
       </c>
       <c r="B11" t="s">
-        <v>5294</v>
+        <v>6754</v>
       </c>
       <c r="C11" t="s">
-        <v>5349</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5268</v>
+        <v>6726</v>
       </c>
       <c r="B12" t="s">
-        <v>5295</v>
+        <v>6755</v>
       </c>
       <c r="C12" t="s">
-        <v>5350</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5268</v>
+        <v>6726</v>
       </c>
       <c r="B13" t="s">
-        <v>5296</v>
+        <v>6756</v>
       </c>
       <c r="C13" t="s">
-        <v>5351</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5269</v>
+        <v>6727</v>
       </c>
       <c r="B14" t="s">
-        <v>5297</v>
+        <v>6757</v>
       </c>
       <c r="C14" t="s">
-        <v>5352</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5269</v>
+        <v>6727</v>
       </c>
       <c r="B15" t="s">
-        <v>5298</v>
+        <v>6758</v>
       </c>
       <c r="C15" t="s">
-        <v>5353</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5269</v>
+        <v>6727</v>
       </c>
       <c r="B16" t="s">
-        <v>5299</v>
+        <v>6759</v>
       </c>
       <c r="C16" t="s">
-        <v>5354</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B17" t="s">
-        <v>5300</v>
+        <v>6760</v>
       </c>
       <c r="C17" t="s">
-        <v>5355</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B18" t="s">
-        <v>5301</v>
+        <v>6761</v>
       </c>
       <c r="C18" t="s">
-        <v>5356</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B19" t="s">
-        <v>5302</v>
+        <v>6762</v>
       </c>
       <c r="C19" t="s">
-        <v>5357</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B20" t="s">
-        <v>5303</v>
+        <v>6763</v>
       </c>
       <c r="C20" t="s">
-        <v>5358</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B21" t="s">
-        <v>5304</v>
+        <v>6764</v>
       </c>
       <c r="C21" t="s">
-        <v>5359</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5270</v>
+        <v>6728</v>
       </c>
       <c r="B22" t="s">
-        <v>5305</v>
+        <v>6765</v>
       </c>
       <c r="C22" t="s">
-        <v>5360</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5271</v>
+        <v>6729</v>
       </c>
       <c r="B23" t="s">
-        <v>5306</v>
+        <v>6766</v>
       </c>
       <c r="C23" t="s">
-        <v>5361</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5271</v>
+        <v>6729</v>
       </c>
       <c r="B24" t="s">
-        <v>5307</v>
+        <v>6767</v>
       </c>
       <c r="C24" t="s">
-        <v>5362</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5272</v>
+        <v>6730</v>
       </c>
       <c r="B25" t="s">
-        <v>5308</v>
+        <v>6768</v>
       </c>
       <c r="C25" t="s">
-        <v>5363</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5272</v>
+        <v>6730</v>
       </c>
       <c r="B26" t="s">
-        <v>5309</v>
+        <v>6769</v>
       </c>
       <c r="C26" t="s">
-        <v>5364</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5273</v>
+        <v>6731</v>
       </c>
       <c r="B27" t="s">
-        <v>5309</v>
+        <v>6769</v>
       </c>
       <c r="C27" t="s">
-        <v>5365</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5273</v>
+        <v>6731</v>
       </c>
       <c r="B28" t="s">
-        <v>5310</v>
+        <v>6770</v>
       </c>
       <c r="C28" t="s">
-        <v>5366</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5273</v>
+        <v>6731</v>
       </c>
       <c r="B29" t="s">
-        <v>5311</v>
+        <v>6771</v>
       </c>
       <c r="C29" t="s">
-        <v>5367</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5273</v>
+        <v>6731</v>
       </c>
       <c r="B30" t="s">
-        <v>5312</v>
+        <v>6772</v>
       </c>
       <c r="C30" t="s">
-        <v>5368</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5273</v>
+        <v>6731</v>
       </c>
       <c r="B31" t="s">
-        <v>5313</v>
+        <v>6773</v>
       </c>
       <c r="C31" t="s">
-        <v>5369</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5274</v>
+        <v>6732</v>
       </c>
       <c r="B32" t="s">
-        <v>5314</v>
+        <v>6774</v>
       </c>
       <c r="C32" t="s">
-        <v>5370</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5274</v>
+        <v>6732</v>
       </c>
       <c r="B33" t="s">
-        <v>5315</v>
+        <v>6775</v>
       </c>
       <c r="C33" t="s">
-        <v>5371</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5275</v>
+        <v>6732</v>
       </c>
       <c r="B34" t="s">
-        <v>5315</v>
+        <v>6776</v>
       </c>
       <c r="C34" t="s">
-        <v>5372</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5275</v>
+        <v>6732</v>
       </c>
       <c r="B35" t="s">
-        <v>5316</v>
+        <v>6777</v>
       </c>
       <c r="C35" t="s">
-        <v>5373</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5275</v>
+        <v>6732</v>
       </c>
       <c r="B36" t="s">
-        <v>5317</v>
+        <v>6778</v>
       </c>
       <c r="C36" t="s">
-        <v>5374</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5276</v>
+        <v>6732</v>
       </c>
       <c r="B37" t="s">
-        <v>5318</v>
+        <v>6779</v>
       </c>
       <c r="C37" t="s">
-        <v>5375</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5276</v>
+        <v>6732</v>
       </c>
       <c r="B38" t="s">
-        <v>5319</v>
+        <v>6780</v>
       </c>
       <c r="C38" t="s">
-        <v>5376</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5277</v>
+        <v>6732</v>
       </c>
       <c r="B39" t="s">
-        <v>5320</v>
+        <v>6781</v>
       </c>
       <c r="C39" t="s">
-        <v>5377</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5277</v>
+        <v>6732</v>
       </c>
       <c r="B40" t="s">
-        <v>5321</v>
+        <v>6782</v>
       </c>
       <c r="C40" t="s">
-        <v>5378</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5278</v>
+        <v>6732</v>
       </c>
       <c r="B41" t="s">
-        <v>5322</v>
+        <v>6783</v>
       </c>
       <c r="C41" t="s">
-        <v>5379</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5278</v>
+        <v>6732</v>
       </c>
       <c r="B42" t="s">
-        <v>5323</v>
+        <v>6784</v>
       </c>
       <c r="C42" t="s">
-        <v>5380</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5279</v>
+        <v>6732</v>
       </c>
       <c r="B43" t="s">
-        <v>5324</v>
+        <v>6785</v>
       </c>
       <c r="C43" t="s">
-        <v>5381</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5279</v>
+        <v>6732</v>
       </c>
       <c r="B44" t="s">
-        <v>5325</v>
+        <v>6786</v>
       </c>
       <c r="C44" t="s">
-        <v>5382</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5280</v>
+        <v>6732</v>
       </c>
       <c r="B45" t="s">
-        <v>5326</v>
+        <v>6787</v>
       </c>
       <c r="C45" t="s">
-        <v>5383</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5280</v>
+        <v>6732</v>
       </c>
       <c r="B46" t="s">
-        <v>5327</v>
+        <v>6788</v>
       </c>
       <c r="C46" t="s">
-        <v>5384</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5280</v>
+        <v>6733</v>
       </c>
       <c r="B47" t="s">
-        <v>5328</v>
+        <v>6789</v>
       </c>
       <c r="C47" t="s">
-        <v>5385</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5281</v>
+        <v>6733</v>
       </c>
       <c r="B48" t="s">
-        <v>5329</v>
+        <v>6790</v>
       </c>
       <c r="C48" t="s">
-        <v>5386</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5281</v>
+        <v>6734</v>
       </c>
       <c r="B49" t="s">
-        <v>5330</v>
+        <v>6790</v>
       </c>
       <c r="C49" t="s">
-        <v>5387</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5282</v>
+        <v>6734</v>
       </c>
       <c r="B50" t="s">
-        <v>5331</v>
+        <v>6791</v>
       </c>
       <c r="C50" t="s">
-        <v>5388</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5282</v>
+        <v>6734</v>
       </c>
       <c r="B51" t="s">
-        <v>5332</v>
+        <v>6792</v>
       </c>
       <c r="C51" t="s">
-        <v>5389</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5282</v>
+        <v>6735</v>
       </c>
       <c r="B52" t="s">
-        <v>5333</v>
+        <v>6793</v>
       </c>
       <c r="C52" t="s">
-        <v>5390</v>
+        <v>6881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5282</v>
+        <v>6735</v>
       </c>
       <c r="B53" t="s">
-        <v>5334</v>
+        <v>6794</v>
       </c>
       <c r="C53" t="s">
-        <v>5391</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5282</v>
+        <v>6735</v>
       </c>
       <c r="B54" t="s">
-        <v>5335</v>
+        <v>6795</v>
       </c>
       <c r="C54" t="s">
-        <v>5392</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5283</v>
+        <v>6735</v>
       </c>
       <c r="B55" t="s">
-        <v>5336</v>
+        <v>6796</v>
       </c>
       <c r="C55" t="s">
-        <v>5393</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5283</v>
+        <v>6735</v>
       </c>
       <c r="B56" t="s">
-        <v>5337</v>
+        <v>6797</v>
       </c>
       <c r="C56" t="s">
-        <v>5394</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5283</v>
+        <v>6735</v>
       </c>
       <c r="B57" t="s">
-        <v>5338</v>
+        <v>6798</v>
       </c>
       <c r="C57" t="s">
-        <v>5395</v>
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6799</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6800</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6888</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6801</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6889</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6802</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6803</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6805</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6807</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>6735</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6808</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>6736</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6809</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>6736</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>6737</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6811</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>6737</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6812</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6813</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>6739</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6815</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>6739</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6816</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>6740</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6817</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>6740</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6818</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>6740</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6819</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>6741</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6820</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6741</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6821</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6822</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6910</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6823</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6825</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>6742</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6826</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>6743</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6827</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>6743</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6828</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>6743</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6917</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10091" uniqueCount="6918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12091" uniqueCount="8478">
   <si>
     <t>name</t>
   </si>
@@ -18365,6 +18365,4686 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>No</t>
@@ -20816,2578 +25496,2578 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6138</v>
+        <v>7698</v>
       </c>
       <c r="B1" t="s">
-        <v>6322</v>
+        <v>7882</v>
       </c>
       <c r="C1" t="s">
-        <v>6505</v>
+        <v>8065</v>
       </c>
       <c r="D1" t="s">
-        <v>6568</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6139</v>
+        <v>7699</v>
       </c>
       <c r="B2" t="s">
-        <v>6323</v>
+        <v>7883</v>
       </c>
       <c r="C2" t="s">
-        <v>6506</v>
+        <v>8066</v>
       </c>
       <c r="D2" t="s">
-        <v>6569</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6140</v>
+        <v>7700</v>
       </c>
       <c r="B3" t="s">
-        <v>6324</v>
+        <v>7884</v>
       </c>
       <c r="C3" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D3" t="s">
-        <v>6570</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6141</v>
+        <v>7701</v>
       </c>
       <c r="B4" t="s">
-        <v>6325</v>
+        <v>7885</v>
       </c>
       <c r="C4" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D4" t="s">
-        <v>6571</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6142</v>
+        <v>7702</v>
       </c>
       <c r="B5" t="s">
-        <v>6326</v>
+        <v>7886</v>
       </c>
       <c r="C5" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D5" t="s">
-        <v>6572</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6143</v>
+        <v>7703</v>
       </c>
       <c r="B6" t="s">
-        <v>6327</v>
+        <v>7887</v>
       </c>
       <c r="C6" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D6" t="s">
-        <v>6573</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6144</v>
+        <v>7704</v>
       </c>
       <c r="B7" t="s">
-        <v>6328</v>
+        <v>7888</v>
       </c>
       <c r="C7" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D7" t="s">
-        <v>6574</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6145</v>
+        <v>7705</v>
       </c>
       <c r="B8" t="s">
-        <v>6329</v>
+        <v>7889</v>
       </c>
       <c r="C8" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D8" t="s">
-        <v>6575</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6146</v>
+        <v>7706</v>
       </c>
       <c r="B9" t="s">
-        <v>6330</v>
+        <v>7890</v>
       </c>
       <c r="C9" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D9" t="s">
-        <v>6576</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6147</v>
+        <v>7707</v>
       </c>
       <c r="B10" t="s">
-        <v>6331</v>
+        <v>7891</v>
       </c>
       <c r="C10" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D10" t="s">
-        <v>6577</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6148</v>
+        <v>7708</v>
       </c>
       <c r="B11" t="s">
-        <v>6332</v>
+        <v>7892</v>
       </c>
       <c r="C11" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D11" t="s">
-        <v>6578</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6149</v>
+        <v>7709</v>
       </c>
       <c r="B12" t="s">
-        <v>6333</v>
+        <v>7893</v>
       </c>
       <c r="C12" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D12" t="s">
-        <v>6579</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6150</v>
+        <v>7710</v>
       </c>
       <c r="B13" t="s">
-        <v>6334</v>
+        <v>7894</v>
       </c>
       <c r="C13" t="s">
-        <v>6507</v>
+        <v>8067</v>
       </c>
       <c r="D13" t="s">
-        <v>6580</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6151</v>
+        <v>7711</v>
       </c>
       <c r="B14" t="s">
-        <v>6335</v>
+        <v>7895</v>
       </c>
       <c r="C14" t="s">
-        <v>6508</v>
+        <v>8068</v>
       </c>
       <c r="D14" t="s">
-        <v>6581</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6152</v>
+        <v>7712</v>
       </c>
       <c r="B15" t="s">
-        <v>6336</v>
+        <v>7896</v>
       </c>
       <c r="C15" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D15" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6153</v>
+        <v>7713</v>
       </c>
       <c r="B16" t="s">
-        <v>6337</v>
+        <v>7897</v>
       </c>
       <c r="C16" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D16" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6154</v>
+        <v>7714</v>
       </c>
       <c r="B17" t="s">
-        <v>6338</v>
+        <v>7898</v>
       </c>
       <c r="C17" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D17" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6155</v>
+        <v>7715</v>
       </c>
       <c r="B18" t="s">
-        <v>6339</v>
+        <v>7899</v>
       </c>
       <c r="C18" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D18" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6156</v>
+        <v>7716</v>
       </c>
       <c r="B19" t="s">
-        <v>6340</v>
+        <v>7900</v>
       </c>
       <c r="C19" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D19" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6157</v>
+        <v>7717</v>
       </c>
       <c r="B20" t="s">
-        <v>6341</v>
+        <v>7901</v>
       </c>
       <c r="C20" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D20" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6158</v>
+        <v>7718</v>
       </c>
       <c r="B21" t="s">
-        <v>6342</v>
+        <v>7902</v>
       </c>
       <c r="C21" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D21" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6159</v>
+        <v>7719</v>
       </c>
       <c r="B22" t="s">
-        <v>6343</v>
+        <v>7903</v>
       </c>
       <c r="C22" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D22" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6160</v>
+        <v>7720</v>
       </c>
       <c r="B23" t="s">
-        <v>6344</v>
+        <v>7904</v>
       </c>
       <c r="C23" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D23" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6161</v>
+        <v>7721</v>
       </c>
       <c r="B24" t="s">
-        <v>6345</v>
+        <v>7905</v>
       </c>
       <c r="C24" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D24" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6162</v>
+        <v>7722</v>
       </c>
       <c r="B25" t="s">
-        <v>6346</v>
+        <v>7906</v>
       </c>
       <c r="C25" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D25" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6163</v>
+        <v>7723</v>
       </c>
       <c r="B26" t="s">
-        <v>6347</v>
+        <v>7907</v>
       </c>
       <c r="C26" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D26" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6164</v>
+        <v>7724</v>
       </c>
       <c r="B27" t="s">
-        <v>6348</v>
+        <v>7908</v>
       </c>
       <c r="C27" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D27" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6165</v>
+        <v>7725</v>
       </c>
       <c r="B28" t="s">
-        <v>6349</v>
+        <v>7909</v>
       </c>
       <c r="C28" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D28" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6166</v>
+        <v>7726</v>
       </c>
       <c r="B29" t="s">
-        <v>6350</v>
+        <v>7910</v>
       </c>
       <c r="C29" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D29" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6167</v>
+        <v>7727</v>
       </c>
       <c r="B30" t="s">
-        <v>6351</v>
+        <v>7911</v>
       </c>
       <c r="C30" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D30" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6168</v>
+        <v>7728</v>
       </c>
       <c r="B31" t="s">
-        <v>6352</v>
+        <v>7912</v>
       </c>
       <c r="C31" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D31" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6169</v>
+        <v>7729</v>
       </c>
       <c r="B32" t="s">
-        <v>6353</v>
+        <v>7913</v>
       </c>
       <c r="C32" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D32" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6170</v>
+        <v>7730</v>
       </c>
       <c r="B33" t="s">
-        <v>6354</v>
+        <v>7914</v>
       </c>
       <c r="C33" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D33" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6171</v>
+        <v>7731</v>
       </c>
       <c r="B34" t="s">
-        <v>6355</v>
+        <v>7915</v>
       </c>
       <c r="C34" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D34" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6172</v>
+        <v>7732</v>
       </c>
       <c r="B35" t="s">
-        <v>6356</v>
+        <v>7916</v>
       </c>
       <c r="C35" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D35" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6173</v>
+        <v>7733</v>
       </c>
       <c r="B36" t="s">
-        <v>6357</v>
+        <v>7917</v>
       </c>
       <c r="C36" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D36" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6174</v>
+        <v>7734</v>
       </c>
       <c r="B37" t="s">
-        <v>6358</v>
+        <v>7918</v>
       </c>
       <c r="C37" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D37" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6175</v>
+        <v>7735</v>
       </c>
       <c r="B38" t="s">
-        <v>6359</v>
+        <v>7919</v>
       </c>
       <c r="C38" t="s">
-        <v>6509</v>
+        <v>8069</v>
       </c>
       <c r="D38" t="s">
-        <v>6582</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6176</v>
+        <v>7736</v>
       </c>
       <c r="B39" t="s">
-        <v>6360</v>
+        <v>7920</v>
       </c>
       <c r="C39" t="s">
-        <v>6510</v>
+        <v>8070</v>
       </c>
       <c r="D39" t="s">
-        <v>6583</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6177</v>
+        <v>7737</v>
       </c>
       <c r="B40" t="s">
-        <v>6361</v>
+        <v>7921</v>
       </c>
       <c r="C40" t="s">
-        <v>6510</v>
+        <v>8070</v>
       </c>
       <c r="D40" t="s">
-        <v>6584</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6178</v>
+        <v>7738</v>
       </c>
       <c r="B41" t="s">
-        <v>6362</v>
+        <v>7922</v>
       </c>
       <c r="C41" t="s">
-        <v>6511</v>
+        <v>8071</v>
       </c>
       <c r="D41" t="s">
-        <v>6585</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6179</v>
+        <v>7739</v>
       </c>
       <c r="B42" t="s">
-        <v>6363</v>
+        <v>7923</v>
       </c>
       <c r="C42" t="s">
-        <v>6512</v>
+        <v>8072</v>
       </c>
       <c r="D42" t="s">
-        <v>6586</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6180</v>
+        <v>7740</v>
       </c>
       <c r="B43" t="s">
-        <v>6364</v>
+        <v>7924</v>
       </c>
       <c r="C43" t="s">
-        <v>6512</v>
+        <v>8072</v>
       </c>
       <c r="D43" t="s">
-        <v>6587</v>
+        <v>8147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6181</v>
+        <v>7741</v>
       </c>
       <c r="B44" t="s">
-        <v>6365</v>
+        <v>7925</v>
       </c>
       <c r="C44" t="s">
-        <v>6513</v>
+        <v>8073</v>
       </c>
       <c r="D44" t="s">
-        <v>6588</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6182</v>
+        <v>7742</v>
       </c>
       <c r="B45" t="s">
-        <v>6366</v>
+        <v>7926</v>
       </c>
       <c r="C45" t="s">
-        <v>6513</v>
+        <v>8073</v>
       </c>
       <c r="D45" t="s">
-        <v>6589</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6183</v>
+        <v>7743</v>
       </c>
       <c r="B46" t="s">
-        <v>6367</v>
+        <v>7927</v>
       </c>
       <c r="C46" t="s">
-        <v>6513</v>
+        <v>8073</v>
       </c>
       <c r="D46" t="s">
-        <v>6590</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6184</v>
+        <v>7744</v>
       </c>
       <c r="B47" t="s">
-        <v>6368</v>
+        <v>7928</v>
       </c>
       <c r="C47" t="s">
-        <v>6514</v>
+        <v>8074</v>
       </c>
       <c r="D47" t="s">
-        <v>6591</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6185</v>
+        <v>7745</v>
       </c>
       <c r="B48" t="s">
-        <v>6369</v>
+        <v>7929</v>
       </c>
       <c r="C48" t="s">
-        <v>6514</v>
+        <v>8074</v>
       </c>
       <c r="D48" t="s">
-        <v>6592</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6186</v>
+        <v>7746</v>
       </c>
       <c r="B49" t="s">
-        <v>6370</v>
+        <v>7930</v>
       </c>
       <c r="C49" t="s">
-        <v>6514</v>
+        <v>8074</v>
       </c>
       <c r="D49" t="s">
-        <v>6593</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6187</v>
+        <v>7747</v>
       </c>
       <c r="B50" t="s">
-        <v>6371</v>
+        <v>7931</v>
       </c>
       <c r="C50" t="s">
-        <v>6514</v>
+        <v>8074</v>
       </c>
       <c r="D50" t="s">
-        <v>6594</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6188</v>
+        <v>7748</v>
       </c>
       <c r="B51" t="s">
-        <v>6372</v>
+        <v>7932</v>
       </c>
       <c r="C51" t="s">
-        <v>6514</v>
+        <v>8074</v>
       </c>
       <c r="D51" t="s">
-        <v>6595</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6189</v>
+        <v>7749</v>
       </c>
       <c r="B52" t="s">
-        <v>6373</v>
+        <v>7933</v>
       </c>
       <c r="C52" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D52" t="s">
-        <v>6596</v>
+        <v>8156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6190</v>
+        <v>7750</v>
       </c>
       <c r="B53" t="s">
-        <v>6374</v>
+        <v>7934</v>
       </c>
       <c r="C53" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D53" t="s">
-        <v>6597</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6191</v>
+        <v>7751</v>
       </c>
       <c r="B54" t="s">
-        <v>6375</v>
+        <v>7935</v>
       </c>
       <c r="C54" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D54" t="s">
-        <v>6597</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6192</v>
+        <v>7752</v>
       </c>
       <c r="B55" t="s">
-        <v>6376</v>
+        <v>7936</v>
       </c>
       <c r="C55" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D55" t="s">
-        <v>6597</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6193</v>
+        <v>7753</v>
       </c>
       <c r="B56" t="s">
-        <v>6377</v>
+        <v>7937</v>
       </c>
       <c r="C56" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D56" t="s">
-        <v>6597</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6194</v>
+        <v>7754</v>
       </c>
       <c r="B57" t="s">
-        <v>6378</v>
+        <v>7938</v>
       </c>
       <c r="C57" t="s">
-        <v>6515</v>
+        <v>8075</v>
       </c>
       <c r="D57" t="s">
-        <v>6598</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6195</v>
+        <v>7755</v>
       </c>
       <c r="B58" t="s">
-        <v>6379</v>
+        <v>7939</v>
       </c>
       <c r="C58" t="s">
-        <v>6516</v>
+        <v>8076</v>
       </c>
       <c r="D58" t="s">
-        <v>6599</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6196</v>
+        <v>7756</v>
       </c>
       <c r="B59" t="s">
-        <v>6380</v>
+        <v>7940</v>
       </c>
       <c r="C59" t="s">
-        <v>6517</v>
+        <v>8077</v>
       </c>
       <c r="D59" t="s">
-        <v>6600</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6197</v>
+        <v>7757</v>
       </c>
       <c r="B60" t="s">
-        <v>6381</v>
+        <v>7941</v>
       </c>
       <c r="C60" t="s">
-        <v>6517</v>
+        <v>8077</v>
       </c>
       <c r="D60" t="s">
-        <v>6601</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6198</v>
+        <v>7758</v>
       </c>
       <c r="B61" t="s">
-        <v>6382</v>
+        <v>7942</v>
       </c>
       <c r="C61" t="s">
-        <v>6518</v>
+        <v>8078</v>
       </c>
       <c r="D61" t="s">
-        <v>6602</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6199</v>
+        <v>7759</v>
       </c>
       <c r="B62" t="s">
-        <v>6383</v>
+        <v>7943</v>
       </c>
       <c r="C62" t="s">
-        <v>6519</v>
+        <v>8079</v>
       </c>
       <c r="D62" t="s">
-        <v>6603</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6200</v>
+        <v>7760</v>
       </c>
       <c r="B63" t="s">
-        <v>6384</v>
+        <v>7944</v>
       </c>
       <c r="C63" t="s">
-        <v>6520</v>
+        <v>8080</v>
       </c>
       <c r="D63" t="s">
-        <v>6604</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6201</v>
+        <v>7761</v>
       </c>
       <c r="B64" t="s">
-        <v>6385</v>
+        <v>7945</v>
       </c>
       <c r="C64" t="s">
-        <v>6521</v>
+        <v>8081</v>
       </c>
       <c r="D64" t="s">
-        <v>6605</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6202</v>
+        <v>7762</v>
       </c>
       <c r="B65" t="s">
-        <v>6386</v>
+        <v>7946</v>
       </c>
       <c r="C65" t="s">
-        <v>6521</v>
+        <v>8081</v>
       </c>
       <c r="D65" t="s">
-        <v>6605</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6203</v>
+        <v>7763</v>
       </c>
       <c r="B66" t="s">
-        <v>6387</v>
+        <v>7947</v>
       </c>
       <c r="C66" t="s">
-        <v>6522</v>
+        <v>8082</v>
       </c>
       <c r="D66" t="s">
-        <v>6606</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6204</v>
+        <v>7764</v>
       </c>
       <c r="B67" t="s">
-        <v>6388</v>
+        <v>7948</v>
       </c>
       <c r="C67" t="s">
-        <v>6523</v>
+        <v>8083</v>
       </c>
       <c r="D67" t="s">
-        <v>6607</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6205</v>
+        <v>7765</v>
       </c>
       <c r="B68" t="s">
-        <v>6389</v>
+        <v>7949</v>
       </c>
       <c r="C68" t="s">
-        <v>6524</v>
+        <v>8084</v>
       </c>
       <c r="D68" t="s">
-        <v>6608</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6206</v>
+        <v>7766</v>
       </c>
       <c r="B69" t="s">
-        <v>6390</v>
+        <v>7950</v>
       </c>
       <c r="C69" t="s">
-        <v>6525</v>
+        <v>8085</v>
       </c>
       <c r="D69" t="s">
-        <v>6609</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6207</v>
+        <v>7767</v>
       </c>
       <c r="B70" t="s">
-        <v>6391</v>
+        <v>7951</v>
       </c>
       <c r="C70" t="s">
-        <v>6526</v>
+        <v>8086</v>
       </c>
       <c r="D70" t="s">
-        <v>6610</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6208</v>
+        <v>7768</v>
       </c>
       <c r="B71" t="s">
-        <v>6392</v>
+        <v>7952</v>
       </c>
       <c r="C71" t="s">
-        <v>6526</v>
+        <v>8086</v>
       </c>
       <c r="D71" t="s">
-        <v>6611</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6209</v>
+        <v>7769</v>
       </c>
       <c r="B72" t="s">
-        <v>6393</v>
+        <v>7953</v>
       </c>
       <c r="C72" t="s">
-        <v>6527</v>
+        <v>8087</v>
       </c>
       <c r="D72" t="s">
-        <v>6612</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6210</v>
+        <v>7770</v>
       </c>
       <c r="B73" t="s">
-        <v>6394</v>
+        <v>7954</v>
       </c>
       <c r="C73" t="s">
-        <v>6527</v>
+        <v>8087</v>
       </c>
       <c r="D73" t="s">
-        <v>6613</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6211</v>
+        <v>7771</v>
       </c>
       <c r="B74" t="s">
-        <v>6395</v>
+        <v>7955</v>
       </c>
       <c r="C74" t="s">
-        <v>6527</v>
+        <v>8087</v>
       </c>
       <c r="D74" t="s">
-        <v>6614</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6212</v>
+        <v>7772</v>
       </c>
       <c r="B75" t="s">
-        <v>6395</v>
+        <v>7955</v>
       </c>
       <c r="C75" t="s">
-        <v>6527</v>
+        <v>8087</v>
       </c>
       <c r="D75" t="s">
-        <v>6615</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6213</v>
+        <v>7773</v>
       </c>
       <c r="B76" t="s">
-        <v>6396</v>
+        <v>7956</v>
       </c>
       <c r="C76" t="s">
-        <v>6528</v>
+        <v>8088</v>
       </c>
       <c r="D76" t="s">
-        <v>6616</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6214</v>
+        <v>7774</v>
       </c>
       <c r="B77" t="s">
-        <v>6397</v>
+        <v>7957</v>
       </c>
       <c r="C77" t="s">
-        <v>6529</v>
+        <v>8089</v>
       </c>
       <c r="D77" t="s">
-        <v>6617</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6215</v>
+        <v>7775</v>
       </c>
       <c r="B78" t="s">
-        <v>6398</v>
+        <v>7958</v>
       </c>
       <c r="C78" t="s">
-        <v>6529</v>
+        <v>8089</v>
       </c>
       <c r="D78" t="s">
-        <v>6618</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6216</v>
+        <v>7776</v>
       </c>
       <c r="B79" t="s">
-        <v>6399</v>
+        <v>7959</v>
       </c>
       <c r="C79" t="s">
-        <v>6529</v>
+        <v>8089</v>
       </c>
       <c r="D79" t="s">
-        <v>6618</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6217</v>
+        <v>7777</v>
       </c>
       <c r="B80" t="s">
-        <v>6400</v>
+        <v>7960</v>
       </c>
       <c r="C80" t="s">
-        <v>6530</v>
+        <v>8090</v>
       </c>
       <c r="D80" t="s">
-        <v>6619</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6218</v>
+        <v>7778</v>
       </c>
       <c r="B81" t="s">
-        <v>6401</v>
+        <v>7961</v>
       </c>
       <c r="C81" t="s">
-        <v>6531</v>
+        <v>8091</v>
       </c>
       <c r="D81" t="s">
-        <v>6620</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6219</v>
+        <v>7779</v>
       </c>
       <c r="B82" t="s">
-        <v>6402</v>
+        <v>7962</v>
       </c>
       <c r="C82" t="s">
-        <v>6531</v>
+        <v>8091</v>
       </c>
       <c r="D82" t="s">
-        <v>6621</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6220</v>
+        <v>7780</v>
       </c>
       <c r="B83" t="s">
-        <v>6403</v>
+        <v>7963</v>
       </c>
       <c r="C83" t="s">
-        <v>6531</v>
+        <v>8091</v>
       </c>
       <c r="D83" t="s">
-        <v>6622</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6221</v>
+        <v>7781</v>
       </c>
       <c r="B84" t="s">
-        <v>6404</v>
+        <v>7964</v>
       </c>
       <c r="C84" t="s">
-        <v>6531</v>
+        <v>8091</v>
       </c>
       <c r="D84" t="s">
-        <v>6623</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6222</v>
+        <v>7782</v>
       </c>
       <c r="B85" t="s">
-        <v>6405</v>
+        <v>7965</v>
       </c>
       <c r="C85" t="s">
-        <v>6531</v>
+        <v>8091</v>
       </c>
       <c r="D85" t="s">
-        <v>6624</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6223</v>
+        <v>7783</v>
       </c>
       <c r="B86" t="s">
-        <v>6406</v>
+        <v>7966</v>
       </c>
       <c r="C86" t="s">
-        <v>6532</v>
+        <v>8092</v>
       </c>
       <c r="D86" t="s">
-        <v>6625</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6224</v>
+        <v>7784</v>
       </c>
       <c r="B87" t="s">
-        <v>6407</v>
+        <v>7967</v>
       </c>
       <c r="C87" t="s">
-        <v>6532</v>
+        <v>8092</v>
       </c>
       <c r="D87" t="s">
-        <v>6626</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6225</v>
+        <v>7785</v>
       </c>
       <c r="B88" t="s">
-        <v>6408</v>
+        <v>7968</v>
       </c>
       <c r="C88" t="s">
-        <v>6533</v>
+        <v>8093</v>
       </c>
       <c r="D88" t="s">
-        <v>6627</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6226</v>
+        <v>7786</v>
       </c>
       <c r="B89" t="s">
-        <v>6409</v>
+        <v>7969</v>
       </c>
       <c r="C89" t="s">
-        <v>6534</v>
+        <v>8094</v>
       </c>
       <c r="D89" t="s">
-        <v>6628</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6227</v>
+        <v>7787</v>
       </c>
       <c r="B90" t="s">
-        <v>6410</v>
+        <v>7970</v>
       </c>
       <c r="C90" t="s">
-        <v>6535</v>
+        <v>8095</v>
       </c>
       <c r="D90" t="s">
-        <v>6629</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6228</v>
+        <v>7788</v>
       </c>
       <c r="B91" t="s">
-        <v>6411</v>
+        <v>7971</v>
       </c>
       <c r="C91" t="s">
-        <v>6536</v>
+        <v>8096</v>
       </c>
       <c r="D91" t="s">
-        <v>6630</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>6229</v>
+        <v>7789</v>
       </c>
       <c r="B92" t="s">
-        <v>6412</v>
+        <v>7972</v>
       </c>
       <c r="C92" t="s">
-        <v>6536</v>
+        <v>8096</v>
       </c>
       <c r="D92" t="s">
-        <v>6631</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>6230</v>
+        <v>7790</v>
       </c>
       <c r="B93" t="s">
-        <v>6413</v>
+        <v>7973</v>
       </c>
       <c r="C93" t="s">
-        <v>6537</v>
+        <v>8097</v>
       </c>
       <c r="D93" t="s">
-        <v>6632</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>6231</v>
+        <v>7791</v>
       </c>
       <c r="B94" t="s">
-        <v>6414</v>
+        <v>7974</v>
       </c>
       <c r="C94" t="s">
-        <v>6538</v>
+        <v>8098</v>
       </c>
       <c r="D94" t="s">
-        <v>6633</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6232</v>
+        <v>7792</v>
       </c>
       <c r="B95" t="s">
-        <v>6415</v>
+        <v>7975</v>
       </c>
       <c r="C95" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D95" t="s">
-        <v>6634</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>6233</v>
+        <v>7793</v>
       </c>
       <c r="B96" t="s">
-        <v>6416</v>
+        <v>7976</v>
       </c>
       <c r="C96" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D96" t="s">
-        <v>6635</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>6234</v>
+        <v>7794</v>
       </c>
       <c r="B97" t="s">
-        <v>6417</v>
+        <v>7977</v>
       </c>
       <c r="C97" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D97" t="s">
-        <v>6636</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>6235</v>
+        <v>7795</v>
       </c>
       <c r="B98" t="s">
-        <v>6418</v>
+        <v>7978</v>
       </c>
       <c r="C98" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D98" t="s">
-        <v>6637</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>6236</v>
+        <v>7796</v>
       </c>
       <c r="B99" t="s">
-        <v>6419</v>
+        <v>7979</v>
       </c>
       <c r="C99" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D99" t="s">
-        <v>6638</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>6237</v>
+        <v>7797</v>
       </c>
       <c r="B100" t="s">
-        <v>6420</v>
+        <v>7980</v>
       </c>
       <c r="C100" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D100" t="s">
-        <v>6639</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>6238</v>
+        <v>7798</v>
       </c>
       <c r="B101" t="s">
-        <v>6421</v>
+        <v>7981</v>
       </c>
       <c r="C101" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D101" t="s">
-        <v>6640</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>6239</v>
+        <v>7799</v>
       </c>
       <c r="B102" t="s">
-        <v>6422</v>
+        <v>7982</v>
       </c>
       <c r="C102" t="s">
-        <v>6539</v>
+        <v>8099</v>
       </c>
       <c r="D102" t="s">
-        <v>6641</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>6240</v>
+        <v>7800</v>
       </c>
       <c r="B103" t="s">
-        <v>6423</v>
+        <v>7983</v>
       </c>
       <c r="C103" t="s">
-        <v>6540</v>
+        <v>8100</v>
       </c>
       <c r="D103" t="s">
-        <v>6642</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>6241</v>
+        <v>7801</v>
       </c>
       <c r="B104" t="s">
-        <v>6424</v>
+        <v>7984</v>
       </c>
       <c r="C104" t="s">
-        <v>6541</v>
+        <v>8101</v>
       </c>
       <c r="D104" t="s">
-        <v>6643</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>6242</v>
+        <v>7802</v>
       </c>
       <c r="B105" t="s">
-        <v>6425</v>
+        <v>7985</v>
       </c>
       <c r="C105" t="s">
-        <v>6542</v>
+        <v>8102</v>
       </c>
       <c r="D105" t="s">
-        <v>6644</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>6243</v>
+        <v>7803</v>
       </c>
       <c r="B106" t="s">
-        <v>6426</v>
+        <v>7986</v>
       </c>
       <c r="C106" t="s">
-        <v>6542</v>
+        <v>8102</v>
       </c>
       <c r="D106" t="s">
-        <v>6645</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>6244</v>
+        <v>7804</v>
       </c>
       <c r="B107" t="s">
-        <v>6427</v>
+        <v>7987</v>
       </c>
       <c r="C107" t="s">
-        <v>6542</v>
+        <v>8102</v>
       </c>
       <c r="D107" t="s">
-        <v>6646</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>6245</v>
+        <v>7805</v>
       </c>
       <c r="B108" t="s">
-        <v>6428</v>
+        <v>7988</v>
       </c>
       <c r="C108" t="s">
-        <v>6543</v>
+        <v>8103</v>
       </c>
       <c r="D108" t="s">
-        <v>6647</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>6246</v>
+        <v>7806</v>
       </c>
       <c r="B109" t="s">
-        <v>6429</v>
+        <v>7989</v>
       </c>
       <c r="C109" t="s">
-        <v>6544</v>
+        <v>8104</v>
       </c>
       <c r="D109" t="s">
-        <v>6648</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>6247</v>
+        <v>7807</v>
       </c>
       <c r="B110" t="s">
-        <v>6430</v>
+        <v>7990</v>
       </c>
       <c r="C110" t="s">
-        <v>6544</v>
+        <v>8104</v>
       </c>
       <c r="D110" t="s">
-        <v>6649</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>6248</v>
+        <v>7808</v>
       </c>
       <c r="B111" t="s">
-        <v>6431</v>
+        <v>7991</v>
       </c>
       <c r="C111" t="s">
-        <v>6545</v>
+        <v>8105</v>
       </c>
       <c r="D111" t="s">
-        <v>6650</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>6249</v>
+        <v>7809</v>
       </c>
       <c r="B112" t="s">
-        <v>6432</v>
+        <v>7992</v>
       </c>
       <c r="C112" t="s">
-        <v>6545</v>
+        <v>8105</v>
       </c>
       <c r="D112" t="s">
-        <v>6651</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>6250</v>
+        <v>7810</v>
       </c>
       <c r="B113" t="s">
-        <v>6433</v>
+        <v>7993</v>
       </c>
       <c r="C113" t="s">
-        <v>6546</v>
+        <v>8106</v>
       </c>
       <c r="D113" t="s">
-        <v>6652</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>6251</v>
+        <v>7811</v>
       </c>
       <c r="B114" t="s">
-        <v>6434</v>
+        <v>7994</v>
       </c>
       <c r="C114" t="s">
-        <v>6546</v>
+        <v>8106</v>
       </c>
       <c r="D114" t="s">
-        <v>6653</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>6252</v>
+        <v>7812</v>
       </c>
       <c r="B115" t="s">
-        <v>6435</v>
+        <v>7995</v>
       </c>
       <c r="C115" t="s">
-        <v>6546</v>
+        <v>8106</v>
       </c>
       <c r="D115" t="s">
-        <v>6654</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>6253</v>
+        <v>7813</v>
       </c>
       <c r="B116" t="s">
-        <v>6436</v>
+        <v>7996</v>
       </c>
       <c r="C116" t="s">
-        <v>6547</v>
+        <v>8107</v>
       </c>
       <c r="D116" t="s">
-        <v>6655</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>6254</v>
+        <v>7814</v>
       </c>
       <c r="B117" t="s">
-        <v>6437</v>
+        <v>7997</v>
       </c>
       <c r="C117" t="s">
-        <v>6547</v>
+        <v>8107</v>
       </c>
       <c r="D117" t="s">
-        <v>6656</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>6255</v>
+        <v>7815</v>
       </c>
       <c r="B118" t="s">
-        <v>6438</v>
+        <v>7998</v>
       </c>
       <c r="C118" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D118" t="s">
-        <v>6657</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>6256</v>
+        <v>7816</v>
       </c>
       <c r="B119" t="s">
-        <v>6439</v>
+        <v>7999</v>
       </c>
       <c r="C119" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D119" t="s">
-        <v>6658</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>6257</v>
+        <v>7817</v>
       </c>
       <c r="B120" t="s">
-        <v>6440</v>
+        <v>8000</v>
       </c>
       <c r="C120" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D120" t="s">
-        <v>6659</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6258</v>
+        <v>7818</v>
       </c>
       <c r="B121" t="s">
-        <v>6441</v>
+        <v>8001</v>
       </c>
       <c r="C121" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D121" t="s">
-        <v>6660</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>6259</v>
+        <v>7819</v>
       </c>
       <c r="B122" t="s">
-        <v>6442</v>
+        <v>8002</v>
       </c>
       <c r="C122" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D122" t="s">
-        <v>6661</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6260</v>
+        <v>7820</v>
       </c>
       <c r="B123" t="s">
-        <v>6443</v>
+        <v>8003</v>
       </c>
       <c r="C123" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D123" t="s">
-        <v>6662</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>6261</v>
+        <v>7821</v>
       </c>
       <c r="B124" t="s">
-        <v>6444</v>
+        <v>8004</v>
       </c>
       <c r="C124" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D124" t="s">
-        <v>6663</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>6262</v>
+        <v>7822</v>
       </c>
       <c r="B125" t="s">
-        <v>6445</v>
+        <v>8005</v>
       </c>
       <c r="C125" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D125" t="s">
-        <v>6664</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>6263</v>
+        <v>7823</v>
       </c>
       <c r="B126" t="s">
-        <v>6446</v>
+        <v>8006</v>
       </c>
       <c r="C126" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D126" t="s">
-        <v>6665</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>6264</v>
+        <v>7824</v>
       </c>
       <c r="B127" t="s">
-        <v>6447</v>
+        <v>8007</v>
       </c>
       <c r="C127" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D127" t="s">
-        <v>6666</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>6265</v>
+        <v>7825</v>
       </c>
       <c r="B128" t="s">
-        <v>6448</v>
+        <v>8008</v>
       </c>
       <c r="C128" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D128" t="s">
-        <v>6667</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>6266</v>
+        <v>7826</v>
       </c>
       <c r="B129" t="s">
-        <v>6449</v>
+        <v>8009</v>
       </c>
       <c r="C129" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D129" t="s">
-        <v>6668</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>6267</v>
+        <v>7827</v>
       </c>
       <c r="B130" t="s">
-        <v>6450</v>
+        <v>8010</v>
       </c>
       <c r="C130" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D130" t="s">
-        <v>6669</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6268</v>
+        <v>7828</v>
       </c>
       <c r="B131" t="s">
-        <v>6451</v>
+        <v>8011</v>
       </c>
       <c r="C131" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D131" t="s">
-        <v>6670</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>6269</v>
+        <v>7829</v>
       </c>
       <c r="B132" t="s">
-        <v>6452</v>
+        <v>8012</v>
       </c>
       <c r="C132" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D132" t="s">
-        <v>6671</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>6270</v>
+        <v>7830</v>
       </c>
       <c r="B133" t="s">
-        <v>6453</v>
+        <v>8013</v>
       </c>
       <c r="C133" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D133" t="s">
-        <v>6672</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>6271</v>
+        <v>7831</v>
       </c>
       <c r="B134" t="s">
-        <v>6454</v>
+        <v>8014</v>
       </c>
       <c r="C134" t="s">
-        <v>6548</v>
+        <v>8108</v>
       </c>
       <c r="D134" t="s">
-        <v>6673</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>6272</v>
+        <v>7832</v>
       </c>
       <c r="B135" t="s">
-        <v>6455</v>
+        <v>8015</v>
       </c>
       <c r="C135" t="s">
-        <v>6549</v>
+        <v>8109</v>
       </c>
       <c r="D135" t="s">
-        <v>6674</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>6273</v>
+        <v>7833</v>
       </c>
       <c r="B136" t="s">
-        <v>6456</v>
+        <v>8016</v>
       </c>
       <c r="C136" t="s">
-        <v>6550</v>
+        <v>8110</v>
       </c>
       <c r="D136" t="s">
-        <v>6675</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6274</v>
+        <v>7834</v>
       </c>
       <c r="B137" t="s">
-        <v>6457</v>
+        <v>8017</v>
       </c>
       <c r="C137" t="s">
-        <v>6550</v>
+        <v>8110</v>
       </c>
       <c r="D137" t="s">
-        <v>6676</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6275</v>
+        <v>7835</v>
       </c>
       <c r="B138" t="s">
-        <v>6458</v>
+        <v>8018</v>
       </c>
       <c r="C138" t="s">
-        <v>6550</v>
+        <v>8110</v>
       </c>
       <c r="D138" t="s">
-        <v>6677</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>6276</v>
+        <v>7836</v>
       </c>
       <c r="B139" t="s">
-        <v>6459</v>
+        <v>8019</v>
       </c>
       <c r="C139" t="s">
-        <v>6551</v>
+        <v>8111</v>
       </c>
       <c r="D139" t="s">
-        <v>6678</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>6277</v>
+        <v>7837</v>
       </c>
       <c r="B140" t="s">
-        <v>6460</v>
+        <v>8020</v>
       </c>
       <c r="C140" t="s">
-        <v>6552</v>
+        <v>8112</v>
       </c>
       <c r="D140" t="s">
-        <v>6679</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>6278</v>
+        <v>7838</v>
       </c>
       <c r="B141" t="s">
-        <v>6461</v>
+        <v>8021</v>
       </c>
       <c r="C141" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D141" t="s">
-        <v>6680</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>6279</v>
+        <v>7839</v>
       </c>
       <c r="B142" t="s">
-        <v>6462</v>
+        <v>8022</v>
       </c>
       <c r="C142" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D142" t="s">
-        <v>6681</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>6280</v>
+        <v>7840</v>
       </c>
       <c r="B143" t="s">
-        <v>6463</v>
+        <v>8023</v>
       </c>
       <c r="C143" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D143" t="s">
-        <v>6682</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>6281</v>
+        <v>7841</v>
       </c>
       <c r="B144" t="s">
-        <v>6464</v>
+        <v>8024</v>
       </c>
       <c r="C144" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D144" t="s">
-        <v>6683</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>6282</v>
+        <v>7842</v>
       </c>
       <c r="B145" t="s">
-        <v>6465</v>
+        <v>8025</v>
       </c>
       <c r="C145" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D145" t="s">
-        <v>6684</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>6283</v>
+        <v>7843</v>
       </c>
       <c r="B146" t="s">
-        <v>6466</v>
+        <v>8026</v>
       </c>
       <c r="C146" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D146" t="s">
-        <v>6685</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>6284</v>
+        <v>7844</v>
       </c>
       <c r="B147" t="s">
-        <v>6467</v>
+        <v>8027</v>
       </c>
       <c r="C147" t="s">
-        <v>6553</v>
+        <v>8113</v>
       </c>
       <c r="D147" t="s">
-        <v>6686</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>6285</v>
+        <v>7845</v>
       </c>
       <c r="B148" t="s">
-        <v>6468</v>
+        <v>8028</v>
       </c>
       <c r="C148" t="s">
-        <v>6554</v>
+        <v>8114</v>
       </c>
       <c r="D148" t="s">
-        <v>6687</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>6286</v>
+        <v>7846</v>
       </c>
       <c r="B149" t="s">
-        <v>6469</v>
+        <v>8029</v>
       </c>
       <c r="C149" t="s">
-        <v>6555</v>
+        <v>8115</v>
       </c>
       <c r="D149" t="s">
-        <v>6688</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>6287</v>
+        <v>7847</v>
       </c>
       <c r="B150" t="s">
-        <v>6470</v>
+        <v>8030</v>
       </c>
       <c r="C150" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D150" t="s">
-        <v>6689</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>6288</v>
+        <v>7848</v>
       </c>
       <c r="B151" t="s">
-        <v>6471</v>
+        <v>8031</v>
       </c>
       <c r="C151" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D151" t="s">
-        <v>6690</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>6289</v>
+        <v>7849</v>
       </c>
       <c r="B152" t="s">
-        <v>6472</v>
+        <v>8032</v>
       </c>
       <c r="C152" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D152" t="s">
-        <v>6691</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>6290</v>
+        <v>7850</v>
       </c>
       <c r="B153" t="s">
-        <v>6473</v>
+        <v>8033</v>
       </c>
       <c r="C153" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D153" t="s">
-        <v>6692</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>6291</v>
+        <v>7851</v>
       </c>
       <c r="B154" t="s">
-        <v>6474</v>
+        <v>8034</v>
       </c>
       <c r="C154" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D154" t="s">
-        <v>6693</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>6292</v>
+        <v>7852</v>
       </c>
       <c r="B155" t="s">
-        <v>6475</v>
+        <v>8035</v>
       </c>
       <c r="C155" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D155" t="s">
-        <v>6694</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>6293</v>
+        <v>7853</v>
       </c>
       <c r="B156" t="s">
-        <v>6476</v>
+        <v>8036</v>
       </c>
       <c r="C156" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D156" t="s">
-        <v>6695</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>6294</v>
+        <v>7854</v>
       </c>
       <c r="B157" t="s">
-        <v>6477</v>
+        <v>8037</v>
       </c>
       <c r="C157" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D157" t="s">
-        <v>6696</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>6295</v>
+        <v>7855</v>
       </c>
       <c r="B158" t="s">
-        <v>6478</v>
+        <v>8038</v>
       </c>
       <c r="C158" t="s">
-        <v>6556</v>
+        <v>8116</v>
       </c>
       <c r="D158" t="s">
-        <v>6697</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6296</v>
+        <v>7856</v>
       </c>
       <c r="B159" t="s">
-        <v>6479</v>
+        <v>8039</v>
       </c>
       <c r="C159" t="s">
-        <v>6557</v>
+        <v>8117</v>
       </c>
       <c r="D159" t="s">
-        <v>6698</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>6297</v>
+        <v>7857</v>
       </c>
       <c r="B160" t="s">
-        <v>6480</v>
+        <v>8040</v>
       </c>
       <c r="C160" t="s">
-        <v>6557</v>
+        <v>8117</v>
       </c>
       <c r="D160" t="s">
-        <v>6699</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>6298</v>
+        <v>7858</v>
       </c>
       <c r="B161" t="s">
-        <v>6481</v>
+        <v>8041</v>
       </c>
       <c r="C161" t="s">
-        <v>6557</v>
+        <v>8117</v>
       </c>
       <c r="D161" t="s">
-        <v>6700</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>6299</v>
+        <v>7859</v>
       </c>
       <c r="B162" t="s">
-        <v>6482</v>
+        <v>8042</v>
       </c>
       <c r="C162" t="s">
-        <v>6557</v>
+        <v>8117</v>
       </c>
       <c r="D162" t="s">
-        <v>6701</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>6300</v>
+        <v>7860</v>
       </c>
       <c r="B163" t="s">
-        <v>6483</v>
+        <v>8043</v>
       </c>
       <c r="C163" t="s">
-        <v>6558</v>
+        <v>8118</v>
       </c>
       <c r="D163" t="s">
-        <v>6702</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>6301</v>
+        <v>7861</v>
       </c>
       <c r="B164" t="s">
-        <v>6484</v>
+        <v>8044</v>
       </c>
       <c r="C164" t="s">
-        <v>6559</v>
+        <v>8119</v>
       </c>
       <c r="D164" t="s">
-        <v>6703</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>6302</v>
+        <v>7862</v>
       </c>
       <c r="B165" t="s">
-        <v>6485</v>
+        <v>8045</v>
       </c>
       <c r="C165" t="s">
-        <v>6559</v>
+        <v>8119</v>
       </c>
       <c r="D165" t="s">
-        <v>6704</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>6303</v>
+        <v>7863</v>
       </c>
       <c r="B166" t="s">
-        <v>6486</v>
+        <v>8046</v>
       </c>
       <c r="C166" t="s">
-        <v>6559</v>
+        <v>8119</v>
       </c>
       <c r="D166" t="s">
-        <v>6705</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>6304</v>
+        <v>7864</v>
       </c>
       <c r="B167" t="s">
-        <v>6487</v>
+        <v>8047</v>
       </c>
       <c r="C167" t="s">
-        <v>6560</v>
+        <v>8120</v>
       </c>
       <c r="D167" t="s">
-        <v>6706</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>6305</v>
+        <v>7865</v>
       </c>
       <c r="B168" t="s">
-        <v>6488</v>
+        <v>8048</v>
       </c>
       <c r="C168" t="s">
-        <v>6561</v>
+        <v>8121</v>
       </c>
       <c r="D168" t="s">
-        <v>6707</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>6306</v>
+        <v>7866</v>
       </c>
       <c r="B169" t="s">
-        <v>6489</v>
+        <v>8049</v>
       </c>
       <c r="C169" t="s">
-        <v>6561</v>
+        <v>8121</v>
       </c>
       <c r="D169" t="s">
-        <v>6708</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>6307</v>
+        <v>7867</v>
       </c>
       <c r="B170" t="s">
-        <v>6490</v>
+        <v>8050</v>
       </c>
       <c r="C170" t="s">
-        <v>6561</v>
+        <v>8121</v>
       </c>
       <c r="D170" t="s">
-        <v>6709</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>6308</v>
+        <v>7868</v>
       </c>
       <c r="B171" t="s">
-        <v>6491</v>
+        <v>8051</v>
       </c>
       <c r="C171" t="s">
-        <v>6561</v>
+        <v>8121</v>
       </c>
       <c r="D171" t="s">
-        <v>6710</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>6309</v>
+        <v>7869</v>
       </c>
       <c r="B172" t="s">
-        <v>6492</v>
+        <v>8052</v>
       </c>
       <c r="C172" t="s">
-        <v>6562</v>
+        <v>8122</v>
       </c>
       <c r="D172" t="s">
-        <v>6711</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>6310</v>
+        <v>7870</v>
       </c>
       <c r="B173" t="s">
-        <v>6493</v>
+        <v>8053</v>
       </c>
       <c r="C173" t="s">
-        <v>6563</v>
+        <v>8123</v>
       </c>
       <c r="D173" t="s">
-        <v>6712</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>6311</v>
+        <v>7871</v>
       </c>
       <c r="B174" t="s">
-        <v>6494</v>
+        <v>8054</v>
       </c>
       <c r="C174" t="s">
-        <v>6563</v>
+        <v>8123</v>
       </c>
       <c r="D174" t="s">
-        <v>6713</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>6312</v>
+        <v>7872</v>
       </c>
       <c r="B175" t="s">
-        <v>6495</v>
+        <v>8055</v>
       </c>
       <c r="C175" t="s">
-        <v>6563</v>
+        <v>8123</v>
       </c>
       <c r="D175" t="s">
-        <v>6714</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>6313</v>
+        <v>7873</v>
       </c>
       <c r="B176" t="s">
-        <v>6496</v>
+        <v>8056</v>
       </c>
       <c r="C176" t="s">
-        <v>6564</v>
+        <v>8124</v>
       </c>
       <c r="D176" t="s">
-        <v>6715</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>6314</v>
+        <v>7874</v>
       </c>
       <c r="B177" t="s">
-        <v>6497</v>
+        <v>8057</v>
       </c>
       <c r="C177" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D177" t="s">
-        <v>6716</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>6315</v>
+        <v>7875</v>
       </c>
       <c r="B178" t="s">
-        <v>6498</v>
+        <v>8058</v>
       </c>
       <c r="C178" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D178" t="s">
-        <v>6717</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>6316</v>
+        <v>7876</v>
       </c>
       <c r="B179" t="s">
-        <v>6499</v>
+        <v>8059</v>
       </c>
       <c r="C179" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D179" t="s">
-        <v>6717</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>6317</v>
+        <v>7877</v>
       </c>
       <c r="B180" t="s">
-        <v>6500</v>
+        <v>8060</v>
       </c>
       <c r="C180" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D180" t="s">
-        <v>6717</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>6318</v>
+        <v>7878</v>
       </c>
       <c r="B181" t="s">
-        <v>6501</v>
+        <v>8061</v>
       </c>
       <c r="C181" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D181" t="s">
-        <v>6718</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>6319</v>
+        <v>7879</v>
       </c>
       <c r="B182" t="s">
-        <v>6502</v>
+        <v>8062</v>
       </c>
       <c r="C182" t="s">
-        <v>6565</v>
+        <v>8125</v>
       </c>
       <c r="D182" t="s">
-        <v>6719</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>6320</v>
+        <v>7880</v>
       </c>
       <c r="B183" t="s">
-        <v>6503</v>
+        <v>8063</v>
       </c>
       <c r="C183" t="s">
-        <v>6566</v>
+        <v>8126</v>
       </c>
       <c r="D183" t="s">
-        <v>6720</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>6321</v>
+        <v>7881</v>
       </c>
       <c r="B184" t="s">
-        <v>6504</v>
+        <v>8064</v>
       </c>
       <c r="C184" t="s">
-        <v>6567</v>
+        <v>8127</v>
       </c>
       <c r="D184" t="s">
-        <v>6721</v>
+        <v>8281</v>
       </c>
     </row>
   </sheetData>
@@ -23401,970 +28081,970 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6722</v>
+        <v>8282</v>
       </c>
       <c r="B1" t="s">
-        <v>6744</v>
+        <v>8304</v>
       </c>
       <c r="C1" t="s">
-        <v>6830</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6723</v>
+        <v>8283</v>
       </c>
       <c r="B2" t="s">
-        <v>6745</v>
+        <v>8305</v>
       </c>
       <c r="C2" t="s">
-        <v>6831</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6723</v>
+        <v>8283</v>
       </c>
       <c r="B3" t="s">
-        <v>6746</v>
+        <v>8306</v>
       </c>
       <c r="C3" t="s">
-        <v>6832</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6724</v>
+        <v>8284</v>
       </c>
       <c r="B4" t="s">
-        <v>6747</v>
+        <v>8307</v>
       </c>
       <c r="C4" t="s">
-        <v>6833</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6724</v>
+        <v>8284</v>
       </c>
       <c r="B5" t="s">
-        <v>6748</v>
+        <v>8308</v>
       </c>
       <c r="C5" t="s">
-        <v>6834</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6724</v>
+        <v>8284</v>
       </c>
       <c r="B6" t="s">
-        <v>6749</v>
+        <v>8309</v>
       </c>
       <c r="C6" t="s">
-        <v>6835</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6725</v>
+        <v>8285</v>
       </c>
       <c r="B7" t="s">
-        <v>6750</v>
+        <v>8310</v>
       </c>
       <c r="C7" t="s">
-        <v>6836</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6725</v>
+        <v>8285</v>
       </c>
       <c r="B8" t="s">
-        <v>6751</v>
+        <v>8311</v>
       </c>
       <c r="C8" t="s">
-        <v>6837</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6725</v>
+        <v>8285</v>
       </c>
       <c r="B9" t="s">
-        <v>6752</v>
+        <v>8312</v>
       </c>
       <c r="C9" t="s">
-        <v>6838</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6725</v>
+        <v>8285</v>
       </c>
       <c r="B10" t="s">
-        <v>6753</v>
+        <v>8313</v>
       </c>
       <c r="C10" t="s">
-        <v>6839</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6726</v>
+        <v>8286</v>
       </c>
       <c r="B11" t="s">
-        <v>6754</v>
+        <v>8314</v>
       </c>
       <c r="C11" t="s">
-        <v>6840</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6726</v>
+        <v>8286</v>
       </c>
       <c r="B12" t="s">
-        <v>6755</v>
+        <v>8315</v>
       </c>
       <c r="C12" t="s">
-        <v>6841</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6726</v>
+        <v>8286</v>
       </c>
       <c r="B13" t="s">
-        <v>6756</v>
+        <v>8316</v>
       </c>
       <c r="C13" t="s">
-        <v>6842</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6727</v>
+        <v>8287</v>
       </c>
       <c r="B14" t="s">
-        <v>6757</v>
+        <v>8317</v>
       </c>
       <c r="C14" t="s">
-        <v>6843</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6727</v>
+        <v>8287</v>
       </c>
       <c r="B15" t="s">
-        <v>6758</v>
+        <v>8318</v>
       </c>
       <c r="C15" t="s">
-        <v>6844</v>
+        <v>8404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6727</v>
+        <v>8287</v>
       </c>
       <c r="B16" t="s">
-        <v>6759</v>
+        <v>8319</v>
       </c>
       <c r="C16" t="s">
-        <v>6845</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B17" t="s">
-        <v>6760</v>
+        <v>8320</v>
       </c>
       <c r="C17" t="s">
-        <v>6846</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B18" t="s">
-        <v>6761</v>
+        <v>8321</v>
       </c>
       <c r="C18" t="s">
-        <v>6847</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B19" t="s">
-        <v>6762</v>
+        <v>8322</v>
       </c>
       <c r="C19" t="s">
-        <v>6848</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B20" t="s">
-        <v>6763</v>
+        <v>8323</v>
       </c>
       <c r="C20" t="s">
-        <v>6849</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B21" t="s">
-        <v>6764</v>
+        <v>8324</v>
       </c>
       <c r="C21" t="s">
-        <v>6850</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>6728</v>
+        <v>8288</v>
       </c>
       <c r="B22" t="s">
-        <v>6765</v>
+        <v>8325</v>
       </c>
       <c r="C22" t="s">
-        <v>6851</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6729</v>
+        <v>8289</v>
       </c>
       <c r="B23" t="s">
-        <v>6766</v>
+        <v>8326</v>
       </c>
       <c r="C23" t="s">
-        <v>6852</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6729</v>
+        <v>8289</v>
       </c>
       <c r="B24" t="s">
-        <v>6767</v>
+        <v>8327</v>
       </c>
       <c r="C24" t="s">
-        <v>6853</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6730</v>
+        <v>8290</v>
       </c>
       <c r="B25" t="s">
-        <v>6768</v>
+        <v>8328</v>
       </c>
       <c r="C25" t="s">
-        <v>6854</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>6730</v>
+        <v>8290</v>
       </c>
       <c r="B26" t="s">
-        <v>6769</v>
+        <v>8329</v>
       </c>
       <c r="C26" t="s">
-        <v>6855</v>
+        <v>8415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6731</v>
+        <v>8291</v>
       </c>
       <c r="B27" t="s">
-        <v>6769</v>
+        <v>8329</v>
       </c>
       <c r="C27" t="s">
-        <v>6856</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6731</v>
+        <v>8291</v>
       </c>
       <c r="B28" t="s">
-        <v>6770</v>
+        <v>8330</v>
       </c>
       <c r="C28" t="s">
-        <v>6857</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>6731</v>
+        <v>8291</v>
       </c>
       <c r="B29" t="s">
-        <v>6771</v>
+        <v>8331</v>
       </c>
       <c r="C29" t="s">
-        <v>6858</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>6731</v>
+        <v>8291</v>
       </c>
       <c r="B30" t="s">
-        <v>6772</v>
+        <v>8332</v>
       </c>
       <c r="C30" t="s">
-        <v>6859</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>6731</v>
+        <v>8291</v>
       </c>
       <c r="B31" t="s">
-        <v>6773</v>
+        <v>8333</v>
       </c>
       <c r="C31" t="s">
-        <v>6860</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B32" t="s">
-        <v>6774</v>
+        <v>8334</v>
       </c>
       <c r="C32" t="s">
-        <v>6861</v>
+        <v>8421</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B33" t="s">
-        <v>6775</v>
+        <v>8335</v>
       </c>
       <c r="C33" t="s">
-        <v>6862</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B34" t="s">
-        <v>6776</v>
+        <v>8336</v>
       </c>
       <c r="C34" t="s">
-        <v>6863</v>
+        <v>8423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B35" t="s">
-        <v>6777</v>
+        <v>8337</v>
       </c>
       <c r="C35" t="s">
-        <v>6864</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B36" t="s">
-        <v>6778</v>
+        <v>8338</v>
       </c>
       <c r="C36" t="s">
-        <v>6865</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B37" t="s">
-        <v>6779</v>
+        <v>8339</v>
       </c>
       <c r="C37" t="s">
-        <v>6866</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B38" t="s">
-        <v>6780</v>
+        <v>8340</v>
       </c>
       <c r="C38" t="s">
-        <v>6867</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B39" t="s">
-        <v>6781</v>
+        <v>8341</v>
       </c>
       <c r="C39" t="s">
-        <v>6868</v>
+        <v>8428</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B40" t="s">
-        <v>6782</v>
+        <v>8342</v>
       </c>
       <c r="C40" t="s">
-        <v>6869</v>
+        <v>8429</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B41" t="s">
-        <v>6783</v>
+        <v>8343</v>
       </c>
       <c r="C41" t="s">
-        <v>6870</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B42" t="s">
-        <v>6784</v>
+        <v>8344</v>
       </c>
       <c r="C42" t="s">
-        <v>6871</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B43" t="s">
-        <v>6785</v>
+        <v>8345</v>
       </c>
       <c r="C43" t="s">
-        <v>6872</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B44" t="s">
-        <v>6786</v>
+        <v>8346</v>
       </c>
       <c r="C44" t="s">
-        <v>6873</v>
+        <v>8433</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B45" t="s">
-        <v>6787</v>
+        <v>8347</v>
       </c>
       <c r="C45" t="s">
-        <v>6874</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>6732</v>
+        <v>8292</v>
       </c>
       <c r="B46" t="s">
-        <v>6788</v>
+        <v>8348</v>
       </c>
       <c r="C46" t="s">
-        <v>6875</v>
+        <v>8435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6733</v>
+        <v>8293</v>
       </c>
       <c r="B47" t="s">
-        <v>6789</v>
+        <v>8349</v>
       </c>
       <c r="C47" t="s">
-        <v>6876</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>6733</v>
+        <v>8293</v>
       </c>
       <c r="B48" t="s">
-        <v>6790</v>
+        <v>8350</v>
       </c>
       <c r="C48" t="s">
-        <v>6877</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>6734</v>
+        <v>8294</v>
       </c>
       <c r="B49" t="s">
-        <v>6790</v>
+        <v>8350</v>
       </c>
       <c r="C49" t="s">
-        <v>6878</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>6734</v>
+        <v>8294</v>
       </c>
       <c r="B50" t="s">
-        <v>6791</v>
+        <v>8351</v>
       </c>
       <c r="C50" t="s">
-        <v>6879</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>6734</v>
+        <v>8294</v>
       </c>
       <c r="B51" t="s">
-        <v>6792</v>
+        <v>8352</v>
       </c>
       <c r="C51" t="s">
-        <v>6880</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B52" t="s">
-        <v>6793</v>
+        <v>8353</v>
       </c>
       <c r="C52" t="s">
-        <v>6881</v>
+        <v>8441</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B53" t="s">
-        <v>6794</v>
+        <v>8354</v>
       </c>
       <c r="C53" t="s">
-        <v>6882</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B54" t="s">
-        <v>6795</v>
+        <v>8355</v>
       </c>
       <c r="C54" t="s">
-        <v>6883</v>
+        <v>8443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B55" t="s">
-        <v>6796</v>
+        <v>8356</v>
       </c>
       <c r="C55" t="s">
-        <v>6884</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B56" t="s">
-        <v>6797</v>
+        <v>8357</v>
       </c>
       <c r="C56" t="s">
-        <v>6885</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B57" t="s">
-        <v>6798</v>
+        <v>8358</v>
       </c>
       <c r="C57" t="s">
-        <v>6886</v>
+        <v>8446</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B58" t="s">
-        <v>6799</v>
+        <v>8359</v>
       </c>
       <c r="C58" t="s">
-        <v>6887</v>
+        <v>8447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B59" t="s">
-        <v>6800</v>
+        <v>8360</v>
       </c>
       <c r="C59" t="s">
-        <v>6888</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B60" t="s">
-        <v>6801</v>
+        <v>8361</v>
       </c>
       <c r="C60" t="s">
-        <v>6889</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B61" t="s">
-        <v>6802</v>
+        <v>8362</v>
       </c>
       <c r="C61" t="s">
-        <v>6890</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B62" t="s">
-        <v>6803</v>
+        <v>8363</v>
       </c>
       <c r="C62" t="s">
-        <v>6891</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B63" t="s">
-        <v>6804</v>
+        <v>8364</v>
       </c>
       <c r="C63" t="s">
-        <v>6892</v>
+        <v>8452</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B64" t="s">
-        <v>6805</v>
+        <v>8365</v>
       </c>
       <c r="C64" t="s">
-        <v>6893</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B65" t="s">
-        <v>6806</v>
+        <v>8366</v>
       </c>
       <c r="C65" t="s">
-        <v>6894</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B66" t="s">
-        <v>6807</v>
+        <v>8367</v>
       </c>
       <c r="C66" t="s">
-        <v>6895</v>
+        <v>8455</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>6735</v>
+        <v>8295</v>
       </c>
       <c r="B67" t="s">
-        <v>6808</v>
+        <v>8368</v>
       </c>
       <c r="C67" t="s">
-        <v>6896</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>6736</v>
+        <v>8296</v>
       </c>
       <c r="B68" t="s">
-        <v>6809</v>
+        <v>8369</v>
       </c>
       <c r="C68" t="s">
-        <v>6897</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>6736</v>
+        <v>8296</v>
       </c>
       <c r="B69" t="s">
-        <v>6810</v>
+        <v>8370</v>
       </c>
       <c r="C69" t="s">
-        <v>6898</v>
+        <v>8458</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6737</v>
+        <v>8297</v>
       </c>
       <c r="B70" t="s">
-        <v>6811</v>
+        <v>8371</v>
       </c>
       <c r="C70" t="s">
-        <v>6899</v>
+        <v>8459</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>6737</v>
+        <v>8297</v>
       </c>
       <c r="B71" t="s">
-        <v>6812</v>
+        <v>8372</v>
       </c>
       <c r="C71" t="s">
-        <v>6900</v>
+        <v>8460</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>6738</v>
+        <v>8298</v>
       </c>
       <c r="B72" t="s">
-        <v>6813</v>
+        <v>8373</v>
       </c>
       <c r="C72" t="s">
-        <v>6901</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>6738</v>
+        <v>8298</v>
       </c>
       <c r="B73" t="s">
-        <v>6814</v>
+        <v>8374</v>
       </c>
       <c r="C73" t="s">
-        <v>6902</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6739</v>
+        <v>8299</v>
       </c>
       <c r="B74" t="s">
-        <v>6815</v>
+        <v>8375</v>
       </c>
       <c r="C74" t="s">
-        <v>6903</v>
+        <v>8463</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6739</v>
+        <v>8299</v>
       </c>
       <c r="B75" t="s">
-        <v>6816</v>
+        <v>8376</v>
       </c>
       <c r="C75" t="s">
-        <v>6904</v>
+        <v>8464</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6740</v>
+        <v>8300</v>
       </c>
       <c r="B76" t="s">
-        <v>6817</v>
+        <v>8377</v>
       </c>
       <c r="C76" t="s">
-        <v>6905</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6740</v>
+        <v>8300</v>
       </c>
       <c r="B77" t="s">
-        <v>6818</v>
+        <v>8378</v>
       </c>
       <c r="C77" t="s">
-        <v>6906</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>6740</v>
+        <v>8300</v>
       </c>
       <c r="B78" t="s">
-        <v>6819</v>
+        <v>8379</v>
       </c>
       <c r="C78" t="s">
-        <v>6907</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6741</v>
+        <v>8301</v>
       </c>
       <c r="B79" t="s">
-        <v>6820</v>
+        <v>8380</v>
       </c>
       <c r="C79" t="s">
-        <v>6908</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>6741</v>
+        <v>8301</v>
       </c>
       <c r="B80" t="s">
-        <v>6821</v>
+        <v>8381</v>
       </c>
       <c r="C80" t="s">
-        <v>6909</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>6742</v>
+        <v>8302</v>
       </c>
       <c r="B81" t="s">
-        <v>6822</v>
+        <v>8382</v>
       </c>
       <c r="C81" t="s">
-        <v>6910</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>6742</v>
+        <v>8302</v>
       </c>
       <c r="B82" t="s">
-        <v>6823</v>
+        <v>8383</v>
       </c>
       <c r="C82" t="s">
-        <v>6911</v>
+        <v>8471</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>6742</v>
+        <v>8302</v>
       </c>
       <c r="B83" t="s">
-        <v>6824</v>
+        <v>8384</v>
       </c>
       <c r="C83" t="s">
-        <v>6912</v>
+        <v>8472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>6742</v>
+        <v>8302</v>
       </c>
       <c r="B84" t="s">
-        <v>6825</v>
+        <v>8385</v>
       </c>
       <c r="C84" t="s">
-        <v>6913</v>
+        <v>8473</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>6742</v>
+        <v>8302</v>
       </c>
       <c r="B85" t="s">
-        <v>6826</v>
+        <v>8386</v>
       </c>
       <c r="C85" t="s">
-        <v>6914</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>6743</v>
+        <v>8303</v>
       </c>
       <c r="B86" t="s">
-        <v>6827</v>
+        <v>8387</v>
       </c>
       <c r="C86" t="s">
-        <v>6915</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>6743</v>
+        <v>8303</v>
       </c>
       <c r="B87" t="s">
-        <v>6828</v>
+        <v>8388</v>
       </c>
       <c r="C87" t="s">
-        <v>6916</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>6743</v>
+        <v>8303</v>
       </c>
       <c r="B88" t="s">
-        <v>6829</v>
+        <v>8389</v>
       </c>
       <c r="C88" t="s">
-        <v>6917</v>
+        <v>8477</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12091" uniqueCount="8478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13091" uniqueCount="9258">
   <si>
     <t>name</t>
   </si>
@@ -18365,6 +18365,2346 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>No</t>
@@ -25496,2578 +27836,2578 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7698</v>
+        <v>8478</v>
       </c>
       <c r="B1" t="s">
-        <v>7882</v>
+        <v>8662</v>
       </c>
       <c r="C1" t="s">
-        <v>8065</v>
+        <v>8845</v>
       </c>
       <c r="D1" t="s">
-        <v>8128</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7699</v>
+        <v>8479</v>
       </c>
       <c r="B2" t="s">
-        <v>7883</v>
+        <v>8663</v>
       </c>
       <c r="C2" t="s">
-        <v>8066</v>
+        <v>8846</v>
       </c>
       <c r="D2" t="s">
-        <v>8129</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7700</v>
+        <v>8480</v>
       </c>
       <c r="B3" t="s">
-        <v>7884</v>
+        <v>8664</v>
       </c>
       <c r="C3" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D3" t="s">
-        <v>8130</v>
+        <v>8910</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7701</v>
+        <v>8481</v>
       </c>
       <c r="B4" t="s">
-        <v>7885</v>
+        <v>8665</v>
       </c>
       <c r="C4" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D4" t="s">
-        <v>8131</v>
+        <v>8911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7702</v>
+        <v>8482</v>
       </c>
       <c r="B5" t="s">
-        <v>7886</v>
+        <v>8666</v>
       </c>
       <c r="C5" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D5" t="s">
-        <v>8132</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7703</v>
+        <v>8483</v>
       </c>
       <c r="B6" t="s">
-        <v>7887</v>
+        <v>8667</v>
       </c>
       <c r="C6" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D6" t="s">
-        <v>8133</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7704</v>
+        <v>8484</v>
       </c>
       <c r="B7" t="s">
-        <v>7888</v>
+        <v>8668</v>
       </c>
       <c r="C7" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D7" t="s">
-        <v>8134</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7705</v>
+        <v>8485</v>
       </c>
       <c r="B8" t="s">
-        <v>7889</v>
+        <v>8669</v>
       </c>
       <c r="C8" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D8" t="s">
-        <v>8135</v>
+        <v>8915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7706</v>
+        <v>8486</v>
       </c>
       <c r="B9" t="s">
-        <v>7890</v>
+        <v>8670</v>
       </c>
       <c r="C9" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D9" t="s">
-        <v>8136</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7707</v>
+        <v>8487</v>
       </c>
       <c r="B10" t="s">
-        <v>7891</v>
+        <v>8671</v>
       </c>
       <c r="C10" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D10" t="s">
-        <v>8137</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7708</v>
+        <v>8488</v>
       </c>
       <c r="B11" t="s">
-        <v>7892</v>
+        <v>8672</v>
       </c>
       <c r="C11" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D11" t="s">
-        <v>8138</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7709</v>
+        <v>8489</v>
       </c>
       <c r="B12" t="s">
-        <v>7893</v>
+        <v>8673</v>
       </c>
       <c r="C12" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D12" t="s">
-        <v>8139</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7710</v>
+        <v>8490</v>
       </c>
       <c r="B13" t="s">
-        <v>7894</v>
+        <v>8674</v>
       </c>
       <c r="C13" t="s">
-        <v>8067</v>
+        <v>8847</v>
       </c>
       <c r="D13" t="s">
-        <v>8140</v>
+        <v>8920</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7711</v>
+        <v>8491</v>
       </c>
       <c r="B14" t="s">
-        <v>7895</v>
+        <v>8675</v>
       </c>
       <c r="C14" t="s">
-        <v>8068</v>
+        <v>8848</v>
       </c>
       <c r="D14" t="s">
-        <v>8141</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7712</v>
+        <v>8492</v>
       </c>
       <c r="B15" t="s">
-        <v>7896</v>
+        <v>8676</v>
       </c>
       <c r="C15" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D15" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7713</v>
+        <v>8493</v>
       </c>
       <c r="B16" t="s">
-        <v>7897</v>
+        <v>8677</v>
       </c>
       <c r="C16" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D16" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7714</v>
+        <v>8494</v>
       </c>
       <c r="B17" t="s">
-        <v>7898</v>
+        <v>8678</v>
       </c>
       <c r="C17" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D17" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7715</v>
+        <v>8495</v>
       </c>
       <c r="B18" t="s">
-        <v>7899</v>
+        <v>8679</v>
       </c>
       <c r="C18" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D18" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7716</v>
+        <v>8496</v>
       </c>
       <c r="B19" t="s">
-        <v>7900</v>
+        <v>8680</v>
       </c>
       <c r="C19" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D19" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7717</v>
+        <v>8497</v>
       </c>
       <c r="B20" t="s">
-        <v>7901</v>
+        <v>8681</v>
       </c>
       <c r="C20" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D20" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7718</v>
+        <v>8498</v>
       </c>
       <c r="B21" t="s">
-        <v>7902</v>
+        <v>8682</v>
       </c>
       <c r="C21" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D21" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7719</v>
+        <v>8499</v>
       </c>
       <c r="B22" t="s">
-        <v>7903</v>
+        <v>8683</v>
       </c>
       <c r="C22" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D22" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7720</v>
+        <v>8500</v>
       </c>
       <c r="B23" t="s">
-        <v>7904</v>
+        <v>8684</v>
       </c>
       <c r="C23" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D23" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7721</v>
+        <v>8501</v>
       </c>
       <c r="B24" t="s">
-        <v>7905</v>
+        <v>8685</v>
       </c>
       <c r="C24" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D24" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7722</v>
+        <v>8502</v>
       </c>
       <c r="B25" t="s">
-        <v>7906</v>
+        <v>8686</v>
       </c>
       <c r="C25" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D25" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7723</v>
+        <v>8503</v>
       </c>
       <c r="B26" t="s">
-        <v>7907</v>
+        <v>8687</v>
       </c>
       <c r="C26" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D26" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7724</v>
+        <v>8504</v>
       </c>
       <c r="B27" t="s">
-        <v>7908</v>
+        <v>8688</v>
       </c>
       <c r="C27" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D27" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7725</v>
+        <v>8505</v>
       </c>
       <c r="B28" t="s">
-        <v>7909</v>
+        <v>8689</v>
       </c>
       <c r="C28" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D28" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7726</v>
+        <v>8506</v>
       </c>
       <c r="B29" t="s">
-        <v>7910</v>
+        <v>8690</v>
       </c>
       <c r="C29" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D29" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7727</v>
+        <v>8507</v>
       </c>
       <c r="B30" t="s">
-        <v>7911</v>
+        <v>8691</v>
       </c>
       <c r="C30" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D30" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7728</v>
+        <v>8508</v>
       </c>
       <c r="B31" t="s">
-        <v>7912</v>
+        <v>8692</v>
       </c>
       <c r="C31" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D31" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7729</v>
+        <v>8509</v>
       </c>
       <c r="B32" t="s">
-        <v>7913</v>
+        <v>8693</v>
       </c>
       <c r="C32" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D32" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7730</v>
+        <v>8510</v>
       </c>
       <c r="B33" t="s">
-        <v>7914</v>
+        <v>8694</v>
       </c>
       <c r="C33" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D33" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7731</v>
+        <v>8511</v>
       </c>
       <c r="B34" t="s">
-        <v>7915</v>
+        <v>8695</v>
       </c>
       <c r="C34" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D34" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7732</v>
+        <v>8512</v>
       </c>
       <c r="B35" t="s">
-        <v>7916</v>
+        <v>8696</v>
       </c>
       <c r="C35" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D35" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7733</v>
+        <v>8513</v>
       </c>
       <c r="B36" t="s">
-        <v>7917</v>
+        <v>8697</v>
       </c>
       <c r="C36" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D36" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7734</v>
+        <v>8514</v>
       </c>
       <c r="B37" t="s">
-        <v>7918</v>
+        <v>8698</v>
       </c>
       <c r="C37" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D37" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7735</v>
+        <v>8515</v>
       </c>
       <c r="B38" t="s">
-        <v>7919</v>
+        <v>8699</v>
       </c>
       <c r="C38" t="s">
-        <v>8069</v>
+        <v>8849</v>
       </c>
       <c r="D38" t="s">
-        <v>8142</v>
+        <v>8922</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7736</v>
+        <v>8516</v>
       </c>
       <c r="B39" t="s">
-        <v>7920</v>
+        <v>8700</v>
       </c>
       <c r="C39" t="s">
-        <v>8070</v>
+        <v>8850</v>
       </c>
       <c r="D39" t="s">
-        <v>8143</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7737</v>
+        <v>8517</v>
       </c>
       <c r="B40" t="s">
-        <v>7921</v>
+        <v>8701</v>
       </c>
       <c r="C40" t="s">
-        <v>8070</v>
+        <v>8850</v>
       </c>
       <c r="D40" t="s">
-        <v>8144</v>
+        <v>8924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7738</v>
+        <v>8518</v>
       </c>
       <c r="B41" t="s">
-        <v>7922</v>
+        <v>8702</v>
       </c>
       <c r="C41" t="s">
-        <v>8071</v>
+        <v>8851</v>
       </c>
       <c r="D41" t="s">
-        <v>8145</v>
+        <v>8925</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7739</v>
+        <v>8519</v>
       </c>
       <c r="B42" t="s">
-        <v>7923</v>
+        <v>8703</v>
       </c>
       <c r="C42" t="s">
-        <v>8072</v>
+        <v>8852</v>
       </c>
       <c r="D42" t="s">
-        <v>8146</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7740</v>
+        <v>8520</v>
       </c>
       <c r="B43" t="s">
-        <v>7924</v>
+        <v>8704</v>
       </c>
       <c r="C43" t="s">
-        <v>8072</v>
+        <v>8852</v>
       </c>
       <c r="D43" t="s">
-        <v>8147</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7741</v>
+        <v>8521</v>
       </c>
       <c r="B44" t="s">
-        <v>7925</v>
+        <v>8705</v>
       </c>
       <c r="C44" t="s">
-        <v>8073</v>
+        <v>8853</v>
       </c>
       <c r="D44" t="s">
-        <v>8148</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7742</v>
+        <v>8522</v>
       </c>
       <c r="B45" t="s">
-        <v>7926</v>
+        <v>8706</v>
       </c>
       <c r="C45" t="s">
-        <v>8073</v>
+        <v>8853</v>
       </c>
       <c r="D45" t="s">
-        <v>8149</v>
+        <v>8929</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7743</v>
+        <v>8523</v>
       </c>
       <c r="B46" t="s">
-        <v>7927</v>
+        <v>8707</v>
       </c>
       <c r="C46" t="s">
-        <v>8073</v>
+        <v>8853</v>
       </c>
       <c r="D46" t="s">
-        <v>8150</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7744</v>
+        <v>8524</v>
       </c>
       <c r="B47" t="s">
-        <v>7928</v>
+        <v>8708</v>
       </c>
       <c r="C47" t="s">
-        <v>8074</v>
+        <v>8854</v>
       </c>
       <c r="D47" t="s">
-        <v>8151</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7745</v>
+        <v>8525</v>
       </c>
       <c r="B48" t="s">
-        <v>7929</v>
+        <v>8709</v>
       </c>
       <c r="C48" t="s">
-        <v>8074</v>
+        <v>8854</v>
       </c>
       <c r="D48" t="s">
-        <v>8152</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7746</v>
+        <v>8526</v>
       </c>
       <c r="B49" t="s">
-        <v>7930</v>
+        <v>8710</v>
       </c>
       <c r="C49" t="s">
-        <v>8074</v>
+        <v>8854</v>
       </c>
       <c r="D49" t="s">
-        <v>8153</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7747</v>
+        <v>8527</v>
       </c>
       <c r="B50" t="s">
-        <v>7931</v>
+        <v>8711</v>
       </c>
       <c r="C50" t="s">
-        <v>8074</v>
+        <v>8854</v>
       </c>
       <c r="D50" t="s">
-        <v>8154</v>
+        <v>8934</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7748</v>
+        <v>8528</v>
       </c>
       <c r="B51" t="s">
-        <v>7932</v>
+        <v>8712</v>
       </c>
       <c r="C51" t="s">
-        <v>8074</v>
+        <v>8854</v>
       </c>
       <c r="D51" t="s">
-        <v>8155</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7749</v>
+        <v>8529</v>
       </c>
       <c r="B52" t="s">
-        <v>7933</v>
+        <v>8713</v>
       </c>
       <c r="C52" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D52" t="s">
-        <v>8156</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7750</v>
+        <v>8530</v>
       </c>
       <c r="B53" t="s">
-        <v>7934</v>
+        <v>8714</v>
       </c>
       <c r="C53" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D53" t="s">
-        <v>8157</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7751</v>
+        <v>8531</v>
       </c>
       <c r="B54" t="s">
-        <v>7935</v>
+        <v>8715</v>
       </c>
       <c r="C54" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D54" t="s">
-        <v>8157</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7752</v>
+        <v>8532</v>
       </c>
       <c r="B55" t="s">
-        <v>7936</v>
+        <v>8716</v>
       </c>
       <c r="C55" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D55" t="s">
-        <v>8157</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7753</v>
+        <v>8533</v>
       </c>
       <c r="B56" t="s">
-        <v>7937</v>
+        <v>8717</v>
       </c>
       <c r="C56" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D56" t="s">
-        <v>8157</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7754</v>
+        <v>8534</v>
       </c>
       <c r="B57" t="s">
-        <v>7938</v>
+        <v>8718</v>
       </c>
       <c r="C57" t="s">
-        <v>8075</v>
+        <v>8855</v>
       </c>
       <c r="D57" t="s">
-        <v>8158</v>
+        <v>8938</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7755</v>
+        <v>8535</v>
       </c>
       <c r="B58" t="s">
-        <v>7939</v>
+        <v>8719</v>
       </c>
       <c r="C58" t="s">
-        <v>8076</v>
+        <v>8856</v>
       </c>
       <c r="D58" t="s">
-        <v>8159</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7756</v>
+        <v>8536</v>
       </c>
       <c r="B59" t="s">
-        <v>7940</v>
+        <v>8720</v>
       </c>
       <c r="C59" t="s">
-        <v>8077</v>
+        <v>8857</v>
       </c>
       <c r="D59" t="s">
-        <v>8160</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7757</v>
+        <v>8537</v>
       </c>
       <c r="B60" t="s">
-        <v>7941</v>
+        <v>8721</v>
       </c>
       <c r="C60" t="s">
-        <v>8077</v>
+        <v>8857</v>
       </c>
       <c r="D60" t="s">
-        <v>8161</v>
+        <v>8941</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7758</v>
+        <v>8538</v>
       </c>
       <c r="B61" t="s">
-        <v>7942</v>
+        <v>8722</v>
       </c>
       <c r="C61" t="s">
-        <v>8078</v>
+        <v>8858</v>
       </c>
       <c r="D61" t="s">
-        <v>8162</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>7759</v>
+        <v>8539</v>
       </c>
       <c r="B62" t="s">
-        <v>7943</v>
+        <v>8723</v>
       </c>
       <c r="C62" t="s">
-        <v>8079</v>
+        <v>8859</v>
       </c>
       <c r="D62" t="s">
-        <v>8163</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7760</v>
+        <v>8540</v>
       </c>
       <c r="B63" t="s">
-        <v>7944</v>
+        <v>8724</v>
       </c>
       <c r="C63" t="s">
-        <v>8080</v>
+        <v>8860</v>
       </c>
       <c r="D63" t="s">
-        <v>8164</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7761</v>
+        <v>8541</v>
       </c>
       <c r="B64" t="s">
-        <v>7945</v>
+        <v>8725</v>
       </c>
       <c r="C64" t="s">
-        <v>8081</v>
+        <v>8861</v>
       </c>
       <c r="D64" t="s">
-        <v>8165</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7762</v>
+        <v>8542</v>
       </c>
       <c r="B65" t="s">
-        <v>7946</v>
+        <v>8726</v>
       </c>
       <c r="C65" t="s">
-        <v>8081</v>
+        <v>8861</v>
       </c>
       <c r="D65" t="s">
-        <v>8165</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7763</v>
+        <v>8543</v>
       </c>
       <c r="B66" t="s">
-        <v>7947</v>
+        <v>8727</v>
       </c>
       <c r="C66" t="s">
-        <v>8082</v>
+        <v>8862</v>
       </c>
       <c r="D66" t="s">
-        <v>8166</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7764</v>
+        <v>8544</v>
       </c>
       <c r="B67" t="s">
-        <v>7948</v>
+        <v>8728</v>
       </c>
       <c r="C67" t="s">
-        <v>8083</v>
+        <v>8863</v>
       </c>
       <c r="D67" t="s">
-        <v>8167</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7765</v>
+        <v>8545</v>
       </c>
       <c r="B68" t="s">
-        <v>7949</v>
+        <v>8729</v>
       </c>
       <c r="C68" t="s">
-        <v>8084</v>
+        <v>8864</v>
       </c>
       <c r="D68" t="s">
-        <v>8168</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7766</v>
+        <v>8546</v>
       </c>
       <c r="B69" t="s">
-        <v>7950</v>
+        <v>8730</v>
       </c>
       <c r="C69" t="s">
-        <v>8085</v>
+        <v>8865</v>
       </c>
       <c r="D69" t="s">
-        <v>8169</v>
+        <v>8949</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7767</v>
+        <v>8547</v>
       </c>
       <c r="B70" t="s">
-        <v>7951</v>
+        <v>8731</v>
       </c>
       <c r="C70" t="s">
-        <v>8086</v>
+        <v>8866</v>
       </c>
       <c r="D70" t="s">
-        <v>8170</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7768</v>
+        <v>8548</v>
       </c>
       <c r="B71" t="s">
-        <v>7952</v>
+        <v>8732</v>
       </c>
       <c r="C71" t="s">
-        <v>8086</v>
+        <v>8866</v>
       </c>
       <c r="D71" t="s">
-        <v>8171</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7769</v>
+        <v>8549</v>
       </c>
       <c r="B72" t="s">
-        <v>7953</v>
+        <v>8733</v>
       </c>
       <c r="C72" t="s">
-        <v>8087</v>
+        <v>8867</v>
       </c>
       <c r="D72" t="s">
-        <v>8172</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7770</v>
+        <v>8550</v>
       </c>
       <c r="B73" t="s">
-        <v>7954</v>
+        <v>8734</v>
       </c>
       <c r="C73" t="s">
-        <v>8087</v>
+        <v>8867</v>
       </c>
       <c r="D73" t="s">
-        <v>8173</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7771</v>
+        <v>8551</v>
       </c>
       <c r="B74" t="s">
-        <v>7955</v>
+        <v>8735</v>
       </c>
       <c r="C74" t="s">
-        <v>8087</v>
+        <v>8867</v>
       </c>
       <c r="D74" t="s">
-        <v>8174</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7772</v>
+        <v>8552</v>
       </c>
       <c r="B75" t="s">
-        <v>7955</v>
+        <v>8735</v>
       </c>
       <c r="C75" t="s">
-        <v>8087</v>
+        <v>8867</v>
       </c>
       <c r="D75" t="s">
-        <v>8175</v>
+        <v>8955</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>7773</v>
+        <v>8553</v>
       </c>
       <c r="B76" t="s">
-        <v>7956</v>
+        <v>8736</v>
       </c>
       <c r="C76" t="s">
-        <v>8088</v>
+        <v>8868</v>
       </c>
       <c r="D76" t="s">
-        <v>8176</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7774</v>
+        <v>8554</v>
       </c>
       <c r="B77" t="s">
-        <v>7957</v>
+        <v>8737</v>
       </c>
       <c r="C77" t="s">
-        <v>8089</v>
+        <v>8869</v>
       </c>
       <c r="D77" t="s">
-        <v>8177</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7775</v>
+        <v>8555</v>
       </c>
       <c r="B78" t="s">
-        <v>7958</v>
+        <v>8738</v>
       </c>
       <c r="C78" t="s">
-        <v>8089</v>
+        <v>8869</v>
       </c>
       <c r="D78" t="s">
-        <v>8178</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>7776</v>
+        <v>8556</v>
       </c>
       <c r="B79" t="s">
-        <v>7959</v>
+        <v>8739</v>
       </c>
       <c r="C79" t="s">
-        <v>8089</v>
+        <v>8869</v>
       </c>
       <c r="D79" t="s">
-        <v>8178</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>7777</v>
+        <v>8557</v>
       </c>
       <c r="B80" t="s">
-        <v>7960</v>
+        <v>8740</v>
       </c>
       <c r="C80" t="s">
-        <v>8090</v>
+        <v>8870</v>
       </c>
       <c r="D80" t="s">
-        <v>8179</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>7778</v>
+        <v>8558</v>
       </c>
       <c r="B81" t="s">
-        <v>7961</v>
+        <v>8741</v>
       </c>
       <c r="C81" t="s">
-        <v>8091</v>
+        <v>8871</v>
       </c>
       <c r="D81" t="s">
-        <v>8180</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>7779</v>
+        <v>8559</v>
       </c>
       <c r="B82" t="s">
-        <v>7962</v>
+        <v>8742</v>
       </c>
       <c r="C82" t="s">
-        <v>8091</v>
+        <v>8871</v>
       </c>
       <c r="D82" t="s">
-        <v>8181</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7780</v>
+        <v>8560</v>
       </c>
       <c r="B83" t="s">
-        <v>7963</v>
+        <v>8743</v>
       </c>
       <c r="C83" t="s">
-        <v>8091</v>
+        <v>8871</v>
       </c>
       <c r="D83" t="s">
-        <v>8182</v>
+        <v>8962</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>7781</v>
+        <v>8561</v>
       </c>
       <c r="B84" t="s">
-        <v>7964</v>
+        <v>8744</v>
       </c>
       <c r="C84" t="s">
-        <v>8091</v>
+        <v>8871</v>
       </c>
       <c r="D84" t="s">
-        <v>8183</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7782</v>
+        <v>8562</v>
       </c>
       <c r="B85" t="s">
-        <v>7965</v>
+        <v>8745</v>
       </c>
       <c r="C85" t="s">
-        <v>8091</v>
+        <v>8871</v>
       </c>
       <c r="D85" t="s">
-        <v>8184</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>7783</v>
+        <v>8563</v>
       </c>
       <c r="B86" t="s">
-        <v>7966</v>
+        <v>8746</v>
       </c>
       <c r="C86" t="s">
-        <v>8092</v>
+        <v>8872</v>
       </c>
       <c r="D86" t="s">
-        <v>8185</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>7784</v>
+        <v>8564</v>
       </c>
       <c r="B87" t="s">
-        <v>7967</v>
+        <v>8747</v>
       </c>
       <c r="C87" t="s">
-        <v>8092</v>
+        <v>8872</v>
       </c>
       <c r="D87" t="s">
-        <v>8186</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7785</v>
+        <v>8565</v>
       </c>
       <c r="B88" t="s">
-        <v>7968</v>
+        <v>8748</v>
       </c>
       <c r="C88" t="s">
-        <v>8093</v>
+        <v>8873</v>
       </c>
       <c r="D88" t="s">
-        <v>8187</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7786</v>
+        <v>8566</v>
       </c>
       <c r="B89" t="s">
-        <v>7969</v>
+        <v>8749</v>
       </c>
       <c r="C89" t="s">
-        <v>8094</v>
+        <v>8874</v>
       </c>
       <c r="D89" t="s">
-        <v>8188</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>7787</v>
+        <v>8567</v>
       </c>
       <c r="B90" t="s">
-        <v>7970</v>
+        <v>8750</v>
       </c>
       <c r="C90" t="s">
-        <v>8095</v>
+        <v>8875</v>
       </c>
       <c r="D90" t="s">
-        <v>8189</v>
+        <v>8969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>7788</v>
+        <v>8568</v>
       </c>
       <c r="B91" t="s">
-        <v>7971</v>
+        <v>8751</v>
       </c>
       <c r="C91" t="s">
-        <v>8096</v>
+        <v>8876</v>
       </c>
       <c r="D91" t="s">
-        <v>8190</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7789</v>
+        <v>8569</v>
       </c>
       <c r="B92" t="s">
-        <v>7972</v>
+        <v>8752</v>
       </c>
       <c r="C92" t="s">
-        <v>8096</v>
+        <v>8876</v>
       </c>
       <c r="D92" t="s">
-        <v>8191</v>
+        <v>8971</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>7790</v>
+        <v>8570</v>
       </c>
       <c r="B93" t="s">
-        <v>7973</v>
+        <v>8753</v>
       </c>
       <c r="C93" t="s">
-        <v>8097</v>
+        <v>8877</v>
       </c>
       <c r="D93" t="s">
-        <v>8192</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>7791</v>
+        <v>8571</v>
       </c>
       <c r="B94" t="s">
-        <v>7974</v>
+        <v>8754</v>
       </c>
       <c r="C94" t="s">
-        <v>8098</v>
+        <v>8878</v>
       </c>
       <c r="D94" t="s">
-        <v>8193</v>
+        <v>8973</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7792</v>
+        <v>8572</v>
       </c>
       <c r="B95" t="s">
-        <v>7975</v>
+        <v>8755</v>
       </c>
       <c r="C95" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D95" t="s">
-        <v>8194</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>7793</v>
+        <v>8573</v>
       </c>
       <c r="B96" t="s">
-        <v>7976</v>
+        <v>8756</v>
       </c>
       <c r="C96" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D96" t="s">
-        <v>8195</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>7794</v>
+        <v>8574</v>
       </c>
       <c r="B97" t="s">
-        <v>7977</v>
+        <v>8757</v>
       </c>
       <c r="C97" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D97" t="s">
-        <v>8196</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>7795</v>
+        <v>8575</v>
       </c>
       <c r="B98" t="s">
-        <v>7978</v>
+        <v>8758</v>
       </c>
       <c r="C98" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D98" t="s">
-        <v>8197</v>
+        <v>8977</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>7796</v>
+        <v>8576</v>
       </c>
       <c r="B99" t="s">
-        <v>7979</v>
+        <v>8759</v>
       </c>
       <c r="C99" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D99" t="s">
-        <v>8198</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>7797</v>
+        <v>8577</v>
       </c>
       <c r="B100" t="s">
-        <v>7980</v>
+        <v>8760</v>
       </c>
       <c r="C100" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D100" t="s">
-        <v>8199</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>7798</v>
+        <v>8578</v>
       </c>
       <c r="B101" t="s">
-        <v>7981</v>
+        <v>8761</v>
       </c>
       <c r="C101" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D101" t="s">
-        <v>8200</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>7799</v>
+        <v>8579</v>
       </c>
       <c r="B102" t="s">
-        <v>7982</v>
+        <v>8762</v>
       </c>
       <c r="C102" t="s">
-        <v>8099</v>
+        <v>8879</v>
       </c>
       <c r="D102" t="s">
-        <v>8201</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>7800</v>
+        <v>8580</v>
       </c>
       <c r="B103" t="s">
-        <v>7983</v>
+        <v>8763</v>
       </c>
       <c r="C103" t="s">
-        <v>8100</v>
+        <v>8880</v>
       </c>
       <c r="D103" t="s">
-        <v>8202</v>
+        <v>8982</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>7801</v>
+        <v>8581</v>
       </c>
       <c r="B104" t="s">
-        <v>7984</v>
+        <v>8764</v>
       </c>
       <c r="C104" t="s">
-        <v>8101</v>
+        <v>8881</v>
       </c>
       <c r="D104" t="s">
-        <v>8203</v>
+        <v>8983</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>7802</v>
+        <v>8582</v>
       </c>
       <c r="B105" t="s">
-        <v>7985</v>
+        <v>8765</v>
       </c>
       <c r="C105" t="s">
-        <v>8102</v>
+        <v>8882</v>
       </c>
       <c r="D105" t="s">
-        <v>8204</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>7803</v>
+        <v>8583</v>
       </c>
       <c r="B106" t="s">
-        <v>7986</v>
+        <v>8766</v>
       </c>
       <c r="C106" t="s">
-        <v>8102</v>
+        <v>8882</v>
       </c>
       <c r="D106" t="s">
-        <v>8205</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>7804</v>
+        <v>8584</v>
       </c>
       <c r="B107" t="s">
-        <v>7987</v>
+        <v>8767</v>
       </c>
       <c r="C107" t="s">
-        <v>8102</v>
+        <v>8882</v>
       </c>
       <c r="D107" t="s">
-        <v>8206</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>7805</v>
+        <v>8585</v>
       </c>
       <c r="B108" t="s">
-        <v>7988</v>
+        <v>8768</v>
       </c>
       <c r="C108" t="s">
-        <v>8103</v>
+        <v>8883</v>
       </c>
       <c r="D108" t="s">
-        <v>8207</v>
+        <v>8987</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>7806</v>
+        <v>8586</v>
       </c>
       <c r="B109" t="s">
-        <v>7989</v>
+        <v>8769</v>
       </c>
       <c r="C109" t="s">
-        <v>8104</v>
+        <v>8884</v>
       </c>
       <c r="D109" t="s">
-        <v>8208</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>7807</v>
+        <v>8587</v>
       </c>
       <c r="B110" t="s">
-        <v>7990</v>
+        <v>8770</v>
       </c>
       <c r="C110" t="s">
-        <v>8104</v>
+        <v>8884</v>
       </c>
       <c r="D110" t="s">
-        <v>8209</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>7808</v>
+        <v>8588</v>
       </c>
       <c r="B111" t="s">
-        <v>7991</v>
+        <v>8771</v>
       </c>
       <c r="C111" t="s">
-        <v>8105</v>
+        <v>8885</v>
       </c>
       <c r="D111" t="s">
-        <v>8210</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>7809</v>
+        <v>8589</v>
       </c>
       <c r="B112" t="s">
-        <v>7992</v>
+        <v>8772</v>
       </c>
       <c r="C112" t="s">
-        <v>8105</v>
+        <v>8885</v>
       </c>
       <c r="D112" t="s">
-        <v>8211</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>7810</v>
+        <v>8590</v>
       </c>
       <c r="B113" t="s">
-        <v>7993</v>
+        <v>8773</v>
       </c>
       <c r="C113" t="s">
-        <v>8106</v>
+        <v>8886</v>
       </c>
       <c r="D113" t="s">
-        <v>8212</v>
+        <v>8992</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>7811</v>
+        <v>8591</v>
       </c>
       <c r="B114" t="s">
-        <v>7994</v>
+        <v>8774</v>
       </c>
       <c r="C114" t="s">
-        <v>8106</v>
+        <v>8886</v>
       </c>
       <c r="D114" t="s">
-        <v>8213</v>
+        <v>8993</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>7812</v>
+        <v>8592</v>
       </c>
       <c r="B115" t="s">
-        <v>7995</v>
+        <v>8775</v>
       </c>
       <c r="C115" t="s">
-        <v>8106</v>
+        <v>8886</v>
       </c>
       <c r="D115" t="s">
-        <v>8214</v>
+        <v>8994</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>7813</v>
+        <v>8593</v>
       </c>
       <c r="B116" t="s">
-        <v>7996</v>
+        <v>8776</v>
       </c>
       <c r="C116" t="s">
-        <v>8107</v>
+        <v>8887</v>
       </c>
       <c r="D116" t="s">
-        <v>8215</v>
+        <v>8995</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>7814</v>
+        <v>8594</v>
       </c>
       <c r="B117" t="s">
-        <v>7997</v>
+        <v>8777</v>
       </c>
       <c r="C117" t="s">
-        <v>8107</v>
+        <v>8887</v>
       </c>
       <c r="D117" t="s">
-        <v>8216</v>
+        <v>8996</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>7815</v>
+        <v>8595</v>
       </c>
       <c r="B118" t="s">
-        <v>7998</v>
+        <v>8778</v>
       </c>
       <c r="C118" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D118" t="s">
-        <v>8217</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>7816</v>
+        <v>8596</v>
       </c>
       <c r="B119" t="s">
-        <v>7999</v>
+        <v>8779</v>
       </c>
       <c r="C119" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D119" t="s">
-        <v>8218</v>
+        <v>8998</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>7817</v>
+        <v>8597</v>
       </c>
       <c r="B120" t="s">
-        <v>8000</v>
+        <v>8780</v>
       </c>
       <c r="C120" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D120" t="s">
-        <v>8219</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>7818</v>
+        <v>8598</v>
       </c>
       <c r="B121" t="s">
-        <v>8001</v>
+        <v>8781</v>
       </c>
       <c r="C121" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D121" t="s">
-        <v>8220</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>7819</v>
+        <v>8599</v>
       </c>
       <c r="B122" t="s">
-        <v>8002</v>
+        <v>8782</v>
       </c>
       <c r="C122" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D122" t="s">
-        <v>8221</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>7820</v>
+        <v>8600</v>
       </c>
       <c r="B123" t="s">
-        <v>8003</v>
+        <v>8783</v>
       </c>
       <c r="C123" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D123" t="s">
-        <v>8222</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>7821</v>
+        <v>8601</v>
       </c>
       <c r="B124" t="s">
-        <v>8004</v>
+        <v>8784</v>
       </c>
       <c r="C124" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D124" t="s">
-        <v>8223</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>7822</v>
+        <v>8602</v>
       </c>
       <c r="B125" t="s">
-        <v>8005</v>
+        <v>8785</v>
       </c>
       <c r="C125" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D125" t="s">
-        <v>8224</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>7823</v>
+        <v>8603</v>
       </c>
       <c r="B126" t="s">
-        <v>8006</v>
+        <v>8786</v>
       </c>
       <c r="C126" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D126" t="s">
-        <v>8225</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>7824</v>
+        <v>8604</v>
       </c>
       <c r="B127" t="s">
-        <v>8007</v>
+        <v>8787</v>
       </c>
       <c r="C127" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D127" t="s">
-        <v>8226</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>7825</v>
+        <v>8605</v>
       </c>
       <c r="B128" t="s">
-        <v>8008</v>
+        <v>8788</v>
       </c>
       <c r="C128" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D128" t="s">
-        <v>8227</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>7826</v>
+        <v>8606</v>
       </c>
       <c r="B129" t="s">
-        <v>8009</v>
+        <v>8789</v>
       </c>
       <c r="C129" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D129" t="s">
-        <v>8228</v>
+        <v>9008</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>7827</v>
+        <v>8607</v>
       </c>
       <c r="B130" t="s">
-        <v>8010</v>
+        <v>8790</v>
       </c>
       <c r="C130" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D130" t="s">
-        <v>8229</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>7828</v>
+        <v>8608</v>
       </c>
       <c r="B131" t="s">
-        <v>8011</v>
+        <v>8791</v>
       </c>
       <c r="C131" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D131" t="s">
-        <v>8230</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>7829</v>
+        <v>8609</v>
       </c>
       <c r="B132" t="s">
-        <v>8012</v>
+        <v>8792</v>
       </c>
       <c r="C132" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D132" t="s">
-        <v>8231</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>7830</v>
+        <v>8610</v>
       </c>
       <c r="B133" t="s">
-        <v>8013</v>
+        <v>8793</v>
       </c>
       <c r="C133" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D133" t="s">
-        <v>8232</v>
+        <v>9012</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>7831</v>
+        <v>8611</v>
       </c>
       <c r="B134" t="s">
-        <v>8014</v>
+        <v>8794</v>
       </c>
       <c r="C134" t="s">
-        <v>8108</v>
+        <v>8888</v>
       </c>
       <c r="D134" t="s">
-        <v>8233</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>7832</v>
+        <v>8612</v>
       </c>
       <c r="B135" t="s">
-        <v>8015</v>
+        <v>8795</v>
       </c>
       <c r="C135" t="s">
-        <v>8109</v>
+        <v>8889</v>
       </c>
       <c r="D135" t="s">
-        <v>8234</v>
+        <v>9014</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>7833</v>
+        <v>8613</v>
       </c>
       <c r="B136" t="s">
-        <v>8016</v>
+        <v>8796</v>
       </c>
       <c r="C136" t="s">
-        <v>8110</v>
+        <v>8890</v>
       </c>
       <c r="D136" t="s">
-        <v>8235</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>7834</v>
+        <v>8614</v>
       </c>
       <c r="B137" t="s">
-        <v>8017</v>
+        <v>8797</v>
       </c>
       <c r="C137" t="s">
-        <v>8110</v>
+        <v>8890</v>
       </c>
       <c r="D137" t="s">
-        <v>8236</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>7835</v>
+        <v>8615</v>
       </c>
       <c r="B138" t="s">
-        <v>8018</v>
+        <v>8798</v>
       </c>
       <c r="C138" t="s">
-        <v>8110</v>
+        <v>8890</v>
       </c>
       <c r="D138" t="s">
-        <v>8237</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>7836</v>
+        <v>8616</v>
       </c>
       <c r="B139" t="s">
-        <v>8019</v>
+        <v>8799</v>
       </c>
       <c r="C139" t="s">
-        <v>8111</v>
+        <v>8891</v>
       </c>
       <c r="D139" t="s">
-        <v>8238</v>
+        <v>9018</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>7837</v>
+        <v>8617</v>
       </c>
       <c r="B140" t="s">
-        <v>8020</v>
+        <v>8800</v>
       </c>
       <c r="C140" t="s">
-        <v>8112</v>
+        <v>8892</v>
       </c>
       <c r="D140" t="s">
-        <v>8239</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>7838</v>
+        <v>8618</v>
       </c>
       <c r="B141" t="s">
-        <v>8021</v>
+        <v>8801</v>
       </c>
       <c r="C141" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D141" t="s">
-        <v>8240</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>7839</v>
+        <v>8619</v>
       </c>
       <c r="B142" t="s">
-        <v>8022</v>
+        <v>8802</v>
       </c>
       <c r="C142" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D142" t="s">
-        <v>8241</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>7840</v>
+        <v>8620</v>
       </c>
       <c r="B143" t="s">
-        <v>8023</v>
+        <v>8803</v>
       </c>
       <c r="C143" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D143" t="s">
-        <v>8242</v>
+        <v>9022</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>7841</v>
+        <v>8621</v>
       </c>
       <c r="B144" t="s">
-        <v>8024</v>
+        <v>8804</v>
       </c>
       <c r="C144" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D144" t="s">
-        <v>8243</v>
+        <v>9023</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>7842</v>
+        <v>8622</v>
       </c>
       <c r="B145" t="s">
-        <v>8025</v>
+        <v>8805</v>
       </c>
       <c r="C145" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D145" t="s">
-        <v>8244</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>7843</v>
+        <v>8623</v>
       </c>
       <c r="B146" t="s">
-        <v>8026</v>
+        <v>8806</v>
       </c>
       <c r="C146" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D146" t="s">
-        <v>8245</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>7844</v>
+        <v>8624</v>
       </c>
       <c r="B147" t="s">
-        <v>8027</v>
+        <v>8807</v>
       </c>
       <c r="C147" t="s">
-        <v>8113</v>
+        <v>8893</v>
       </c>
       <c r="D147" t="s">
-        <v>8246</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>7845</v>
+        <v>8625</v>
       </c>
       <c r="B148" t="s">
-        <v>8028</v>
+        <v>8808</v>
       </c>
       <c r="C148" t="s">
-        <v>8114</v>
+        <v>8894</v>
       </c>
       <c r="D148" t="s">
-        <v>8247</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>7846</v>
+        <v>8626</v>
       </c>
       <c r="B149" t="s">
-        <v>8029</v>
+        <v>8809</v>
       </c>
       <c r="C149" t="s">
-        <v>8115</v>
+        <v>8895</v>
       </c>
       <c r="D149" t="s">
-        <v>8248</v>
+        <v>9028</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>7847</v>
+        <v>8627</v>
       </c>
       <c r="B150" t="s">
-        <v>8030</v>
+        <v>8810</v>
       </c>
       <c r="C150" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D150" t="s">
-        <v>8249</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>7848</v>
+        <v>8628</v>
       </c>
       <c r="B151" t="s">
-        <v>8031</v>
+        <v>8811</v>
       </c>
       <c r="C151" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D151" t="s">
-        <v>8250</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>7849</v>
+        <v>8629</v>
       </c>
       <c r="B152" t="s">
-        <v>8032</v>
+        <v>8812</v>
       </c>
       <c r="C152" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D152" t="s">
-        <v>8251</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>7850</v>
+        <v>8630</v>
       </c>
       <c r="B153" t="s">
-        <v>8033</v>
+        <v>8813</v>
       </c>
       <c r="C153" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D153" t="s">
-        <v>8252</v>
+        <v>9032</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>7851</v>
+        <v>8631</v>
       </c>
       <c r="B154" t="s">
-        <v>8034</v>
+        <v>8814</v>
       </c>
       <c r="C154" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D154" t="s">
-        <v>8253</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>7852</v>
+        <v>8632</v>
       </c>
       <c r="B155" t="s">
-        <v>8035</v>
+        <v>8815</v>
       </c>
       <c r="C155" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D155" t="s">
-        <v>8254</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>7853</v>
+        <v>8633</v>
       </c>
       <c r="B156" t="s">
-        <v>8036</v>
+        <v>8816</v>
       </c>
       <c r="C156" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D156" t="s">
-        <v>8255</v>
+        <v>9035</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>7854</v>
+        <v>8634</v>
       </c>
       <c r="B157" t="s">
-        <v>8037</v>
+        <v>8817</v>
       </c>
       <c r="C157" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D157" t="s">
-        <v>8256</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>7855</v>
+        <v>8635</v>
       </c>
       <c r="B158" t="s">
-        <v>8038</v>
+        <v>8818</v>
       </c>
       <c r="C158" t="s">
-        <v>8116</v>
+        <v>8896</v>
       </c>
       <c r="D158" t="s">
-        <v>8257</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>7856</v>
+        <v>8636</v>
       </c>
       <c r="B159" t="s">
-        <v>8039</v>
+        <v>8819</v>
       </c>
       <c r="C159" t="s">
-        <v>8117</v>
+        <v>8897</v>
       </c>
       <c r="D159" t="s">
-        <v>8258</v>
+        <v>9038</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>7857</v>
+        <v>8637</v>
       </c>
       <c r="B160" t="s">
-        <v>8040</v>
+        <v>8820</v>
       </c>
       <c r="C160" t="s">
-        <v>8117</v>
+        <v>8897</v>
       </c>
       <c r="D160" t="s">
-        <v>8259</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>7858</v>
+        <v>8638</v>
       </c>
       <c r="B161" t="s">
-        <v>8041</v>
+        <v>8821</v>
       </c>
       <c r="C161" t="s">
-        <v>8117</v>
+        <v>8897</v>
       </c>
       <c r="D161" t="s">
-        <v>8260</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>7859</v>
+        <v>8639</v>
       </c>
       <c r="B162" t="s">
-        <v>8042</v>
+        <v>8822</v>
       </c>
       <c r="C162" t="s">
-        <v>8117</v>
+        <v>8897</v>
       </c>
       <c r="D162" t="s">
-        <v>8261</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>7860</v>
+        <v>8640</v>
       </c>
       <c r="B163" t="s">
-        <v>8043</v>
+        <v>8823</v>
       </c>
       <c r="C163" t="s">
-        <v>8118</v>
+        <v>8898</v>
       </c>
       <c r="D163" t="s">
-        <v>8262</v>
+        <v>9042</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>7861</v>
+        <v>8641</v>
       </c>
       <c r="B164" t="s">
-        <v>8044</v>
+        <v>8824</v>
       </c>
       <c r="C164" t="s">
-        <v>8119</v>
+        <v>8899</v>
       </c>
       <c r="D164" t="s">
-        <v>8263</v>
+        <v>9043</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>7862</v>
+        <v>8642</v>
       </c>
       <c r="B165" t="s">
-        <v>8045</v>
+        <v>8825</v>
       </c>
       <c r="C165" t="s">
-        <v>8119</v>
+        <v>8899</v>
       </c>
       <c r="D165" t="s">
-        <v>8264</v>
+        <v>9044</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>7863</v>
+        <v>8643</v>
       </c>
       <c r="B166" t="s">
-        <v>8046</v>
+        <v>8826</v>
       </c>
       <c r="C166" t="s">
-        <v>8119</v>
+        <v>8899</v>
       </c>
       <c r="D166" t="s">
-        <v>8265</v>
+        <v>9045</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>7864</v>
+        <v>8644</v>
       </c>
       <c r="B167" t="s">
-        <v>8047</v>
+        <v>8827</v>
       </c>
       <c r="C167" t="s">
-        <v>8120</v>
+        <v>8900</v>
       </c>
       <c r="D167" t="s">
-        <v>8266</v>
+        <v>9046</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>7865</v>
+        <v>8645</v>
       </c>
       <c r="B168" t="s">
-        <v>8048</v>
+        <v>8828</v>
       </c>
       <c r="C168" t="s">
-        <v>8121</v>
+        <v>8901</v>
       </c>
       <c r="D168" t="s">
-        <v>8267</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>7866</v>
+        <v>8646</v>
       </c>
       <c r="B169" t="s">
-        <v>8049</v>
+        <v>8829</v>
       </c>
       <c r="C169" t="s">
-        <v>8121</v>
+        <v>8901</v>
       </c>
       <c r="D169" t="s">
-        <v>8268</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>7867</v>
+        <v>8647</v>
       </c>
       <c r="B170" t="s">
-        <v>8050</v>
+        <v>8830</v>
       </c>
       <c r="C170" t="s">
-        <v>8121</v>
+        <v>8901</v>
       </c>
       <c r="D170" t="s">
-        <v>8269</v>
+        <v>9049</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>7868</v>
+        <v>8648</v>
       </c>
       <c r="B171" t="s">
-        <v>8051</v>
+        <v>8831</v>
       </c>
       <c r="C171" t="s">
-        <v>8121</v>
+        <v>8901</v>
       </c>
       <c r="D171" t="s">
-        <v>8270</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>7869</v>
+        <v>8649</v>
       </c>
       <c r="B172" t="s">
-        <v>8052</v>
+        <v>8832</v>
       </c>
       <c r="C172" t="s">
-        <v>8122</v>
+        <v>8902</v>
       </c>
       <c r="D172" t="s">
-        <v>8271</v>
+        <v>9051</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>7870</v>
+        <v>8650</v>
       </c>
       <c r="B173" t="s">
-        <v>8053</v>
+        <v>8833</v>
       </c>
       <c r="C173" t="s">
-        <v>8123</v>
+        <v>8903</v>
       </c>
       <c r="D173" t="s">
-        <v>8272</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>7871</v>
+        <v>8651</v>
       </c>
       <c r="B174" t="s">
-        <v>8054</v>
+        <v>8834</v>
       </c>
       <c r="C174" t="s">
-        <v>8123</v>
+        <v>8903</v>
       </c>
       <c r="D174" t="s">
-        <v>8273</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>7872</v>
+        <v>8652</v>
       </c>
       <c r="B175" t="s">
-        <v>8055</v>
+        <v>8835</v>
       </c>
       <c r="C175" t="s">
-        <v>8123</v>
+        <v>8903</v>
       </c>
       <c r="D175" t="s">
-        <v>8274</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>7873</v>
+        <v>8653</v>
       </c>
       <c r="B176" t="s">
-        <v>8056</v>
+        <v>8836</v>
       </c>
       <c r="C176" t="s">
-        <v>8124</v>
+        <v>8904</v>
       </c>
       <c r="D176" t="s">
-        <v>8275</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>7874</v>
+        <v>8654</v>
       </c>
       <c r="B177" t="s">
-        <v>8057</v>
+        <v>8837</v>
       </c>
       <c r="C177" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D177" t="s">
-        <v>8276</v>
+        <v>9056</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>7875</v>
+        <v>8655</v>
       </c>
       <c r="B178" t="s">
-        <v>8058</v>
+        <v>8838</v>
       </c>
       <c r="C178" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D178" t="s">
-        <v>8277</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>7876</v>
+        <v>8656</v>
       </c>
       <c r="B179" t="s">
-        <v>8059</v>
+        <v>8839</v>
       </c>
       <c r="C179" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D179" t="s">
-        <v>8277</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>7877</v>
+        <v>8657</v>
       </c>
       <c r="B180" t="s">
-        <v>8060</v>
+        <v>8840</v>
       </c>
       <c r="C180" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D180" t="s">
-        <v>8277</v>
+        <v>9057</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>7878</v>
+        <v>8658</v>
       </c>
       <c r="B181" t="s">
-        <v>8061</v>
+        <v>8841</v>
       </c>
       <c r="C181" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D181" t="s">
-        <v>8278</v>
+        <v>9058</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>7879</v>
+        <v>8659</v>
       </c>
       <c r="B182" t="s">
-        <v>8062</v>
+        <v>8842</v>
       </c>
       <c r="C182" t="s">
-        <v>8125</v>
+        <v>8905</v>
       </c>
       <c r="D182" t="s">
-        <v>8279</v>
+        <v>9059</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>7880</v>
+        <v>8660</v>
       </c>
       <c r="B183" t="s">
-        <v>8063</v>
+        <v>8843</v>
       </c>
       <c r="C183" t="s">
-        <v>8126</v>
+        <v>8906</v>
       </c>
       <c r="D183" t="s">
-        <v>8280</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>7881</v>
+        <v>8661</v>
       </c>
       <c r="B184" t="s">
-        <v>8064</v>
+        <v>8844</v>
       </c>
       <c r="C184" t="s">
-        <v>8127</v>
+        <v>8907</v>
       </c>
       <c r="D184" t="s">
-        <v>8281</v>
+        <v>9061</v>
       </c>
     </row>
   </sheetData>
@@ -28081,970 +30421,970 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8282</v>
+        <v>9062</v>
       </c>
       <c r="B1" t="s">
-        <v>8304</v>
+        <v>9084</v>
       </c>
       <c r="C1" t="s">
-        <v>8390</v>
+        <v>9170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8283</v>
+        <v>9063</v>
       </c>
       <c r="B2" t="s">
-        <v>8305</v>
+        <v>9085</v>
       </c>
       <c r="C2" t="s">
-        <v>8391</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8283</v>
+        <v>9063</v>
       </c>
       <c r="B3" t="s">
-        <v>8306</v>
+        <v>9086</v>
       </c>
       <c r="C3" t="s">
-        <v>8392</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8284</v>
+        <v>9064</v>
       </c>
       <c r="B4" t="s">
-        <v>8307</v>
+        <v>9087</v>
       </c>
       <c r="C4" t="s">
-        <v>8393</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8284</v>
+        <v>9064</v>
       </c>
       <c r="B5" t="s">
-        <v>8308</v>
+        <v>9088</v>
       </c>
       <c r="C5" t="s">
-        <v>8394</v>
+        <v>9174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8284</v>
+        <v>9064</v>
       </c>
       <c r="B6" t="s">
-        <v>8309</v>
+        <v>9089</v>
       </c>
       <c r="C6" t="s">
-        <v>8395</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8285</v>
+        <v>9065</v>
       </c>
       <c r="B7" t="s">
-        <v>8310</v>
+        <v>9090</v>
       </c>
       <c r="C7" t="s">
-        <v>8396</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8285</v>
+        <v>9065</v>
       </c>
       <c r="B8" t="s">
-        <v>8311</v>
+        <v>9091</v>
       </c>
       <c r="C8" t="s">
-        <v>8397</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8285</v>
+        <v>9065</v>
       </c>
       <c r="B9" t="s">
-        <v>8312</v>
+        <v>9092</v>
       </c>
       <c r="C9" t="s">
-        <v>8398</v>
+        <v>9178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8285</v>
+        <v>9065</v>
       </c>
       <c r="B10" t="s">
-        <v>8313</v>
+        <v>9093</v>
       </c>
       <c r="C10" t="s">
-        <v>8399</v>
+        <v>9179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8286</v>
+        <v>9066</v>
       </c>
       <c r="B11" t="s">
-        <v>8314</v>
+        <v>9094</v>
       </c>
       <c r="C11" t="s">
-        <v>8400</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8286</v>
+        <v>9066</v>
       </c>
       <c r="B12" t="s">
-        <v>8315</v>
+        <v>9095</v>
       </c>
       <c r="C12" t="s">
-        <v>8401</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8286</v>
+        <v>9066</v>
       </c>
       <c r="B13" t="s">
-        <v>8316</v>
+        <v>9096</v>
       </c>
       <c r="C13" t="s">
-        <v>8402</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8287</v>
+        <v>9067</v>
       </c>
       <c r="B14" t="s">
-        <v>8317</v>
+        <v>9097</v>
       </c>
       <c r="C14" t="s">
-        <v>8403</v>
+        <v>9183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8287</v>
+        <v>9067</v>
       </c>
       <c r="B15" t="s">
-        <v>8318</v>
+        <v>9098</v>
       </c>
       <c r="C15" t="s">
-        <v>8404</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8287</v>
+        <v>9067</v>
       </c>
       <c r="B16" t="s">
-        <v>8319</v>
+        <v>9099</v>
       </c>
       <c r="C16" t="s">
-        <v>8405</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B17" t="s">
-        <v>8320</v>
+        <v>9100</v>
       </c>
       <c r="C17" t="s">
-        <v>8406</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B18" t="s">
-        <v>8321</v>
+        <v>9101</v>
       </c>
       <c r="C18" t="s">
-        <v>8407</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B19" t="s">
-        <v>8322</v>
+        <v>9102</v>
       </c>
       <c r="C19" t="s">
-        <v>8408</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B20" t="s">
-        <v>8323</v>
+        <v>9103</v>
       </c>
       <c r="C20" t="s">
-        <v>8409</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B21" t="s">
-        <v>8324</v>
+        <v>9104</v>
       </c>
       <c r="C21" t="s">
-        <v>8410</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8288</v>
+        <v>9068</v>
       </c>
       <c r="B22" t="s">
-        <v>8325</v>
+        <v>9105</v>
       </c>
       <c r="C22" t="s">
-        <v>8411</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8289</v>
+        <v>9069</v>
       </c>
       <c r="B23" t="s">
-        <v>8326</v>
+        <v>9106</v>
       </c>
       <c r="C23" t="s">
-        <v>8412</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8289</v>
+        <v>9069</v>
       </c>
       <c r="B24" t="s">
-        <v>8327</v>
+        <v>9107</v>
       </c>
       <c r="C24" t="s">
-        <v>8413</v>
+        <v>9193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8290</v>
+        <v>9070</v>
       </c>
       <c r="B25" t="s">
-        <v>8328</v>
+        <v>9108</v>
       </c>
       <c r="C25" t="s">
-        <v>8414</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8290</v>
+        <v>9070</v>
       </c>
       <c r="B26" t="s">
-        <v>8329</v>
+        <v>9109</v>
       </c>
       <c r="C26" t="s">
-        <v>8415</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8291</v>
+        <v>9071</v>
       </c>
       <c r="B27" t="s">
-        <v>8329</v>
+        <v>9109</v>
       </c>
       <c r="C27" t="s">
-        <v>8416</v>
+        <v>9196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8291</v>
+        <v>9071</v>
       </c>
       <c r="B28" t="s">
-        <v>8330</v>
+        <v>9110</v>
       </c>
       <c r="C28" t="s">
-        <v>8417</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8291</v>
+        <v>9071</v>
       </c>
       <c r="B29" t="s">
-        <v>8331</v>
+        <v>9111</v>
       </c>
       <c r="C29" t="s">
-        <v>8418</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8291</v>
+        <v>9071</v>
       </c>
       <c r="B30" t="s">
-        <v>8332</v>
+        <v>9112</v>
       </c>
       <c r="C30" t="s">
-        <v>8419</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8291</v>
+        <v>9071</v>
       </c>
       <c r="B31" t="s">
-        <v>8333</v>
+        <v>9113</v>
       </c>
       <c r="C31" t="s">
-        <v>8420</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B32" t="s">
-        <v>8334</v>
+        <v>9114</v>
       </c>
       <c r="C32" t="s">
-        <v>8421</v>
+        <v>9201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B33" t="s">
-        <v>8335</v>
+        <v>9115</v>
       </c>
       <c r="C33" t="s">
-        <v>8422</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B34" t="s">
-        <v>8336</v>
+        <v>9116</v>
       </c>
       <c r="C34" t="s">
-        <v>8423</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B35" t="s">
-        <v>8337</v>
+        <v>9117</v>
       </c>
       <c r="C35" t="s">
-        <v>8424</v>
+        <v>9204</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B36" t="s">
-        <v>8338</v>
+        <v>9118</v>
       </c>
       <c r="C36" t="s">
-        <v>8425</v>
+        <v>9205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B37" t="s">
-        <v>8339</v>
+        <v>9119</v>
       </c>
       <c r="C37" t="s">
-        <v>8426</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B38" t="s">
-        <v>8340</v>
+        <v>9120</v>
       </c>
       <c r="C38" t="s">
-        <v>8427</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B39" t="s">
-        <v>8341</v>
+        <v>9121</v>
       </c>
       <c r="C39" t="s">
-        <v>8428</v>
+        <v>9208</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B40" t="s">
-        <v>8342</v>
+        <v>9122</v>
       </c>
       <c r="C40" t="s">
-        <v>8429</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B41" t="s">
-        <v>8343</v>
+        <v>9123</v>
       </c>
       <c r="C41" t="s">
-        <v>8430</v>
+        <v>9210</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B42" t="s">
-        <v>8344</v>
+        <v>9124</v>
       </c>
       <c r="C42" t="s">
-        <v>8431</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B43" t="s">
-        <v>8345</v>
+        <v>9125</v>
       </c>
       <c r="C43" t="s">
-        <v>8432</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B44" t="s">
-        <v>8346</v>
+        <v>9126</v>
       </c>
       <c r="C44" t="s">
-        <v>8433</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B45" t="s">
-        <v>8347</v>
+        <v>9127</v>
       </c>
       <c r="C45" t="s">
-        <v>8434</v>
+        <v>9214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8292</v>
+        <v>9072</v>
       </c>
       <c r="B46" t="s">
-        <v>8348</v>
+        <v>9128</v>
       </c>
       <c r="C46" t="s">
-        <v>8435</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8293</v>
+        <v>9073</v>
       </c>
       <c r="B47" t="s">
-        <v>8349</v>
+        <v>9129</v>
       </c>
       <c r="C47" t="s">
-        <v>8436</v>
+        <v>9216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8293</v>
+        <v>9073</v>
       </c>
       <c r="B48" t="s">
-        <v>8350</v>
+        <v>9130</v>
       </c>
       <c r="C48" t="s">
-        <v>8437</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8294</v>
+        <v>9074</v>
       </c>
       <c r="B49" t="s">
-        <v>8350</v>
+        <v>9130</v>
       </c>
       <c r="C49" t="s">
-        <v>8438</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8294</v>
+        <v>9074</v>
       </c>
       <c r="B50" t="s">
-        <v>8351</v>
+        <v>9131</v>
       </c>
       <c r="C50" t="s">
-        <v>8439</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8294</v>
+        <v>9074</v>
       </c>
       <c r="B51" t="s">
-        <v>8352</v>
+        <v>9132</v>
       </c>
       <c r="C51" t="s">
-        <v>8440</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B52" t="s">
-        <v>8353</v>
+        <v>9133</v>
       </c>
       <c r="C52" t="s">
-        <v>8441</v>
+        <v>9221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B53" t="s">
-        <v>8354</v>
+        <v>9134</v>
       </c>
       <c r="C53" t="s">
-        <v>8442</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B54" t="s">
-        <v>8355</v>
+        <v>9135</v>
       </c>
       <c r="C54" t="s">
-        <v>8443</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B55" t="s">
-        <v>8356</v>
+        <v>9136</v>
       </c>
       <c r="C55" t="s">
-        <v>8444</v>
+        <v>9224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B56" t="s">
-        <v>8357</v>
+        <v>9137</v>
       </c>
       <c r="C56" t="s">
-        <v>8445</v>
+        <v>9225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B57" t="s">
-        <v>8358</v>
+        <v>9138</v>
       </c>
       <c r="C57" t="s">
-        <v>8446</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B58" t="s">
-        <v>8359</v>
+        <v>9139</v>
       </c>
       <c r="C58" t="s">
-        <v>8447</v>
+        <v>9227</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B59" t="s">
-        <v>8360</v>
+        <v>9140</v>
       </c>
       <c r="C59" t="s">
-        <v>8448</v>
+        <v>9228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B60" t="s">
-        <v>8361</v>
+        <v>9141</v>
       </c>
       <c r="C60" t="s">
-        <v>8449</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B61" t="s">
-        <v>8362</v>
+        <v>9142</v>
       </c>
       <c r="C61" t="s">
-        <v>8450</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B62" t="s">
-        <v>8363</v>
+        <v>9143</v>
       </c>
       <c r="C62" t="s">
-        <v>8451</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B63" t="s">
-        <v>8364</v>
+        <v>9144</v>
       </c>
       <c r="C63" t="s">
-        <v>8452</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B64" t="s">
-        <v>8365</v>
+        <v>9145</v>
       </c>
       <c r="C64" t="s">
-        <v>8453</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B65" t="s">
-        <v>8366</v>
+        <v>9146</v>
       </c>
       <c r="C65" t="s">
-        <v>8454</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B66" t="s">
-        <v>8367</v>
+        <v>9147</v>
       </c>
       <c r="C66" t="s">
-        <v>8455</v>
+        <v>9235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8295</v>
+        <v>9075</v>
       </c>
       <c r="B67" t="s">
-        <v>8368</v>
+        <v>9148</v>
       </c>
       <c r="C67" t="s">
-        <v>8456</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8296</v>
+        <v>9076</v>
       </c>
       <c r="B68" t="s">
-        <v>8369</v>
+        <v>9149</v>
       </c>
       <c r="C68" t="s">
-        <v>8457</v>
+        <v>9237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8296</v>
+        <v>9076</v>
       </c>
       <c r="B69" t="s">
-        <v>8370</v>
+        <v>9150</v>
       </c>
       <c r="C69" t="s">
-        <v>8458</v>
+        <v>9238</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8297</v>
+        <v>9077</v>
       </c>
       <c r="B70" t="s">
-        <v>8371</v>
+        <v>9151</v>
       </c>
       <c r="C70" t="s">
-        <v>8459</v>
+        <v>9239</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8297</v>
+        <v>9077</v>
       </c>
       <c r="B71" t="s">
-        <v>8372</v>
+        <v>9152</v>
       </c>
       <c r="C71" t="s">
-        <v>8460</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8298</v>
+        <v>9078</v>
       </c>
       <c r="B72" t="s">
-        <v>8373</v>
+        <v>9153</v>
       </c>
       <c r="C72" t="s">
-        <v>8461</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8298</v>
+        <v>9078</v>
       </c>
       <c r="B73" t="s">
-        <v>8374</v>
+        <v>9154</v>
       </c>
       <c r="C73" t="s">
-        <v>8462</v>
+        <v>9242</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8299</v>
+        <v>9079</v>
       </c>
       <c r="B74" t="s">
-        <v>8375</v>
+        <v>9155</v>
       </c>
       <c r="C74" t="s">
-        <v>8463</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8299</v>
+        <v>9079</v>
       </c>
       <c r="B75" t="s">
-        <v>8376</v>
+        <v>9156</v>
       </c>
       <c r="C75" t="s">
-        <v>8464</v>
+        <v>9244</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8300</v>
+        <v>9080</v>
       </c>
       <c r="B76" t="s">
-        <v>8377</v>
+        <v>9157</v>
       </c>
       <c r="C76" t="s">
-        <v>8465</v>
+        <v>9245</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8300</v>
+        <v>9080</v>
       </c>
       <c r="B77" t="s">
-        <v>8378</v>
+        <v>9158</v>
       </c>
       <c r="C77" t="s">
-        <v>8466</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8300</v>
+        <v>9080</v>
       </c>
       <c r="B78" t="s">
-        <v>8379</v>
+        <v>9159</v>
       </c>
       <c r="C78" t="s">
-        <v>8467</v>
+        <v>9247</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8301</v>
+        <v>9081</v>
       </c>
       <c r="B79" t="s">
-        <v>8380</v>
+        <v>9160</v>
       </c>
       <c r="C79" t="s">
-        <v>8468</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8301</v>
+        <v>9081</v>
       </c>
       <c r="B80" t="s">
-        <v>8381</v>
+        <v>9161</v>
       </c>
       <c r="C80" t="s">
-        <v>8469</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8302</v>
+        <v>9082</v>
       </c>
       <c r="B81" t="s">
-        <v>8382</v>
+        <v>9162</v>
       </c>
       <c r="C81" t="s">
-        <v>8470</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8302</v>
+        <v>9082</v>
       </c>
       <c r="B82" t="s">
-        <v>8383</v>
+        <v>9163</v>
       </c>
       <c r="C82" t="s">
-        <v>8471</v>
+        <v>9251</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8302</v>
+        <v>9082</v>
       </c>
       <c r="B83" t="s">
-        <v>8384</v>
+        <v>9164</v>
       </c>
       <c r="C83" t="s">
-        <v>8472</v>
+        <v>9252</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8302</v>
+        <v>9082</v>
       </c>
       <c r="B84" t="s">
-        <v>8385</v>
+        <v>9165</v>
       </c>
       <c r="C84" t="s">
-        <v>8473</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8302</v>
+        <v>9082</v>
       </c>
       <c r="B85" t="s">
-        <v>8386</v>
+        <v>9166</v>
       </c>
       <c r="C85" t="s">
-        <v>8474</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8303</v>
+        <v>9083</v>
       </c>
       <c r="B86" t="s">
-        <v>8387</v>
+        <v>9167</v>
       </c>
       <c r="C86" t="s">
-        <v>8475</v>
+        <v>9255</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>8303</v>
+        <v>9083</v>
       </c>
       <c r="B87" t="s">
-        <v>8388</v>
+        <v>9168</v>
       </c>
       <c r="C87" t="s">
-        <v>8476</v>
+        <v>9256</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8303</v>
+        <v>9083</v>
       </c>
       <c r="B88" t="s">
-        <v>8389</v>
+        <v>9169</v>
       </c>
       <c r="C88" t="s">
-        <v>8477</v>
+        <v>9257</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13091" uniqueCount="9258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14091" uniqueCount="10038">
   <si>
     <t>name</t>
   </si>
@@ -18365,6 +18365,2346 @@
   </si>
   <si>
     <t>No, dead</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>No</t>
@@ -27836,2578 +30176,2578 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8478</v>
+        <v>9258</v>
       </c>
       <c r="B1" t="s">
-        <v>8662</v>
+        <v>9442</v>
       </c>
       <c r="C1" t="s">
-        <v>8845</v>
+        <v>9625</v>
       </c>
       <c r="D1" t="s">
-        <v>8908</v>
+        <v>9688</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8479</v>
+        <v>9259</v>
       </c>
       <c r="B2" t="s">
-        <v>8663</v>
+        <v>9443</v>
       </c>
       <c r="C2" t="s">
-        <v>8846</v>
+        <v>9626</v>
       </c>
       <c r="D2" t="s">
-        <v>8909</v>
+        <v>9689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8480</v>
+        <v>9260</v>
       </c>
       <c r="B3" t="s">
-        <v>8664</v>
+        <v>9444</v>
       </c>
       <c r="C3" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D3" t="s">
-        <v>8910</v>
+        <v>9690</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8481</v>
+        <v>9261</v>
       </c>
       <c r="B4" t="s">
-        <v>8665</v>
+        <v>9445</v>
       </c>
       <c r="C4" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D4" t="s">
-        <v>8911</v>
+        <v>9691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8482</v>
+        <v>9262</v>
       </c>
       <c r="B5" t="s">
-        <v>8666</v>
+        <v>9446</v>
       </c>
       <c r="C5" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D5" t="s">
-        <v>8912</v>
+        <v>9692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8483</v>
+        <v>9263</v>
       </c>
       <c r="B6" t="s">
-        <v>8667</v>
+        <v>9447</v>
       </c>
       <c r="C6" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D6" t="s">
-        <v>8913</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8484</v>
+        <v>9264</v>
       </c>
       <c r="B7" t="s">
-        <v>8668</v>
+        <v>9448</v>
       </c>
       <c r="C7" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D7" t="s">
-        <v>8914</v>
+        <v>9694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8485</v>
+        <v>9265</v>
       </c>
       <c r="B8" t="s">
-        <v>8669</v>
+        <v>9449</v>
       </c>
       <c r="C8" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D8" t="s">
-        <v>8915</v>
+        <v>9695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8486</v>
+        <v>9266</v>
       </c>
       <c r="B9" t="s">
-        <v>8670</v>
+        <v>9450</v>
       </c>
       <c r="C9" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D9" t="s">
-        <v>8916</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8487</v>
+        <v>9267</v>
       </c>
       <c r="B10" t="s">
-        <v>8671</v>
+        <v>9451</v>
       </c>
       <c r="C10" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D10" t="s">
-        <v>8917</v>
+        <v>9697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8488</v>
+        <v>9268</v>
       </c>
       <c r="B11" t="s">
-        <v>8672</v>
+        <v>9452</v>
       </c>
       <c r="C11" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D11" t="s">
-        <v>8918</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8489</v>
+        <v>9269</v>
       </c>
       <c r="B12" t="s">
-        <v>8673</v>
+        <v>9453</v>
       </c>
       <c r="C12" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D12" t="s">
-        <v>8919</v>
+        <v>9699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8490</v>
+        <v>9270</v>
       </c>
       <c r="B13" t="s">
-        <v>8674</v>
+        <v>9454</v>
       </c>
       <c r="C13" t="s">
-        <v>8847</v>
+        <v>9627</v>
       </c>
       <c r="D13" t="s">
-        <v>8920</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8491</v>
+        <v>9271</v>
       </c>
       <c r="B14" t="s">
-        <v>8675</v>
+        <v>9455</v>
       </c>
       <c r="C14" t="s">
-        <v>8848</v>
+        <v>9628</v>
       </c>
       <c r="D14" t="s">
-        <v>8921</v>
+        <v>9701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8492</v>
+        <v>9272</v>
       </c>
       <c r="B15" t="s">
-        <v>8676</v>
+        <v>9456</v>
       </c>
       <c r="C15" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D15" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8493</v>
+        <v>9273</v>
       </c>
       <c r="B16" t="s">
-        <v>8677</v>
+        <v>9457</v>
       </c>
       <c r="C16" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D16" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8494</v>
+        <v>9274</v>
       </c>
       <c r="B17" t="s">
-        <v>8678</v>
+        <v>9458</v>
       </c>
       <c r="C17" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D17" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8495</v>
+        <v>9275</v>
       </c>
       <c r="B18" t="s">
-        <v>8679</v>
+        <v>9459</v>
       </c>
       <c r="C18" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D18" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8496</v>
+        <v>9276</v>
       </c>
       <c r="B19" t="s">
-        <v>8680</v>
+        <v>9460</v>
       </c>
       <c r="C19" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D19" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8497</v>
+        <v>9277</v>
       </c>
       <c r="B20" t="s">
-        <v>8681</v>
+        <v>9461</v>
       </c>
       <c r="C20" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D20" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8498</v>
+        <v>9278</v>
       </c>
       <c r="B21" t="s">
-        <v>8682</v>
+        <v>9462</v>
       </c>
       <c r="C21" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D21" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8499</v>
+        <v>9279</v>
       </c>
       <c r="B22" t="s">
-        <v>8683</v>
+        <v>9463</v>
       </c>
       <c r="C22" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D22" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8500</v>
+        <v>9280</v>
       </c>
       <c r="B23" t="s">
-        <v>8684</v>
+        <v>9464</v>
       </c>
       <c r="C23" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D23" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8501</v>
+        <v>9281</v>
       </c>
       <c r="B24" t="s">
-        <v>8685</v>
+        <v>9465</v>
       </c>
       <c r="C24" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D24" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8502</v>
+        <v>9282</v>
       </c>
       <c r="B25" t="s">
-        <v>8686</v>
+        <v>9466</v>
       </c>
       <c r="C25" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D25" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8503</v>
+        <v>9283</v>
       </c>
       <c r="B26" t="s">
-        <v>8687</v>
+        <v>9467</v>
       </c>
       <c r="C26" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D26" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8504</v>
+        <v>9284</v>
       </c>
       <c r="B27" t="s">
-        <v>8688</v>
+        <v>9468</v>
       </c>
       <c r="C27" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D27" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8505</v>
+        <v>9285</v>
       </c>
       <c r="B28" t="s">
-        <v>8689</v>
+        <v>9469</v>
       </c>
       <c r="C28" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D28" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8506</v>
+        <v>9286</v>
       </c>
       <c r="B29" t="s">
-        <v>8690</v>
+        <v>9470</v>
       </c>
       <c r="C29" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D29" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8507</v>
+        <v>9287</v>
       </c>
       <c r="B30" t="s">
-        <v>8691</v>
+        <v>9471</v>
       </c>
       <c r="C30" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D30" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8508</v>
+        <v>9288</v>
       </c>
       <c r="B31" t="s">
-        <v>8692</v>
+        <v>9472</v>
       </c>
       <c r="C31" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D31" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8509</v>
+        <v>9289</v>
       </c>
       <c r="B32" t="s">
-        <v>8693</v>
+        <v>9473</v>
       </c>
       <c r="C32" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D32" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8510</v>
+        <v>9290</v>
       </c>
       <c r="B33" t="s">
-        <v>8694</v>
+        <v>9474</v>
       </c>
       <c r="C33" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D33" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8511</v>
+        <v>9291</v>
       </c>
       <c r="B34" t="s">
-        <v>8695</v>
+        <v>9475</v>
       </c>
       <c r="C34" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D34" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8512</v>
+        <v>9292</v>
       </c>
       <c r="B35" t="s">
-        <v>8696</v>
+        <v>9476</v>
       </c>
       <c r="C35" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D35" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8513</v>
+        <v>9293</v>
       </c>
       <c r="B36" t="s">
-        <v>8697</v>
+        <v>9477</v>
       </c>
       <c r="C36" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D36" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8514</v>
+        <v>9294</v>
       </c>
       <c r="B37" t="s">
-        <v>8698</v>
+        <v>9478</v>
       </c>
       <c r="C37" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D37" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8515</v>
+        <v>9295</v>
       </c>
       <c r="B38" t="s">
-        <v>8699</v>
+        <v>9479</v>
       </c>
       <c r="C38" t="s">
-        <v>8849</v>
+        <v>9629</v>
       </c>
       <c r="D38" t="s">
-        <v>8922</v>
+        <v>9702</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8516</v>
+        <v>9296</v>
       </c>
       <c r="B39" t="s">
-        <v>8700</v>
+        <v>9480</v>
       </c>
       <c r="C39" t="s">
-        <v>8850</v>
+        <v>9630</v>
       </c>
       <c r="D39" t="s">
-        <v>8923</v>
+        <v>9703</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8517</v>
+        <v>9297</v>
       </c>
       <c r="B40" t="s">
-        <v>8701</v>
+        <v>9481</v>
       </c>
       <c r="C40" t="s">
-        <v>8850</v>
+        <v>9630</v>
       </c>
       <c r="D40" t="s">
-        <v>8924</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8518</v>
+        <v>9298</v>
       </c>
       <c r="B41" t="s">
-        <v>8702</v>
+        <v>9482</v>
       </c>
       <c r="C41" t="s">
-        <v>8851</v>
+        <v>9631</v>
       </c>
       <c r="D41" t="s">
-        <v>8925</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8519</v>
+        <v>9299</v>
       </c>
       <c r="B42" t="s">
-        <v>8703</v>
+        <v>9483</v>
       </c>
       <c r="C42" t="s">
-        <v>8852</v>
+        <v>9632</v>
       </c>
       <c r="D42" t="s">
-        <v>8926</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8520</v>
+        <v>9300</v>
       </c>
       <c r="B43" t="s">
-        <v>8704</v>
+        <v>9484</v>
       </c>
       <c r="C43" t="s">
-        <v>8852</v>
+        <v>9632</v>
       </c>
       <c r="D43" t="s">
-        <v>8927</v>
+        <v>9707</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8521</v>
+        <v>9301</v>
       </c>
       <c r="B44" t="s">
-        <v>8705</v>
+        <v>9485</v>
       </c>
       <c r="C44" t="s">
-        <v>8853</v>
+        <v>9633</v>
       </c>
       <c r="D44" t="s">
-        <v>8928</v>
+        <v>9708</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>8522</v>
+        <v>9302</v>
       </c>
       <c r="B45" t="s">
-        <v>8706</v>
+        <v>9486</v>
       </c>
       <c r="C45" t="s">
-        <v>8853</v>
+        <v>9633</v>
       </c>
       <c r="D45" t="s">
-        <v>8929</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8523</v>
+        <v>9303</v>
       </c>
       <c r="B46" t="s">
-        <v>8707</v>
+        <v>9487</v>
       </c>
       <c r="C46" t="s">
-        <v>8853</v>
+        <v>9633</v>
       </c>
       <c r="D46" t="s">
-        <v>8930</v>
+        <v>9710</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8524</v>
+        <v>9304</v>
       </c>
       <c r="B47" t="s">
-        <v>8708</v>
+        <v>9488</v>
       </c>
       <c r="C47" t="s">
-        <v>8854</v>
+        <v>9634</v>
       </c>
       <c r="D47" t="s">
-        <v>8931</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8525</v>
+        <v>9305</v>
       </c>
       <c r="B48" t="s">
-        <v>8709</v>
+        <v>9489</v>
       </c>
       <c r="C48" t="s">
-        <v>8854</v>
+        <v>9634</v>
       </c>
       <c r="D48" t="s">
-        <v>8932</v>
+        <v>9712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8526</v>
+        <v>9306</v>
       </c>
       <c r="B49" t="s">
-        <v>8710</v>
+        <v>9490</v>
       </c>
       <c r="C49" t="s">
-        <v>8854</v>
+        <v>9634</v>
       </c>
       <c r="D49" t="s">
-        <v>8933</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8527</v>
+        <v>9307</v>
       </c>
       <c r="B50" t="s">
-        <v>8711</v>
+        <v>9491</v>
       </c>
       <c r="C50" t="s">
-        <v>8854</v>
+        <v>9634</v>
       </c>
       <c r="D50" t="s">
-        <v>8934</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8528</v>
+        <v>9308</v>
       </c>
       <c r="B51" t="s">
-        <v>8712</v>
+        <v>9492</v>
       </c>
       <c r="C51" t="s">
-        <v>8854</v>
+        <v>9634</v>
       </c>
       <c r="D51" t="s">
-        <v>8935</v>
+        <v>9715</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8529</v>
+        <v>9309</v>
       </c>
       <c r="B52" t="s">
-        <v>8713</v>
+        <v>9493</v>
       </c>
       <c r="C52" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D52" t="s">
-        <v>8936</v>
+        <v>9716</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>8530</v>
+        <v>9310</v>
       </c>
       <c r="B53" t="s">
-        <v>8714</v>
+        <v>9494</v>
       </c>
       <c r="C53" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D53" t="s">
-        <v>8937</v>
+        <v>9717</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8531</v>
+        <v>9311</v>
       </c>
       <c r="B54" t="s">
-        <v>8715</v>
+        <v>9495</v>
       </c>
       <c r="C54" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D54" t="s">
-        <v>8937</v>
+        <v>9717</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8532</v>
+        <v>9312</v>
       </c>
       <c r="B55" t="s">
-        <v>8716</v>
+        <v>9496</v>
       </c>
       <c r="C55" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D55" t="s">
-        <v>8937</v>
+        <v>9717</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8533</v>
+        <v>9313</v>
       </c>
       <c r="B56" t="s">
-        <v>8717</v>
+        <v>9497</v>
       </c>
       <c r="C56" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D56" t="s">
-        <v>8937</v>
+        <v>9717</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>8534</v>
+        <v>9314</v>
       </c>
       <c r="B57" t="s">
-        <v>8718</v>
+        <v>9498</v>
       </c>
       <c r="C57" t="s">
-        <v>8855</v>
+        <v>9635</v>
       </c>
       <c r="D57" t="s">
-        <v>8938</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8535</v>
+        <v>9315</v>
       </c>
       <c r="B58" t="s">
-        <v>8719</v>
+        <v>9499</v>
       </c>
       <c r="C58" t="s">
-        <v>8856</v>
+        <v>9636</v>
       </c>
       <c r="D58" t="s">
-        <v>8939</v>
+        <v>9719</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8536</v>
+        <v>9316</v>
       </c>
       <c r="B59" t="s">
-        <v>8720</v>
+        <v>9500</v>
       </c>
       <c r="C59" t="s">
-        <v>8857</v>
+        <v>9637</v>
       </c>
       <c r="D59" t="s">
-        <v>8940</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8537</v>
+        <v>9317</v>
       </c>
       <c r="B60" t="s">
-        <v>8721</v>
+        <v>9501</v>
       </c>
       <c r="C60" t="s">
-        <v>8857</v>
+        <v>9637</v>
       </c>
       <c r="D60" t="s">
-        <v>8941</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8538</v>
+        <v>9318</v>
       </c>
       <c r="B61" t="s">
-        <v>8722</v>
+        <v>9502</v>
       </c>
       <c r="C61" t="s">
-        <v>8858</v>
+        <v>9638</v>
       </c>
       <c r="D61" t="s">
-        <v>8942</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8539</v>
+        <v>9319</v>
       </c>
       <c r="B62" t="s">
-        <v>8723</v>
+        <v>9503</v>
       </c>
       <c r="C62" t="s">
-        <v>8859</v>
+        <v>9639</v>
       </c>
       <c r="D62" t="s">
-        <v>8943</v>
+        <v>9723</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8540</v>
+        <v>9320</v>
       </c>
       <c r="B63" t="s">
-        <v>8724</v>
+        <v>9504</v>
       </c>
       <c r="C63" t="s">
-        <v>8860</v>
+        <v>9640</v>
       </c>
       <c r="D63" t="s">
-        <v>8944</v>
+        <v>9724</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8541</v>
+        <v>9321</v>
       </c>
       <c r="B64" t="s">
-        <v>8725</v>
+        <v>9505</v>
       </c>
       <c r="C64" t="s">
-        <v>8861</v>
+        <v>9641</v>
       </c>
       <c r="D64" t="s">
-        <v>8945</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8542</v>
+        <v>9322</v>
       </c>
       <c r="B65" t="s">
-        <v>8726</v>
+        <v>9506</v>
       </c>
       <c r="C65" t="s">
-        <v>8861</v>
+        <v>9641</v>
       </c>
       <c r="D65" t="s">
-        <v>8945</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>8543</v>
+        <v>9323</v>
       </c>
       <c r="B66" t="s">
-        <v>8727</v>
+        <v>9507</v>
       </c>
       <c r="C66" t="s">
-        <v>8862</v>
+        <v>9642</v>
       </c>
       <c r="D66" t="s">
-        <v>8946</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>8544</v>
+        <v>9324</v>
       </c>
       <c r="B67" t="s">
-        <v>8728</v>
+        <v>9508</v>
       </c>
       <c r="C67" t="s">
-        <v>8863</v>
+        <v>9643</v>
       </c>
       <c r="D67" t="s">
-        <v>8947</v>
+        <v>9727</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8545</v>
+        <v>9325</v>
       </c>
       <c r="B68" t="s">
-        <v>8729</v>
+        <v>9509</v>
       </c>
       <c r="C68" t="s">
-        <v>8864</v>
+        <v>9644</v>
       </c>
       <c r="D68" t="s">
-        <v>8948</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8546</v>
+        <v>9326</v>
       </c>
       <c r="B69" t="s">
-        <v>8730</v>
+        <v>9510</v>
       </c>
       <c r="C69" t="s">
-        <v>8865</v>
+        <v>9645</v>
       </c>
       <c r="D69" t="s">
-        <v>8949</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>8547</v>
+        <v>9327</v>
       </c>
       <c r="B70" t="s">
-        <v>8731</v>
+        <v>9511</v>
       </c>
       <c r="C70" t="s">
-        <v>8866</v>
+        <v>9646</v>
       </c>
       <c r="D70" t="s">
-        <v>8950</v>
+        <v>9730</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8548</v>
+        <v>9328</v>
       </c>
       <c r="B71" t="s">
-        <v>8732</v>
+        <v>9512</v>
       </c>
       <c r="C71" t="s">
-        <v>8866</v>
+        <v>9646</v>
       </c>
       <c r="D71" t="s">
-        <v>8951</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8549</v>
+        <v>9329</v>
       </c>
       <c r="B72" t="s">
-        <v>8733</v>
+        <v>9513</v>
       </c>
       <c r="C72" t="s">
-        <v>8867</v>
+        <v>9647</v>
       </c>
       <c r="D72" t="s">
-        <v>8952</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8550</v>
+        <v>9330</v>
       </c>
       <c r="B73" t="s">
-        <v>8734</v>
+        <v>9514</v>
       </c>
       <c r="C73" t="s">
-        <v>8867</v>
+        <v>9647</v>
       </c>
       <c r="D73" t="s">
-        <v>8953</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8551</v>
+        <v>9331</v>
       </c>
       <c r="B74" t="s">
-        <v>8735</v>
+        <v>9515</v>
       </c>
       <c r="C74" t="s">
-        <v>8867</v>
+        <v>9647</v>
       </c>
       <c r="D74" t="s">
-        <v>8954</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8552</v>
+        <v>9332</v>
       </c>
       <c r="B75" t="s">
-        <v>8735</v>
+        <v>9515</v>
       </c>
       <c r="C75" t="s">
-        <v>8867</v>
+        <v>9647</v>
       </c>
       <c r="D75" t="s">
-        <v>8955</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8553</v>
+        <v>9333</v>
       </c>
       <c r="B76" t="s">
-        <v>8736</v>
+        <v>9516</v>
       </c>
       <c r="C76" t="s">
-        <v>8868</v>
+        <v>9648</v>
       </c>
       <c r="D76" t="s">
-        <v>8956</v>
+        <v>9736</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8554</v>
+        <v>9334</v>
       </c>
       <c r="B77" t="s">
-        <v>8737</v>
+        <v>9517</v>
       </c>
       <c r="C77" t="s">
-        <v>8869</v>
+        <v>9649</v>
       </c>
       <c r="D77" t="s">
-        <v>8957</v>
+        <v>9737</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8555</v>
+        <v>9335</v>
       </c>
       <c r="B78" t="s">
-        <v>8738</v>
+        <v>9518</v>
       </c>
       <c r="C78" t="s">
-        <v>8869</v>
+        <v>9649</v>
       </c>
       <c r="D78" t="s">
-        <v>8958</v>
+        <v>9738</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>8556</v>
+        <v>9336</v>
       </c>
       <c r="B79" t="s">
-        <v>8739</v>
+        <v>9519</v>
       </c>
       <c r="C79" t="s">
-        <v>8869</v>
+        <v>9649</v>
       </c>
       <c r="D79" t="s">
-        <v>8958</v>
+        <v>9738</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8557</v>
+        <v>9337</v>
       </c>
       <c r="B80" t="s">
-        <v>8740</v>
+        <v>9520</v>
       </c>
       <c r="C80" t="s">
-        <v>8870</v>
+        <v>9650</v>
       </c>
       <c r="D80" t="s">
-        <v>8959</v>
+        <v>9739</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8558</v>
+        <v>9338</v>
       </c>
       <c r="B81" t="s">
-        <v>8741</v>
+        <v>9521</v>
       </c>
       <c r="C81" t="s">
-        <v>8871</v>
+        <v>9651</v>
       </c>
       <c r="D81" t="s">
-        <v>8960</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8559</v>
+        <v>9339</v>
       </c>
       <c r="B82" t="s">
-        <v>8742</v>
+        <v>9522</v>
       </c>
       <c r="C82" t="s">
-        <v>8871</v>
+        <v>9651</v>
       </c>
       <c r="D82" t="s">
-        <v>8961</v>
+        <v>9741</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8560</v>
+        <v>9340</v>
       </c>
       <c r="B83" t="s">
-        <v>8743</v>
+        <v>9523</v>
       </c>
       <c r="C83" t="s">
-        <v>8871</v>
+        <v>9651</v>
       </c>
       <c r="D83" t="s">
-        <v>8962</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8561</v>
+        <v>9341</v>
       </c>
       <c r="B84" t="s">
-        <v>8744</v>
+        <v>9524</v>
       </c>
       <c r="C84" t="s">
-        <v>8871</v>
+        <v>9651</v>
       </c>
       <c r="D84" t="s">
-        <v>8963</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8562</v>
+        <v>9342</v>
       </c>
       <c r="B85" t="s">
-        <v>8745</v>
+        <v>9525</v>
       </c>
       <c r="C85" t="s">
-        <v>8871</v>
+        <v>9651</v>
       </c>
       <c r="D85" t="s">
-        <v>8964</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8563</v>
+        <v>9343</v>
       </c>
       <c r="B86" t="s">
-        <v>8746</v>
+        <v>9526</v>
       </c>
       <c r="C86" t="s">
-        <v>8872</v>
+        <v>9652</v>
       </c>
       <c r="D86" t="s">
-        <v>8965</v>
+        <v>9745</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>8564</v>
+        <v>9344</v>
       </c>
       <c r="B87" t="s">
-        <v>8747</v>
+        <v>9527</v>
       </c>
       <c r="C87" t="s">
-        <v>8872</v>
+        <v>9652</v>
       </c>
       <c r="D87" t="s">
-        <v>8966</v>
+        <v>9746</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8565</v>
+        <v>9345</v>
       </c>
       <c r="B88" t="s">
-        <v>8748</v>
+        <v>9528</v>
       </c>
       <c r="C88" t="s">
-        <v>8873</v>
+        <v>9653</v>
       </c>
       <c r="D88" t="s">
-        <v>8967</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>8566</v>
+        <v>9346</v>
       </c>
       <c r="B89" t="s">
-        <v>8749</v>
+        <v>9529</v>
       </c>
       <c r="C89" t="s">
-        <v>8874</v>
+        <v>9654</v>
       </c>
       <c r="D89" t="s">
-        <v>8968</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8567</v>
+        <v>9347</v>
       </c>
       <c r="B90" t="s">
-        <v>8750</v>
+        <v>9530</v>
       </c>
       <c r="C90" t="s">
-        <v>8875</v>
+        <v>9655</v>
       </c>
       <c r="D90" t="s">
-        <v>8969</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8568</v>
+        <v>9348</v>
       </c>
       <c r="B91" t="s">
-        <v>8751</v>
+        <v>9531</v>
       </c>
       <c r="C91" t="s">
-        <v>8876</v>
+        <v>9656</v>
       </c>
       <c r="D91" t="s">
-        <v>8970</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8569</v>
+        <v>9349</v>
       </c>
       <c r="B92" t="s">
-        <v>8752</v>
+        <v>9532</v>
       </c>
       <c r="C92" t="s">
-        <v>8876</v>
+        <v>9656</v>
       </c>
       <c r="D92" t="s">
-        <v>8971</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8570</v>
+        <v>9350</v>
       </c>
       <c r="B93" t="s">
-        <v>8753</v>
+        <v>9533</v>
       </c>
       <c r="C93" t="s">
-        <v>8877</v>
+        <v>9657</v>
       </c>
       <c r="D93" t="s">
-        <v>8972</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8571</v>
+        <v>9351</v>
       </c>
       <c r="B94" t="s">
-        <v>8754</v>
+        <v>9534</v>
       </c>
       <c r="C94" t="s">
-        <v>8878</v>
+        <v>9658</v>
       </c>
       <c r="D94" t="s">
-        <v>8973</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>8572</v>
+        <v>9352</v>
       </c>
       <c r="B95" t="s">
-        <v>8755</v>
+        <v>9535</v>
       </c>
       <c r="C95" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D95" t="s">
-        <v>8974</v>
+        <v>9754</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8573</v>
+        <v>9353</v>
       </c>
       <c r="B96" t="s">
-        <v>8756</v>
+        <v>9536</v>
       </c>
       <c r="C96" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D96" t="s">
-        <v>8975</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8574</v>
+        <v>9354</v>
       </c>
       <c r="B97" t="s">
-        <v>8757</v>
+        <v>9537</v>
       </c>
       <c r="C97" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D97" t="s">
-        <v>8976</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8575</v>
+        <v>9355</v>
       </c>
       <c r="B98" t="s">
-        <v>8758</v>
+        <v>9538</v>
       </c>
       <c r="C98" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D98" t="s">
-        <v>8977</v>
+        <v>9757</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>8576</v>
+        <v>9356</v>
       </c>
       <c r="B99" t="s">
-        <v>8759</v>
+        <v>9539</v>
       </c>
       <c r="C99" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D99" t="s">
-        <v>8978</v>
+        <v>9758</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>8577</v>
+        <v>9357</v>
       </c>
       <c r="B100" t="s">
-        <v>8760</v>
+        <v>9540</v>
       </c>
       <c r="C100" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D100" t="s">
-        <v>8979</v>
+        <v>9759</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>8578</v>
+        <v>9358</v>
       </c>
       <c r="B101" t="s">
-        <v>8761</v>
+        <v>9541</v>
       </c>
       <c r="C101" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D101" t="s">
-        <v>8980</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8579</v>
+        <v>9359</v>
       </c>
       <c r="B102" t="s">
-        <v>8762</v>
+        <v>9542</v>
       </c>
       <c r="C102" t="s">
-        <v>8879</v>
+        <v>9659</v>
       </c>
       <c r="D102" t="s">
-        <v>8981</v>
+        <v>9761</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8580</v>
+        <v>9360</v>
       </c>
       <c r="B103" t="s">
-        <v>8763</v>
+        <v>9543</v>
       </c>
       <c r="C103" t="s">
-        <v>8880</v>
+        <v>9660</v>
       </c>
       <c r="D103" t="s">
-        <v>8982</v>
+        <v>9762</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8581</v>
+        <v>9361</v>
       </c>
       <c r="B104" t="s">
-        <v>8764</v>
+        <v>9544</v>
       </c>
       <c r="C104" t="s">
-        <v>8881</v>
+        <v>9661</v>
       </c>
       <c r="D104" t="s">
-        <v>8983</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>8582</v>
+        <v>9362</v>
       </c>
       <c r="B105" t="s">
-        <v>8765</v>
+        <v>9545</v>
       </c>
       <c r="C105" t="s">
-        <v>8882</v>
+        <v>9662</v>
       </c>
       <c r="D105" t="s">
-        <v>8984</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>8583</v>
+        <v>9363</v>
       </c>
       <c r="B106" t="s">
-        <v>8766</v>
+        <v>9546</v>
       </c>
       <c r="C106" t="s">
-        <v>8882</v>
+        <v>9662</v>
       </c>
       <c r="D106" t="s">
-        <v>8985</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>8584</v>
+        <v>9364</v>
       </c>
       <c r="B107" t="s">
-        <v>8767</v>
+        <v>9547</v>
       </c>
       <c r="C107" t="s">
-        <v>8882</v>
+        <v>9662</v>
       </c>
       <c r="D107" t="s">
-        <v>8986</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>8585</v>
+        <v>9365</v>
       </c>
       <c r="B108" t="s">
-        <v>8768</v>
+        <v>9548</v>
       </c>
       <c r="C108" t="s">
-        <v>8883</v>
+        <v>9663</v>
       </c>
       <c r="D108" t="s">
-        <v>8987</v>
+        <v>9767</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>8586</v>
+        <v>9366</v>
       </c>
       <c r="B109" t="s">
-        <v>8769</v>
+        <v>9549</v>
       </c>
       <c r="C109" t="s">
-        <v>8884</v>
+        <v>9664</v>
       </c>
       <c r="D109" t="s">
-        <v>8988</v>
+        <v>9768</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>8587</v>
+        <v>9367</v>
       </c>
       <c r="B110" t="s">
-        <v>8770</v>
+        <v>9550</v>
       </c>
       <c r="C110" t="s">
-        <v>8884</v>
+        <v>9664</v>
       </c>
       <c r="D110" t="s">
-        <v>8989</v>
+        <v>9769</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>8588</v>
+        <v>9368</v>
       </c>
       <c r="B111" t="s">
-        <v>8771</v>
+        <v>9551</v>
       </c>
       <c r="C111" t="s">
-        <v>8885</v>
+        <v>9665</v>
       </c>
       <c r="D111" t="s">
-        <v>8990</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>8589</v>
+        <v>9369</v>
       </c>
       <c r="B112" t="s">
-        <v>8772</v>
+        <v>9552</v>
       </c>
       <c r="C112" t="s">
-        <v>8885</v>
+        <v>9665</v>
       </c>
       <c r="D112" t="s">
-        <v>8991</v>
+        <v>9771</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>8590</v>
+        <v>9370</v>
       </c>
       <c r="B113" t="s">
-        <v>8773</v>
+        <v>9553</v>
       </c>
       <c r="C113" t="s">
-        <v>8886</v>
+        <v>9666</v>
       </c>
       <c r="D113" t="s">
-        <v>8992</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>8591</v>
+        <v>9371</v>
       </c>
       <c r="B114" t="s">
-        <v>8774</v>
+        <v>9554</v>
       </c>
       <c r="C114" t="s">
-        <v>8886</v>
+        <v>9666</v>
       </c>
       <c r="D114" t="s">
-        <v>8993</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>8592</v>
+        <v>9372</v>
       </c>
       <c r="B115" t="s">
-        <v>8775</v>
+        <v>9555</v>
       </c>
       <c r="C115" t="s">
-        <v>8886</v>
+        <v>9666</v>
       </c>
       <c r="D115" t="s">
-        <v>8994</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>8593</v>
+        <v>9373</v>
       </c>
       <c r="B116" t="s">
-        <v>8776</v>
+        <v>9556</v>
       </c>
       <c r="C116" t="s">
-        <v>8887</v>
+        <v>9667</v>
       </c>
       <c r="D116" t="s">
-        <v>8995</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>8594</v>
+        <v>9374</v>
       </c>
       <c r="B117" t="s">
-        <v>8777</v>
+        <v>9557</v>
       </c>
       <c r="C117" t="s">
-        <v>8887</v>
+        <v>9667</v>
       </c>
       <c r="D117" t="s">
-        <v>8996</v>
+        <v>9776</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>8595</v>
+        <v>9375</v>
       </c>
       <c r="B118" t="s">
-        <v>8778</v>
+        <v>9558</v>
       </c>
       <c r="C118" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D118" t="s">
-        <v>8997</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>8596</v>
+        <v>9376</v>
       </c>
       <c r="B119" t="s">
-        <v>8779</v>
+        <v>9559</v>
       </c>
       <c r="C119" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D119" t="s">
-        <v>8998</v>
+        <v>9778</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>8597</v>
+        <v>9377</v>
       </c>
       <c r="B120" t="s">
-        <v>8780</v>
+        <v>9560</v>
       </c>
       <c r="C120" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D120" t="s">
-        <v>8999</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>8598</v>
+        <v>9378</v>
       </c>
       <c r="B121" t="s">
-        <v>8781</v>
+        <v>9561</v>
       </c>
       <c r="C121" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D121" t="s">
-        <v>9000</v>
+        <v>9780</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>8599</v>
+        <v>9379</v>
       </c>
       <c r="B122" t="s">
-        <v>8782</v>
+        <v>9562</v>
       </c>
       <c r="C122" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D122" t="s">
-        <v>9001</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>8600</v>
+        <v>9380</v>
       </c>
       <c r="B123" t="s">
-        <v>8783</v>
+        <v>9563</v>
       </c>
       <c r="C123" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D123" t="s">
-        <v>9002</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>8601</v>
+        <v>9381</v>
       </c>
       <c r="B124" t="s">
-        <v>8784</v>
+        <v>9564</v>
       </c>
       <c r="C124" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D124" t="s">
-        <v>9003</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>8602</v>
+        <v>9382</v>
       </c>
       <c r="B125" t="s">
-        <v>8785</v>
+        <v>9565</v>
       </c>
       <c r="C125" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D125" t="s">
-        <v>9004</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>8603</v>
+        <v>9383</v>
       </c>
       <c r="B126" t="s">
-        <v>8786</v>
+        <v>9566</v>
       </c>
       <c r="C126" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D126" t="s">
-        <v>9005</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>8604</v>
+        <v>9384</v>
       </c>
       <c r="B127" t="s">
-        <v>8787</v>
+        <v>9567</v>
       </c>
       <c r="C127" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D127" t="s">
-        <v>9006</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>8605</v>
+        <v>9385</v>
       </c>
       <c r="B128" t="s">
-        <v>8788</v>
+        <v>9568</v>
       </c>
       <c r="C128" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D128" t="s">
-        <v>9007</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>8606</v>
+        <v>9386</v>
       </c>
       <c r="B129" t="s">
-        <v>8789</v>
+        <v>9569</v>
       </c>
       <c r="C129" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D129" t="s">
-        <v>9008</v>
+        <v>9788</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>8607</v>
+        <v>9387</v>
       </c>
       <c r="B130" t="s">
-        <v>8790</v>
+        <v>9570</v>
       </c>
       <c r="C130" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D130" t="s">
-        <v>9009</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>8608</v>
+        <v>9388</v>
       </c>
       <c r="B131" t="s">
-        <v>8791</v>
+        <v>9571</v>
       </c>
       <c r="C131" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D131" t="s">
-        <v>9010</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>8609</v>
+        <v>9389</v>
       </c>
       <c r="B132" t="s">
-        <v>8792</v>
+        <v>9572</v>
       </c>
       <c r="C132" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D132" t="s">
-        <v>9011</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>8610</v>
+        <v>9390</v>
       </c>
       <c r="B133" t="s">
-        <v>8793</v>
+        <v>9573</v>
       </c>
       <c r="C133" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D133" t="s">
-        <v>9012</v>
+        <v>9792</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>8611</v>
+        <v>9391</v>
       </c>
       <c r="B134" t="s">
-        <v>8794</v>
+        <v>9574</v>
       </c>
       <c r="C134" t="s">
-        <v>8888</v>
+        <v>9668</v>
       </c>
       <c r="D134" t="s">
-        <v>9013</v>
+        <v>9793</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>8612</v>
+        <v>9392</v>
       </c>
       <c r="B135" t="s">
-        <v>8795</v>
+        <v>9575</v>
       </c>
       <c r="C135" t="s">
-        <v>8889</v>
+        <v>9669</v>
       </c>
       <c r="D135" t="s">
-        <v>9014</v>
+        <v>9794</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>8613</v>
+        <v>9393</v>
       </c>
       <c r="B136" t="s">
-        <v>8796</v>
+        <v>9576</v>
       </c>
       <c r="C136" t="s">
-        <v>8890</v>
+        <v>9670</v>
       </c>
       <c r="D136" t="s">
-        <v>9015</v>
+        <v>9795</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>8614</v>
+        <v>9394</v>
       </c>
       <c r="B137" t="s">
-        <v>8797</v>
+        <v>9577</v>
       </c>
       <c r="C137" t="s">
-        <v>8890</v>
+        <v>9670</v>
       </c>
       <c r="D137" t="s">
-        <v>9016</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>8615</v>
+        <v>9395</v>
       </c>
       <c r="B138" t="s">
-        <v>8798</v>
+        <v>9578</v>
       </c>
       <c r="C138" t="s">
-        <v>8890</v>
+        <v>9670</v>
       </c>
       <c r="D138" t="s">
-        <v>9017</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>8616</v>
+        <v>9396</v>
       </c>
       <c r="B139" t="s">
-        <v>8799</v>
+        <v>9579</v>
       </c>
       <c r="C139" t="s">
-        <v>8891</v>
+        <v>9671</v>
       </c>
       <c r="D139" t="s">
-        <v>9018</v>
+        <v>9798</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>8617</v>
+        <v>9397</v>
       </c>
       <c r="B140" t="s">
-        <v>8800</v>
+        <v>9580</v>
       </c>
       <c r="C140" t="s">
-        <v>8892</v>
+        <v>9672</v>
       </c>
       <c r="D140" t="s">
-        <v>9019</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>8618</v>
+        <v>9398</v>
       </c>
       <c r="B141" t="s">
-        <v>8801</v>
+        <v>9581</v>
       </c>
       <c r="C141" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D141" t="s">
-        <v>9020</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>8619</v>
+        <v>9399</v>
       </c>
       <c r="B142" t="s">
-        <v>8802</v>
+        <v>9582</v>
       </c>
       <c r="C142" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D142" t="s">
-        <v>9021</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>8620</v>
+        <v>9400</v>
       </c>
       <c r="B143" t="s">
-        <v>8803</v>
+        <v>9583</v>
       </c>
       <c r="C143" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D143" t="s">
-        <v>9022</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>8621</v>
+        <v>9401</v>
       </c>
       <c r="B144" t="s">
-        <v>8804</v>
+        <v>9584</v>
       </c>
       <c r="C144" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D144" t="s">
-        <v>9023</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>8622</v>
+        <v>9402</v>
       </c>
       <c r="B145" t="s">
-        <v>8805</v>
+        <v>9585</v>
       </c>
       <c r="C145" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D145" t="s">
-        <v>9024</v>
+        <v>9804</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>8623</v>
+        <v>9403</v>
       </c>
       <c r="B146" t="s">
-        <v>8806</v>
+        <v>9586</v>
       </c>
       <c r="C146" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D146" t="s">
-        <v>9025</v>
+        <v>9805</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>8624</v>
+        <v>9404</v>
       </c>
       <c r="B147" t="s">
-        <v>8807</v>
+        <v>9587</v>
       </c>
       <c r="C147" t="s">
-        <v>8893</v>
+        <v>9673</v>
       </c>
       <c r="D147" t="s">
-        <v>9026</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>8625</v>
+        <v>9405</v>
       </c>
       <c r="B148" t="s">
-        <v>8808</v>
+        <v>9588</v>
       </c>
       <c r="C148" t="s">
-        <v>8894</v>
+        <v>9674</v>
       </c>
       <c r="D148" t="s">
-        <v>9027</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>8626</v>
+        <v>9406</v>
       </c>
       <c r="B149" t="s">
-        <v>8809</v>
+        <v>9589</v>
       </c>
       <c r="C149" t="s">
-        <v>8895</v>
+        <v>9675</v>
       </c>
       <c r="D149" t="s">
-        <v>9028</v>
+        <v>9808</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>8627</v>
+        <v>9407</v>
       </c>
       <c r="B150" t="s">
-        <v>8810</v>
+        <v>9590</v>
       </c>
       <c r="C150" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D150" t="s">
-        <v>9029</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>8628</v>
+        <v>9408</v>
       </c>
       <c r="B151" t="s">
-        <v>8811</v>
+        <v>9591</v>
       </c>
       <c r="C151" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D151" t="s">
-        <v>9030</v>
+        <v>9810</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>8629</v>
+        <v>9409</v>
       </c>
       <c r="B152" t="s">
-        <v>8812</v>
+        <v>9592</v>
       </c>
       <c r="C152" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D152" t="s">
-        <v>9031</v>
+        <v>9811</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>8630</v>
+        <v>9410</v>
       </c>
       <c r="B153" t="s">
-        <v>8813</v>
+        <v>9593</v>
       </c>
       <c r="C153" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D153" t="s">
-        <v>9032</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>8631</v>
+        <v>9411</v>
       </c>
       <c r="B154" t="s">
-        <v>8814</v>
+        <v>9594</v>
       </c>
       <c r="C154" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D154" t="s">
-        <v>9033</v>
+        <v>9813</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>8632</v>
+        <v>9412</v>
       </c>
       <c r="B155" t="s">
-        <v>8815</v>
+        <v>9595</v>
       </c>
       <c r="C155" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D155" t="s">
-        <v>9034</v>
+        <v>9814</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>8633</v>
+        <v>9413</v>
       </c>
       <c r="B156" t="s">
-        <v>8816</v>
+        <v>9596</v>
       </c>
       <c r="C156" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D156" t="s">
-        <v>9035</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>8634</v>
+        <v>9414</v>
       </c>
       <c r="B157" t="s">
-        <v>8817</v>
+        <v>9597</v>
       </c>
       <c r="C157" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D157" t="s">
-        <v>9036</v>
+        <v>9816</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>8635</v>
+        <v>9415</v>
       </c>
       <c r="B158" t="s">
-        <v>8818</v>
+        <v>9598</v>
       </c>
       <c r="C158" t="s">
-        <v>8896</v>
+        <v>9676</v>
       </c>
       <c r="D158" t="s">
-        <v>9037</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>8636</v>
+        <v>9416</v>
       </c>
       <c r="B159" t="s">
-        <v>8819</v>
+        <v>9599</v>
       </c>
       <c r="C159" t="s">
-        <v>8897</v>
+        <v>9677</v>
       </c>
       <c r="D159" t="s">
-        <v>9038</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>8637</v>
+        <v>9417</v>
       </c>
       <c r="B160" t="s">
-        <v>8820</v>
+        <v>9600</v>
       </c>
       <c r="C160" t="s">
-        <v>8897</v>
+        <v>9677</v>
       </c>
       <c r="D160" t="s">
-        <v>9039</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>8638</v>
+        <v>9418</v>
       </c>
       <c r="B161" t="s">
-        <v>8821</v>
+        <v>9601</v>
       </c>
       <c r="C161" t="s">
-        <v>8897</v>
+        <v>9677</v>
       </c>
       <c r="D161" t="s">
-        <v>9040</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>8639</v>
+        <v>9419</v>
       </c>
       <c r="B162" t="s">
-        <v>8822</v>
+        <v>9602</v>
       </c>
       <c r="C162" t="s">
-        <v>8897</v>
+        <v>9677</v>
       </c>
       <c r="D162" t="s">
-        <v>9041</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>8640</v>
+        <v>9420</v>
       </c>
       <c r="B163" t="s">
-        <v>8823</v>
+        <v>9603</v>
       </c>
       <c r="C163" t="s">
-        <v>8898</v>
+        <v>9678</v>
       </c>
       <c r="D163" t="s">
-        <v>9042</v>
+        <v>9822</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>8641</v>
+        <v>9421</v>
       </c>
       <c r="B164" t="s">
-        <v>8824</v>
+        <v>9604</v>
       </c>
       <c r="C164" t="s">
-        <v>8899</v>
+        <v>9679</v>
       </c>
       <c r="D164" t="s">
-        <v>9043</v>
+        <v>9823</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>8642</v>
+        <v>9422</v>
       </c>
       <c r="B165" t="s">
-        <v>8825</v>
+        <v>9605</v>
       </c>
       <c r="C165" t="s">
-        <v>8899</v>
+        <v>9679</v>
       </c>
       <c r="D165" t="s">
-        <v>9044</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>8643</v>
+        <v>9423</v>
       </c>
       <c r="B166" t="s">
-        <v>8826</v>
+        <v>9606</v>
       </c>
       <c r="C166" t="s">
-        <v>8899</v>
+        <v>9679</v>
       </c>
       <c r="D166" t="s">
-        <v>9045</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>8644</v>
+        <v>9424</v>
       </c>
       <c r="B167" t="s">
-        <v>8827</v>
+        <v>9607</v>
       </c>
       <c r="C167" t="s">
-        <v>8900</v>
+        <v>9680</v>
       </c>
       <c r="D167" t="s">
-        <v>9046</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>8645</v>
+        <v>9425</v>
       </c>
       <c r="B168" t="s">
-        <v>8828</v>
+        <v>9608</v>
       </c>
       <c r="C168" t="s">
-        <v>8901</v>
+        <v>9681</v>
       </c>
       <c r="D168" t="s">
-        <v>9047</v>
+        <v>9827</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>8646</v>
+        <v>9426</v>
       </c>
       <c r="B169" t="s">
-        <v>8829</v>
+        <v>9609</v>
       </c>
       <c r="C169" t="s">
-        <v>8901</v>
+        <v>9681</v>
       </c>
       <c r="D169" t="s">
-        <v>9048</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>8647</v>
+        <v>9427</v>
       </c>
       <c r="B170" t="s">
-        <v>8830</v>
+        <v>9610</v>
       </c>
       <c r="C170" t="s">
-        <v>8901</v>
+        <v>9681</v>
       </c>
       <c r="D170" t="s">
-        <v>9049</v>
+        <v>9829</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>8648</v>
+        <v>9428</v>
       </c>
       <c r="B171" t="s">
-        <v>8831</v>
+        <v>9611</v>
       </c>
       <c r="C171" t="s">
-        <v>8901</v>
+        <v>9681</v>
       </c>
       <c r="D171" t="s">
-        <v>9050</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>8649</v>
+        <v>9429</v>
       </c>
       <c r="B172" t="s">
-        <v>8832</v>
+        <v>9612</v>
       </c>
       <c r="C172" t="s">
-        <v>8902</v>
+        <v>9682</v>
       </c>
       <c r="D172" t="s">
-        <v>9051</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>8650</v>
+        <v>9430</v>
       </c>
       <c r="B173" t="s">
-        <v>8833</v>
+        <v>9613</v>
       </c>
       <c r="C173" t="s">
-        <v>8903</v>
+        <v>9683</v>
       </c>
       <c r="D173" t="s">
-        <v>9052</v>
+        <v>9832</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>8651</v>
+        <v>9431</v>
       </c>
       <c r="B174" t="s">
-        <v>8834</v>
+        <v>9614</v>
       </c>
       <c r="C174" t="s">
-        <v>8903</v>
+        <v>9683</v>
       </c>
       <c r="D174" t="s">
-        <v>9053</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>8652</v>
+        <v>9432</v>
       </c>
       <c r="B175" t="s">
-        <v>8835</v>
+        <v>9615</v>
       </c>
       <c r="C175" t="s">
-        <v>8903</v>
+        <v>9683</v>
       </c>
       <c r="D175" t="s">
-        <v>9054</v>
+        <v>9834</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>8653</v>
+        <v>9433</v>
       </c>
       <c r="B176" t="s">
-        <v>8836</v>
+        <v>9616</v>
       </c>
       <c r="C176" t="s">
-        <v>8904</v>
+        <v>9684</v>
       </c>
       <c r="D176" t="s">
-        <v>9055</v>
+        <v>9835</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>8654</v>
+        <v>9434</v>
       </c>
       <c r="B177" t="s">
-        <v>8837</v>
+        <v>9617</v>
       </c>
       <c r="C177" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D177" t="s">
-        <v>9056</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>8655</v>
+        <v>9435</v>
       </c>
       <c r="B178" t="s">
-        <v>8838</v>
+        <v>9618</v>
       </c>
       <c r="C178" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D178" t="s">
-        <v>9057</v>
+        <v>9837</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>8656</v>
+        <v>9436</v>
       </c>
       <c r="B179" t="s">
-        <v>8839</v>
+        <v>9619</v>
       </c>
       <c r="C179" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D179" t="s">
-        <v>9057</v>
+        <v>9837</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>8657</v>
+        <v>9437</v>
       </c>
       <c r="B180" t="s">
-        <v>8840</v>
+        <v>9620</v>
       </c>
       <c r="C180" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D180" t="s">
-        <v>9057</v>
+        <v>9837</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>8658</v>
+        <v>9438</v>
       </c>
       <c r="B181" t="s">
-        <v>8841</v>
+        <v>9621</v>
       </c>
       <c r="C181" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D181" t="s">
-        <v>9058</v>
+        <v>9838</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>8659</v>
+        <v>9439</v>
       </c>
       <c r="B182" t="s">
-        <v>8842</v>
+        <v>9622</v>
       </c>
       <c r="C182" t="s">
-        <v>8905</v>
+        <v>9685</v>
       </c>
       <c r="D182" t="s">
-        <v>9059</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8660</v>
+        <v>9440</v>
       </c>
       <c r="B183" t="s">
-        <v>8843</v>
+        <v>9623</v>
       </c>
       <c r="C183" t="s">
-        <v>8906</v>
+        <v>9686</v>
       </c>
       <c r="D183" t="s">
-        <v>9060</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>8661</v>
+        <v>9441</v>
       </c>
       <c r="B184" t="s">
-        <v>8844</v>
+        <v>9624</v>
       </c>
       <c r="C184" t="s">
-        <v>8907</v>
+        <v>9687</v>
       </c>
       <c r="D184" t="s">
-        <v>9061</v>
+        <v>9841</v>
       </c>
     </row>
   </sheetData>
@@ -30421,970 +32761,970 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9062</v>
+        <v>9842</v>
       </c>
       <c r="B1" t="s">
-        <v>9084</v>
+        <v>9864</v>
       </c>
       <c r="C1" t="s">
-        <v>9170</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9063</v>
+        <v>9843</v>
       </c>
       <c r="B2" t="s">
-        <v>9085</v>
+        <v>9865</v>
       </c>
       <c r="C2" t="s">
-        <v>9171</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9063</v>
+        <v>9843</v>
       </c>
       <c r="B3" t="s">
-        <v>9086</v>
+        <v>9866</v>
       </c>
       <c r="C3" t="s">
-        <v>9172</v>
+        <v>9952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9064</v>
+        <v>9844</v>
       </c>
       <c r="B4" t="s">
-        <v>9087</v>
+        <v>9867</v>
       </c>
       <c r="C4" t="s">
-        <v>9173</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9064</v>
+        <v>9844</v>
       </c>
       <c r="B5" t="s">
-        <v>9088</v>
+        <v>9868</v>
       </c>
       <c r="C5" t="s">
-        <v>9174</v>
+        <v>9954</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9064</v>
+        <v>9844</v>
       </c>
       <c r="B6" t="s">
-        <v>9089</v>
+        <v>9869</v>
       </c>
       <c r="C6" t="s">
-        <v>9175</v>
+        <v>9955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9065</v>
+        <v>9845</v>
       </c>
       <c r="B7" t="s">
-        <v>9090</v>
+        <v>9870</v>
       </c>
       <c r="C7" t="s">
-        <v>9176</v>
+        <v>9956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9065</v>
+        <v>9845</v>
       </c>
       <c r="B8" t="s">
-        <v>9091</v>
+        <v>9871</v>
       </c>
       <c r="C8" t="s">
-        <v>9177</v>
+        <v>9957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9065</v>
+        <v>9845</v>
       </c>
       <c r="B9" t="s">
-        <v>9092</v>
+        <v>9872</v>
       </c>
       <c r="C9" t="s">
-        <v>9178</v>
+        <v>9958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9065</v>
+        <v>9845</v>
       </c>
       <c r="B10" t="s">
-        <v>9093</v>
+        <v>9873</v>
       </c>
       <c r="C10" t="s">
-        <v>9179</v>
+        <v>9959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9066</v>
+        <v>9846</v>
       </c>
       <c r="B11" t="s">
-        <v>9094</v>
+        <v>9874</v>
       </c>
       <c r="C11" t="s">
-        <v>9180</v>
+        <v>9960</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9066</v>
+        <v>9846</v>
       </c>
       <c r="B12" t="s">
-        <v>9095</v>
+        <v>9875</v>
       </c>
       <c r="C12" t="s">
-        <v>9181</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9066</v>
+        <v>9846</v>
       </c>
       <c r="B13" t="s">
-        <v>9096</v>
+        <v>9876</v>
       </c>
       <c r="C13" t="s">
-        <v>9182</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9067</v>
+        <v>9847</v>
       </c>
       <c r="B14" t="s">
-        <v>9097</v>
+        <v>9877</v>
       </c>
       <c r="C14" t="s">
-        <v>9183</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9067</v>
+        <v>9847</v>
       </c>
       <c r="B15" t="s">
-        <v>9098</v>
+        <v>9878</v>
       </c>
       <c r="C15" t="s">
-        <v>9184</v>
+        <v>9964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9067</v>
+        <v>9847</v>
       </c>
       <c r="B16" t="s">
-        <v>9099</v>
+        <v>9879</v>
       </c>
       <c r="C16" t="s">
-        <v>9185</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B17" t="s">
-        <v>9100</v>
+        <v>9880</v>
       </c>
       <c r="C17" t="s">
-        <v>9186</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B18" t="s">
-        <v>9101</v>
+        <v>9881</v>
       </c>
       <c r="C18" t="s">
-        <v>9187</v>
+        <v>9967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B19" t="s">
-        <v>9102</v>
+        <v>9882</v>
       </c>
       <c r="C19" t="s">
-        <v>9188</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B20" t="s">
-        <v>9103</v>
+        <v>9883</v>
       </c>
       <c r="C20" t="s">
-        <v>9189</v>
+        <v>9969</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B21" t="s">
-        <v>9104</v>
+        <v>9884</v>
       </c>
       <c r="C21" t="s">
-        <v>9190</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9068</v>
+        <v>9848</v>
       </c>
       <c r="B22" t="s">
-        <v>9105</v>
+        <v>9885</v>
       </c>
       <c r="C22" t="s">
-        <v>9191</v>
+        <v>9971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9069</v>
+        <v>9849</v>
       </c>
       <c r="B23" t="s">
-        <v>9106</v>
+        <v>9886</v>
       </c>
       <c r="C23" t="s">
-        <v>9192</v>
+        <v>9972</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9069</v>
+        <v>9849</v>
       </c>
       <c r="B24" t="s">
-        <v>9107</v>
+        <v>9887</v>
       </c>
       <c r="C24" t="s">
-        <v>9193</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9070</v>
+        <v>9850</v>
       </c>
       <c r="B25" t="s">
-        <v>9108</v>
+        <v>9888</v>
       </c>
       <c r="C25" t="s">
-        <v>9194</v>
+        <v>9974</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9070</v>
+        <v>9850</v>
       </c>
       <c r="B26" t="s">
-        <v>9109</v>
+        <v>9889</v>
       </c>
       <c r="C26" t="s">
-        <v>9195</v>
+        <v>9975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9071</v>
+        <v>9851</v>
       </c>
       <c r="B27" t="s">
-        <v>9109</v>
+        <v>9889</v>
       </c>
       <c r="C27" t="s">
-        <v>9196</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9071</v>
+        <v>9851</v>
       </c>
       <c r="B28" t="s">
-        <v>9110</v>
+        <v>9890</v>
       </c>
       <c r="C28" t="s">
-        <v>9197</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9071</v>
+        <v>9851</v>
       </c>
       <c r="B29" t="s">
-        <v>9111</v>
+        <v>9891</v>
       </c>
       <c r="C29" t="s">
-        <v>9198</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9071</v>
+        <v>9851</v>
       </c>
       <c r="B30" t="s">
-        <v>9112</v>
+        <v>9892</v>
       </c>
       <c r="C30" t="s">
-        <v>9199</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9071</v>
+        <v>9851</v>
       </c>
       <c r="B31" t="s">
-        <v>9113</v>
+        <v>9893</v>
       </c>
       <c r="C31" t="s">
-        <v>9200</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B32" t="s">
-        <v>9114</v>
+        <v>9894</v>
       </c>
       <c r="C32" t="s">
-        <v>9201</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B33" t="s">
-        <v>9115</v>
+        <v>9895</v>
       </c>
       <c r="C33" t="s">
-        <v>9202</v>
+        <v>9982</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B34" t="s">
-        <v>9116</v>
+        <v>9896</v>
       </c>
       <c r="C34" t="s">
-        <v>9203</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B35" t="s">
-        <v>9117</v>
+        <v>9897</v>
       </c>
       <c r="C35" t="s">
-        <v>9204</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B36" t="s">
-        <v>9118</v>
+        <v>9898</v>
       </c>
       <c r="C36" t="s">
-        <v>9205</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B37" t="s">
-        <v>9119</v>
+        <v>9899</v>
       </c>
       <c r="C37" t="s">
-        <v>9206</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B38" t="s">
-        <v>9120</v>
+        <v>9900</v>
       </c>
       <c r="C38" t="s">
-        <v>9207</v>
+        <v>9987</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B39" t="s">
-        <v>9121</v>
+        <v>9901</v>
       </c>
       <c r="C39" t="s">
-        <v>9208</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B40" t="s">
-        <v>9122</v>
+        <v>9902</v>
       </c>
       <c r="C40" t="s">
-        <v>9209</v>
+        <v>9989</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B41" t="s">
-        <v>9123</v>
+        <v>9903</v>
       </c>
       <c r="C41" t="s">
-        <v>9210</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B42" t="s">
-        <v>9124</v>
+        <v>9904</v>
       </c>
       <c r="C42" t="s">
-        <v>9211</v>
+        <v>9991</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B43" t="s">
-        <v>9125</v>
+        <v>9905</v>
       </c>
       <c r="C43" t="s">
-        <v>9212</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B44" t="s">
-        <v>9126</v>
+        <v>9906</v>
       </c>
       <c r="C44" t="s">
-        <v>9213</v>
+        <v>9993</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B45" t="s">
-        <v>9127</v>
+        <v>9907</v>
       </c>
       <c r="C45" t="s">
-        <v>9214</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9072</v>
+        <v>9852</v>
       </c>
       <c r="B46" t="s">
-        <v>9128</v>
+        <v>9908</v>
       </c>
       <c r="C46" t="s">
-        <v>9215</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9073</v>
+        <v>9853</v>
       </c>
       <c r="B47" t="s">
-        <v>9129</v>
+        <v>9909</v>
       </c>
       <c r="C47" t="s">
-        <v>9216</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9073</v>
+        <v>9853</v>
       </c>
       <c r="B48" t="s">
-        <v>9130</v>
+        <v>9910</v>
       </c>
       <c r="C48" t="s">
-        <v>9217</v>
+        <v>9997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9074</v>
+        <v>9854</v>
       </c>
       <c r="B49" t="s">
-        <v>9130</v>
+        <v>9910</v>
       </c>
       <c r="C49" t="s">
-        <v>9218</v>
+        <v>9998</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9074</v>
+        <v>9854</v>
       </c>
       <c r="B50" t="s">
-        <v>9131</v>
+        <v>9911</v>
       </c>
       <c r="C50" t="s">
-        <v>9219</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9074</v>
+        <v>9854</v>
       </c>
       <c r="B51" t="s">
-        <v>9132</v>
+        <v>9912</v>
       </c>
       <c r="C51" t="s">
-        <v>9220</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B52" t="s">
-        <v>9133</v>
+        <v>9913</v>
       </c>
       <c r="C52" t="s">
-        <v>9221</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B53" t="s">
-        <v>9134</v>
+        <v>9914</v>
       </c>
       <c r="C53" t="s">
-        <v>9222</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B54" t="s">
-        <v>9135</v>
+        <v>9915</v>
       </c>
       <c r="C54" t="s">
-        <v>9223</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B55" t="s">
-        <v>9136</v>
+        <v>9916</v>
       </c>
       <c r="C55" t="s">
-        <v>9224</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B56" t="s">
-        <v>9137</v>
+        <v>9917</v>
       </c>
       <c r="C56" t="s">
-        <v>9225</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B57" t="s">
-        <v>9138</v>
+        <v>9918</v>
       </c>
       <c r="C57" t="s">
-        <v>9226</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B58" t="s">
-        <v>9139</v>
+        <v>9919</v>
       </c>
       <c r="C58" t="s">
-        <v>9227</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B59" t="s">
-        <v>9140</v>
+        <v>9920</v>
       </c>
       <c r="C59" t="s">
-        <v>9228</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B60" t="s">
-        <v>9141</v>
+        <v>9921</v>
       </c>
       <c r="C60" t="s">
-        <v>9229</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B61" t="s">
-        <v>9142</v>
+        <v>9922</v>
       </c>
       <c r="C61" t="s">
-        <v>9230</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B62" t="s">
-        <v>9143</v>
+        <v>9923</v>
       </c>
       <c r="C62" t="s">
-        <v>9231</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B63" t="s">
-        <v>9144</v>
+        <v>9924</v>
       </c>
       <c r="C63" t="s">
-        <v>9232</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B64" t="s">
-        <v>9145</v>
+        <v>9925</v>
       </c>
       <c r="C64" t="s">
-        <v>9233</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B65" t="s">
-        <v>9146</v>
+        <v>9926</v>
       </c>
       <c r="C65" t="s">
-        <v>9234</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B66" t="s">
-        <v>9147</v>
+        <v>9927</v>
       </c>
       <c r="C66" t="s">
-        <v>9235</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9075</v>
+        <v>9855</v>
       </c>
       <c r="B67" t="s">
-        <v>9148</v>
+        <v>9928</v>
       </c>
       <c r="C67" t="s">
-        <v>9236</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9076</v>
+        <v>9856</v>
       </c>
       <c r="B68" t="s">
-        <v>9149</v>
+        <v>9929</v>
       </c>
       <c r="C68" t="s">
-        <v>9237</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9076</v>
+        <v>9856</v>
       </c>
       <c r="B69" t="s">
-        <v>9150</v>
+        <v>9930</v>
       </c>
       <c r="C69" t="s">
-        <v>9238</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9077</v>
+        <v>9857</v>
       </c>
       <c r="B70" t="s">
-        <v>9151</v>
+        <v>9931</v>
       </c>
       <c r="C70" t="s">
-        <v>9239</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9077</v>
+        <v>9857</v>
       </c>
       <c r="B71" t="s">
-        <v>9152</v>
+        <v>9932</v>
       </c>
       <c r="C71" t="s">
-        <v>9240</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9078</v>
+        <v>9858</v>
       </c>
       <c r="B72" t="s">
-        <v>9153</v>
+        <v>9933</v>
       </c>
       <c r="C72" t="s">
-        <v>9241</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9078</v>
+        <v>9858</v>
       </c>
       <c r="B73" t="s">
-        <v>9154</v>
+        <v>9934</v>
       </c>
       <c r="C73" t="s">
-        <v>9242</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9079</v>
+        <v>9859</v>
       </c>
       <c r="B74" t="s">
-        <v>9155</v>
+        <v>9935</v>
       </c>
       <c r="C74" t="s">
-        <v>9243</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9079</v>
+        <v>9859</v>
       </c>
       <c r="B75" t="s">
-        <v>9156</v>
+        <v>9936</v>
       </c>
       <c r="C75" t="s">
-        <v>9244</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9080</v>
+        <v>9860</v>
       </c>
       <c r="B76" t="s">
-        <v>9157</v>
+        <v>9937</v>
       </c>
       <c r="C76" t="s">
-        <v>9245</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9080</v>
+        <v>9860</v>
       </c>
       <c r="B77" t="s">
-        <v>9158</v>
+        <v>9938</v>
       </c>
       <c r="C77" t="s">
-        <v>9246</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9080</v>
+        <v>9860</v>
       </c>
       <c r="B78" t="s">
-        <v>9159</v>
+        <v>9939</v>
       </c>
       <c r="C78" t="s">
-        <v>9247</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9081</v>
+        <v>9861</v>
       </c>
       <c r="B79" t="s">
-        <v>9160</v>
+        <v>9940</v>
       </c>
       <c r="C79" t="s">
-        <v>9248</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9081</v>
+        <v>9861</v>
       </c>
       <c r="B80" t="s">
-        <v>9161</v>
+        <v>9941</v>
       </c>
       <c r="C80" t="s">
-        <v>9249</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9082</v>
+        <v>9862</v>
       </c>
       <c r="B81" t="s">
-        <v>9162</v>
+        <v>9942</v>
       </c>
       <c r="C81" t="s">
-        <v>9250</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9082</v>
+        <v>9862</v>
       </c>
       <c r="B82" t="s">
-        <v>9163</v>
+        <v>9943</v>
       </c>
       <c r="C82" t="s">
-        <v>9251</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9082</v>
+        <v>9862</v>
       </c>
       <c r="B83" t="s">
-        <v>9164</v>
+        <v>9944</v>
       </c>
       <c r="C83" t="s">
-        <v>9252</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9082</v>
+        <v>9862</v>
       </c>
       <c r="B84" t="s">
-        <v>9165</v>
+        <v>9945</v>
       </c>
       <c r="C84" t="s">
-        <v>9253</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9082</v>
+        <v>9862</v>
       </c>
       <c r="B85" t="s">
-        <v>9166</v>
+        <v>9946</v>
       </c>
       <c r="C85" t="s">
-        <v>9254</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9083</v>
+        <v>9863</v>
       </c>
       <c r="B86" t="s">
-        <v>9167</v>
+        <v>9947</v>
       </c>
       <c r="C86" t="s">
-        <v>9255</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>9083</v>
+        <v>9863</v>
       </c>
       <c r="B87" t="s">
-        <v>9168</v>
+        <v>9948</v>
       </c>
       <c r="C87" t="s">
-        <v>9256</v>
+        <v>10036</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9083</v>
+        <v>9863</v>
       </c>
       <c r="B88" t="s">
-        <v>9169</v>
+        <v>9949</v>
       </c>
       <c r="C88" t="s">
-        <v>9257</v>
+        <v>10037</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis_all.xlsx
+++ b/data/analysis_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14091" uniqueCount="10038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15203" uniqueCount="10854">
   <si>
     <t>name</t>
   </si>
@@ -29396,6 +29396,2454 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>vill_facil_destroyed_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>village_code_l</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Age 8</t>
+  </si>
+  <si>
+    <t>Age 9-14</t>
+  </si>
+  <si>
+    <t>Age 15+</t>
+  </si>
+  <si>
+    <t>During the Earthquake</t>
+  </si>
+  <si>
+    <t>Between the Earthquake and August 2007</t>
+  </si>
+  <si>
+    <t>Between August 2007 and the present</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Temporarily Away</t>
+  </si>
+  <si>
+    <t>No Longer in HH</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>No Reason Given</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Delayed admission due to earthquake</t>
+  </si>
+  <si>
+    <t>Never enrolled</t>
+  </si>
+  <si>
+    <t>Stayed out of school for a while</t>
+  </si>
+  <si>
+    <t>No disruption</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Livestock Rearing</t>
+  </si>
+  <si>
+    <t>Salaried Job</t>
+  </si>
+  <si>
+    <t>Currently not working</t>
+  </si>
+  <si>
+    <t>Enrolled in school/Madrassa</t>
+  </si>
+  <si>
+    <t>Self Employed/Trader</t>
+  </si>
+  <si>
+    <t>Employed skilled Laborer</t>
+  </si>
+  <si>
+    <t>Employed Unskilled Laborer</t>
+  </si>
+  <si>
+    <t>Too young to work</t>
+  </si>
+  <si>
+    <t>Housewife/Housekeeping</t>
+  </si>
+  <si>
+    <t>Too old to work</t>
+  </si>
+  <si>
+    <t>Enrolled full time in College</t>
+  </si>
+  <si>
+    <t>Govt school teacher</t>
+  </si>
+  <si>
+    <t>Private school teacher</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No, but alive</t>
+  </si>
+  <si>
+    <t>No, dead</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Own child</t>
+  </si>
+  <si>
+    <t>Grand child</t>
+  </si>
+  <si>
+    <t>Adopted child</t>
+  </si>
+  <si>
+    <t>Brother/Sister</t>
+  </si>
+  <si>
+    <t>Nephew/Niece</t>
+  </si>
+  <si>
+    <t>Brother/Sister-in-law</t>
+  </si>
+  <si>
+    <t>Son/Daughter-in-law</t>
+  </si>
+  <si>
+    <t>Uncle/Aunt</t>
+  </si>
+  <si>
+    <t>Mother/Father</t>
+  </si>
+  <si>
+    <t>Mother/Father-in-law</t>
+  </si>
+  <si>
+    <t>Other relative</t>
+  </si>
+  <si>
+    <t>Servant</t>
+  </si>
+  <si>
+    <t>Not Related</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-Permament</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Non-permanent Housing</t>
+  </si>
+  <si>
+    <t>Permanent Housing</t>
+  </si>
+  <si>
+    <t>No Females 19-35</t>
+  </si>
+  <si>
+    <t>Any Female 19-35 w/ Primary School</t>
+  </si>
+  <si>
+    <t>All Females 19-35 w/o Primary School</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Neelum</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>memid</t>
+  </si>
+  <si>
+    <t>c_death_quake</t>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t>hh_aid_total</t>
+  </si>
+  <si>
+    <t>hh_assets_1_post</t>
+  </si>
+  <si>
+    <t>hh_assets_1_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_2_post</t>
+  </si>
+  <si>
+    <t>hh_assets_2_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_3_post</t>
+  </si>
+  <si>
+    <t>hh_assets_3_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_4_post</t>
+  </si>
+  <si>
+    <t>hh_assets_4_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_5_post</t>
+  </si>
+  <si>
+    <t>hh_assets_5_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_6_post</t>
+  </si>
+  <si>
+    <t>hh_assets_6_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_7_post</t>
+  </si>
+  <si>
+    <t>hh_assets_7_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_8_post</t>
+  </si>
+  <si>
+    <t>hh_assets_8_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_9_post</t>
+  </si>
+  <si>
+    <t>hh_assets_9_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_10_post</t>
+  </si>
+  <si>
+    <t>hh_assets_10_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_11_post</t>
+  </si>
+  <si>
+    <t>hh_assets_11_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_12_post</t>
+  </si>
+  <si>
+    <t>hh_assets_12_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_13_post</t>
+  </si>
+  <si>
+    <t>hh_assets_13_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_14_post</t>
+  </si>
+  <si>
+    <t>hh_assets_14_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_15_post</t>
+  </si>
+  <si>
+    <t>hh_assets_15_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_16_post</t>
+  </si>
+  <si>
+    <t>hh_assets_16_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_17_post</t>
+  </si>
+  <si>
+    <t>hh_assets_17_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_18_post</t>
+  </si>
+  <si>
+    <t>hh_assets_18_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_19_post</t>
+  </si>
+  <si>
+    <t>hh_assets_19_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_20_post</t>
+  </si>
+  <si>
+    <t>hh_assets_20_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_21_post</t>
+  </si>
+  <si>
+    <t>hh_assets_21_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_22_post</t>
+  </si>
+  <si>
+    <t>hh_assets_22_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_23_post</t>
+  </si>
+  <si>
+    <t>hh_assets_23_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_24_post</t>
+  </si>
+  <si>
+    <t>hh_assets_24_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_post</t>
+  </si>
+  <si>
+    <t>hh_assets_pca_pre</t>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t>hh_assets_upper_faultdist</t>
+  </si>
+  <si>
+    <t>hh_consumption_food</t>
+  </si>
+  <si>
+    <t>hh_consumption_nonfood</t>
+  </si>
+  <si>
+    <t>hh_dad_edu</t>
+  </si>
+  <si>
+    <t>hh_dead</t>
+  </si>
+  <si>
+    <t>hh_death_eligible</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_1</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_2</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_4</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_5</t>
+  </si>
+  <si>
+    <t>hh_distance_pre_6</t>
+  </si>
+  <si>
+    <t>hh_district</t>
+  </si>
+  <si>
+    <t>hh_district_1</t>
+  </si>
+  <si>
+    <t>hh_district_2</t>
+  </si>
+  <si>
+    <t>hh_district_3</t>
+  </si>
+  <si>
+    <t>hh_district_4</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist</t>
+  </si>
+  <si>
+    <t>hh_familysize</t>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t>hh_fault_minimum</t>
+  </si>
+  <si>
+    <t>hh_faultdist</t>
+  </si>
+  <si>
+    <t>hh_housing_amount</t>
+  </si>
+  <si>
+    <t>hh_housing_eligible</t>
+  </si>
+  <si>
+    <t>hh_housing_mSec16_q1_trench1</t>
+  </si>
+  <si>
+    <t>hh_infra_index_post</t>
+  </si>
+  <si>
+    <t>hh_injury_eligible</t>
+  </si>
+  <si>
+    <t>hh_intensity</t>
+  </si>
+  <si>
+    <t>hh_lcgs_eligible</t>
+  </si>
+  <si>
+    <t>hh_logcons</t>
+  </si>
+  <si>
+    <t>hh_logconscap</t>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t>hh_near_quake</t>
+  </si>
+  <si>
+    <t>hh_perm_house_post</t>
+  </si>
+  <si>
+    <t>hh_perm_house_pre</t>
+  </si>
+  <si>
+    <t>hh_slope</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_post</t>
+  </si>
+  <si>
+    <t>hh_stats_electricity_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_govtschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_logdistrict_post</t>
+  </si>
+  <si>
+    <t>hh_stats_loggschool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmarket_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logmedical_post</t>
+  </si>
+  <si>
+    <t>hh_stats_logprischool_post</t>
+  </si>
+  <si>
+    <t>hh_stats_market_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_medical_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t>hh_stats_privateschool_pre</t>
+  </si>
+  <si>
+    <t>hh_stats_water_dist_pre</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_post</t>
+  </si>
+  <si>
+    <t>hh_water_inhouse_pre</t>
+  </si>
+  <si>
+    <t>i_instrument_faultdist</t>
+  </si>
+  <si>
+    <t>indiv_age</t>
+  </si>
+  <si>
+    <t>indiv_childage</t>
+  </si>
+  <si>
+    <t>indiv_childage_pre</t>
+  </si>
+  <si>
+    <t>indiv_dead</t>
+  </si>
+  <si>
+    <t>indiv_dead_quake</t>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_f</t>
+  </si>
+  <si>
+    <t>indiv_edu_primary_m</t>
+  </si>
+  <si>
+    <t>indiv_education_level</t>
+  </si>
+  <si>
+    <t>indiv_father_age</t>
+  </si>
+  <si>
+    <t>indiv_father_edu</t>
+  </si>
+  <si>
+    <t>indiv_father_height</t>
+  </si>
+  <si>
+    <t>indiv_female_age</t>
+  </si>
+  <si>
+    <t>indiv_female_height</t>
+  </si>
+  <si>
+    <t>indiv_head_relation</t>
+  </si>
+  <si>
+    <t>indiv_health_height</t>
+  </si>
+  <si>
+    <t>indiv_health_weight</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_height</t>
+  </si>
+  <si>
+    <t>indiv_health_zanthro_weight</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_post</t>
+  </si>
+  <si>
+    <t>indiv_in_hh_pre</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t>indiv_male_age</t>
+  </si>
+  <si>
+    <t>indiv_male_height</t>
+  </si>
+  <si>
+    <t>indiv_measured</t>
+  </si>
+  <si>
+    <t>indiv_mother_id</t>
+  </si>
+  <si>
+    <t>indiv_movein</t>
+  </si>
+  <si>
+    <t>indiv_moveout</t>
+  </si>
+  <si>
+    <t>indiv_near_quake</t>
+  </si>
+  <si>
+    <t>indiv_occupation</t>
+  </si>
+  <si>
+    <t>indiv_school_disruption</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_enrolled_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post_t</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre_t</t>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>indiv_tested</t>
+  </si>
+  <si>
+    <t>indiv_theta_mean</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_eng</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_mth</t>
+  </si>
+  <si>
+    <t>indiv_theta_pv_urd</t>
+  </si>
+  <si>
+    <t>indiv_time_of_death</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>m_age</t>
+  </si>
+  <si>
+    <t>m_birthvil</t>
+  </si>
+  <si>
+    <t>m_edu_fault</t>
+  </si>
+  <si>
+    <t>m_eligible_2</t>
+  </si>
+  <si>
+    <t>m_eligible_3</t>
+  </si>
+  <si>
+    <t>m_eligible_4</t>
+  </si>
+  <si>
+    <t>m_heightmiss</t>
+  </si>
+  <si>
+    <t>m_indiv_age</t>
+  </si>
+  <si>
+    <t>m_indiv_edu_binary</t>
+  </si>
+  <si>
+    <t>m_indiv_education_level</t>
+  </si>
+  <si>
+    <t>m_indiv_health_height</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil_logpop</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_false8</t>
+  </si>
+  <si>
+    <t>m_indiv_sb8</t>
+  </si>
+  <si>
+    <t>m_mentalhealth_binary</t>
+  </si>
+  <si>
+    <t>m_missing</t>
+  </si>
+  <si>
+    <t>tag_hh</t>
+  </si>
+  <si>
+    <t>tag_uc</t>
+  </si>
+  <si>
+    <t>tag_village</t>
+  </si>
+  <si>
+    <t>theta_high</t>
+  </si>
+  <si>
+    <t>touse_shock</t>
+  </si>
+  <si>
+    <t>vil_edu_primary</t>
+  </si>
+  <si>
+    <t>vil_facil_destroyed</t>
+  </si>
+  <si>
+    <t>vil_fem_secondary</t>
+  </si>
+  <si>
+    <t>vil_infra</t>
+  </si>
+  <si>
+    <t>vil_schooluse</t>
+  </si>
+  <si>
+    <t>vil_t39v3</t>
+  </si>
+  <si>
+    <t>vil_t39v4</t>
+  </si>
+  <si>
+    <t>vil_t39v5</t>
+  </si>
+  <si>
+    <t>vil_t39v6</t>
+  </si>
+  <si>
+    <t>vil_t39v11</t>
+  </si>
+  <si>
+    <t>vil_t39v18</t>
+  </si>
+  <si>
+    <t>vil_t39v21</t>
+  </si>
+  <si>
+    <t>vil_t39v22</t>
+  </si>
+  <si>
+    <t>vil_t39v23</t>
+  </si>
+  <si>
+    <t>vil_uc_dfl_mean</t>
+  </si>
+  <si>
+    <t>vil_uc_dist_epi</t>
+  </si>
+  <si>
+    <t>vil_uc_slope_mean</t>
+  </si>
+  <si>
+    <t>village_code</t>
+  </si>
+  <si>
+    <t>indiv_agecat</t>
+  </si>
+  <si>
+    <t>indiv_agecat_1</t>
+  </si>
+  <si>
+    <t>indiv_agecat_2</t>
+  </si>
+  <si>
+    <t>indiv_agecat_3</t>
+  </si>
+  <si>
+    <t>hh_head_female</t>
+  </si>
+  <si>
+    <t>hh_n_children_u6</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthvil</t>
+  </si>
+  <si>
+    <t>m_indiv_momedu_birthteh</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Respondent ID</t>
+  </si>
+  <si>
+    <t>Death in HH During Quake</t>
+  </si>
+  <si>
+    <t>Home Damaged or Destroyed</t>
+  </si>
+  <si>
+    <t>Home Destroyed</t>
+  </si>
+  <si>
+    <t>Aid</t>
+  </si>
+  <si>
+    <t>Cash Aid</t>
+  </si>
+  <si>
+    <t>Medical Aid</t>
+  </si>
+  <si>
+    <t>Shelter Aid</t>
+  </si>
+  <si>
+    <t>Food Aid</t>
+  </si>
+  <si>
+    <t>Supplies Aid</t>
+  </si>
+  <si>
+    <t>Organizational Aid</t>
+  </si>
+  <si>
+    <t>Total Reported Aid Compensation</t>
+  </si>
+  <si>
+    <t>Beds/Charpais</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Fans (Ceiling/Table/Pedestal/Exhaust)</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Radio/Cassette recorder/CD Player</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>VCR/VCD</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Plough</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Tube well/Hand pump</t>
+  </si>
+  <si>
+    <t>Other Agricultural Machinery</t>
+  </si>
+  <si>
+    <t>Other Agricultural Hand-Tools/Saw</t>
+  </si>
+  <si>
+    <t>Motorcycle/Scooter</t>
+  </si>
+  <si>
+    <t>Car/Taxi/Vehicle</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Goats</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Asset Index (PCA) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Above Median Assets</t>
+  </si>
+  <si>
+    <t>Distance * Above Median Assets</t>
+  </si>
+  <si>
+    <t>Total Annual Food Expenditure</t>
+  </si>
+  <si>
+    <t>Total Annual Nonfood Expenditure</t>
+  </si>
+  <si>
+    <t>Male 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t>Number Dead in Earthquake</t>
+  </si>
+  <si>
+    <t>Eligible for death compensation?</t>
+  </si>
+  <si>
+    <t>Distance to Water (km)</t>
+  </si>
+  <si>
+    <t>Distance to Health Clinic (km)</t>
+  </si>
+  <si>
+    <t>Distance to Boys School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Girls School (km)</t>
+  </si>
+  <si>
+    <t>Distance to Private School (km)</t>
+  </si>
+  <si>
+    <t>District Code</t>
+  </si>
+  <si>
+    <t>Abbotabad</t>
+  </si>
+  <si>
+    <t>Bagh</t>
+  </si>
+  <si>
+    <t>Mansehra</t>
+  </si>
+  <si>
+    <t>Muzaffarabad</t>
+  </si>
+  <si>
+    <t>Above Median Elevation</t>
+  </si>
+  <si>
+    <t>Distance to Epicenter (km)</t>
+  </si>
+  <si>
+    <t>Family Size</t>
+  </si>
+  <si>
+    <t>Far From Fault</t>
+  </si>
+  <si>
+    <t>Closest Faultline (km)</t>
+  </si>
+  <si>
+    <t>Distance to Fault (km)</t>
+  </si>
+  <si>
+    <t>Amount received from housing compensation</t>
+  </si>
+  <si>
+    <t>Eligible for housing compensation?</t>
+  </si>
+  <si>
+    <t>Did any member receive 1st trench of 25,000 rupee grant immediately following EQ</t>
+  </si>
+  <si>
+    <t>Household Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Eligible for injury compensation?</t>
+  </si>
+  <si>
+    <t>Earthquake Intensity USGS</t>
+  </si>
+  <si>
+    <t>Eligible for lcgs compensation?</t>
+  </si>
+  <si>
+    <t>Log Household Consumption Rs/yr</t>
+  </si>
+  <si>
+    <t>(log) Consumption per Capita</t>
+  </si>
+  <si>
+    <t>Female 19-35 Completed Primary School</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Permanent House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>House Destroyed in Quake?</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Electricity in House? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Gov't School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest District Headquarters (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log Dist to Gov't School (min)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Market (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Medical Facility (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Log(Dist to Nearest Private School (min)) (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Market (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Medical Facility (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Permanent House, (Post-Quake)?</t>
+  </si>
+  <si>
+    <t>Dist to Nearest Private School (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Distance to Water (min) (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Water In House (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Instrument * Distance</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age if Child (0-18)</t>
+  </si>
+  <si>
+    <t>Age Before Quake (Children Only)</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Died During Earthquake</t>
+  </si>
+  <si>
+    <t>Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Primary Education (Female)</t>
+  </si>
+  <si>
+    <t>Primary Education (Male)</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Father Completed Primary School?</t>
+  </si>
+  <si>
+    <t>Father's Height (cm)</t>
+  </si>
+  <si>
+    <t>Adult Female Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Female Height (Pre)</t>
+  </si>
+  <si>
+    <t>What is name's relationship to the Household head?</t>
+  </si>
+  <si>
+    <t>Name's height (in cm)?</t>
+  </si>
+  <si>
+    <t>Name's weight (in kg)?</t>
+  </si>
+  <si>
+    <t>Height-for-age z-score</t>
+  </si>
+  <si>
+    <t>Weight-for-age z-score</t>
+  </si>
+  <si>
+    <t>Living in Household (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Living in Household (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Adult Male Age (Pre)</t>
+  </si>
+  <si>
+    <t>Adult Male Height (Pre)</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Migrated In</t>
+  </si>
+  <si>
+    <t>Migrated Out</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>What is Name's primary occupation?</t>
+  </si>
+  <si>
+    <t>As a result of the earthquake, was there any disruption to Name's education?</t>
+  </si>
+  <si>
+    <t>Enrolled? (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled? (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Enrolled (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Post-Quake)</t>
+  </si>
+  <si>
+    <t>Private School Binary (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>Private School (Pre-Quake)</t>
+  </si>
+  <si>
+    <t>RECODE of indiv_why_not_tested (Why was Name not tested?)</t>
+  </si>
+  <si>
+    <t>Was Name tested today?</t>
+  </si>
+  <si>
+    <t>Mean IRT Test Score</t>
+  </si>
+  <si>
+    <t>English Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Math Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Urdu Test, IRT plausible value of theta, not attempted assumed wrong</t>
+  </si>
+  <si>
+    <t>Time of Death</t>
+  </si>
+  <si>
+    <t>Girls' School Present by Age 8?</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother's Birth Village</t>
+  </si>
+  <si>
+    <t>Mother's Education * Distance</t>
+  </si>
+  <si>
+    <t>Girls' school present by age 9</t>
+  </si>
+  <si>
+    <t>Girls' school present at age 10-14</t>
+  </si>
+  <si>
+    <t>Girls' school present after age 14</t>
+  </si>
+  <si>
+    <t>Mother Height Missing</t>
+  </si>
+  <si>
+    <t>Mother's Age</t>
+  </si>
+  <si>
+    <t>Mother Completed Primary School</t>
+  </si>
+  <si>
+    <t>Highest Formal Education</t>
+  </si>
+  <si>
+    <t>Mother's Height (cm)</t>
+  </si>
+  <si>
+    <t>Log Maternal Birth Village Population</t>
+  </si>
+  <si>
+    <t>Maternal School Availablility Age</t>
+  </si>
+  <si>
+    <t>Boys' school present by age 8</t>
+  </si>
+  <si>
+    <t>Mother Above Median Mental Health</t>
+  </si>
+  <si>
+    <t>Missing Mother</t>
+  </si>
+  <si>
+    <t>tag(censusid)</t>
+  </si>
+  <si>
+    <t>Union Council Tag</t>
+  </si>
+  <si>
+    <t>Village Tag</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Indicator For Shock Analysis (Survey)</t>
+  </si>
+  <si>
+    <t>Proprtion Primary Education</t>
+  </si>
+  <si>
+    <t>Pct Facilities Destroyed in Village</t>
+  </si>
+  <si>
+    <t>% Females Secondary Edu</t>
+  </si>
+  <si>
+    <t>Village Infrastructure Index</t>
+  </si>
+  <si>
+    <t>Village Without School Choice</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Literacy Rate</t>
+  </si>
+  <si>
+    <t>Muslims</t>
+  </si>
+  <si>
+    <t>Permanent Houses (pacca)</t>
+  </si>
+  <si>
+    <t>Houses with potable water</t>
+  </si>
+  <si>
+    <t>Houses with electricity</t>
+  </si>
+  <si>
+    <t>Average Household Size</t>
+  </si>
+  <si>
+    <t>Distance to Faultline</t>
+  </si>
+  <si>
+    <t>Average Distance to Epicenter</t>
+  </si>
+  <si>
+    <t>Mean Slope of UC</t>
+  </si>
+  <si>
+    <t>Village Code</t>
+  </si>
+  <si>
+    <t>Pre-Quake Age Category</t>
+  </si>
+  <si>
+    <t>Age 3+</t>
+  </si>
+  <si>
+    <t>In Utero</t>
+  </si>
+  <si>
+    <t>Age 0-2</t>
+  </si>
+  <si>
+    <t>Female Head of HH</t>
+  </si>
+  <si>
+    <t>N children under 6 at EQ</t>
+  </si>
+  <si>
+    <t>Mother Birth Village</t>
+  </si>
+  <si>
+    <t>Mother Birth Tehsil</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c_home_dam</t>
+  </si>
+  <si>
+    <t>c_home_des</t>
+  </si>
+  <si>
+    <t>hh_aid_any</t>
+  </si>
+  <si>
+    <t>hh_aid_any_1</t>
+  </si>
+  <si>
+    <t>hh_aid_any_2</t>
+  </si>
+  <si>
+    <t>hh_aid_any_3</t>
+  </si>
+  <si>
+    <t>hh_aid_any_4</t>
+  </si>
+  <si>
+    <t>hh_aid_any_5</t>
+  </si>
+  <si>
+    <t>hh_aid_any_6</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_assets_upper</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dad_edu_l</t>
+  </si>
+  <si>
+    <t>dead_l</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>yesnobin</t>
+  </si>
+  <si>
+    <t>hh_elevation_binary</t>
+  </si>
+  <si>
+    <t>hh_epidist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_far_from_quake</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_faultdist_l</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_mom_edu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>hh_slope_l</t>
+  </si>
+  <si>
+    <t>hh_stats_destroyed</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hh_stats_permhouse_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_edu_binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>living</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>indiv_male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_post</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_school_pri_bi_pre</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>indiv_test_status</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -30171,2583 +32619,2975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D212"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9258</v>
+        <v>10038</v>
       </c>
       <c r="B1" t="s">
-        <v>9442</v>
+        <v>10250</v>
       </c>
       <c r="C1" t="s">
-        <v>9625</v>
+        <v>10437</v>
       </c>
       <c r="D1" t="s">
-        <v>9688</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9259</v>
+        <v>10039</v>
       </c>
       <c r="B2" t="s">
-        <v>9443</v>
+        <v>10251</v>
       </c>
       <c r="C2" t="s">
-        <v>9626</v>
+        <v>10438</v>
       </c>
       <c r="D2" t="s">
-        <v>9689</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9260</v>
+        <v>10040</v>
       </c>
       <c r="B3" t="s">
-        <v>9444</v>
+        <v>10252</v>
       </c>
       <c r="C3" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D3" t="s">
-        <v>9690</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9261</v>
+        <v>10041</v>
       </c>
       <c r="B4" t="s">
-        <v>9445</v>
+        <v>10253</v>
       </c>
       <c r="C4" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D4" t="s">
-        <v>9691</v>
+        <v>10503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9262</v>
+        <v>10042</v>
       </c>
       <c r="B5" t="s">
-        <v>9446</v>
+        <v>10254</v>
       </c>
       <c r="C5" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D5" t="s">
-        <v>9692</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9263</v>
+        <v>10043</v>
       </c>
       <c r="B6" t="s">
-        <v>9447</v>
+        <v>10255</v>
       </c>
       <c r="C6" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D6" t="s">
-        <v>9693</v>
+        <v>10505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9264</v>
+        <v>10044</v>
       </c>
       <c r="B7" t="s">
-        <v>9448</v>
+        <v>10256</v>
       </c>
       <c r="C7" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D7" t="s">
-        <v>9694</v>
+        <v>10506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9265</v>
+        <v>10045</v>
       </c>
       <c r="B8" t="s">
-        <v>9449</v>
+        <v>10257</v>
       </c>
       <c r="C8" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D8" t="s">
-        <v>9695</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9266</v>
+        <v>10046</v>
       </c>
       <c r="B9" t="s">
-        <v>9450</v>
+        <v>10258</v>
       </c>
       <c r="C9" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D9" t="s">
-        <v>9696</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9267</v>
+        <v>10047</v>
       </c>
       <c r="B10" t="s">
-        <v>9451</v>
+        <v>10259</v>
       </c>
       <c r="C10" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D10" t="s">
-        <v>9697</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9268</v>
+        <v>10048</v>
       </c>
       <c r="B11" t="s">
-        <v>9452</v>
+        <v>10260</v>
       </c>
       <c r="C11" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D11" t="s">
-        <v>9698</v>
+        <v>10510</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9269</v>
+        <v>10049</v>
       </c>
       <c r="B12" t="s">
-        <v>9453</v>
+        <v>10261</v>
       </c>
       <c r="C12" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D12" t="s">
-        <v>9699</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9270</v>
+        <v>10050</v>
       </c>
       <c r="B13" t="s">
-        <v>9454</v>
+        <v>10262</v>
       </c>
       <c r="C13" t="s">
-        <v>9627</v>
+        <v>10439</v>
       </c>
       <c r="D13" t="s">
-        <v>9700</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9271</v>
+        <v>10051</v>
       </c>
       <c r="B14" t="s">
-        <v>9455</v>
+        <v>10263</v>
       </c>
       <c r="C14" t="s">
-        <v>9628</v>
+        <v>10440</v>
       </c>
       <c r="D14" t="s">
-        <v>9701</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9272</v>
+        <v>10052</v>
       </c>
       <c r="B15" t="s">
-        <v>9456</v>
+        <v>10264</v>
       </c>
       <c r="C15" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D15" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9273</v>
+        <v>10053</v>
       </c>
       <c r="B16" t="s">
-        <v>9457</v>
+        <v>10264</v>
       </c>
       <c r="C16" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D16" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9274</v>
+        <v>10054</v>
       </c>
       <c r="B17" t="s">
-        <v>9458</v>
+        <v>10265</v>
       </c>
       <c r="C17" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D17" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9275</v>
+        <v>10055</v>
       </c>
       <c r="B18" t="s">
-        <v>9459</v>
+        <v>10265</v>
       </c>
       <c r="C18" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D18" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9276</v>
+        <v>10056</v>
       </c>
       <c r="B19" t="s">
-        <v>9460</v>
+        <v>10266</v>
       </c>
       <c r="C19" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D19" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9277</v>
+        <v>10057</v>
       </c>
       <c r="B20" t="s">
-        <v>9461</v>
+        <v>10266</v>
       </c>
       <c r="C20" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D20" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9278</v>
+        <v>10058</v>
       </c>
       <c r="B21" t="s">
-        <v>9462</v>
+        <v>10267</v>
       </c>
       <c r="C21" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D21" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9279</v>
+        <v>10059</v>
       </c>
       <c r="B22" t="s">
-        <v>9463</v>
+        <v>10267</v>
       </c>
       <c r="C22" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D22" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9280</v>
+        <v>10060</v>
       </c>
       <c r="B23" t="s">
-        <v>9464</v>
+        <v>10268</v>
       </c>
       <c r="C23" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D23" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9281</v>
+        <v>10061</v>
       </c>
       <c r="B24" t="s">
-        <v>9465</v>
+        <v>10268</v>
       </c>
       <c r="C24" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D24" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9282</v>
+        <v>10062</v>
       </c>
       <c r="B25" t="s">
-        <v>9466</v>
+        <v>10269</v>
       </c>
       <c r="C25" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D25" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9283</v>
+        <v>10063</v>
       </c>
       <c r="B26" t="s">
-        <v>9467</v>
+        <v>10269</v>
       </c>
       <c r="C26" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D26" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9284</v>
+        <v>10064</v>
       </c>
       <c r="B27" t="s">
-        <v>9468</v>
+        <v>10270</v>
       </c>
       <c r="C27" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D27" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9285</v>
+        <v>10065</v>
       </c>
       <c r="B28" t="s">
-        <v>9469</v>
+        <v>10270</v>
       </c>
       <c r="C28" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D28" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9286</v>
+        <v>10066</v>
       </c>
       <c r="B29" t="s">
-        <v>9470</v>
+        <v>10271</v>
       </c>
       <c r="C29" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D29" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9287</v>
+        <v>10067</v>
       </c>
       <c r="B30" t="s">
-        <v>9471</v>
+        <v>10271</v>
       </c>
       <c r="C30" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D30" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9288</v>
+        <v>10068</v>
       </c>
       <c r="B31" t="s">
-        <v>9472</v>
+        <v>10272</v>
       </c>
       <c r="C31" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D31" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9289</v>
+        <v>10069</v>
       </c>
       <c r="B32" t="s">
-        <v>9473</v>
+        <v>10272</v>
       </c>
       <c r="C32" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D32" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9290</v>
+        <v>10070</v>
       </c>
       <c r="B33" t="s">
-        <v>9474</v>
+        <v>10273</v>
       </c>
       <c r="C33" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D33" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9291</v>
+        <v>10071</v>
       </c>
       <c r="B34" t="s">
-        <v>9475</v>
+        <v>10273</v>
       </c>
       <c r="C34" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D34" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9292</v>
+        <v>10072</v>
       </c>
       <c r="B35" t="s">
-        <v>9476</v>
+        <v>10274</v>
       </c>
       <c r="C35" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D35" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9293</v>
+        <v>10073</v>
       </c>
       <c r="B36" t="s">
-        <v>9477</v>
+        <v>10274</v>
       </c>
       <c r="C36" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D36" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9294</v>
+        <v>10074</v>
       </c>
       <c r="B37" t="s">
-        <v>9478</v>
+        <v>10275</v>
       </c>
       <c r="C37" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D37" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9295</v>
+        <v>10075</v>
       </c>
       <c r="B38" t="s">
-        <v>9479</v>
+        <v>10275</v>
       </c>
       <c r="C38" t="s">
-        <v>9629</v>
+        <v>10441</v>
       </c>
       <c r="D38" t="s">
-        <v>9702</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9296</v>
+        <v>10076</v>
       </c>
       <c r="B39" t="s">
-        <v>9480</v>
+        <v>10276</v>
       </c>
       <c r="C39" t="s">
-        <v>9630</v>
+        <v>10441</v>
       </c>
       <c r="D39" t="s">
-        <v>9703</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9297</v>
+        <v>10077</v>
       </c>
       <c r="B40" t="s">
-        <v>9481</v>
+        <v>10276</v>
       </c>
       <c r="C40" t="s">
-        <v>9630</v>
+        <v>10441</v>
       </c>
       <c r="D40" t="s">
-        <v>9704</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9298</v>
+        <v>10078</v>
       </c>
       <c r="B41" t="s">
-        <v>9482</v>
+        <v>10277</v>
       </c>
       <c r="C41" t="s">
-        <v>9631</v>
+        <v>10441</v>
       </c>
       <c r="D41" t="s">
-        <v>9705</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9299</v>
+        <v>10079</v>
       </c>
       <c r="B42" t="s">
-        <v>9483</v>
+        <v>10277</v>
       </c>
       <c r="C42" t="s">
-        <v>9632</v>
+        <v>10441</v>
       </c>
       <c r="D42" t="s">
-        <v>9706</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9300</v>
+        <v>10080</v>
       </c>
       <c r="B43" t="s">
-        <v>9484</v>
+        <v>10278</v>
       </c>
       <c r="C43" t="s">
-        <v>9632</v>
+        <v>10441</v>
       </c>
       <c r="D43" t="s">
-        <v>9707</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9301</v>
+        <v>10081</v>
       </c>
       <c r="B44" t="s">
-        <v>9485</v>
+        <v>10278</v>
       </c>
       <c r="C44" t="s">
-        <v>9633</v>
+        <v>10441</v>
       </c>
       <c r="D44" t="s">
-        <v>9708</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9302</v>
+        <v>10082</v>
       </c>
       <c r="B45" t="s">
-        <v>9486</v>
+        <v>10279</v>
       </c>
       <c r="C45" t="s">
-        <v>9633</v>
+        <v>10441</v>
       </c>
       <c r="D45" t="s">
-        <v>9709</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9303</v>
+        <v>10083</v>
       </c>
       <c r="B46" t="s">
-        <v>9487</v>
+        <v>10279</v>
       </c>
       <c r="C46" t="s">
-        <v>9633</v>
+        <v>10441</v>
       </c>
       <c r="D46" t="s">
-        <v>9710</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9304</v>
+        <v>10084</v>
       </c>
       <c r="B47" t="s">
-        <v>9488</v>
+        <v>10280</v>
       </c>
       <c r="C47" t="s">
-        <v>9634</v>
+        <v>10441</v>
       </c>
       <c r="D47" t="s">
-        <v>9711</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9305</v>
+        <v>10085</v>
       </c>
       <c r="B48" t="s">
-        <v>9489</v>
+        <v>10280</v>
       </c>
       <c r="C48" t="s">
-        <v>9634</v>
+        <v>10441</v>
       </c>
       <c r="D48" t="s">
-        <v>9712</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9306</v>
+        <v>10086</v>
       </c>
       <c r="B49" t="s">
-        <v>9490</v>
+        <v>10281</v>
       </c>
       <c r="C49" t="s">
-        <v>9634</v>
+        <v>10441</v>
       </c>
       <c r="D49" t="s">
-        <v>9713</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9307</v>
+        <v>10087</v>
       </c>
       <c r="B50" t="s">
-        <v>9491</v>
+        <v>10281</v>
       </c>
       <c r="C50" t="s">
-        <v>9634</v>
+        <v>10441</v>
       </c>
       <c r="D50" t="s">
-        <v>9714</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9308</v>
+        <v>10088</v>
       </c>
       <c r="B51" t="s">
-        <v>9492</v>
+        <v>10282</v>
       </c>
       <c r="C51" t="s">
-        <v>9634</v>
+        <v>10441</v>
       </c>
       <c r="D51" t="s">
-        <v>9715</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9309</v>
+        <v>10089</v>
       </c>
       <c r="B52" t="s">
-        <v>9493</v>
+        <v>10282</v>
       </c>
       <c r="C52" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D52" t="s">
-        <v>9716</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9310</v>
+        <v>10090</v>
       </c>
       <c r="B53" t="s">
-        <v>9494</v>
+        <v>10283</v>
       </c>
       <c r="C53" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D53" t="s">
-        <v>9717</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9311</v>
+        <v>10091</v>
       </c>
       <c r="B54" t="s">
-        <v>9495</v>
+        <v>10283</v>
       </c>
       <c r="C54" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D54" t="s">
-        <v>9717</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9312</v>
+        <v>10092</v>
       </c>
       <c r="B55" t="s">
-        <v>9496</v>
+        <v>10284</v>
       </c>
       <c r="C55" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D55" t="s">
-        <v>9717</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9313</v>
+        <v>10093</v>
       </c>
       <c r="B56" t="s">
-        <v>9497</v>
+        <v>10284</v>
       </c>
       <c r="C56" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D56" t="s">
-        <v>9717</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9314</v>
+        <v>10094</v>
       </c>
       <c r="B57" t="s">
-        <v>9498</v>
+        <v>10285</v>
       </c>
       <c r="C57" t="s">
-        <v>9635</v>
+        <v>10441</v>
       </c>
       <c r="D57" t="s">
-        <v>9718</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9315</v>
+        <v>10095</v>
       </c>
       <c r="B58" t="s">
-        <v>9499</v>
+        <v>10285</v>
       </c>
       <c r="C58" t="s">
-        <v>9636</v>
+        <v>10441</v>
       </c>
       <c r="D58" t="s">
-        <v>9719</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9316</v>
+        <v>10096</v>
       </c>
       <c r="B59" t="s">
-        <v>9500</v>
+        <v>10286</v>
       </c>
       <c r="C59" t="s">
-        <v>9637</v>
+        <v>10441</v>
       </c>
       <c r="D59" t="s">
-        <v>9720</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9317</v>
+        <v>10097</v>
       </c>
       <c r="B60" t="s">
-        <v>9501</v>
+        <v>10286</v>
       </c>
       <c r="C60" t="s">
-        <v>9637</v>
+        <v>10441</v>
       </c>
       <c r="D60" t="s">
-        <v>9721</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9318</v>
+        <v>10098</v>
       </c>
       <c r="B61" t="s">
-        <v>9502</v>
+        <v>10287</v>
       </c>
       <c r="C61" t="s">
-        <v>9638</v>
+        <v>10441</v>
       </c>
       <c r="D61" t="s">
-        <v>9722</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9319</v>
+        <v>10099</v>
       </c>
       <c r="B62" t="s">
-        <v>9503</v>
+        <v>10287</v>
       </c>
       <c r="C62" t="s">
-        <v>9639</v>
+        <v>10441</v>
       </c>
       <c r="D62" t="s">
-        <v>9723</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9320</v>
+        <v>10100</v>
       </c>
       <c r="B63" t="s">
-        <v>9504</v>
+        <v>10288</v>
       </c>
       <c r="C63" t="s">
-        <v>9640</v>
+        <v>10442</v>
       </c>
       <c r="D63" t="s">
-        <v>9724</v>
+        <v>10515</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9321</v>
+        <v>10101</v>
       </c>
       <c r="B64" t="s">
-        <v>9505</v>
+        <v>10289</v>
       </c>
       <c r="C64" t="s">
-        <v>9641</v>
+        <v>10442</v>
       </c>
       <c r="D64" t="s">
-        <v>9725</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9322</v>
+        <v>10102</v>
       </c>
       <c r="B65" t="s">
-        <v>9506</v>
+        <v>10290</v>
       </c>
       <c r="C65" t="s">
-        <v>9641</v>
+        <v>10443</v>
       </c>
       <c r="D65" t="s">
-        <v>9725</v>
+        <v>10517</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9323</v>
+        <v>10103</v>
       </c>
       <c r="B66" t="s">
-        <v>9507</v>
+        <v>10291</v>
       </c>
       <c r="C66" t="s">
-        <v>9642</v>
+        <v>10444</v>
       </c>
       <c r="D66" t="s">
-        <v>9726</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9324</v>
+        <v>10104</v>
       </c>
       <c r="B67" t="s">
-        <v>9508</v>
+        <v>10292</v>
       </c>
       <c r="C67" t="s">
-        <v>9643</v>
+        <v>10444</v>
       </c>
       <c r="D67" t="s">
-        <v>9727</v>
+        <v>10519</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9325</v>
+        <v>10105</v>
       </c>
       <c r="B68" t="s">
-        <v>9509</v>
+        <v>10293</v>
       </c>
       <c r="C68" t="s">
-        <v>9644</v>
+        <v>10444</v>
       </c>
       <c r="D68" t="s">
-        <v>9728</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9326</v>
+        <v>10106</v>
       </c>
       <c r="B69" t="s">
-        <v>9510</v>
+        <v>10294</v>
       </c>
       <c r="C69" t="s">
-        <v>9645</v>
+        <v>10445</v>
       </c>
       <c r="D69" t="s">
-        <v>9729</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9327</v>
+        <v>10107</v>
       </c>
       <c r="B70" t="s">
-        <v>9511</v>
+        <v>10295</v>
       </c>
       <c r="C70" t="s">
-        <v>9646</v>
+        <v>10445</v>
       </c>
       <c r="D70" t="s">
-        <v>9730</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9328</v>
+        <v>10108</v>
       </c>
       <c r="B71" t="s">
-        <v>9512</v>
+        <v>10296</v>
       </c>
       <c r="C71" t="s">
-        <v>9646</v>
+        <v>10445</v>
       </c>
       <c r="D71" t="s">
-        <v>9731</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9329</v>
+        <v>10109</v>
       </c>
       <c r="B72" t="s">
-        <v>9513</v>
+        <v>10297</v>
       </c>
       <c r="C72" t="s">
-        <v>9647</v>
+        <v>10446</v>
       </c>
       <c r="D72" t="s">
-        <v>9732</v>
+        <v>10524</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9330</v>
+        <v>10110</v>
       </c>
       <c r="B73" t="s">
-        <v>9514</v>
+        <v>10298</v>
       </c>
       <c r="C73" t="s">
-        <v>9647</v>
+        <v>10446</v>
       </c>
       <c r="D73" t="s">
-        <v>9733</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9331</v>
+        <v>10111</v>
       </c>
       <c r="B74" t="s">
-        <v>9515</v>
+        <v>10299</v>
       </c>
       <c r="C74" t="s">
-        <v>9647</v>
+        <v>10446</v>
       </c>
       <c r="D74" t="s">
-        <v>9734</v>
+        <v>10526</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9332</v>
+        <v>10112</v>
       </c>
       <c r="B75" t="s">
-        <v>9515</v>
+        <v>10300</v>
       </c>
       <c r="C75" t="s">
-        <v>9647</v>
+        <v>10446</v>
       </c>
       <c r="D75" t="s">
-        <v>9735</v>
+        <v>10527</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9333</v>
+        <v>10113</v>
       </c>
       <c r="B76" t="s">
-        <v>9516</v>
+        <v>10301</v>
       </c>
       <c r="C76" t="s">
-        <v>9648</v>
+        <v>10446</v>
       </c>
       <c r="D76" t="s">
-        <v>9736</v>
+        <v>10528</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9334</v>
+        <v>10114</v>
       </c>
       <c r="B77" t="s">
-        <v>9517</v>
+        <v>10302</v>
       </c>
       <c r="C77" t="s">
-        <v>9649</v>
+        <v>10447</v>
       </c>
       <c r="D77" t="s">
-        <v>9737</v>
+        <v>10529</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9335</v>
+        <v>10115</v>
       </c>
       <c r="B78" t="s">
-        <v>9518</v>
+        <v>10303</v>
       </c>
       <c r="C78" t="s">
-        <v>9649</v>
+        <v>10447</v>
       </c>
       <c r="D78" t="s">
-        <v>9738</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9336</v>
+        <v>10116</v>
       </c>
       <c r="B79" t="s">
-        <v>9519</v>
+        <v>10304</v>
       </c>
       <c r="C79" t="s">
-        <v>9649</v>
+        <v>10447</v>
       </c>
       <c r="D79" t="s">
-        <v>9738</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9337</v>
+        <v>10117</v>
       </c>
       <c r="B80" t="s">
-        <v>9520</v>
+        <v>10305</v>
       </c>
       <c r="C80" t="s">
-        <v>9650</v>
+        <v>10447</v>
       </c>
       <c r="D80" t="s">
-        <v>9739</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9338</v>
+        <v>10118</v>
       </c>
       <c r="B81" t="s">
-        <v>9521</v>
+        <v>10306</v>
       </c>
       <c r="C81" t="s">
-        <v>9651</v>
+        <v>10447</v>
       </c>
       <c r="D81" t="s">
-        <v>9740</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9339</v>
+        <v>10119</v>
       </c>
       <c r="B82" t="s">
-        <v>9522</v>
+        <v>10307</v>
       </c>
       <c r="C82" t="s">
-        <v>9651</v>
+        <v>10447</v>
       </c>
       <c r="D82" t="s">
-        <v>9741</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9340</v>
+        <v>10120</v>
       </c>
       <c r="B83" t="s">
-        <v>9523</v>
+        <v>10308</v>
       </c>
       <c r="C83" t="s">
-        <v>9651</v>
+        <v>10448</v>
       </c>
       <c r="D83" t="s">
-        <v>9742</v>
+        <v>10532</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9341</v>
+        <v>10121</v>
       </c>
       <c r="B84" t="s">
-        <v>9524</v>
+        <v>10309</v>
       </c>
       <c r="C84" t="s">
-        <v>9651</v>
+        <v>10449</v>
       </c>
       <c r="D84" t="s">
-        <v>9743</v>
+        <v>10533</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9342</v>
+        <v>10122</v>
       </c>
       <c r="B85" t="s">
-        <v>9525</v>
+        <v>10310</v>
       </c>
       <c r="C85" t="s">
-        <v>9651</v>
+        <v>10449</v>
       </c>
       <c r="D85" t="s">
-        <v>9744</v>
+        <v>10534</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9343</v>
+        <v>10123</v>
       </c>
       <c r="B86" t="s">
-        <v>9526</v>
+        <v>10311</v>
       </c>
       <c r="C86" t="s">
-        <v>9652</v>
+        <v>10450</v>
       </c>
       <c r="D86" t="s">
-        <v>9745</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>9344</v>
+        <v>10124</v>
       </c>
       <c r="B87" t="s">
-        <v>9527</v>
+        <v>10312</v>
       </c>
       <c r="C87" t="s">
-        <v>9652</v>
+        <v>10451</v>
       </c>
       <c r="D87" t="s">
-        <v>9746</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9345</v>
+        <v>10125</v>
       </c>
       <c r="B88" t="s">
-        <v>9528</v>
+        <v>10313</v>
       </c>
       <c r="C88" t="s">
-        <v>9653</v>
+        <v>10452</v>
       </c>
       <c r="D88" t="s">
-        <v>9747</v>
+        <v>10537</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9346</v>
+        <v>10126</v>
       </c>
       <c r="B89" t="s">
-        <v>9529</v>
+        <v>10314</v>
       </c>
       <c r="C89" t="s">
-        <v>9654</v>
+        <v>10453</v>
       </c>
       <c r="D89" t="s">
-        <v>9748</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>9347</v>
+        <v>10127</v>
       </c>
       <c r="B90" t="s">
-        <v>9530</v>
+        <v>10315</v>
       </c>
       <c r="C90" t="s">
-        <v>9655</v>
+        <v>10453</v>
       </c>
       <c r="D90" t="s">
-        <v>9749</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9348</v>
+        <v>10128</v>
       </c>
       <c r="B91" t="s">
-        <v>9531</v>
+        <v>10316</v>
       </c>
       <c r="C91" t="s">
-        <v>9656</v>
+        <v>10454</v>
       </c>
       <c r="D91" t="s">
-        <v>9750</v>
+        <v>10539</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9349</v>
+        <v>10129</v>
       </c>
       <c r="B92" t="s">
-        <v>9532</v>
+        <v>10317</v>
       </c>
       <c r="C92" t="s">
-        <v>9656</v>
+        <v>10455</v>
       </c>
       <c r="D92" t="s">
-        <v>9751</v>
+        <v>10540</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9350</v>
+        <v>10130</v>
       </c>
       <c r="B93" t="s">
-        <v>9533</v>
+        <v>10318</v>
       </c>
       <c r="C93" t="s">
-        <v>9657</v>
+        <v>10456</v>
       </c>
       <c r="D93" t="s">
-        <v>9752</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>9351</v>
+        <v>10131</v>
       </c>
       <c r="B94" t="s">
-        <v>9534</v>
+        <v>10319</v>
       </c>
       <c r="C94" t="s">
-        <v>9658</v>
+        <v>10457</v>
       </c>
       <c r="D94" t="s">
-        <v>9753</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>9352</v>
+        <v>10132</v>
       </c>
       <c r="B95" t="s">
-        <v>9535</v>
+        <v>10320</v>
       </c>
       <c r="C95" t="s">
-        <v>9659</v>
+        <v>10458</v>
       </c>
       <c r="D95" t="s">
-        <v>9754</v>
+        <v>10543</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>9353</v>
+        <v>10133</v>
       </c>
       <c r="B96" t="s">
-        <v>9536</v>
+        <v>10321</v>
       </c>
       <c r="C96" t="s">
-        <v>9659</v>
+        <v>10458</v>
       </c>
       <c r="D96" t="s">
-        <v>9755</v>
+        <v>10544</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9354</v>
+        <v>10134</v>
       </c>
       <c r="B97" t="s">
-        <v>9537</v>
+        <v>10322</v>
       </c>
       <c r="C97" t="s">
-        <v>9659</v>
+        <v>10459</v>
       </c>
       <c r="D97" t="s">
-        <v>9756</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9355</v>
+        <v>10135</v>
       </c>
       <c r="B98" t="s">
-        <v>9538</v>
+        <v>10323</v>
       </c>
       <c r="C98" t="s">
-        <v>9659</v>
+        <v>10459</v>
       </c>
       <c r="D98" t="s">
-        <v>9757</v>
+        <v>10546</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9356</v>
+        <v>10136</v>
       </c>
       <c r="B99" t="s">
-        <v>9539</v>
+        <v>10324</v>
       </c>
       <c r="C99" t="s">
-        <v>9659</v>
+        <v>10459</v>
       </c>
       <c r="D99" t="s">
-        <v>9758</v>
+        <v>10547</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>9357</v>
+        <v>10137</v>
       </c>
       <c r="B100" t="s">
-        <v>9540</v>
+        <v>10324</v>
       </c>
       <c r="C100" t="s">
-        <v>9659</v>
+        <v>10459</v>
       </c>
       <c r="D100" t="s">
-        <v>9759</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9358</v>
+        <v>10138</v>
       </c>
       <c r="B101" t="s">
-        <v>9541</v>
+        <v>10325</v>
       </c>
       <c r="C101" t="s">
-        <v>9659</v>
+        <v>10460</v>
       </c>
       <c r="D101" t="s">
-        <v>9760</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>9359</v>
+        <v>10139</v>
       </c>
       <c r="B102" t="s">
-        <v>9542</v>
+        <v>10326</v>
       </c>
       <c r="C102" t="s">
-        <v>9659</v>
+        <v>10461</v>
       </c>
       <c r="D102" t="s">
-        <v>9761</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>9360</v>
+        <v>10140</v>
       </c>
       <c r="B103" t="s">
-        <v>9543</v>
+        <v>10327</v>
       </c>
       <c r="C103" t="s">
-        <v>9660</v>
+        <v>10461</v>
       </c>
       <c r="D103" t="s">
-        <v>9762</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>9361</v>
+        <v>10141</v>
       </c>
       <c r="B104" t="s">
-        <v>9544</v>
+        <v>10328</v>
       </c>
       <c r="C104" t="s">
-        <v>9661</v>
+        <v>10461</v>
       </c>
       <c r="D104" t="s">
-        <v>9763</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9362</v>
+        <v>10142</v>
       </c>
       <c r="B105" t="s">
-        <v>9545</v>
+        <v>10329</v>
       </c>
       <c r="C105" t="s">
-        <v>9662</v>
+        <v>10462</v>
       </c>
       <c r="D105" t="s">
-        <v>9764</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>9363</v>
+        <v>10143</v>
       </c>
       <c r="B106" t="s">
-        <v>9546</v>
+        <v>10330</v>
       </c>
       <c r="C106" t="s">
-        <v>9662</v>
+        <v>10463</v>
       </c>
       <c r="D106" t="s">
-        <v>9765</v>
+        <v>10553</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>9364</v>
+        <v>10144</v>
       </c>
       <c r="B107" t="s">
-        <v>9547</v>
+        <v>10331</v>
       </c>
       <c r="C107" t="s">
-        <v>9662</v>
+        <v>10463</v>
       </c>
       <c r="D107" t="s">
-        <v>9766</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9365</v>
+        <v>10145</v>
       </c>
       <c r="B108" t="s">
-        <v>9548</v>
+        <v>10332</v>
       </c>
       <c r="C108" t="s">
-        <v>9663</v>
+        <v>10463</v>
       </c>
       <c r="D108" t="s">
-        <v>9767</v>
+        <v>10555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9366</v>
+        <v>10146</v>
       </c>
       <c r="B109" t="s">
-        <v>9549</v>
+        <v>10333</v>
       </c>
       <c r="C109" t="s">
-        <v>9664</v>
+        <v>10463</v>
       </c>
       <c r="D109" t="s">
-        <v>9768</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>9367</v>
+        <v>10147</v>
       </c>
       <c r="B110" t="s">
-        <v>9550</v>
+        <v>10334</v>
       </c>
       <c r="C110" t="s">
-        <v>9664</v>
+        <v>10463</v>
       </c>
       <c r="D110" t="s">
-        <v>9769</v>
+        <v>10557</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>9368</v>
+        <v>10148</v>
       </c>
       <c r="B111" t="s">
-        <v>9551</v>
+        <v>10335</v>
       </c>
       <c r="C111" t="s">
-        <v>9665</v>
+        <v>10464</v>
       </c>
       <c r="D111" t="s">
-        <v>9770</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9369</v>
+        <v>10149</v>
       </c>
       <c r="B112" t="s">
-        <v>9552</v>
+        <v>10336</v>
       </c>
       <c r="C112" t="s">
-        <v>9665</v>
+        <v>10464</v>
       </c>
       <c r="D112" t="s">
-        <v>9771</v>
+        <v>10559</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>9370</v>
+        <v>10150</v>
       </c>
       <c r="B113" t="s">
-        <v>9553</v>
+        <v>10337</v>
       </c>
       <c r="C113" t="s">
-        <v>9666</v>
+        <v>10465</v>
       </c>
       <c r="D113" t="s">
-        <v>9772</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>9371</v>
+        <v>10151</v>
       </c>
       <c r="B114" t="s">
-        <v>9554</v>
+        <v>10338</v>
       </c>
       <c r="C114" t="s">
-        <v>9666</v>
+        <v>10466</v>
       </c>
       <c r="D114" t="s">
-        <v>9773</v>
+        <v>10561</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>9372</v>
+        <v>10152</v>
       </c>
       <c r="B115" t="s">
-        <v>9555</v>
+        <v>10339</v>
       </c>
       <c r="C115" t="s">
-        <v>9666</v>
+        <v>10467</v>
       </c>
       <c r="D115" t="s">
-        <v>9774</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>9373</v>
+        <v>10153</v>
       </c>
       <c r="B116" t="s">
-        <v>9556</v>
+        <v>10340</v>
       </c>
       <c r="C116" t="s">
-        <v>9667</v>
+        <v>10468</v>
       </c>
       <c r="D116" t="s">
-        <v>9775</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>9374</v>
+        <v>10154</v>
       </c>
       <c r="B117" t="s">
-        <v>9557</v>
+        <v>10341</v>
       </c>
       <c r="C117" t="s">
-        <v>9667</v>
+        <v>10468</v>
       </c>
       <c r="D117" t="s">
-        <v>9776</v>
+        <v>10564</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>9375</v>
+        <v>10155</v>
       </c>
       <c r="B118" t="s">
-        <v>9558</v>
+        <v>10342</v>
       </c>
       <c r="C118" t="s">
-        <v>9668</v>
+        <v>10469</v>
       </c>
       <c r="D118" t="s">
-        <v>9777</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>9376</v>
+        <v>10156</v>
       </c>
       <c r="B119" t="s">
-        <v>9559</v>
+        <v>10343</v>
       </c>
       <c r="C119" t="s">
-        <v>9668</v>
+        <v>10470</v>
       </c>
       <c r="D119" t="s">
-        <v>9778</v>
+        <v>10566</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>9377</v>
+        <v>10157</v>
       </c>
       <c r="B120" t="s">
-        <v>9560</v>
+        <v>10344</v>
       </c>
       <c r="C120" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D120" t="s">
-        <v>9779</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>9378</v>
+        <v>10158</v>
       </c>
       <c r="B121" t="s">
-        <v>9561</v>
+        <v>10345</v>
       </c>
       <c r="C121" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D121" t="s">
-        <v>9780</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>9379</v>
+        <v>10159</v>
       </c>
       <c r="B122" t="s">
-        <v>9562</v>
+        <v>10346</v>
       </c>
       <c r="C122" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D122" t="s">
-        <v>9781</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>9380</v>
+        <v>10160</v>
       </c>
       <c r="B123" t="s">
-        <v>9563</v>
+        <v>10347</v>
       </c>
       <c r="C123" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D123" t="s">
-        <v>9782</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>9381</v>
+        <v>10161</v>
       </c>
       <c r="B124" t="s">
-        <v>9564</v>
+        <v>10348</v>
       </c>
       <c r="C124" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D124" t="s">
-        <v>9783</v>
+        <v>10571</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>9382</v>
+        <v>10162</v>
       </c>
       <c r="B125" t="s">
-        <v>9565</v>
+        <v>10349</v>
       </c>
       <c r="C125" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D125" t="s">
-        <v>9784</v>
+        <v>10572</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9383</v>
+        <v>10163</v>
       </c>
       <c r="B126" t="s">
-        <v>9566</v>
+        <v>10350</v>
       </c>
       <c r="C126" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D126" t="s">
-        <v>9785</v>
+        <v>10573</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>9384</v>
+        <v>10164</v>
       </c>
       <c r="B127" t="s">
-        <v>9567</v>
+        <v>10351</v>
       </c>
       <c r="C127" t="s">
-        <v>9668</v>
+        <v>10471</v>
       </c>
       <c r="D127" t="s">
-        <v>9786</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>9385</v>
+        <v>10165</v>
       </c>
       <c r="B128" t="s">
-        <v>9568</v>
+        <v>10352</v>
       </c>
       <c r="C128" t="s">
-        <v>9668</v>
+        <v>10472</v>
       </c>
       <c r="D128" t="s">
-        <v>9787</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>9386</v>
+        <v>10166</v>
       </c>
       <c r="B129" t="s">
-        <v>9569</v>
+        <v>10353</v>
       </c>
       <c r="C129" t="s">
-        <v>9668</v>
+        <v>10473</v>
       </c>
       <c r="D129" t="s">
-        <v>9788</v>
+        <v>10576</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>9387</v>
+        <v>10167</v>
       </c>
       <c r="B130" t="s">
-        <v>9570</v>
+        <v>10354</v>
       </c>
       <c r="C130" t="s">
-        <v>9668</v>
+        <v>10474</v>
       </c>
       <c r="D130" t="s">
-        <v>9789</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>9388</v>
+        <v>10168</v>
       </c>
       <c r="B131" t="s">
-        <v>9571</v>
+        <v>10355</v>
       </c>
       <c r="C131" t="s">
-        <v>9668</v>
+        <v>10474</v>
       </c>
       <c r="D131" t="s">
-        <v>9790</v>
+        <v>10578</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>9389</v>
+        <v>10169</v>
       </c>
       <c r="B132" t="s">
-        <v>9572</v>
+        <v>10356</v>
       </c>
       <c r="C132" t="s">
-        <v>9668</v>
+        <v>10474</v>
       </c>
       <c r="D132" t="s">
-        <v>9791</v>
+        <v>10579</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>9390</v>
+        <v>10170</v>
       </c>
       <c r="B133" t="s">
-        <v>9573</v>
+        <v>10357</v>
       </c>
       <c r="C133" t="s">
-        <v>9668</v>
+        <v>10475</v>
       </c>
       <c r="D133" t="s">
-        <v>9792</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>9391</v>
+        <v>10171</v>
       </c>
       <c r="B134" t="s">
-        <v>9574</v>
+        <v>10358</v>
       </c>
       <c r="C134" t="s">
-        <v>9668</v>
+        <v>10476</v>
       </c>
       <c r="D134" t="s">
-        <v>9793</v>
+        <v>10581</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>9392</v>
+        <v>10172</v>
       </c>
       <c r="B135" t="s">
-        <v>9575</v>
+        <v>10359</v>
       </c>
       <c r="C135" t="s">
-        <v>9669</v>
+        <v>10476</v>
       </c>
       <c r="D135" t="s">
-        <v>9794</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>9393</v>
+        <v>10173</v>
       </c>
       <c r="B136" t="s">
-        <v>9576</v>
+        <v>10360</v>
       </c>
       <c r="C136" t="s">
-        <v>9670</v>
+        <v>10477</v>
       </c>
       <c r="D136" t="s">
-        <v>9795</v>
+        <v>10583</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>9394</v>
+        <v>10174</v>
       </c>
       <c r="B137" t="s">
-        <v>9577</v>
+        <v>10361</v>
       </c>
       <c r="C137" t="s">
-        <v>9670</v>
+        <v>10477</v>
       </c>
       <c r="D137" t="s">
-        <v>9796</v>
+        <v>10584</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>9395</v>
+        <v>10175</v>
       </c>
       <c r="B138" t="s">
-        <v>9578</v>
+        <v>10362</v>
       </c>
       <c r="C138" t="s">
-        <v>9670</v>
+        <v>10478</v>
       </c>
       <c r="D138" t="s">
-        <v>9797</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>9396</v>
+        <v>10176</v>
       </c>
       <c r="B139" t="s">
-        <v>9579</v>
+        <v>10363</v>
       </c>
       <c r="C139" t="s">
-        <v>9671</v>
+        <v>10478</v>
       </c>
       <c r="D139" t="s">
-        <v>9798</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>9397</v>
+        <v>10177</v>
       </c>
       <c r="B140" t="s">
-        <v>9580</v>
+        <v>10364</v>
       </c>
       <c r="C140" t="s">
-        <v>9672</v>
+        <v>10478</v>
       </c>
       <c r="D140" t="s">
-        <v>9799</v>
+        <v>10587</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>9398</v>
+        <v>10178</v>
       </c>
       <c r="B141" t="s">
-        <v>9581</v>
+        <v>10365</v>
       </c>
       <c r="C141" t="s">
-        <v>9673</v>
+        <v>10479</v>
       </c>
       <c r="D141" t="s">
-        <v>9800</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>9399</v>
+        <v>10179</v>
       </c>
       <c r="B142" t="s">
-        <v>9582</v>
+        <v>10366</v>
       </c>
       <c r="C142" t="s">
-        <v>9673</v>
+        <v>10479</v>
       </c>
       <c r="D142" t="s">
-        <v>9801</v>
+        <v>10589</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>9400</v>
+        <v>10180</v>
       </c>
       <c r="B143" t="s">
-        <v>9583</v>
+        <v>10367</v>
       </c>
       <c r="C143" t="s">
-        <v>9673</v>
+        <v>10480</v>
       </c>
       <c r="D143" t="s">
-        <v>9802</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>9401</v>
+        <v>10181</v>
       </c>
       <c r="B144" t="s">
-        <v>9584</v>
+        <v>10368</v>
       </c>
       <c r="C144" t="s">
-        <v>9673</v>
+        <v>10480</v>
       </c>
       <c r="D144" t="s">
-        <v>9803</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>9402</v>
+        <v>10182</v>
       </c>
       <c r="B145" t="s">
-        <v>9585</v>
+        <v>10369</v>
       </c>
       <c r="C145" t="s">
-        <v>9673</v>
+        <v>10480</v>
       </c>
       <c r="D145" t="s">
-        <v>9804</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>9403</v>
+        <v>10183</v>
       </c>
       <c r="B146" t="s">
-        <v>9586</v>
+        <v>10370</v>
       </c>
       <c r="C146" t="s">
-        <v>9673</v>
+        <v>10480</v>
       </c>
       <c r="D146" t="s">
-        <v>9805</v>
+        <v>10593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>9404</v>
+        <v>10184</v>
       </c>
       <c r="B147" t="s">
-        <v>9587</v>
+        <v>10371</v>
       </c>
       <c r="C147" t="s">
-        <v>9673</v>
+        <v>10480</v>
       </c>
       <c r="D147" t="s">
-        <v>9806</v>
+        <v>10594</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>9405</v>
+        <v>10185</v>
       </c>
       <c r="B148" t="s">
-        <v>9588</v>
+        <v>10372</v>
       </c>
       <c r="C148" t="s">
-        <v>9674</v>
+        <v>10480</v>
       </c>
       <c r="D148" t="s">
-        <v>9807</v>
+        <v>10595</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>9406</v>
+        <v>10186</v>
       </c>
       <c r="B149" t="s">
-        <v>9589</v>
+        <v>10373</v>
       </c>
       <c r="C149" t="s">
-        <v>9675</v>
+        <v>10480</v>
       </c>
       <c r="D149" t="s">
-        <v>9808</v>
+        <v>10596</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>9407</v>
+        <v>10187</v>
       </c>
       <c r="B150" t="s">
-        <v>9590</v>
+        <v>10374</v>
       </c>
       <c r="C150" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D150" t="s">
-        <v>9809</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>9408</v>
+        <v>10188</v>
       </c>
       <c r="B151" t="s">
-        <v>9591</v>
+        <v>10375</v>
       </c>
       <c r="C151" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D151" t="s">
-        <v>9810</v>
+        <v>10598</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>9409</v>
+        <v>10189</v>
       </c>
       <c r="B152" t="s">
-        <v>9592</v>
+        <v>10376</v>
       </c>
       <c r="C152" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D152" t="s">
-        <v>9811</v>
+        <v>10599</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>9410</v>
+        <v>10190</v>
       </c>
       <c r="B153" t="s">
-        <v>9593</v>
+        <v>10377</v>
       </c>
       <c r="C153" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D153" t="s">
-        <v>9812</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>9411</v>
+        <v>10191</v>
       </c>
       <c r="B154" t="s">
-        <v>9594</v>
+        <v>10378</v>
       </c>
       <c r="C154" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D154" t="s">
-        <v>9813</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>9412</v>
+        <v>10192</v>
       </c>
       <c r="B155" t="s">
-        <v>9595</v>
+        <v>10379</v>
       </c>
       <c r="C155" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D155" t="s">
-        <v>9814</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>9413</v>
+        <v>10193</v>
       </c>
       <c r="B156" t="s">
-        <v>9596</v>
+        <v>10380</v>
       </c>
       <c r="C156" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D156" t="s">
-        <v>9815</v>
+        <v>10603</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>9414</v>
+        <v>10194</v>
       </c>
       <c r="B157" t="s">
-        <v>9597</v>
+        <v>10381</v>
       </c>
       <c r="C157" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D157" t="s">
-        <v>9816</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>9415</v>
+        <v>10195</v>
       </c>
       <c r="B158" t="s">
-        <v>9598</v>
+        <v>10382</v>
       </c>
       <c r="C158" t="s">
-        <v>9676</v>
+        <v>10480</v>
       </c>
       <c r="D158" t="s">
-        <v>9817</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>9416</v>
+        <v>10196</v>
       </c>
       <c r="B159" t="s">
-        <v>9599</v>
+        <v>10383</v>
       </c>
       <c r="C159" t="s">
-        <v>9677</v>
+        <v>10480</v>
       </c>
       <c r="D159" t="s">
-        <v>9818</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>9417</v>
+        <v>10197</v>
       </c>
       <c r="B160" t="s">
-        <v>9600</v>
+        <v>10384</v>
       </c>
       <c r="C160" t="s">
-        <v>9677</v>
+        <v>10481</v>
       </c>
       <c r="D160" t="s">
-        <v>9819</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>9418</v>
+        <v>10198</v>
       </c>
       <c r="B161" t="s">
-        <v>9601</v>
+        <v>10385</v>
       </c>
       <c r="C161" t="s">
-        <v>9677</v>
+        <v>10481</v>
       </c>
       <c r="D161" t="s">
-        <v>9820</v>
+        <v>10608</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>9419</v>
+        <v>10199</v>
       </c>
       <c r="B162" t="s">
-        <v>9602</v>
+        <v>10386</v>
       </c>
       <c r="C162" t="s">
-        <v>9677</v>
+        <v>10481</v>
       </c>
       <c r="D162" t="s">
-        <v>9821</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>9420</v>
+        <v>10200</v>
       </c>
       <c r="B163" t="s">
-        <v>9603</v>
+        <v>10387</v>
       </c>
       <c r="C163" t="s">
-        <v>9678</v>
+        <v>10481</v>
       </c>
       <c r="D163" t="s">
-        <v>9822</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>9421</v>
+        <v>10201</v>
       </c>
       <c r="B164" t="s">
-        <v>9604</v>
+        <v>10388</v>
       </c>
       <c r="C164" t="s">
-        <v>9679</v>
+        <v>10482</v>
       </c>
       <c r="D164" t="s">
-        <v>9823</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>9422</v>
+        <v>10202</v>
       </c>
       <c r="B165" t="s">
-        <v>9605</v>
+        <v>10389</v>
       </c>
       <c r="C165" t="s">
-        <v>9679</v>
+        <v>10482</v>
       </c>
       <c r="D165" t="s">
-        <v>9824</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>9423</v>
+        <v>10203</v>
       </c>
       <c r="B166" t="s">
-        <v>9606</v>
+        <v>10390</v>
       </c>
       <c r="C166" t="s">
-        <v>9679</v>
+        <v>10482</v>
       </c>
       <c r="D166" t="s">
-        <v>9825</v>
+        <v>10613</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>9424</v>
+        <v>10204</v>
       </c>
       <c r="B167" t="s">
-        <v>9607</v>
+        <v>10391</v>
       </c>
       <c r="C167" t="s">
-        <v>9680</v>
+        <v>10483</v>
       </c>
       <c r="D167" t="s">
-        <v>9826</v>
+        <v>10614</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>9425</v>
+        <v>10205</v>
       </c>
       <c r="B168" t="s">
-        <v>9608</v>
+        <v>10392</v>
       </c>
       <c r="C168" t="s">
-        <v>9681</v>
+        <v>10484</v>
       </c>
       <c r="D168" t="s">
-        <v>9827</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>9426</v>
+        <v>10206</v>
       </c>
       <c r="B169" t="s">
-        <v>9609</v>
+        <v>10393</v>
       </c>
       <c r="C169" t="s">
-        <v>9681</v>
+        <v>10485</v>
       </c>
       <c r="D169" t="s">
-        <v>9828</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>9427</v>
+        <v>10207</v>
       </c>
       <c r="B170" t="s">
-        <v>9610</v>
+        <v>10394</v>
       </c>
       <c r="C170" t="s">
-        <v>9681</v>
+        <v>10485</v>
       </c>
       <c r="D170" t="s">
-        <v>9829</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>9428</v>
+        <v>10208</v>
       </c>
       <c r="B171" t="s">
-        <v>9611</v>
+        <v>10395</v>
       </c>
       <c r="C171" t="s">
-        <v>9681</v>
+        <v>10485</v>
       </c>
       <c r="D171" t="s">
-        <v>9830</v>
+        <v>10618</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>9429</v>
+        <v>10209</v>
       </c>
       <c r="B172" t="s">
-        <v>9612</v>
+        <v>10396</v>
       </c>
       <c r="C172" t="s">
-        <v>9682</v>
+        <v>10485</v>
       </c>
       <c r="D172" t="s">
-        <v>9831</v>
+        <v>10619</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>9430</v>
+        <v>10210</v>
       </c>
       <c r="B173" t="s">
-        <v>9613</v>
+        <v>10397</v>
       </c>
       <c r="C173" t="s">
-        <v>9683</v>
+        <v>10485</v>
       </c>
       <c r="D173" t="s">
-        <v>9832</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>9431</v>
+        <v>10211</v>
       </c>
       <c r="B174" t="s">
-        <v>9614</v>
+        <v>10398</v>
       </c>
       <c r="C174" t="s">
-        <v>9683</v>
+        <v>10485</v>
       </c>
       <c r="D174" t="s">
-        <v>9833</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>9432</v>
+        <v>10212</v>
       </c>
       <c r="B175" t="s">
-        <v>9615</v>
+        <v>10399</v>
       </c>
       <c r="C175" t="s">
-        <v>9683</v>
+        <v>10485</v>
       </c>
       <c r="D175" t="s">
-        <v>9834</v>
+        <v>10622</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>9433</v>
+        <v>10213</v>
       </c>
       <c r="B176" t="s">
-        <v>9616</v>
+        <v>10400</v>
       </c>
       <c r="C176" t="s">
-        <v>9684</v>
+        <v>10486</v>
       </c>
       <c r="D176" t="s">
-        <v>9835</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>9434</v>
+        <v>10214</v>
       </c>
       <c r="B177" t="s">
-        <v>9617</v>
+        <v>10401</v>
       </c>
       <c r="C177" t="s">
-        <v>9685</v>
+        <v>10487</v>
       </c>
       <c r="D177" t="s">
-        <v>9836</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>9435</v>
+        <v>10215</v>
       </c>
       <c r="B178" t="s">
-        <v>9618</v>
+        <v>10402</v>
       </c>
       <c r="C178" t="s">
-        <v>9685</v>
+        <v>10488</v>
       </c>
       <c r="D178" t="s">
-        <v>9837</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>9436</v>
+        <v>10216</v>
       </c>
       <c r="B179" t="s">
-        <v>9619</v>
+        <v>10403</v>
       </c>
       <c r="C179" t="s">
-        <v>9685</v>
+        <v>10488</v>
       </c>
       <c r="D179" t="s">
-        <v>9837</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>9437</v>
+        <v>10217</v>
       </c>
       <c r="B180" t="s">
-        <v>9620</v>
+        <v>10404</v>
       </c>
       <c r="C180" t="s">
-        <v>9685</v>
+        <v>10488</v>
       </c>
       <c r="D180" t="s">
-        <v>9837</v>
+        <v>10627</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>9438</v>
+        <v>10218</v>
       </c>
       <c r="B181" t="s">
-        <v>9621</v>
+        <v>10405</v>
       </c>
       <c r="C181" t="s">
-        <v>9685</v>
+        <v>10488</v>
       </c>
       <c r="D181" t="s">
-        <v>9838</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>9439</v>
+        <v>10219</v>
       </c>
       <c r="B182" t="s">
-        <v>9622</v>
+        <v>10406</v>
       </c>
       <c r="C182" t="s">
-        <v>9685</v>
+        <v>10488</v>
       </c>
       <c r="D182" t="s">
-        <v>9839</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>9440</v>
+        <v>10220</v>
       </c>
       <c r="B183" t="s">
-        <v>9623</v>
+        <v>10407</v>
       </c>
       <c r="C183" t="s">
-        <v>9686</v>
+        <v>10488</v>
       </c>
       <c r="D183" t="s">
-        <v>9840</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>9441</v>
+        <v>10221</v>
       </c>
       <c r="B184" t="s">
-        <v>9624</v>
+        <v>10408</v>
       </c>
       <c r="C184" t="s">
-        <v>9687</v>
+        <v>10488</v>
       </c>
       <c r="D184" t="s">
-        <v>9841</v>
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>10222</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10409</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10488</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10632</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>10223</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10410</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10488</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10633</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>10224</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10411</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10489</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10634</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>10225</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10412</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10489</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10635</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>10226</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10413</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10489</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10636</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>10227</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10414</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10489</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10637</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>10228</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10415</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10490</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10638</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>10229</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10416</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10491</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>10230</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10417</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10491</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>10231</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10418</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10491</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10641</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>10232</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10419</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10492</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10642</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>10233</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10420</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10493</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10643</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>10234</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10421</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10493</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10644</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>10235</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10422</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10493</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10645</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>10236</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10423</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10493</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10646</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>10237</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10424</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10494</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10647</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>10238</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10425</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10495</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10648</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>10239</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10426</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10495</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10649</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>10240</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10427</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10495</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>10241</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10428</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10496</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10651</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>10242</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10429</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10652</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>10243</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10430</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10653</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>10244</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10431</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10653</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>10245</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10432</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10653</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>10246</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10433</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10654</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>10247</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10434</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10497</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10655</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>10248</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10435</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10498</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10656</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>10249</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10436</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10499</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10657</v>
       </c>
     </row>
   </sheetData>
@@ -32761,970 +35601,970 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9842</v>
+        <v>10658</v>
       </c>
       <c r="B1" t="s">
-        <v>9864</v>
+        <v>10680</v>
       </c>
       <c r="C1" t="s">
-        <v>9950</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9843</v>
+        <v>10659</v>
       </c>
       <c r="B2" t="s">
-        <v>9865</v>
+        <v>10681</v>
       </c>
       <c r="C2" t="s">
-        <v>9951</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9843</v>
+        <v>10659</v>
       </c>
       <c r="B3" t="s">
-        <v>9866</v>
+        <v>10682</v>
       </c>
       <c r="C3" t="s">
-        <v>9952</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9844</v>
+        <v>10660</v>
       </c>
       <c r="B4" t="s">
-        <v>9867</v>
+        <v>10683</v>
       </c>
       <c r="C4" t="s">
-        <v>9953</v>
+        <v>10769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9844</v>
+        <v>10660</v>
       </c>
       <c r="B5" t="s">
-        <v>9868</v>
+        <v>10684</v>
       </c>
       <c r="C5" t="s">
-        <v>9954</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9844</v>
+        <v>10660</v>
       </c>
       <c r="B6" t="s">
-        <v>9869</v>
+        <v>10685</v>
       </c>
       <c r="C6" t="s">
-        <v>9955</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9845</v>
+        <v>10661</v>
       </c>
       <c r="B7" t="s">
-        <v>9870</v>
+        <v>10686</v>
       </c>
       <c r="C7" t="s">
-        <v>9956</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9845</v>
+        <v>10661</v>
       </c>
       <c r="B8" t="s">
-        <v>9871</v>
+        <v>10687</v>
       </c>
       <c r="C8" t="s">
-        <v>9957</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9845</v>
+        <v>10661</v>
       </c>
       <c r="B9" t="s">
-        <v>9872</v>
+        <v>10688</v>
       </c>
       <c r="C9" t="s">
-        <v>9958</v>
+        <v>10774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9845</v>
+        <v>10661</v>
       </c>
       <c r="B10" t="s">
-        <v>9873</v>
+        <v>10689</v>
       </c>
       <c r="C10" t="s">
-        <v>9959</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9846</v>
+        <v>10662</v>
       </c>
       <c r="B11" t="s">
-        <v>9874</v>
+        <v>10690</v>
       </c>
       <c r="C11" t="s">
-        <v>9960</v>
+        <v>10776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9846</v>
+        <v>10662</v>
       </c>
       <c r="B12" t="s">
-        <v>9875</v>
+        <v>10691</v>
       </c>
       <c r="C12" t="s">
-        <v>9961</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9846</v>
+        <v>10662</v>
       </c>
       <c r="B13" t="s">
-        <v>9876</v>
+        <v>10692</v>
       </c>
       <c r="C13" t="s">
-        <v>9962</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9847</v>
+        <v>10663</v>
       </c>
       <c r="B14" t="s">
-        <v>9877</v>
+        <v>10693</v>
       </c>
       <c r="C14" t="s">
-        <v>9963</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9847</v>
+        <v>10663</v>
       </c>
       <c r="B15" t="s">
-        <v>9878</v>
+        <v>10694</v>
       </c>
       <c r="C15" t="s">
-        <v>9964</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9847</v>
+        <v>10663</v>
       </c>
       <c r="B16" t="s">
-        <v>9879</v>
+        <v>10695</v>
       </c>
       <c r="C16" t="s">
-        <v>9965</v>
+        <v>10781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B17" t="s">
-        <v>9880</v>
+        <v>10696</v>
       </c>
       <c r="C17" t="s">
-        <v>9966</v>
+        <v>10782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B18" t="s">
-        <v>9881</v>
+        <v>10697</v>
       </c>
       <c r="C18" t="s">
-        <v>9967</v>
+        <v>10783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B19" t="s">
-        <v>9882</v>
+        <v>10698</v>
       </c>
       <c r="C19" t="s">
-        <v>9968</v>
+        <v>10784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B20" t="s">
-        <v>9883</v>
+        <v>10699</v>
       </c>
       <c r="C20" t="s">
-        <v>9969</v>
+        <v>10785</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B21" t="s">
-        <v>9884</v>
+        <v>10700</v>
       </c>
       <c r="C21" t="s">
-        <v>9970</v>
+        <v>10786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9848</v>
+        <v>10664</v>
       </c>
       <c r="B22" t="s">
-        <v>9885</v>
+        <v>10701</v>
       </c>
       <c r="C22" t="s">
-        <v>9971</v>
+        <v>10787</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9849</v>
+        <v>10665</v>
       </c>
       <c r="B23" t="s">
-        <v>9886</v>
+        <v>10702</v>
       </c>
       <c r="C23" t="s">
-        <v>9972</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9849</v>
+        <v>10665</v>
       </c>
       <c r="B24" t="s">
-        <v>9887</v>
+        <v>10703</v>
       </c>
       <c r="C24" t="s">
-        <v>9973</v>
+        <v>10789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9850</v>
+        <v>10666</v>
       </c>
       <c r="B25" t="s">
-        <v>9888</v>
+        <v>10704</v>
       </c>
       <c r="C25" t="s">
-        <v>9974</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9850</v>
+        <v>10666</v>
       </c>
       <c r="B26" t="s">
-        <v>9889</v>
+        <v>10705</v>
       </c>
       <c r="C26" t="s">
-        <v>9975</v>
+        <v>10791</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9851</v>
+        <v>10667</v>
       </c>
       <c r="B27" t="s">
-        <v>9889</v>
+        <v>10705</v>
       </c>
       <c r="C27" t="s">
-        <v>9976</v>
+        <v>10792</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9851</v>
+        <v>10667</v>
       </c>
       <c r="B28" t="s">
-        <v>9890</v>
+        <v>10706</v>
       </c>
       <c r="C28" t="s">
-        <v>9977</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9851</v>
+        <v>10667</v>
       </c>
       <c r="B29" t="s">
-        <v>9891</v>
+        <v>10707</v>
       </c>
       <c r="C29" t="s">
-        <v>9978</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9851</v>
+        <v>10667</v>
       </c>
       <c r="B30" t="s">
-        <v>9892</v>
+        <v>10708</v>
       </c>
       <c r="C30" t="s">
-        <v>9979</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9851</v>
+        <v>10667</v>
       </c>
       <c r="B31" t="s">
-        <v>9893</v>
+        <v>10709</v>
       </c>
       <c r="C31" t="s">
-        <v>9980</v>
+        <v>10796</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B32" t="s">
-        <v>9894</v>
+        <v>10710</v>
       </c>
       <c r="C32" t="s">
-        <v>9981</v>
+        <v>10797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B33" t="s">
-        <v>9895</v>
+        <v>10711</v>
       </c>
       <c r="C33" t="s">
-        <v>9982</v>
+        <v>10798</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B34" t="s">
-        <v>9896</v>
+        <v>10712</v>
       </c>
       <c r="C34" t="s">
-        <v>9983</v>
+        <v>10799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B35" t="s">
-        <v>9897</v>
+        <v>10713</v>
       </c>
       <c r="C35" t="s">
-        <v>9984</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B36" t="s">
-        <v>9898</v>
+        <v>10714</v>
       </c>
       <c r="C36" t="s">
-        <v>9985</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B37" t="s">
-        <v>9899</v>
+        <v>10715</v>
       </c>
       <c r="C37" t="s">
-        <v>9986</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B38" t="s">
-        <v>9900</v>
+        <v>10716</v>
       </c>
       <c r="C38" t="s">
-        <v>9987</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B39" t="s">
-        <v>9901</v>
+        <v>10717</v>
       </c>
       <c r="C39" t="s">
-        <v>9988</v>
+        <v>10804</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B40" t="s">
-        <v>9902</v>
+        <v>10718</v>
       </c>
       <c r="C40" t="s">
-        <v>9989</v>
+        <v>10805</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B41" t="s">
-        <v>9903</v>
+        <v>10719</v>
       </c>
       <c r="C41" t="s">
-        <v>9990</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B42" t="s">
-        <v>9904</v>
+        <v>10720</v>
       </c>
       <c r="C42" t="s">
-        <v>9991</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B43" t="s">
-        <v>9905</v>
+        <v>10721</v>
       </c>
       <c r="C43" t="s">
-        <v>9992</v>
+        <v>10808</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B44" t="s">
-        <v>9906</v>
+        <v>10722</v>
       </c>
       <c r="C44" t="s">
-        <v>9993</v>
+        <v>10809</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B45" t="s">
-        <v>9907</v>
+        <v>10723</v>
       </c>
       <c r="C45" t="s">
-        <v>9994</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9852</v>
+        <v>10668</v>
       </c>
       <c r="B46" t="s">
-        <v>9908</v>
+        <v>10724</v>
       </c>
       <c r="C46" t="s">
-        <v>9995</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9853</v>
+        <v>10669</v>
       </c>
       <c r="B47" t="s">
-        <v>9909</v>
+        <v>10725</v>
       </c>
       <c r="C47" t="s">
-        <v>9996</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9853</v>
+        <v>10669</v>
       </c>
       <c r="B48" t="s">
-        <v>9910</v>
+        <v>10726</v>
       </c>
       <c r="C48" t="s">
-        <v>9997</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9854</v>
+        <v>10670</v>
       </c>
       <c r="B49" t="s">
-        <v>9910</v>
+        <v>10726</v>
       </c>
       <c r="C49" t="s">
-        <v>9998</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9854</v>
+        <v>10670</v>
       </c>
       <c r="B50" t="s">
-        <v>9911</v>
+        <v>10727</v>
       </c>
       <c r="C50" t="s">
-        <v>9999</v>
+        <v>10815</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9854</v>
+        <v>10670</v>
       </c>
       <c r="B51" t="s">
-        <v>9912</v>
+        <v>10728</v>
       </c>
       <c r="C51" t="s">
-        <v>10000</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B52" t="s">
-        <v>9913</v>
+        <v>10729</v>
       </c>
       <c r="C52" t="s">
-        <v>10001</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B53" t="s">
-        <v>9914</v>
+        <v>10730</v>
       </c>
       <c r="C53" t="s">
-        <v>10002</v>
+        <v>10818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B54" t="s">
-        <v>9915</v>
+        <v>10731</v>
       </c>
       <c r="C54" t="s">
-        <v>10003</v>
+        <v>10819</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B55" t="s">
-        <v>9916</v>
+        <v>10732</v>
       </c>
       <c r="C55" t="s">
-        <v>10004</v>
+        <v>10820</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B56" t="s">
-        <v>9917</v>
+        <v>10733</v>
       </c>
       <c r="C56" t="s">
-        <v>10005</v>
+        <v>10821</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B57" t="s">
-        <v>9918</v>
+        <v>10734</v>
       </c>
       <c r="C57" t="s">
-        <v>10006</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B58" t="s">
-        <v>9919</v>
+        <v>10735</v>
       </c>
       <c r="C58" t="s">
-        <v>10007</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B59" t="s">
-        <v>9920</v>
+        <v>10736</v>
       </c>
       <c r="C59" t="s">
-        <v>10008</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B60" t="s">
-        <v>9921</v>
+        <v>10737</v>
       </c>
       <c r="C60" t="s">
-        <v>10009</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B61" t="s">
-        <v>9922</v>
+        <v>10738</v>
       </c>
       <c r="C61" t="s">
-        <v>10010</v>
+        <v>10826</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B62" t="s">
-        <v>9923</v>
+        <v>10739</v>
       </c>
       <c r="C62" t="s">
-        <v>10011</v>
+        <v>10827</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B63" t="s">
-        <v>9924</v>
+        <v>10740</v>
       </c>
       <c r="C63" t="s">
-        <v>10012</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B64" t="s">
-        <v>9925</v>
+        <v>10741</v>
       </c>
       <c r="C64" t="s">
-        <v>10013</v>
+        <v>10829</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B65" t="s">
-        <v>9926</v>
+        <v>10742</v>
       </c>
       <c r="C65" t="s">
-        <v>10014</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B66" t="s">
-        <v>9927</v>
+        <v>10743</v>
       </c>
       <c r="C66" t="s">
-        <v>10015</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9855</v>
+        <v>10671</v>
       </c>
       <c r="B67" t="s">
-        <v>9928</v>
+        <v>10744</v>
       </c>
       <c r="C67" t="s">
-        <v>10016</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9856</v>
+        <v>10672</v>
       </c>
       <c r="B68" t="s">
-        <v>9929</v>
+        <v>10745</v>
       </c>
       <c r="C68" t="s">
-        <v>10017</v>
+        <v>10833</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9856</v>
+        <v>10672</v>
       </c>
       <c r="B69" t="s">
-        <v>9930</v>
+        <v>10746</v>
       </c>
       <c r="C69" t="s">
-        <v>10018</v>
+        <v>10834</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9857</v>
+        <v>10673</v>
       </c>
       <c r="B70" t="s">
-        <v>9931</v>
+        <v>10747</v>
       </c>
       <c r="C70" t="s">
-        <v>10019</v>
+        <v>10835</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9857</v>
+        <v>10673</v>
       </c>
       <c r="B71" t="s">
-        <v>9932</v>
+        <v>10748</v>
       </c>
       <c r="C71" t="s">
-        <v>10020</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9858</v>
+        <v>10674</v>
       </c>
       <c r="B72" t="s">
-        <v>9933</v>
+        <v>10749</v>
       </c>
       <c r="C72" t="s">
-        <v>10021</v>
+        <v>10837</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9858</v>
+        <v>10674</v>
       </c>
       <c r="B73" t="s">
-        <v>9934</v>
+        <v>10750</v>
       </c>
       <c r="C73" t="s">
-        <v>10022</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9859</v>
+        <v>10675</v>
       </c>
       <c r="B74" t="s">
-        <v>9935</v>
+        <v>10751</v>
       </c>
       <c r="C74" t="s">
-        <v>10023</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>9859</v>
+        <v>10675</v>
       </c>
       <c r="B75" t="s">
-        <v>9936</v>
+        <v>10752</v>
       </c>
       <c r="C75" t="s">
-        <v>10024</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>9860</v>
+        <v>10676</v>
       </c>
       <c r="B76" t="s">
-        <v>9937</v>
+        <v>10753</v>
       </c>
       <c r="C76" t="s">
-        <v>10025</v>
+        <v>10841</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9860</v>
+        <v>10676</v>
       </c>
       <c r="B77" t="s">
-        <v>9938</v>
+        <v>10754</v>
       </c>
       <c r="C77" t="s">
-        <v>10026</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9860</v>
+        <v>10676</v>
       </c>
       <c r="B78" t="s">
-        <v>9939</v>
+        <v>10755</v>
       </c>
       <c r="C78" t="s">
-        <v>10027</v>
+        <v>10843</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>9861</v>
+        <v>10677</v>
       </c>
       <c r="B79" t="s">
-        <v>9940</v>
+        <v>10756</v>
       </c>
       <c r="C79" t="s">
-        <v>10028</v>
+        <v>10844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>9861</v>
+        <v>10677</v>
       </c>
       <c r="B80" t="s">
-        <v>9941</v>
+        <v>10757</v>
       </c>
       <c r="C80" t="s">
-        <v>10029</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9862</v>
+        <v>10678</v>
       </c>
       <c r="B81" t="s">
-        <v>9942</v>
+        <v>10758</v>
       </c>
       <c r="C81" t="s">
-        <v>10030</v>
+        <v>10846</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>9862</v>
+        <v>10678</v>
       </c>
       <c r="B82" t="s">
-        <v>9943</v>
+        <v>10759</v>
       </c>
       <c r="C82" t="s">
-        <v>10031</v>
+        <v>10847</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9862</v>
+        <v>10678</v>
       </c>
       <c r="B83" t="s">
-        <v>9944</v>
+        <v>10760</v>
       </c>
       <c r="C83" t="s">
-        <v>10032</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9862</v>
+        <v>10678</v>
       </c>
       <c r="B84" t="s">
-        <v>9945</v>
+        <v>10761</v>
       </c>
       <c r="C84" t="s">
-        <v>10033</v>
+        <v>10849</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9862</v>
+        <v>10678</v>
       </c>
       <c r="B85" t="s">
-        <v>9946</v>
+        <v>10762</v>
       </c>
       <c r="C85" t="s">
-        <v>10034</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>9863</v>
+        <v>10679</v>
       </c>
       <c r="B86" t="s">
-        <v>9947</v>
+        <v>10763</v>
       </c>
       <c r="C86" t="s">
-        <v>10035</v>
+        <v>10851</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>9863</v>
+        <v>10679</v>
       </c>
       <c r="B87" t="s">
-        <v>9948</v>
+        <v>10764</v>
       </c>
       <c r="C87" t="s">
-        <v>10036</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>9863</v>
+        <v>10679</v>
       </c>
       <c r="B88" t="s">
-        <v>9949</v>
+        <v>10765</v>
       </c>
       <c r="C88" t="s">
-        <v>10037</v>
+        <v>10853</v>
       </c>
     </row>
   </sheetData>
